--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A15C332-DCA4-4F66-A725-256DA4FF6F23}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D5C0B3-D91F-4FE0-B6E7-FCB4CA41FF65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="205">
   <si>
     <t>sheet名</t>
   </si>
@@ -445,10 +445,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>配置各道具的名字图标描述等信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击晶片S1</t>
   </si>
   <si>
@@ -746,6 +742,18 @@
   </si>
   <si>
     <t>行ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置各道具的名字图标描述等信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置各道具的名字图标描述等信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1253,7 +1261,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1295,21 +1303,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="G2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1328,7 +1355,7 @@
   <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1369,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1368,7 +1395,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1394,7 +1421,7 @@
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1429,7 +1456,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1455,7 +1482,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
@@ -1481,7 +1508,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -1507,7 +1534,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" s="6">
         <v>3</v>
@@ -1533,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -1559,7 +1586,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="6">
         <v>4</v>
@@ -1585,7 +1612,7 @@
         <v>96</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -1611,7 +1638,7 @@
         <v>94</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="6">
         <v>4</v>
@@ -1637,7 +1664,7 @@
         <v>95</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E12" s="6">
         <v>4</v>
@@ -1663,7 +1690,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="6">
         <v>5</v>
@@ -1689,7 +1716,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -1713,7 +1740,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -1737,7 +1764,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -1761,7 +1788,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -1785,7 +1812,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -1809,7 +1836,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -1833,7 +1860,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" s="6">
         <v>2</v>
@@ -1857,7 +1884,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21" s="6">
         <v>2</v>
@@ -1881,7 +1908,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="6">
         <v>2</v>
@@ -1905,7 +1932,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -1929,7 +1956,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" s="6">
         <v>2</v>
@@ -1953,7 +1980,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E25" s="6">
         <v>2</v>
@@ -1977,7 +2004,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E26" s="6">
         <v>2</v>
@@ -2001,7 +2028,7 @@
         <v>46</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E27" s="6">
         <v>2</v>
@@ -2025,7 +2052,7 @@
         <v>47</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E28" s="6">
         <v>2</v>
@@ -2049,7 +2076,7 @@
         <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
@@ -2073,7 +2100,7 @@
         <v>49</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
@@ -2097,7 +2124,7 @@
         <v>50</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E31" s="6">
         <v>2</v>
@@ -2121,7 +2148,7 @@
         <v>51</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E32" s="6">
         <v>3</v>
@@ -2145,7 +2172,7 @@
         <v>52</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E33" s="6">
         <v>3</v>
@@ -2169,7 +2196,7 @@
         <v>53</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E34" s="6">
         <v>3</v>
@@ -2193,7 +2220,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E35" s="6">
         <v>3</v>
@@ -2217,7 +2244,7 @@
         <v>55</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E36" s="6">
         <v>3</v>
@@ -2241,7 +2268,7 @@
         <v>56</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E37" s="6">
         <v>3</v>
@@ -2265,7 +2292,7 @@
         <v>57</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E38" s="6">
         <v>3</v>
@@ -2289,7 +2316,7 @@
         <v>58</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E39" s="6">
         <v>3</v>
@@ -2313,7 +2340,7 @@
         <v>59</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E40" s="6">
         <v>3</v>
@@ -2337,7 +2364,7 @@
         <v>60</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E41" s="6">
         <v>3</v>
@@ -2361,7 +2388,7 @@
         <v>61</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E42" s="6">
         <v>3</v>
@@ -2385,7 +2412,7 @@
         <v>62</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E43" s="6">
         <v>3</v>
@@ -2409,7 +2436,7 @@
         <v>63</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E44" s="6">
         <v>3</v>
@@ -2433,7 +2460,7 @@
         <v>64</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E45" s="6">
         <v>3</v>
@@ -2457,7 +2484,7 @@
         <v>65</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E46" s="6">
         <v>3</v>
@@ -2481,7 +2508,7 @@
         <v>66</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="6">
         <v>3</v>
@@ -2505,7 +2532,7 @@
         <v>67</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E48" s="6">
         <v>3</v>
@@ -2529,7 +2556,7 @@
         <v>68</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E49" s="6">
         <v>3</v>
@@ -2553,7 +2580,7 @@
         <v>69</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E50" s="6">
         <v>4</v>
@@ -2577,7 +2604,7 @@
         <v>70</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E51" s="6">
         <v>4</v>
@@ -2601,7 +2628,7 @@
         <v>71</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E52" s="6">
         <v>4</v>
@@ -2625,7 +2652,7 @@
         <v>72</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E53" s="6">
         <v>4</v>
@@ -2649,7 +2676,7 @@
         <v>73</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E54" s="6">
         <v>4</v>
@@ -2673,7 +2700,7 @@
         <v>74</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E55" s="6">
         <v>4</v>
@@ -2697,7 +2724,7 @@
         <v>75</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E56" s="6">
         <v>4</v>
@@ -2721,7 +2748,7 @@
         <v>76</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E57" s="6">
         <v>4</v>
@@ -2745,7 +2772,7 @@
         <v>77</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E58" s="6">
         <v>4</v>
@@ -2769,7 +2796,7 @@
         <v>78</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E59" s="6">
         <v>4</v>
@@ -2793,7 +2820,7 @@
         <v>79</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E60" s="6">
         <v>4</v>
@@ -2817,7 +2844,7 @@
         <v>80</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E61" s="6">
         <v>4</v>
@@ -2841,7 +2868,7 @@
         <v>81</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E62" s="6">
         <v>4</v>
@@ -2865,7 +2892,7 @@
         <v>82</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E63" s="6">
         <v>4</v>
@@ -2889,7 +2916,7 @@
         <v>83</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E64" s="6">
         <v>4</v>
@@ -2913,7 +2940,7 @@
         <v>84</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E65" s="6">
         <v>4</v>
@@ -2937,7 +2964,7 @@
         <v>85</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E66" s="6">
         <v>4</v>
@@ -2961,7 +2988,7 @@
         <v>86</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E67" s="6">
         <v>4</v>
@@ -2985,7 +3012,7 @@
         <v>87</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E68" s="6">
         <v>5</v>
@@ -3009,7 +3036,7 @@
         <v>88</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E69" s="6">
         <v>5</v>
@@ -3033,7 +3060,7 @@
         <v>89</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E70" s="6">
         <v>5</v>
@@ -3057,7 +3084,7 @@
         <v>90</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E71" s="6">
         <v>5</v>
@@ -3081,7 +3108,7 @@
         <v>91</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E72" s="6">
         <v>5</v>
@@ -3105,7 +3132,7 @@
         <v>92</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E73" s="6">
         <v>5</v>
@@ -3126,10 +3153,10 @@
         <v>10001</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E74" s="6">
         <v>2</v>
@@ -3150,10 +3177,10 @@
         <v>10002</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E75" s="6">
         <v>2</v>
@@ -3174,10 +3201,10 @@
         <v>10003</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E76" s="6">
         <v>2</v>
@@ -3198,10 +3225,10 @@
         <v>10004</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E77" s="6">
         <v>2</v>
@@ -3222,10 +3249,10 @@
         <v>10005</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E78" s="6">
         <v>2</v>
@@ -3246,10 +3273,10 @@
         <v>10006</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E79" s="6">
         <v>2</v>
@@ -3270,10 +3297,10 @@
         <v>10007</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E80" s="6">
         <v>2</v>
@@ -3294,10 +3321,10 @@
         <v>10008</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E81" s="6">
         <v>2</v>
@@ -3318,10 +3345,10 @@
         <v>10009</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E82" s="6">
         <v>2</v>
@@ -3342,10 +3369,10 @@
         <v>10010</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E83" s="6">
         <v>2</v>
@@ -3366,10 +3393,10 @@
         <v>10011</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E84" s="6">
         <v>2</v>
@@ -3390,10 +3417,10 @@
         <v>10012</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E85" s="6">
         <v>2</v>
@@ -3414,10 +3441,10 @@
         <v>10013</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E86" s="6">
         <v>2</v>
@@ -3438,10 +3465,10 @@
         <v>10101</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E87" s="6">
         <v>2</v>
@@ -3462,10 +3489,10 @@
         <v>10102</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E88" s="6">
         <v>2</v>
@@ -3486,10 +3513,10 @@
         <v>10103</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E89" s="6">
         <v>2</v>
@@ -3510,10 +3537,10 @@
         <v>10104</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E90" s="6">
         <v>2</v>
@@ -3534,10 +3561,10 @@
         <v>10105</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E91" s="6">
         <v>2</v>
@@ -3558,10 +3585,10 @@
         <v>10106</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E92" s="6">
         <v>2</v>
@@ -3582,10 +3609,10 @@
         <v>10107</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E93" s="6">
         <v>2</v>
@@ -3606,10 +3633,10 @@
         <v>10108</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E94" s="6">
         <v>2</v>
@@ -3630,10 +3657,10 @@
         <v>10109</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E95" s="6">
         <v>2</v>
@@ -3654,10 +3681,10 @@
         <v>10110</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E96" s="6">
         <v>2</v>
@@ -3678,10 +3705,10 @@
         <v>10111</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E97" s="6">
         <v>2</v>
@@ -3702,10 +3729,10 @@
         <v>10112</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E98" s="6">
         <v>2</v>
@@ -3726,10 +3753,10 @@
         <v>10113</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E99" s="6">
         <v>2</v>
@@ -3750,10 +3777,10 @@
         <v>10201</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E100" s="6">
         <v>3</v>
@@ -3774,10 +3801,10 @@
         <v>10202</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E101" s="6">
         <v>3</v>
@@ -3798,10 +3825,10 @@
         <v>10203</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E102" s="6">
         <v>3</v>
@@ -3822,10 +3849,10 @@
         <v>10204</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E103" s="6">
         <v>3</v>
@@ -3846,10 +3873,10 @@
         <v>10205</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E104" s="6">
         <v>3</v>
@@ -3870,10 +3897,10 @@
         <v>10206</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E105" s="6">
         <v>3</v>
@@ -3894,10 +3921,10 @@
         <v>10207</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E106" s="6">
         <v>3</v>
@@ -3918,10 +3945,10 @@
         <v>10208</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E107" s="6">
         <v>3</v>
@@ -3942,10 +3969,10 @@
         <v>10209</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E108" s="6">
         <v>3</v>
@@ -3966,10 +3993,10 @@
         <v>10210</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E109" s="6">
         <v>3</v>
@@ -3990,10 +4017,10 @@
         <v>10211</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E110" s="6">
         <v>3</v>
@@ -4014,10 +4041,10 @@
         <v>10212</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E111" s="6">
         <v>3</v>
@@ -4038,10 +4065,10 @@
         <v>10213</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E112" s="6">
         <v>3</v>
@@ -4062,10 +4089,10 @@
         <v>10301</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E113" s="6">
         <v>3</v>
@@ -4086,10 +4113,10 @@
         <v>10302</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E114" s="6">
         <v>3</v>
@@ -4110,10 +4137,10 @@
         <v>10303</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E115" s="6">
         <v>3</v>
@@ -4134,10 +4161,10 @@
         <v>10304</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E116" s="6">
         <v>3</v>
@@ -4158,10 +4185,10 @@
         <v>10305</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E117" s="6">
         <v>3</v>
@@ -4182,10 +4209,10 @@
         <v>10306</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E118" s="6">
         <v>3</v>
@@ -4206,10 +4233,10 @@
         <v>10307</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E119" s="6">
         <v>3</v>
@@ -4230,10 +4257,10 @@
         <v>10308</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E120" s="6">
         <v>3</v>
@@ -4254,10 +4281,10 @@
         <v>10309</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E121" s="6">
         <v>3</v>
@@ -4278,10 +4305,10 @@
         <v>10310</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E122" s="6">
         <v>3</v>
@@ -4302,10 +4329,10 @@
         <v>10311</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E123" s="6">
         <v>3</v>
@@ -4326,10 +4353,10 @@
         <v>10312</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E124" s="6">
         <v>3</v>
@@ -4350,10 +4377,10 @@
         <v>10313</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E125" s="6">
         <v>3</v>
@@ -4374,10 +4401,10 @@
         <v>10401</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E126" s="6">
         <v>4</v>
@@ -4398,10 +4425,10 @@
         <v>10402</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E127" s="6">
         <v>4</v>
@@ -4422,10 +4449,10 @@
         <v>10403</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E128" s="6">
         <v>4</v>
@@ -4446,10 +4473,10 @@
         <v>10404</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E129" s="6">
         <v>4</v>
@@ -4470,10 +4497,10 @@
         <v>10405</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E130" s="6">
         <v>4</v>
@@ -4494,10 +4521,10 @@
         <v>10406</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E131" s="6">
         <v>4</v>
@@ -4518,10 +4545,10 @@
         <v>10407</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E132" s="6">
         <v>4</v>
@@ -4542,10 +4569,10 @@
         <v>10408</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E133" s="6">
         <v>4</v>
@@ -4566,10 +4593,10 @@
         <v>10409</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E134" s="6">
         <v>4</v>
@@ -4590,10 +4617,10 @@
         <v>10410</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E135" s="6">
         <v>4</v>
@@ -4614,10 +4641,10 @@
         <v>10411</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E136" s="6">
         <v>4</v>
@@ -4638,10 +4665,10 @@
         <v>10412</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E137" s="6">
         <v>4</v>
@@ -4662,10 +4689,10 @@
         <v>10413</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E138" s="6">
         <v>4</v>
@@ -4686,10 +4713,10 @@
         <v>10501</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E139" s="6">
         <v>4</v>
@@ -4710,10 +4737,10 @@
         <v>10502</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E140" s="6">
         <v>4</v>
@@ -4734,10 +4761,10 @@
         <v>10503</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E141" s="6">
         <v>4</v>
@@ -4758,10 +4785,10 @@
         <v>10504</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E142" s="6">
         <v>4</v>
@@ -4782,10 +4809,10 @@
         <v>10505</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E143" s="6">
         <v>4</v>
@@ -4806,10 +4833,10 @@
         <v>10506</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E144" s="6">
         <v>4</v>
@@ -4830,10 +4857,10 @@
         <v>10507</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E145" s="6">
         <v>4</v>
@@ -4854,10 +4881,10 @@
         <v>10508</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E146" s="6">
         <v>4</v>
@@ -4878,10 +4905,10 @@
         <v>10509</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E147" s="6">
         <v>4</v>
@@ -4902,10 +4929,10 @@
         <v>10510</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E148" s="6">
         <v>4</v>
@@ -4926,10 +4953,10 @@
         <v>10511</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E149" s="6">
         <v>4</v>
@@ -4950,10 +4977,10 @@
         <v>10512</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E150" s="6">
         <v>4</v>
@@ -4974,10 +5001,10 @@
         <v>10513</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E151" s="6">
         <v>4</v>
@@ -4998,10 +5025,10 @@
         <v>10601</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E152" s="6">
         <v>5</v>
@@ -5022,10 +5049,10 @@
         <v>10602</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E153" s="6">
         <v>5</v>
@@ -5046,10 +5073,10 @@
         <v>10603</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E154" s="6">
         <v>5</v>
@@ -5070,10 +5097,10 @@
         <v>10604</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E155" s="6">
         <v>5</v>
@@ -5094,10 +5121,10 @@
         <v>10605</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E156" s="6">
         <v>5</v>
@@ -5118,10 +5145,10 @@
         <v>10606</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E157" s="6">
         <v>5</v>
@@ -5142,10 +5169,10 @@
         <v>10607</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E158" s="6">
         <v>5</v>
@@ -5166,10 +5193,10 @@
         <v>10608</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E159" s="6">
         <v>5</v>
@@ -5190,10 +5217,10 @@
         <v>10609</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E160" s="6">
         <v>5</v>
@@ -5214,10 +5241,10 @@
         <v>10610</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E161" s="6">
         <v>5</v>
@@ -5238,10 +5265,10 @@
         <v>10611</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E162" s="6">
         <v>5</v>
@@ -5262,10 +5289,10 @@
         <v>10612</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E163" s="6">
         <v>5</v>
@@ -5286,10 +5313,10 @@
         <v>10613</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E164" s="6">
         <v>5</v>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D5C0B3-D91F-4FE0-B6E7-FCB4CA41FF65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EDB53B-3D45-4E17-8474-E1E1FFCD7FAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="204">
   <si>
     <t>sheet名</t>
   </si>
@@ -722,10 +722,6 @@
   </si>
   <si>
     <t>幸运晶片S7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[nil]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1303,17 +1299,17 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -1325,16 +1321,16 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -1355,7 +1351,7 @@
   <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1364,12 +1360,12 @@
     <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="58.125" customWidth="1"/>
+    <col min="8" max="8" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1395,7 +1391,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1421,7 +1417,7 @@
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1455,8 +1451,9 @@
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>197</v>
+      <c r="D4" s="6" t="str">
+        <f t="shared" ref="D4:D8" si="0">"item_"&amp;B4</f>
+        <v>item_1</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1481,8 +1478,9 @@
       <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>197</v>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>item_2</v>
       </c>
       <c r="E5" s="6">
         <v>3</v>
@@ -1507,8 +1505,9 @@
       <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>197</v>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>item_11</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -1533,8 +1532,9 @@
       <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>197</v>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>item_12</v>
       </c>
       <c r="E7" s="6">
         <v>3</v>
@@ -1559,8 +1559,9 @@
       <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>197</v>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>item_13</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -1585,8 +1586,9 @@
       <c r="C9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>197</v>
+      <c r="D9" s="6" t="str">
+        <f>"item_"&amp;B9</f>
+        <v>item_14</v>
       </c>
       <c r="E9" s="6">
         <v>4</v>
@@ -1611,8 +1613,9 @@
       <c r="C10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>197</v>
+      <c r="D10" s="6" t="str">
+        <f t="shared" ref="D10:D73" si="1">"item_"&amp;B10</f>
+        <v>item_15</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -1637,8 +1640,9 @@
       <c r="C11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>197</v>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_16</v>
       </c>
       <c r="E11" s="6">
         <v>4</v>
@@ -1663,8 +1667,9 @@
       <c r="C12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>197</v>
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_17</v>
       </c>
       <c r="E12" s="6">
         <v>4</v>
@@ -1689,8 +1694,9 @@
       <c r="C13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>197</v>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_18</v>
       </c>
       <c r="E13" s="6">
         <v>5</v>
@@ -1715,8 +1721,9 @@
       <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>197</v>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1001</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
@@ -1739,8 +1746,9 @@
       <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>197</v>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1002</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -1763,8 +1771,9 @@
       <c r="C16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>197</v>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1003</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -1787,8 +1796,9 @@
       <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>197</v>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1004</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -1811,8 +1821,9 @@
       <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>197</v>
+      <c r="D18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1005</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -1835,8 +1846,9 @@
       <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>197</v>
+      <c r="D19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1006</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -1859,8 +1871,9 @@
       <c r="C20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>197</v>
+      <c r="D20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1011</v>
       </c>
       <c r="E20" s="6">
         <v>2</v>
@@ -1883,8 +1896,9 @@
       <c r="C21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>197</v>
+      <c r="D21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1012</v>
       </c>
       <c r="E21" s="6">
         <v>2</v>
@@ -1907,8 +1921,9 @@
       <c r="C22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>197</v>
+      <c r="D22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1013</v>
       </c>
       <c r="E22" s="6">
         <v>2</v>
@@ -1931,8 +1946,9 @@
       <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>197</v>
+      <c r="D23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1014</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -1955,8 +1971,9 @@
       <c r="C24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>197</v>
+      <c r="D24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1015</v>
       </c>
       <c r="E24" s="6">
         <v>2</v>
@@ -1979,8 +1996,9 @@
       <c r="C25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>197</v>
+      <c r="D25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1016</v>
       </c>
       <c r="E25" s="6">
         <v>2</v>
@@ -2003,8 +2021,9 @@
       <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>197</v>
+      <c r="D26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1021</v>
       </c>
       <c r="E26" s="6">
         <v>2</v>
@@ -2027,8 +2046,9 @@
       <c r="C27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>197</v>
+      <c r="D27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1022</v>
       </c>
       <c r="E27" s="6">
         <v>2</v>
@@ -2051,8 +2071,9 @@
       <c r="C28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>197</v>
+      <c r="D28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1023</v>
       </c>
       <c r="E28" s="6">
         <v>2</v>
@@ -2075,8 +2096,9 @@
       <c r="C29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>197</v>
+      <c r="D29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1024</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
@@ -2099,8 +2121,9 @@
       <c r="C30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>197</v>
+      <c r="D30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1025</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
@@ -2123,8 +2146,9 @@
       <c r="C31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>197</v>
+      <c r="D31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1026</v>
       </c>
       <c r="E31" s="6">
         <v>2</v>
@@ -2147,8 +2171,9 @@
       <c r="C32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>197</v>
+      <c r="D32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1031</v>
       </c>
       <c r="E32" s="6">
         <v>3</v>
@@ -2171,8 +2196,9 @@
       <c r="C33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>197</v>
+      <c r="D33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1032</v>
       </c>
       <c r="E33" s="6">
         <v>3</v>
@@ -2195,8 +2221,9 @@
       <c r="C34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>197</v>
+      <c r="D34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1033</v>
       </c>
       <c r="E34" s="6">
         <v>3</v>
@@ -2219,8 +2246,9 @@
       <c r="C35" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>197</v>
+      <c r="D35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1034</v>
       </c>
       <c r="E35" s="6">
         <v>3</v>
@@ -2243,8 +2271,9 @@
       <c r="C36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>197</v>
+      <c r="D36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1035</v>
       </c>
       <c r="E36" s="6">
         <v>3</v>
@@ -2267,8 +2296,9 @@
       <c r="C37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>197</v>
+      <c r="D37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1036</v>
       </c>
       <c r="E37" s="6">
         <v>3</v>
@@ -2291,8 +2321,9 @@
       <c r="C38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>197</v>
+      <c r="D38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1041</v>
       </c>
       <c r="E38" s="6">
         <v>3</v>
@@ -2315,8 +2346,9 @@
       <c r="C39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>197</v>
+      <c r="D39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1042</v>
       </c>
       <c r="E39" s="6">
         <v>3</v>
@@ -2339,8 +2371,9 @@
       <c r="C40" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>197</v>
+      <c r="D40" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1043</v>
       </c>
       <c r="E40" s="6">
         <v>3</v>
@@ -2363,8 +2396,9 @@
       <c r="C41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>197</v>
+      <c r="D41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1044</v>
       </c>
       <c r="E41" s="6">
         <v>3</v>
@@ -2387,8 +2421,9 @@
       <c r="C42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>197</v>
+      <c r="D42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1045</v>
       </c>
       <c r="E42" s="6">
         <v>3</v>
@@ -2411,8 +2446,9 @@
       <c r="C43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>197</v>
+      <c r="D43" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1046</v>
       </c>
       <c r="E43" s="6">
         <v>3</v>
@@ -2435,8 +2471,9 @@
       <c r="C44" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>197</v>
+      <c r="D44" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1051</v>
       </c>
       <c r="E44" s="6">
         <v>3</v>
@@ -2459,8 +2496,9 @@
       <c r="C45" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>197</v>
+      <c r="D45" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1052</v>
       </c>
       <c r="E45" s="6">
         <v>3</v>
@@ -2483,8 +2521,9 @@
       <c r="C46" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>197</v>
+      <c r="D46" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1053</v>
       </c>
       <c r="E46" s="6">
         <v>3</v>
@@ -2507,8 +2546,9 @@
       <c r="C47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>197</v>
+      <c r="D47" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1054</v>
       </c>
       <c r="E47" s="6">
         <v>3</v>
@@ -2531,8 +2571,9 @@
       <c r="C48" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>197</v>
+      <c r="D48" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1055</v>
       </c>
       <c r="E48" s="6">
         <v>3</v>
@@ -2555,8 +2596,9 @@
       <c r="C49" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>197</v>
+      <c r="D49" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1056</v>
       </c>
       <c r="E49" s="6">
         <v>3</v>
@@ -2579,8 +2621,9 @@
       <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>197</v>
+      <c r="D50" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1061</v>
       </c>
       <c r="E50" s="6">
         <v>4</v>
@@ -2603,8 +2646,9 @@
       <c r="C51" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>197</v>
+      <c r="D51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1062</v>
       </c>
       <c r="E51" s="6">
         <v>4</v>
@@ -2627,8 +2671,9 @@
       <c r="C52" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>197</v>
+      <c r="D52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1063</v>
       </c>
       <c r="E52" s="6">
         <v>4</v>
@@ -2651,8 +2696,9 @@
       <c r="C53" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>197</v>
+      <c r="D53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1064</v>
       </c>
       <c r="E53" s="6">
         <v>4</v>
@@ -2675,8 +2721,9 @@
       <c r="C54" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>197</v>
+      <c r="D54" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1065</v>
       </c>
       <c r="E54" s="6">
         <v>4</v>
@@ -2699,8 +2746,9 @@
       <c r="C55" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>197</v>
+      <c r="D55" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1066</v>
       </c>
       <c r="E55" s="6">
         <v>4</v>
@@ -2723,8 +2771,9 @@
       <c r="C56" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>197</v>
+      <c r="D56" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1071</v>
       </c>
       <c r="E56" s="6">
         <v>4</v>
@@ -2747,8 +2796,9 @@
       <c r="C57" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>197</v>
+      <c r="D57" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1072</v>
       </c>
       <c r="E57" s="6">
         <v>4</v>
@@ -2771,8 +2821,9 @@
       <c r="C58" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>197</v>
+      <c r="D58" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1073</v>
       </c>
       <c r="E58" s="6">
         <v>4</v>
@@ -2795,8 +2846,9 @@
       <c r="C59" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>197</v>
+      <c r="D59" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1074</v>
       </c>
       <c r="E59" s="6">
         <v>4</v>
@@ -2819,8 +2871,9 @@
       <c r="C60" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>197</v>
+      <c r="D60" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1075</v>
       </c>
       <c r="E60" s="6">
         <v>4</v>
@@ -2843,8 +2896,9 @@
       <c r="C61" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>197</v>
+      <c r="D61" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1076</v>
       </c>
       <c r="E61" s="6">
         <v>4</v>
@@ -2867,8 +2921,9 @@
       <c r="C62" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>197</v>
+      <c r="D62" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1081</v>
       </c>
       <c r="E62" s="6">
         <v>4</v>
@@ -2891,8 +2946,9 @@
       <c r="C63" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>197</v>
+      <c r="D63" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1082</v>
       </c>
       <c r="E63" s="6">
         <v>4</v>
@@ -2915,8 +2971,9 @@
       <c r="C64" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>197</v>
+      <c r="D64" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1083</v>
       </c>
       <c r="E64" s="6">
         <v>4</v>
@@ -2939,8 +2996,9 @@
       <c r="C65" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>197</v>
+      <c r="D65" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1084</v>
       </c>
       <c r="E65" s="6">
         <v>4</v>
@@ -2963,8 +3021,9 @@
       <c r="C66" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>197</v>
+      <c r="D66" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1085</v>
       </c>
       <c r="E66" s="6">
         <v>4</v>
@@ -2987,8 +3046,9 @@
       <c r="C67" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>197</v>
+      <c r="D67" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1086</v>
       </c>
       <c r="E67" s="6">
         <v>4</v>
@@ -3011,8 +3071,9 @@
       <c r="C68" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>197</v>
+      <c r="D68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1091</v>
       </c>
       <c r="E68" s="6">
         <v>5</v>
@@ -3035,8 +3096,9 @@
       <c r="C69" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>197</v>
+      <c r="D69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1092</v>
       </c>
       <c r="E69" s="6">
         <v>5</v>
@@ -3059,8 +3121,9 @@
       <c r="C70" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>197</v>
+      <c r="D70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1093</v>
       </c>
       <c r="E70" s="6">
         <v>5</v>
@@ -3083,8 +3146,9 @@
       <c r="C71" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>197</v>
+      <c r="D71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1094</v>
       </c>
       <c r="E71" s="6">
         <v>5</v>
@@ -3107,8 +3171,9 @@
       <c r="C72" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>197</v>
+      <c r="D72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1095</v>
       </c>
       <c r="E72" s="6">
         <v>5</v>
@@ -3131,8 +3196,9 @@
       <c r="C73" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>197</v>
+      <c r="D73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>item_1096</v>
       </c>
       <c r="E73" s="6">
         <v>5</v>
@@ -3155,8 +3221,9 @@
       <c r="C74" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>197</v>
+      <c r="D74" s="6" t="str">
+        <f t="shared" ref="D74:D137" si="2">"item_"&amp;B74</f>
+        <v>item_10001</v>
       </c>
       <c r="E74" s="6">
         <v>2</v>
@@ -3179,8 +3246,9 @@
       <c r="C75" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>197</v>
+      <c r="D75" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10002</v>
       </c>
       <c r="E75" s="6">
         <v>2</v>
@@ -3203,8 +3271,9 @@
       <c r="C76" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>197</v>
+      <c r="D76" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10003</v>
       </c>
       <c r="E76" s="6">
         <v>2</v>
@@ -3227,8 +3296,9 @@
       <c r="C77" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>197</v>
+      <c r="D77" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10004</v>
       </c>
       <c r="E77" s="6">
         <v>2</v>
@@ -3251,8 +3321,9 @@
       <c r="C78" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>197</v>
+      <c r="D78" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10005</v>
       </c>
       <c r="E78" s="6">
         <v>2</v>
@@ -3275,8 +3346,9 @@
       <c r="C79" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>197</v>
+      <c r="D79" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10006</v>
       </c>
       <c r="E79" s="6">
         <v>2</v>
@@ -3299,8 +3371,9 @@
       <c r="C80" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>197</v>
+      <c r="D80" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10007</v>
       </c>
       <c r="E80" s="6">
         <v>2</v>
@@ -3323,8 +3396,9 @@
       <c r="C81" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>197</v>
+      <c r="D81" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10008</v>
       </c>
       <c r="E81" s="6">
         <v>2</v>
@@ -3347,8 +3421,9 @@
       <c r="C82" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>197</v>
+      <c r="D82" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10009</v>
       </c>
       <c r="E82" s="6">
         <v>2</v>
@@ -3371,8 +3446,9 @@
       <c r="C83" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>197</v>
+      <c r="D83" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10010</v>
       </c>
       <c r="E83" s="6">
         <v>2</v>
@@ -3395,8 +3471,9 @@
       <c r="C84" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>197</v>
+      <c r="D84" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10011</v>
       </c>
       <c r="E84" s="6">
         <v>2</v>
@@ -3419,8 +3496,9 @@
       <c r="C85" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>197</v>
+      <c r="D85" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10012</v>
       </c>
       <c r="E85" s="6">
         <v>2</v>
@@ -3443,8 +3521,9 @@
       <c r="C86" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>197</v>
+      <c r="D86" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10013</v>
       </c>
       <c r="E86" s="6">
         <v>2</v>
@@ -3467,8 +3546,9 @@
       <c r="C87" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>197</v>
+      <c r="D87" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10101</v>
       </c>
       <c r="E87" s="6">
         <v>2</v>
@@ -3491,8 +3571,9 @@
       <c r="C88" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>197</v>
+      <c r="D88" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10102</v>
       </c>
       <c r="E88" s="6">
         <v>2</v>
@@ -3515,8 +3596,9 @@
       <c r="C89" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>197</v>
+      <c r="D89" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10103</v>
       </c>
       <c r="E89" s="6">
         <v>2</v>
@@ -3539,8 +3621,9 @@
       <c r="C90" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>197</v>
+      <c r="D90" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10104</v>
       </c>
       <c r="E90" s="6">
         <v>2</v>
@@ -3563,8 +3646,9 @@
       <c r="C91" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>197</v>
+      <c r="D91" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10105</v>
       </c>
       <c r="E91" s="6">
         <v>2</v>
@@ -3587,8 +3671,9 @@
       <c r="C92" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>197</v>
+      <c r="D92" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10106</v>
       </c>
       <c r="E92" s="6">
         <v>2</v>
@@ -3611,8 +3696,9 @@
       <c r="C93" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>197</v>
+      <c r="D93" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10107</v>
       </c>
       <c r="E93" s="6">
         <v>2</v>
@@ -3635,8 +3721,9 @@
       <c r="C94" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>197</v>
+      <c r="D94" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10108</v>
       </c>
       <c r="E94" s="6">
         <v>2</v>
@@ -3659,8 +3746,9 @@
       <c r="C95" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>197</v>
+      <c r="D95" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10109</v>
       </c>
       <c r="E95" s="6">
         <v>2</v>
@@ -3683,8 +3771,9 @@
       <c r="C96" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>197</v>
+      <c r="D96" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10110</v>
       </c>
       <c r="E96" s="6">
         <v>2</v>
@@ -3707,8 +3796,9 @@
       <c r="C97" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>197</v>
+      <c r="D97" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10111</v>
       </c>
       <c r="E97" s="6">
         <v>2</v>
@@ -3731,8 +3821,9 @@
       <c r="C98" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>197</v>
+      <c r="D98" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10112</v>
       </c>
       <c r="E98" s="6">
         <v>2</v>
@@ -3755,8 +3846,9 @@
       <c r="C99" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>197</v>
+      <c r="D99" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10113</v>
       </c>
       <c r="E99" s="6">
         <v>2</v>
@@ -3779,8 +3871,9 @@
       <c r="C100" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>197</v>
+      <c r="D100" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10201</v>
       </c>
       <c r="E100" s="6">
         <v>3</v>
@@ -3803,8 +3896,9 @@
       <c r="C101" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>197</v>
+      <c r="D101" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10202</v>
       </c>
       <c r="E101" s="6">
         <v>3</v>
@@ -3827,8 +3921,9 @@
       <c r="C102" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>197</v>
+      <c r="D102" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10203</v>
       </c>
       <c r="E102" s="6">
         <v>3</v>
@@ -3851,8 +3946,9 @@
       <c r="C103" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>197</v>
+      <c r="D103" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10204</v>
       </c>
       <c r="E103" s="6">
         <v>3</v>
@@ -3875,8 +3971,9 @@
       <c r="C104" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>197</v>
+      <c r="D104" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10205</v>
       </c>
       <c r="E104" s="6">
         <v>3</v>
@@ -3899,8 +3996,9 @@
       <c r="C105" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>197</v>
+      <c r="D105" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10206</v>
       </c>
       <c r="E105" s="6">
         <v>3</v>
@@ -3923,8 +4021,9 @@
       <c r="C106" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>197</v>
+      <c r="D106" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10207</v>
       </c>
       <c r="E106" s="6">
         <v>3</v>
@@ -3947,8 +4046,9 @@
       <c r="C107" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>197</v>
+      <c r="D107" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10208</v>
       </c>
       <c r="E107" s="6">
         <v>3</v>
@@ -3971,8 +4071,9 @@
       <c r="C108" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>197</v>
+      <c r="D108" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10209</v>
       </c>
       <c r="E108" s="6">
         <v>3</v>
@@ -3995,8 +4096,9 @@
       <c r="C109" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>197</v>
+      <c r="D109" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10210</v>
       </c>
       <c r="E109" s="6">
         <v>3</v>
@@ -4019,8 +4121,9 @@
       <c r="C110" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>197</v>
+      <c r="D110" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10211</v>
       </c>
       <c r="E110" s="6">
         <v>3</v>
@@ -4043,8 +4146,9 @@
       <c r="C111" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>197</v>
+      <c r="D111" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10212</v>
       </c>
       <c r="E111" s="6">
         <v>3</v>
@@ -4067,8 +4171,9 @@
       <c r="C112" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>197</v>
+      <c r="D112" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10213</v>
       </c>
       <c r="E112" s="6">
         <v>3</v>
@@ -4091,8 +4196,9 @@
       <c r="C113" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D113" s="6" t="s">
-        <v>197</v>
+      <c r="D113" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10301</v>
       </c>
       <c r="E113" s="6">
         <v>3</v>
@@ -4115,8 +4221,9 @@
       <c r="C114" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>197</v>
+      <c r="D114" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10302</v>
       </c>
       <c r="E114" s="6">
         <v>3</v>
@@ -4139,8 +4246,9 @@
       <c r="C115" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>197</v>
+      <c r="D115" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10303</v>
       </c>
       <c r="E115" s="6">
         <v>3</v>
@@ -4163,8 +4271,9 @@
       <c r="C116" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>197</v>
+      <c r="D116" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10304</v>
       </c>
       <c r="E116" s="6">
         <v>3</v>
@@ -4187,8 +4296,9 @@
       <c r="C117" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>197</v>
+      <c r="D117" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10305</v>
       </c>
       <c r="E117" s="6">
         <v>3</v>
@@ -4211,8 +4321,9 @@
       <c r="C118" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>197</v>
+      <c r="D118" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10306</v>
       </c>
       <c r="E118" s="6">
         <v>3</v>
@@ -4235,8 +4346,9 @@
       <c r="C119" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>197</v>
+      <c r="D119" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10307</v>
       </c>
       <c r="E119" s="6">
         <v>3</v>
@@ -4259,8 +4371,9 @@
       <c r="C120" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>197</v>
+      <c r="D120" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10308</v>
       </c>
       <c r="E120" s="6">
         <v>3</v>
@@ -4283,8 +4396,9 @@
       <c r="C121" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D121" s="6" t="s">
-        <v>197</v>
+      <c r="D121" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10309</v>
       </c>
       <c r="E121" s="6">
         <v>3</v>
@@ -4307,8 +4421,9 @@
       <c r="C122" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>197</v>
+      <c r="D122" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10310</v>
       </c>
       <c r="E122" s="6">
         <v>3</v>
@@ -4331,8 +4446,9 @@
       <c r="C123" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D123" s="6" t="s">
-        <v>197</v>
+      <c r="D123" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10311</v>
       </c>
       <c r="E123" s="6">
         <v>3</v>
@@ -4355,8 +4471,9 @@
       <c r="C124" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>197</v>
+      <c r="D124" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10312</v>
       </c>
       <c r="E124" s="6">
         <v>3</v>
@@ -4379,8 +4496,9 @@
       <c r="C125" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>197</v>
+      <c r="D125" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10313</v>
       </c>
       <c r="E125" s="6">
         <v>3</v>
@@ -4403,8 +4521,9 @@
       <c r="C126" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D126" s="6" t="s">
-        <v>197</v>
+      <c r="D126" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10401</v>
       </c>
       <c r="E126" s="6">
         <v>4</v>
@@ -4427,8 +4546,9 @@
       <c r="C127" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>197</v>
+      <c r="D127" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10402</v>
       </c>
       <c r="E127" s="6">
         <v>4</v>
@@ -4451,8 +4571,9 @@
       <c r="C128" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D128" s="6" t="s">
-        <v>197</v>
+      <c r="D128" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10403</v>
       </c>
       <c r="E128" s="6">
         <v>4</v>
@@ -4475,8 +4596,9 @@
       <c r="C129" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D129" s="6" t="s">
-        <v>197</v>
+      <c r="D129" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10404</v>
       </c>
       <c r="E129" s="6">
         <v>4</v>
@@ -4499,8 +4621,9 @@
       <c r="C130" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>197</v>
+      <c r="D130" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10405</v>
       </c>
       <c r="E130" s="6">
         <v>4</v>
@@ -4523,8 +4646,9 @@
       <c r="C131" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>197</v>
+      <c r="D131" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10406</v>
       </c>
       <c r="E131" s="6">
         <v>4</v>
@@ -4547,8 +4671,9 @@
       <c r="C132" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D132" s="6" t="s">
-        <v>197</v>
+      <c r="D132" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10407</v>
       </c>
       <c r="E132" s="6">
         <v>4</v>
@@ -4571,8 +4696,9 @@
       <c r="C133" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D133" s="6" t="s">
-        <v>197</v>
+      <c r="D133" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10408</v>
       </c>
       <c r="E133" s="6">
         <v>4</v>
@@ -4595,8 +4721,9 @@
       <c r="C134" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D134" s="6" t="s">
-        <v>197</v>
+      <c r="D134" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10409</v>
       </c>
       <c r="E134" s="6">
         <v>4</v>
@@ -4619,8 +4746,9 @@
       <c r="C135" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D135" s="6" t="s">
-        <v>197</v>
+      <c r="D135" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10410</v>
       </c>
       <c r="E135" s="6">
         <v>4</v>
@@ -4643,8 +4771,9 @@
       <c r="C136" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D136" s="6" t="s">
-        <v>197</v>
+      <c r="D136" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10411</v>
       </c>
       <c r="E136" s="6">
         <v>4</v>
@@ -4667,8 +4796,9 @@
       <c r="C137" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D137" s="6" t="s">
-        <v>197</v>
+      <c r="D137" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>item_10412</v>
       </c>
       <c r="E137" s="6">
         <v>4</v>
@@ -4691,8 +4821,9 @@
       <c r="C138" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>197</v>
+      <c r="D138" s="6" t="str">
+        <f t="shared" ref="D138:D164" si="3">"item_"&amp;B138</f>
+        <v>item_10413</v>
       </c>
       <c r="E138" s="6">
         <v>4</v>
@@ -4715,8 +4846,9 @@
       <c r="C139" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>197</v>
+      <c r="D139" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10501</v>
       </c>
       <c r="E139" s="6">
         <v>4</v>
@@ -4739,8 +4871,9 @@
       <c r="C140" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>197</v>
+      <c r="D140" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10502</v>
       </c>
       <c r="E140" s="6">
         <v>4</v>
@@ -4763,8 +4896,9 @@
       <c r="C141" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D141" s="6" t="s">
-        <v>197</v>
+      <c r="D141" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10503</v>
       </c>
       <c r="E141" s="6">
         <v>4</v>
@@ -4787,8 +4921,9 @@
       <c r="C142" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D142" s="6" t="s">
-        <v>197</v>
+      <c r="D142" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10504</v>
       </c>
       <c r="E142" s="6">
         <v>4</v>
@@ -4811,8 +4946,9 @@
       <c r="C143" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>197</v>
+      <c r="D143" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10505</v>
       </c>
       <c r="E143" s="6">
         <v>4</v>
@@ -4835,8 +4971,9 @@
       <c r="C144" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>197</v>
+      <c r="D144" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10506</v>
       </c>
       <c r="E144" s="6">
         <v>4</v>
@@ -4859,8 +4996,9 @@
       <c r="C145" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D145" s="6" t="s">
-        <v>197</v>
+      <c r="D145" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10507</v>
       </c>
       <c r="E145" s="6">
         <v>4</v>
@@ -4883,8 +5021,9 @@
       <c r="C146" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D146" s="6" t="s">
-        <v>197</v>
+      <c r="D146" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10508</v>
       </c>
       <c r="E146" s="6">
         <v>4</v>
@@ -4907,8 +5046,9 @@
       <c r="C147" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D147" s="6" t="s">
-        <v>197</v>
+      <c r="D147" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10509</v>
       </c>
       <c r="E147" s="6">
         <v>4</v>
@@ -4931,8 +5071,9 @@
       <c r="C148" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D148" s="6" t="s">
-        <v>197</v>
+      <c r="D148" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10510</v>
       </c>
       <c r="E148" s="6">
         <v>4</v>
@@ -4955,8 +5096,9 @@
       <c r="C149" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D149" s="6" t="s">
-        <v>197</v>
+      <c r="D149" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10511</v>
       </c>
       <c r="E149" s="6">
         <v>4</v>
@@ -4979,8 +5121,9 @@
       <c r="C150" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D150" s="6" t="s">
-        <v>197</v>
+      <c r="D150" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10512</v>
       </c>
       <c r="E150" s="6">
         <v>4</v>
@@ -5003,8 +5146,9 @@
       <c r="C151" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D151" s="6" t="s">
-        <v>197</v>
+      <c r="D151" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10513</v>
       </c>
       <c r="E151" s="6">
         <v>4</v>
@@ -5027,8 +5171,9 @@
       <c r="C152" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D152" s="6" t="s">
-        <v>197</v>
+      <c r="D152" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10601</v>
       </c>
       <c r="E152" s="6">
         <v>5</v>
@@ -5051,8 +5196,9 @@
       <c r="C153" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D153" s="6" t="s">
-        <v>197</v>
+      <c r="D153" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10602</v>
       </c>
       <c r="E153" s="6">
         <v>5</v>
@@ -5075,8 +5221,9 @@
       <c r="C154" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D154" s="6" t="s">
-        <v>197</v>
+      <c r="D154" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10603</v>
       </c>
       <c r="E154" s="6">
         <v>5</v>
@@ -5099,8 +5246,9 @@
       <c r="C155" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>197</v>
+      <c r="D155" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10604</v>
       </c>
       <c r="E155" s="6">
         <v>5</v>
@@ -5123,8 +5271,9 @@
       <c r="C156" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D156" s="6" t="s">
-        <v>197</v>
+      <c r="D156" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10605</v>
       </c>
       <c r="E156" s="6">
         <v>5</v>
@@ -5147,8 +5296,9 @@
       <c r="C157" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D157" s="6" t="s">
-        <v>197</v>
+      <c r="D157" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10606</v>
       </c>
       <c r="E157" s="6">
         <v>5</v>
@@ -5171,8 +5321,9 @@
       <c r="C158" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D158" s="6" t="s">
-        <v>197</v>
+      <c r="D158" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10607</v>
       </c>
       <c r="E158" s="6">
         <v>5</v>
@@ -5195,8 +5346,9 @@
       <c r="C159" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D159" s="6" t="s">
-        <v>197</v>
+      <c r="D159" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10608</v>
       </c>
       <c r="E159" s="6">
         <v>5</v>
@@ -5219,8 +5371,9 @@
       <c r="C160" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D160" s="6" t="s">
-        <v>197</v>
+      <c r="D160" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10609</v>
       </c>
       <c r="E160" s="6">
         <v>5</v>
@@ -5243,8 +5396,9 @@
       <c r="C161" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D161" s="6" t="s">
-        <v>197</v>
+      <c r="D161" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10610</v>
       </c>
       <c r="E161" s="6">
         <v>5</v>
@@ -5267,8 +5421,9 @@
       <c r="C162" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D162" s="6" t="s">
-        <v>197</v>
+      <c r="D162" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10611</v>
       </c>
       <c r="E162" s="6">
         <v>5</v>
@@ -5291,8 +5446,9 @@
       <c r="C163" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D163" s="6" t="s">
-        <v>197</v>
+      <c r="D163" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10612</v>
       </c>
       <c r="E163" s="6">
         <v>5</v>
@@ -5315,8 +5471,9 @@
       <c r="C164" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D164" s="6" t="s">
-        <v>197</v>
+      <c r="D164" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10613</v>
       </c>
       <c r="E164" s="6">
         <v>5</v>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20160928-3346-4B64-AF5B-CA98A2230A80}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BDB900-BC91-441B-89C2-91CBC9B514F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{9D9D5466-DDF7-483D-8206-E47DDA710F17}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{9D9D5466-DDF7-483D-8206-E47DDA710F17}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="229">
   <si>
     <t>sheet名</t>
   </si>
@@ -878,6 +878,18 @@
   </si>
   <si>
     <t>可以开出1~2阶符文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniVal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1490,22 +1502,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2934E6-EE36-4525-8F91-B89D67D36F59}">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="60.5" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>199</v>
       </c>
@@ -1519,19 +1532,22 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -1545,19 +1561,22 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>200</v>
       </c>
@@ -1571,19 +1590,22 @@
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1598,19 +1620,22 @@
         <v>item_1</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1625,19 +1650,22 @@
         <v>item_2</v>
       </c>
       <c r="E5" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1652,19 +1680,22 @@
         <v>item_11</v>
       </c>
       <c r="E6" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1679,19 +1710,22 @@
         <v>item_12</v>
       </c>
       <c r="E7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1706,19 +1740,22 @@
         <v>item_13</v>
       </c>
       <c r="E8" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1733,19 +1770,22 @@
         <v>item_14</v>
       </c>
       <c r="E9" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1760,19 +1800,22 @@
         <v>item_15</v>
       </c>
       <c r="E10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1787,19 +1830,22 @@
         <v>item_16</v>
       </c>
       <c r="E11" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1814,19 +1860,22 @@
         <v>item_17</v>
       </c>
       <c r="E12" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1841,19 +1890,22 @@
         <v>item_18</v>
       </c>
       <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -1868,19 +1920,22 @@
         <v>item_19</v>
       </c>
       <c r="E14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
       </c>
-      <c r="G14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1895,19 +1950,22 @@
         <v>item_20</v>
       </c>
       <c r="E15" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
         <v>2</v>
       </c>
-      <c r="G15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -1922,19 +1980,22 @@
         <v>item_21</v>
       </c>
       <c r="E16" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -1949,17 +2010,20 @@
         <v>item_1001</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4">
-        <v>3</v>
-      </c>
-      <c r="G17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -1974,17 +2038,20 @@
         <v>item_1002</v>
       </c>
       <c r="E18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="4">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -1999,17 +2066,20 @@
         <v>item_1003</v>
       </c>
       <c r="E19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="4">
-        <v>3</v>
-      </c>
-      <c r="G19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -2024,17 +2094,20 @@
         <v>item_1004</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="4">
-        <v>3</v>
-      </c>
-      <c r="G20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -2049,17 +2122,20 @@
         <v>item_1005</v>
       </c>
       <c r="E21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="4">
-        <v>3</v>
-      </c>
-      <c r="G21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -2074,17 +2150,20 @@
         <v>item_1006</v>
       </c>
       <c r="E22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="4">
-        <v>3</v>
-      </c>
-      <c r="G22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -2099,17 +2178,20 @@
         <v>item_1011</v>
       </c>
       <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="F23" s="4">
-        <v>3</v>
-      </c>
-      <c r="G23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -2124,17 +2206,20 @@
         <v>item_1012</v>
       </c>
       <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="F24" s="4">
-        <v>3</v>
-      </c>
-      <c r="G24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="H24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -2149,17 +2234,20 @@
         <v>item_1013</v>
       </c>
       <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
         <v>2</v>
       </c>
-      <c r="F25" s="4">
-        <v>3</v>
-      </c>
-      <c r="G25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G25" s="4">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -2174,17 +2262,20 @@
         <v>item_1014</v>
       </c>
       <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="4">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -2199,17 +2290,20 @@
         <v>item_1015</v>
       </c>
       <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
         <v>2</v>
       </c>
-      <c r="F27" s="4">
-        <v>3</v>
-      </c>
-      <c r="G27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -2224,17 +2318,20 @@
         <v>item_1016</v>
       </c>
       <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
         <v>2</v>
       </c>
-      <c r="F28" s="4">
-        <v>3</v>
-      </c>
-      <c r="G28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
+      <c r="H28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -2249,17 +2346,20 @@
         <v>item_1021</v>
       </c>
       <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="4">
-        <v>3</v>
-      </c>
-      <c r="G29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G29" s="4">
+        <v>3</v>
+      </c>
+      <c r="H29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -2274,17 +2374,20 @@
         <v>item_1022</v>
       </c>
       <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="F30" s="4">
-        <v>3</v>
-      </c>
-      <c r="G30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -2299,17 +2402,20 @@
         <v>item_1023</v>
       </c>
       <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
         <v>2</v>
       </c>
-      <c r="F31" s="4">
-        <v>3</v>
-      </c>
-      <c r="G31" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -2324,17 +2430,20 @@
         <v>item_1024</v>
       </c>
       <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
         <v>2</v>
       </c>
-      <c r="F32" s="4">
-        <v>3</v>
-      </c>
-      <c r="G32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G32" s="4">
+        <v>3</v>
+      </c>
+      <c r="H32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -2349,17 +2458,20 @@
         <v>item_1025</v>
       </c>
       <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
         <v>2</v>
       </c>
-      <c r="F33" s="4">
-        <v>3</v>
-      </c>
-      <c r="G33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G33" s="4">
+        <v>3</v>
+      </c>
+      <c r="H33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -2374,17 +2486,20 @@
         <v>item_1026</v>
       </c>
       <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
         <v>2</v>
       </c>
-      <c r="F34" s="4">
-        <v>3</v>
-      </c>
-      <c r="G34" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G34" s="4">
+        <v>3</v>
+      </c>
+      <c r="H34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -2399,17 +2514,20 @@
         <v>item_1031</v>
       </c>
       <c r="E35" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
         <v>3</v>
       </c>
-      <c r="G35" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -2424,17 +2542,20 @@
         <v>item_1032</v>
       </c>
       <c r="E36" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4">
         <v>3</v>
       </c>
-      <c r="G36" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G36" s="4">
+        <v>3</v>
+      </c>
+      <c r="H36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -2449,17 +2570,20 @@
         <v>item_1033</v>
       </c>
       <c r="E37" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
         <v>3</v>
       </c>
-      <c r="G37" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G37" s="4">
+        <v>3</v>
+      </c>
+      <c r="H37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -2474,17 +2598,20 @@
         <v>item_1034</v>
       </c>
       <c r="E38" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
         <v>3</v>
       </c>
-      <c r="G38" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G38" s="4">
+        <v>3</v>
+      </c>
+      <c r="H38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -2499,17 +2626,20 @@
         <v>item_1035</v>
       </c>
       <c r="E39" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39" s="4">
         <v>3</v>
       </c>
-      <c r="G39" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G39" s="4">
+        <v>3</v>
+      </c>
+      <c r="H39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -2524,17 +2654,20 @@
         <v>item_1036</v>
       </c>
       <c r="E40" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4">
         <v>3</v>
       </c>
-      <c r="G40" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G40" s="4">
+        <v>3</v>
+      </c>
+      <c r="H40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -2549,17 +2682,20 @@
         <v>item_1041</v>
       </c>
       <c r="E41" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
       </c>
-      <c r="G41" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G41" s="4">
+        <v>3</v>
+      </c>
+      <c r="H41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -2574,17 +2710,20 @@
         <v>item_1042</v>
       </c>
       <c r="E42" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42" s="4">
         <v>3</v>
       </c>
-      <c r="G42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G42" s="4">
+        <v>3</v>
+      </c>
+      <c r="H42" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -2599,17 +2738,20 @@
         <v>item_1043</v>
       </c>
       <c r="E43" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43" s="4">
         <v>3</v>
       </c>
-      <c r="G43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G43" s="4">
+        <v>3</v>
+      </c>
+      <c r="H43" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -2624,17 +2766,20 @@
         <v>item_1044</v>
       </c>
       <c r="E44" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44" s="4">
         <v>3</v>
       </c>
-      <c r="G44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G44" s="4">
+        <v>3</v>
+      </c>
+      <c r="H44" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -2649,17 +2794,20 @@
         <v>item_1045</v>
       </c>
       <c r="E45" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4">
         <v>3</v>
       </c>
-      <c r="G45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G45" s="4">
+        <v>3</v>
+      </c>
+      <c r="H45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -2674,17 +2822,20 @@
         <v>item_1046</v>
       </c>
       <c r="E46" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F46" s="4">
         <v>3</v>
       </c>
-      <c r="G46" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G46" s="4">
+        <v>3</v>
+      </c>
+      <c r="H46" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -2699,17 +2850,20 @@
         <v>item_1051</v>
       </c>
       <c r="E47" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F47" s="4">
         <v>3</v>
       </c>
-      <c r="G47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G47" s="4">
+        <v>3</v>
+      </c>
+      <c r="H47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -2724,17 +2878,20 @@
         <v>item_1052</v>
       </c>
       <c r="E48" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F48" s="4">
         <v>3</v>
       </c>
-      <c r="G48" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G48" s="4">
+        <v>3</v>
+      </c>
+      <c r="H48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -2749,17 +2906,20 @@
         <v>item_1053</v>
       </c>
       <c r="E49" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4">
         <v>3</v>
       </c>
-      <c r="G49" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G49" s="4">
+        <v>3</v>
+      </c>
+      <c r="H49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -2774,17 +2934,20 @@
         <v>item_1054</v>
       </c>
       <c r="E50" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F50" s="4">
         <v>3</v>
       </c>
-      <c r="G50" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G50" s="4">
+        <v>3</v>
+      </c>
+      <c r="H50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -2799,17 +2962,20 @@
         <v>item_1055</v>
       </c>
       <c r="E51" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F51" s="4">
         <v>3</v>
       </c>
-      <c r="G51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G51" s="4">
+        <v>3</v>
+      </c>
+      <c r="H51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -2824,17 +2990,20 @@
         <v>item_1056</v>
       </c>
       <c r="E52" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52" s="4">
         <v>3</v>
       </c>
-      <c r="G52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G52" s="4">
+        <v>3</v>
+      </c>
+      <c r="H52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -2849,17 +3018,20 @@
         <v>item_1061</v>
       </c>
       <c r="E53" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F53" s="4">
-        <v>3</v>
-      </c>
-      <c r="G53" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G53" s="4">
+        <v>3</v>
+      </c>
+      <c r="H53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -2874,17 +3046,20 @@
         <v>item_1062</v>
       </c>
       <c r="E54" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F54" s="4">
-        <v>3</v>
-      </c>
-      <c r="G54" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G54" s="4">
+        <v>3</v>
+      </c>
+      <c r="H54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -2899,17 +3074,20 @@
         <v>item_1063</v>
       </c>
       <c r="E55" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F55" s="4">
-        <v>3</v>
-      </c>
-      <c r="G55" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G55" s="4">
+        <v>3</v>
+      </c>
+      <c r="H55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -2924,17 +3102,20 @@
         <v>item_1064</v>
       </c>
       <c r="E56" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F56" s="4">
-        <v>3</v>
-      </c>
-      <c r="G56" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G56" s="4">
+        <v>3</v>
+      </c>
+      <c r="H56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -2949,17 +3130,20 @@
         <v>item_1065</v>
       </c>
       <c r="E57" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F57" s="4">
-        <v>3</v>
-      </c>
-      <c r="G57" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G57" s="4">
+        <v>3</v>
+      </c>
+      <c r="H57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -2974,17 +3158,20 @@
         <v>item_1066</v>
       </c>
       <c r="E58" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F58" s="4">
-        <v>3</v>
-      </c>
-      <c r="G58" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G58" s="4">
+        <v>3</v>
+      </c>
+      <c r="H58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -2999,17 +3186,20 @@
         <v>item_1071</v>
       </c>
       <c r="E59" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F59" s="4">
-        <v>3</v>
-      </c>
-      <c r="G59" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G59" s="4">
+        <v>3</v>
+      </c>
+      <c r="H59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -3024,17 +3214,20 @@
         <v>item_1072</v>
       </c>
       <c r="E60" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F60" s="4">
-        <v>3</v>
-      </c>
-      <c r="G60" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G60" s="4">
+        <v>3</v>
+      </c>
+      <c r="H60" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -3049,17 +3242,20 @@
         <v>item_1073</v>
       </c>
       <c r="E61" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F61" s="4">
-        <v>3</v>
-      </c>
-      <c r="G61" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G61" s="4">
+        <v>3</v>
+      </c>
+      <c r="H61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -3074,17 +3270,20 @@
         <v>item_1074</v>
       </c>
       <c r="E62" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F62" s="4">
-        <v>3</v>
-      </c>
-      <c r="G62" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G62" s="4">
+        <v>3</v>
+      </c>
+      <c r="H62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -3099,17 +3298,20 @@
         <v>item_1075</v>
       </c>
       <c r="E63" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>3</v>
-      </c>
-      <c r="G63" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G63" s="4">
+        <v>3</v>
+      </c>
+      <c r="H63" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>61</v>
       </c>
@@ -3124,17 +3326,20 @@
         <v>item_1076</v>
       </c>
       <c r="E64" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F64" s="4">
-        <v>3</v>
-      </c>
-      <c r="G64" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G64" s="4">
+        <v>3</v>
+      </c>
+      <c r="H64" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -3149,17 +3354,20 @@
         <v>item_1081</v>
       </c>
       <c r="E65" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F65" s="4">
-        <v>3</v>
-      </c>
-      <c r="G65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G65" s="4">
+        <v>3</v>
+      </c>
+      <c r="H65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -3174,17 +3382,20 @@
         <v>item_1082</v>
       </c>
       <c r="E66" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F66" s="4">
-        <v>3</v>
-      </c>
-      <c r="G66" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G66" s="4">
+        <v>3</v>
+      </c>
+      <c r="H66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -3199,17 +3410,20 @@
         <v>item_1083</v>
       </c>
       <c r="E67" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F67" s="4">
-        <v>3</v>
-      </c>
-      <c r="G67" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G67" s="4">
+        <v>3</v>
+      </c>
+      <c r="H67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -3224,17 +3438,20 @@
         <v>item_1084</v>
       </c>
       <c r="E68" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F68" s="4">
-        <v>3</v>
-      </c>
-      <c r="G68" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G68" s="4">
+        <v>3</v>
+      </c>
+      <c r="H68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>66</v>
       </c>
@@ -3249,17 +3466,20 @@
         <v>item_1085</v>
       </c>
       <c r="E69" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F69" s="4">
-        <v>3</v>
-      </c>
-      <c r="G69" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G69" s="4">
+        <v>3</v>
+      </c>
+      <c r="H69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -3274,17 +3494,20 @@
         <v>item_1086</v>
       </c>
       <c r="E70" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F70" s="4">
-        <v>3</v>
-      </c>
-      <c r="G70" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G70" s="4">
+        <v>3</v>
+      </c>
+      <c r="H70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>68</v>
       </c>
@@ -3299,17 +3522,20 @@
         <v>item_1091</v>
       </c>
       <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
         <v>5</v>
       </c>
-      <c r="F71" s="4">
-        <v>3</v>
-      </c>
-      <c r="G71" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G71" s="4">
+        <v>3</v>
+      </c>
+      <c r="H71" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>69</v>
       </c>
@@ -3324,17 +3550,20 @@
         <v>item_1092</v>
       </c>
       <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
         <v>5</v>
       </c>
-      <c r="F72" s="4">
-        <v>3</v>
-      </c>
-      <c r="G72" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G72" s="4">
+        <v>3</v>
+      </c>
+      <c r="H72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>70</v>
       </c>
@@ -3349,17 +3578,20 @@
         <v>item_1093</v>
       </c>
       <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
         <v>5</v>
       </c>
-      <c r="F73" s="4">
-        <v>3</v>
-      </c>
-      <c r="G73" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G73" s="4">
+        <v>3</v>
+      </c>
+      <c r="H73" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>71</v>
       </c>
@@ -3374,17 +3606,20 @@
         <v>item_1094</v>
       </c>
       <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
         <v>5</v>
       </c>
-      <c r="F74" s="4">
-        <v>3</v>
-      </c>
-      <c r="G74" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G74" s="4">
+        <v>3</v>
+      </c>
+      <c r="H74" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>72</v>
       </c>
@@ -3399,17 +3634,20 @@
         <v>item_1095</v>
       </c>
       <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
         <v>5</v>
       </c>
-      <c r="F75" s="4">
-        <v>3</v>
-      </c>
-      <c r="G75" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G75" s="4">
+        <v>3</v>
+      </c>
+      <c r="H75" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>73</v>
       </c>
@@ -3424,17 +3662,20 @@
         <v>item_1096</v>
       </c>
       <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
         <v>5</v>
       </c>
-      <c r="F76" s="4">
-        <v>3</v>
-      </c>
-      <c r="G76" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G76" s="4">
+        <v>3</v>
+      </c>
+      <c r="H76" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>74</v>
       </c>
@@ -3449,17 +3690,20 @@
         <v>item_10001</v>
       </c>
       <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
         <v>2</v>
       </c>
-      <c r="F77" s="4">
-        <v>4</v>
-      </c>
-      <c r="G77" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G77" s="4">
+        <v>4</v>
+      </c>
+      <c r="H77" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>75</v>
       </c>
@@ -3474,17 +3718,20 @@
         <v>item_10002</v>
       </c>
       <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
         <v>2</v>
       </c>
-      <c r="F78" s="4">
-        <v>4</v>
-      </c>
-      <c r="G78" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G78" s="4">
+        <v>4</v>
+      </c>
+      <c r="H78" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>76</v>
       </c>
@@ -3499,17 +3746,20 @@
         <v>item_10003</v>
       </c>
       <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
         <v>2</v>
       </c>
-      <c r="F79" s="4">
-        <v>4</v>
-      </c>
-      <c r="G79" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G79" s="4">
+        <v>4</v>
+      </c>
+      <c r="H79" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>77</v>
       </c>
@@ -3524,17 +3774,20 @@
         <v>item_10004</v>
       </c>
       <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
         <v>2</v>
       </c>
-      <c r="F80" s="4">
-        <v>4</v>
-      </c>
-      <c r="G80" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G80" s="4">
+        <v>4</v>
+      </c>
+      <c r="H80" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>78</v>
       </c>
@@ -3549,17 +3802,20 @@
         <v>item_10005</v>
       </c>
       <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
         <v>2</v>
       </c>
-      <c r="F81" s="4">
-        <v>4</v>
-      </c>
-      <c r="G81" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G81" s="4">
+        <v>4</v>
+      </c>
+      <c r="H81" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>79</v>
       </c>
@@ -3574,17 +3830,20 @@
         <v>item_10006</v>
       </c>
       <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
         <v>2</v>
       </c>
-      <c r="F82" s="4">
-        <v>4</v>
-      </c>
-      <c r="G82" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G82" s="4">
+        <v>4</v>
+      </c>
+      <c r="H82" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>80</v>
       </c>
@@ -3599,17 +3858,20 @@
         <v>item_10007</v>
       </c>
       <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
         <v>2</v>
       </c>
-      <c r="F83" s="4">
-        <v>4</v>
-      </c>
-      <c r="G83" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G83" s="4">
+        <v>4</v>
+      </c>
+      <c r="H83" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>81</v>
       </c>
@@ -3624,17 +3886,20 @@
         <v>item_10008</v>
       </c>
       <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
         <v>2</v>
       </c>
-      <c r="F84" s="4">
-        <v>4</v>
-      </c>
-      <c r="G84" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G84" s="4">
+        <v>4</v>
+      </c>
+      <c r="H84" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>82</v>
       </c>
@@ -3649,17 +3914,20 @@
         <v>item_10009</v>
       </c>
       <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
         <v>2</v>
       </c>
-      <c r="F85" s="4">
-        <v>4</v>
-      </c>
-      <c r="G85" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G85" s="4">
+        <v>4</v>
+      </c>
+      <c r="H85" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>83</v>
       </c>
@@ -3674,17 +3942,20 @@
         <v>item_10010</v>
       </c>
       <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
         <v>2</v>
       </c>
-      <c r="F86" s="4">
-        <v>4</v>
-      </c>
-      <c r="G86" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G86" s="4">
+        <v>4</v>
+      </c>
+      <c r="H86" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>84</v>
       </c>
@@ -3699,17 +3970,20 @@
         <v>item_10011</v>
       </c>
       <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
         <v>2</v>
       </c>
-      <c r="F87" s="4">
-        <v>4</v>
-      </c>
-      <c r="G87" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G87" s="4">
+        <v>4</v>
+      </c>
+      <c r="H87" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>85</v>
       </c>
@@ -3724,17 +3998,20 @@
         <v>item_10012</v>
       </c>
       <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
         <v>2</v>
       </c>
-      <c r="F88" s="4">
-        <v>4</v>
-      </c>
-      <c r="G88" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G88" s="4">
+        <v>4</v>
+      </c>
+      <c r="H88" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>86</v>
       </c>
@@ -3749,17 +4026,20 @@
         <v>item_10013</v>
       </c>
       <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
         <v>2</v>
       </c>
-      <c r="F89" s="4">
-        <v>4</v>
-      </c>
-      <c r="G89" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G89" s="4">
+        <v>4</v>
+      </c>
+      <c r="H89" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>87</v>
       </c>
@@ -3774,17 +4054,20 @@
         <v>item_10101</v>
       </c>
       <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
         <v>2</v>
       </c>
-      <c r="F90" s="4">
-        <v>4</v>
-      </c>
-      <c r="G90" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G90" s="4">
+        <v>4</v>
+      </c>
+      <c r="H90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>88</v>
       </c>
@@ -3799,17 +4082,20 @@
         <v>item_10102</v>
       </c>
       <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
         <v>2</v>
       </c>
-      <c r="F91" s="4">
-        <v>4</v>
-      </c>
-      <c r="G91" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G91" s="4">
+        <v>4</v>
+      </c>
+      <c r="H91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>89</v>
       </c>
@@ -3824,17 +4110,20 @@
         <v>item_10103</v>
       </c>
       <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
         <v>2</v>
       </c>
-      <c r="F92" s="4">
-        <v>4</v>
-      </c>
-      <c r="G92" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G92" s="4">
+        <v>4</v>
+      </c>
+      <c r="H92" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>90</v>
       </c>
@@ -3849,17 +4138,20 @@
         <v>item_10104</v>
       </c>
       <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
         <v>2</v>
       </c>
-      <c r="F93" s="4">
-        <v>4</v>
-      </c>
-      <c r="G93" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G93" s="4">
+        <v>4</v>
+      </c>
+      <c r="H93" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>91</v>
       </c>
@@ -3874,17 +4166,20 @@
         <v>item_10105</v>
       </c>
       <c r="E94" s="4">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
         <v>2</v>
       </c>
-      <c r="F94" s="4">
-        <v>4</v>
-      </c>
-      <c r="G94" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G94" s="4">
+        <v>4</v>
+      </c>
+      <c r="H94" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>92</v>
       </c>
@@ -3899,17 +4194,20 @@
         <v>item_10106</v>
       </c>
       <c r="E95" s="4">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
         <v>2</v>
       </c>
-      <c r="F95" s="4">
-        <v>4</v>
-      </c>
-      <c r="G95" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G95" s="4">
+        <v>4</v>
+      </c>
+      <c r="H95" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>93</v>
       </c>
@@ -3924,17 +4222,20 @@
         <v>item_10107</v>
       </c>
       <c r="E96" s="4">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4">
         <v>2</v>
       </c>
-      <c r="F96" s="4">
-        <v>4</v>
-      </c>
-      <c r="G96" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G96" s="4">
+        <v>4</v>
+      </c>
+      <c r="H96" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>94</v>
       </c>
@@ -3949,17 +4250,20 @@
         <v>item_10108</v>
       </c>
       <c r="E97" s="4">
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
         <v>2</v>
       </c>
-      <c r="F97" s="4">
-        <v>4</v>
-      </c>
-      <c r="G97" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G97" s="4">
+        <v>4</v>
+      </c>
+      <c r="H97" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>95</v>
       </c>
@@ -3974,17 +4278,20 @@
         <v>item_10109</v>
       </c>
       <c r="E98" s="4">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
         <v>2</v>
       </c>
-      <c r="F98" s="4">
-        <v>4</v>
-      </c>
-      <c r="G98" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G98" s="4">
+        <v>4</v>
+      </c>
+      <c r="H98" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>96</v>
       </c>
@@ -3999,17 +4306,20 @@
         <v>item_10110</v>
       </c>
       <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
         <v>2</v>
       </c>
-      <c r="F99" s="4">
-        <v>4</v>
-      </c>
-      <c r="G99" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G99" s="4">
+        <v>4</v>
+      </c>
+      <c r="H99" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>97</v>
       </c>
@@ -4024,17 +4334,20 @@
         <v>item_10111</v>
       </c>
       <c r="E100" s="4">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
         <v>2</v>
       </c>
-      <c r="F100" s="4">
-        <v>4</v>
-      </c>
-      <c r="G100" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G100" s="4">
+        <v>4</v>
+      </c>
+      <c r="H100" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>98</v>
       </c>
@@ -4049,17 +4362,20 @@
         <v>item_10112</v>
       </c>
       <c r="E101" s="4">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
         <v>2</v>
       </c>
-      <c r="F101" s="4">
-        <v>4</v>
-      </c>
-      <c r="G101" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G101" s="4">
+        <v>4</v>
+      </c>
+      <c r="H101" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>99</v>
       </c>
@@ -4074,17 +4390,20 @@
         <v>item_10113</v>
       </c>
       <c r="E102" s="4">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
         <v>2</v>
       </c>
-      <c r="F102" s="4">
-        <v>4</v>
-      </c>
-      <c r="G102" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G102" s="4">
+        <v>4</v>
+      </c>
+      <c r="H102" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>100</v>
       </c>
@@ -4099,17 +4418,20 @@
         <v>item_10201</v>
       </c>
       <c r="E103" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F103" s="4">
-        <v>4</v>
-      </c>
-      <c r="G103" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G103" s="4">
+        <v>4</v>
+      </c>
+      <c r="H103" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" s="4"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>101</v>
       </c>
@@ -4124,17 +4446,20 @@
         <v>item_10202</v>
       </c>
       <c r="E104" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F104" s="4">
-        <v>4</v>
-      </c>
-      <c r="G104" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G104" s="4">
+        <v>4</v>
+      </c>
+      <c r="H104" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" s="4"/>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>102</v>
       </c>
@@ -4149,17 +4474,20 @@
         <v>item_10203</v>
       </c>
       <c r="E105" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F105" s="4">
-        <v>4</v>
-      </c>
-      <c r="G105" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G105" s="4">
+        <v>4</v>
+      </c>
+      <c r="H105" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>103</v>
       </c>
@@ -4174,17 +4502,20 @@
         <v>item_10204</v>
       </c>
       <c r="E106" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F106" s="4">
-        <v>4</v>
-      </c>
-      <c r="G106" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G106" s="4">
+        <v>4</v>
+      </c>
+      <c r="H106" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>104</v>
       </c>
@@ -4199,17 +4530,20 @@
         <v>item_10205</v>
       </c>
       <c r="E107" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F107" s="4">
-        <v>4</v>
-      </c>
-      <c r="G107" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G107" s="4">
+        <v>4</v>
+      </c>
+      <c r="H107" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" s="4"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>105</v>
       </c>
@@ -4224,17 +4558,20 @@
         <v>item_10206</v>
       </c>
       <c r="E108" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F108" s="4">
-        <v>4</v>
-      </c>
-      <c r="G108" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G108" s="4">
+        <v>4</v>
+      </c>
+      <c r="H108" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" s="4"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>106</v>
       </c>
@@ -4249,17 +4586,20 @@
         <v>item_10207</v>
       </c>
       <c r="E109" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F109" s="4">
-        <v>4</v>
-      </c>
-      <c r="G109" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="4"/>
-    </row>
-    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G109" s="4">
+        <v>4</v>
+      </c>
+      <c r="H109" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" s="4"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>107</v>
       </c>
@@ -4274,17 +4614,20 @@
         <v>item_10208</v>
       </c>
       <c r="E110" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F110" s="4">
-        <v>4</v>
-      </c>
-      <c r="G110" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="4"/>
-    </row>
-    <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G110" s="4">
+        <v>4</v>
+      </c>
+      <c r="H110" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" s="4"/>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>108</v>
       </c>
@@ -4299,17 +4642,20 @@
         <v>item_10209</v>
       </c>
       <c r="E111" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F111" s="4">
-        <v>4</v>
-      </c>
-      <c r="G111" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G111" s="4">
+        <v>4</v>
+      </c>
+      <c r="H111" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" s="4"/>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>109</v>
       </c>
@@ -4324,17 +4670,20 @@
         <v>item_10210</v>
       </c>
       <c r="E112" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F112" s="4">
-        <v>4</v>
-      </c>
-      <c r="G112" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G112" s="4">
+        <v>4</v>
+      </c>
+      <c r="H112" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" s="4"/>
+    </row>
+    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>110</v>
       </c>
@@ -4349,17 +4698,20 @@
         <v>item_10211</v>
       </c>
       <c r="E113" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F113" s="4">
-        <v>4</v>
-      </c>
-      <c r="G113" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G113" s="4">
+        <v>4</v>
+      </c>
+      <c r="H113" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" s="4"/>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>111</v>
       </c>
@@ -4374,17 +4726,20 @@
         <v>item_10212</v>
       </c>
       <c r="E114" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F114" s="4">
-        <v>4</v>
-      </c>
-      <c r="G114" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G114" s="4">
+        <v>4</v>
+      </c>
+      <c r="H114" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" s="4"/>
+    </row>
+    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>112</v>
       </c>
@@ -4399,17 +4754,20 @@
         <v>item_10213</v>
       </c>
       <c r="E115" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F115" s="4">
-        <v>4</v>
-      </c>
-      <c r="G115" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G115" s="4">
+        <v>4</v>
+      </c>
+      <c r="H115" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>113</v>
       </c>
@@ -4424,17 +4782,20 @@
         <v>item_10301</v>
       </c>
       <c r="E116" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F116" s="4">
-        <v>4</v>
-      </c>
-      <c r="G116" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G116" s="4">
+        <v>4</v>
+      </c>
+      <c r="H116" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" s="4"/>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>114</v>
       </c>
@@ -4449,17 +4810,20 @@
         <v>item_10302</v>
       </c>
       <c r="E117" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F117" s="4">
-        <v>4</v>
-      </c>
-      <c r="G117" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="4"/>
-    </row>
-    <row r="118" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G117" s="4">
+        <v>4</v>
+      </c>
+      <c r="H117" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" s="4"/>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>115</v>
       </c>
@@ -4474,17 +4838,20 @@
         <v>item_10303</v>
       </c>
       <c r="E118" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F118" s="4">
-        <v>4</v>
-      </c>
-      <c r="G118" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="4"/>
-    </row>
-    <row r="119" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G118" s="4">
+        <v>4</v>
+      </c>
+      <c r="H118" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" s="4"/>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>116</v>
       </c>
@@ -4499,17 +4866,20 @@
         <v>item_10304</v>
       </c>
       <c r="E119" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F119" s="4">
-        <v>4</v>
-      </c>
-      <c r="G119" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G119" s="4">
+        <v>4</v>
+      </c>
+      <c r="H119" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" s="4"/>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>117</v>
       </c>
@@ -4524,17 +4894,20 @@
         <v>item_10305</v>
       </c>
       <c r="E120" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F120" s="4">
-        <v>4</v>
-      </c>
-      <c r="G120" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G120" s="4">
+        <v>4</v>
+      </c>
+      <c r="H120" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" s="4"/>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>118</v>
       </c>
@@ -4549,17 +4922,20 @@
         <v>item_10306</v>
       </c>
       <c r="E121" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F121" s="4">
-        <v>4</v>
-      </c>
-      <c r="G121" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G121" s="4">
+        <v>4</v>
+      </c>
+      <c r="H121" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" s="4"/>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>119</v>
       </c>
@@ -4574,17 +4950,20 @@
         <v>item_10307</v>
       </c>
       <c r="E122" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F122" s="4">
-        <v>4</v>
-      </c>
-      <c r="G122" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="4"/>
-    </row>
-    <row r="123" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G122" s="4">
+        <v>4</v>
+      </c>
+      <c r="H122" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" s="4"/>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>120</v>
       </c>
@@ -4599,17 +4978,20 @@
         <v>item_10308</v>
       </c>
       <c r="E123" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F123" s="4">
-        <v>4</v>
-      </c>
-      <c r="G123" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="4"/>
-    </row>
-    <row r="124" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G123" s="4">
+        <v>4</v>
+      </c>
+      <c r="H123" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" s="4"/>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>121</v>
       </c>
@@ -4624,17 +5006,20 @@
         <v>item_10309</v>
       </c>
       <c r="E124" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F124" s="4">
-        <v>4</v>
-      </c>
-      <c r="G124" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="4"/>
-    </row>
-    <row r="125" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G124" s="4">
+        <v>4</v>
+      </c>
+      <c r="H124" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" s="4"/>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>122</v>
       </c>
@@ -4649,17 +5034,20 @@
         <v>item_10310</v>
       </c>
       <c r="E125" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F125" s="4">
-        <v>4</v>
-      </c>
-      <c r="G125" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G125" s="4">
+        <v>4</v>
+      </c>
+      <c r="H125" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" s="4"/>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>123</v>
       </c>
@@ -4674,17 +5062,20 @@
         <v>item_10311</v>
       </c>
       <c r="E126" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F126" s="4">
-        <v>4</v>
-      </c>
-      <c r="G126" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G126" s="4">
+        <v>4</v>
+      </c>
+      <c r="H126" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126" s="4"/>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>124</v>
       </c>
@@ -4699,17 +5090,20 @@
         <v>item_10312</v>
       </c>
       <c r="E127" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F127" s="4">
-        <v>4</v>
-      </c>
-      <c r="G127" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="4"/>
-    </row>
-    <row r="128" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G127" s="4">
+        <v>4</v>
+      </c>
+      <c r="H127" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" s="4"/>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>125</v>
       </c>
@@ -4724,17 +5118,20 @@
         <v>item_10313</v>
       </c>
       <c r="E128" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F128" s="4">
-        <v>4</v>
-      </c>
-      <c r="G128" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="4"/>
-    </row>
-    <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G128" s="4">
+        <v>4</v>
+      </c>
+      <c r="H128" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" s="4"/>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>126</v>
       </c>
@@ -4749,17 +5146,20 @@
         <v>item_10401</v>
       </c>
       <c r="E129" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F129" s="4">
         <v>4</v>
       </c>
-      <c r="G129" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="4"/>
-    </row>
-    <row r="130" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G129" s="4">
+        <v>4</v>
+      </c>
+      <c r="H129" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I129" s="4"/>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>127</v>
       </c>
@@ -4774,17 +5174,20 @@
         <v>item_10402</v>
       </c>
       <c r="E130" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F130" s="4">
         <v>4</v>
       </c>
-      <c r="G130" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="4"/>
-    </row>
-    <row r="131" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G130" s="4">
+        <v>4</v>
+      </c>
+      <c r="H130" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130" s="4"/>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>128</v>
       </c>
@@ -4799,17 +5202,20 @@
         <v>item_10403</v>
       </c>
       <c r="E131" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F131" s="4">
         <v>4</v>
       </c>
-      <c r="G131" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="4"/>
-    </row>
-    <row r="132" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G131" s="4">
+        <v>4</v>
+      </c>
+      <c r="H131" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" s="4"/>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>129</v>
       </c>
@@ -4824,17 +5230,20 @@
         <v>item_10404</v>
       </c>
       <c r="E132" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F132" s="4">
         <v>4</v>
       </c>
-      <c r="G132" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G132" s="4">
+        <v>4</v>
+      </c>
+      <c r="H132" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" s="4"/>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>130</v>
       </c>
@@ -4849,17 +5258,20 @@
         <v>item_10405</v>
       </c>
       <c r="E133" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F133" s="4">
         <v>4</v>
       </c>
-      <c r="G133" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G133" s="4">
+        <v>4</v>
+      </c>
+      <c r="H133" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" s="4"/>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>131</v>
       </c>
@@ -4874,17 +5286,20 @@
         <v>item_10406</v>
       </c>
       <c r="E134" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F134" s="4">
         <v>4</v>
       </c>
-      <c r="G134" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="4"/>
-    </row>
-    <row r="135" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G134" s="4">
+        <v>4</v>
+      </c>
+      <c r="H134" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" s="4"/>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>132</v>
       </c>
@@ -4899,17 +5314,20 @@
         <v>item_10407</v>
       </c>
       <c r="E135" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F135" s="4">
         <v>4</v>
       </c>
-      <c r="G135" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="4"/>
-    </row>
-    <row r="136" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G135" s="4">
+        <v>4</v>
+      </c>
+      <c r="H135" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135" s="4"/>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>133</v>
       </c>
@@ -4924,17 +5342,20 @@
         <v>item_10408</v>
       </c>
       <c r="E136" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F136" s="4">
         <v>4</v>
       </c>
-      <c r="G136" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="4"/>
-    </row>
-    <row r="137" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G136" s="4">
+        <v>4</v>
+      </c>
+      <c r="H136" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" s="4"/>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>134</v>
       </c>
@@ -4949,17 +5370,20 @@
         <v>item_10409</v>
       </c>
       <c r="E137" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F137" s="4">
         <v>4</v>
       </c>
-      <c r="G137" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="4"/>
-    </row>
-    <row r="138" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G137" s="4">
+        <v>4</v>
+      </c>
+      <c r="H137" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" s="4"/>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>135</v>
       </c>
@@ -4974,17 +5398,20 @@
         <v>item_10410</v>
       </c>
       <c r="E138" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F138" s="4">
         <v>4</v>
       </c>
-      <c r="G138" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="4"/>
-    </row>
-    <row r="139" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G138" s="4">
+        <v>4</v>
+      </c>
+      <c r="H138" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" s="4"/>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>136</v>
       </c>
@@ -4999,17 +5426,20 @@
         <v>item_10411</v>
       </c>
       <c r="E139" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F139" s="4">
         <v>4</v>
       </c>
-      <c r="G139" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="4"/>
-    </row>
-    <row r="140" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G139" s="4">
+        <v>4</v>
+      </c>
+      <c r="H139" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" s="4"/>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>137</v>
       </c>
@@ -5024,17 +5454,20 @@
         <v>item_10412</v>
       </c>
       <c r="E140" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F140" s="4">
         <v>4</v>
       </c>
-      <c r="G140" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="4"/>
-    </row>
-    <row r="141" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G140" s="4">
+        <v>4</v>
+      </c>
+      <c r="H140" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" s="4"/>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>138</v>
       </c>
@@ -5049,17 +5482,20 @@
         <v>item_10413</v>
       </c>
       <c r="E141" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F141" s="4">
         <v>4</v>
       </c>
-      <c r="G141" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="4"/>
-    </row>
-    <row r="142" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G141" s="4">
+        <v>4</v>
+      </c>
+      <c r="H141" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141" s="4"/>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>139</v>
       </c>
@@ -5074,17 +5510,20 @@
         <v>item_10501</v>
       </c>
       <c r="E142" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F142" s="4">
         <v>4</v>
       </c>
-      <c r="G142" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G142" s="4">
+        <v>4</v>
+      </c>
+      <c r="H142" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" s="4"/>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>140</v>
       </c>
@@ -5099,17 +5538,20 @@
         <v>item_10502</v>
       </c>
       <c r="E143" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F143" s="4">
         <v>4</v>
       </c>
-      <c r="G143" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G143" s="4">
+        <v>4</v>
+      </c>
+      <c r="H143" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143" s="4"/>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>141</v>
       </c>
@@ -5124,17 +5566,20 @@
         <v>item_10503</v>
       </c>
       <c r="E144" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F144" s="4">
         <v>4</v>
       </c>
-      <c r="G144" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G144" s="4">
+        <v>4</v>
+      </c>
+      <c r="H144" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144" s="4"/>
+    </row>
+    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>142</v>
       </c>
@@ -5149,17 +5594,20 @@
         <v>item_10504</v>
       </c>
       <c r="E145" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F145" s="4">
         <v>4</v>
       </c>
-      <c r="G145" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G145" s="4">
+        <v>4</v>
+      </c>
+      <c r="H145" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145" s="4"/>
+    </row>
+    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>143</v>
       </c>
@@ -5174,17 +5622,20 @@
         <v>item_10505</v>
       </c>
       <c r="E146" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F146" s="4">
         <v>4</v>
       </c>
-      <c r="G146" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G146" s="4">
+        <v>4</v>
+      </c>
+      <c r="H146" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I146" s="4"/>
+    </row>
+    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>144</v>
       </c>
@@ -5199,17 +5650,20 @@
         <v>item_10506</v>
       </c>
       <c r="E147" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F147" s="4">
         <v>4</v>
       </c>
-      <c r="G147" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G147" s="4">
+        <v>4</v>
+      </c>
+      <c r="H147" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I147" s="4"/>
+    </row>
+    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>145</v>
       </c>
@@ -5224,17 +5678,20 @@
         <v>item_10507</v>
       </c>
       <c r="E148" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F148" s="4">
         <v>4</v>
       </c>
-      <c r="G148" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G148" s="4">
+        <v>4</v>
+      </c>
+      <c r="H148" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I148" s="4"/>
+    </row>
+    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>146</v>
       </c>
@@ -5249,17 +5706,20 @@
         <v>item_10508</v>
       </c>
       <c r="E149" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F149" s="4">
         <v>4</v>
       </c>
-      <c r="G149" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" s="4"/>
-    </row>
-    <row r="150" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G149" s="4">
+        <v>4</v>
+      </c>
+      <c r="H149" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I149" s="4"/>
+    </row>
+    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>147</v>
       </c>
@@ -5274,17 +5734,20 @@
         <v>item_10509</v>
       </c>
       <c r="E150" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F150" s="4">
         <v>4</v>
       </c>
-      <c r="G150" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" s="4"/>
-    </row>
-    <row r="151" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G150" s="4">
+        <v>4</v>
+      </c>
+      <c r="H150" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I150" s="4"/>
+    </row>
+    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>148</v>
       </c>
@@ -5299,17 +5762,20 @@
         <v>item_10510</v>
       </c>
       <c r="E151" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F151" s="4">
         <v>4</v>
       </c>
-      <c r="G151" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" s="4"/>
-    </row>
-    <row r="152" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G151" s="4">
+        <v>4</v>
+      </c>
+      <c r="H151" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I151" s="4"/>
+    </row>
+    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>149</v>
       </c>
@@ -5324,17 +5790,20 @@
         <v>item_10511</v>
       </c>
       <c r="E152" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F152" s="4">
         <v>4</v>
       </c>
-      <c r="G152" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" s="4"/>
-    </row>
-    <row r="153" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G152" s="4">
+        <v>4</v>
+      </c>
+      <c r="H152" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152" s="4"/>
+    </row>
+    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>150</v>
       </c>
@@ -5349,17 +5818,20 @@
         <v>item_10512</v>
       </c>
       <c r="E153" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F153" s="4">
         <v>4</v>
       </c>
-      <c r="G153" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="4"/>
-    </row>
-    <row r="154" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G153" s="4">
+        <v>4</v>
+      </c>
+      <c r="H153" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153" s="4"/>
+    </row>
+    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>151</v>
       </c>
@@ -5374,17 +5846,20 @@
         <v>item_10513</v>
       </c>
       <c r="E154" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F154" s="4">
         <v>4</v>
       </c>
-      <c r="G154" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" s="4"/>
-    </row>
-    <row r="155" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G154" s="4">
+        <v>4</v>
+      </c>
+      <c r="H154" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154" s="4"/>
+    </row>
+    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>152</v>
       </c>
@@ -5399,17 +5874,20 @@
         <v>item_10601</v>
       </c>
       <c r="E155" s="4">
+        <v>0</v>
+      </c>
+      <c r="F155" s="4">
         <v>5</v>
       </c>
-      <c r="F155" s="4">
-        <v>4</v>
-      </c>
-      <c r="G155" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" s="4"/>
-    </row>
-    <row r="156" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G155" s="4">
+        <v>4</v>
+      </c>
+      <c r="H155" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" s="4"/>
+    </row>
+    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>153</v>
       </c>
@@ -5424,17 +5902,20 @@
         <v>item_10602</v>
       </c>
       <c r="E156" s="4">
+        <v>0</v>
+      </c>
+      <c r="F156" s="4">
         <v>5</v>
       </c>
-      <c r="F156" s="4">
-        <v>4</v>
-      </c>
-      <c r="G156" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" s="4"/>
-    </row>
-    <row r="157" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G156" s="4">
+        <v>4</v>
+      </c>
+      <c r="H156" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>154</v>
       </c>
@@ -5449,17 +5930,20 @@
         <v>item_10603</v>
       </c>
       <c r="E157" s="4">
+        <v>0</v>
+      </c>
+      <c r="F157" s="4">
         <v>5</v>
       </c>
-      <c r="F157" s="4">
-        <v>4</v>
-      </c>
-      <c r="G157" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" s="4"/>
-    </row>
-    <row r="158" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G157" s="4">
+        <v>4</v>
+      </c>
+      <c r="H157" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157" s="4"/>
+    </row>
+    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>155</v>
       </c>
@@ -5474,17 +5958,20 @@
         <v>item_10604</v>
       </c>
       <c r="E158" s="4">
+        <v>0</v>
+      </c>
+      <c r="F158" s="4">
         <v>5</v>
       </c>
-      <c r="F158" s="4">
-        <v>4</v>
-      </c>
-      <c r="G158" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="4"/>
-    </row>
-    <row r="159" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G158" s="4">
+        <v>4</v>
+      </c>
+      <c r="H158" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I158" s="4"/>
+    </row>
+    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>156</v>
       </c>
@@ -5499,17 +5986,20 @@
         <v>item_10605</v>
       </c>
       <c r="E159" s="4">
+        <v>0</v>
+      </c>
+      <c r="F159" s="4">
         <v>5</v>
       </c>
-      <c r="F159" s="4">
-        <v>4</v>
-      </c>
-      <c r="G159" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="4"/>
-    </row>
-    <row r="160" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G159" s="4">
+        <v>4</v>
+      </c>
+      <c r="H159" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159" s="4"/>
+    </row>
+    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>157</v>
       </c>
@@ -5524,17 +6014,20 @@
         <v>item_10606</v>
       </c>
       <c r="E160" s="4">
+        <v>0</v>
+      </c>
+      <c r="F160" s="4">
         <v>5</v>
       </c>
-      <c r="F160" s="4">
-        <v>4</v>
-      </c>
-      <c r="G160" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="4"/>
-    </row>
-    <row r="161" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G160" s="4">
+        <v>4</v>
+      </c>
+      <c r="H160" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I160" s="4"/>
+    </row>
+    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>158</v>
       </c>
@@ -5549,17 +6042,20 @@
         <v>item_10607</v>
       </c>
       <c r="E161" s="4">
+        <v>0</v>
+      </c>
+      <c r="F161" s="4">
         <v>5</v>
       </c>
-      <c r="F161" s="4">
-        <v>4</v>
-      </c>
-      <c r="G161" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="4"/>
-    </row>
-    <row r="162" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G161" s="4">
+        <v>4</v>
+      </c>
+      <c r="H161" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" s="4"/>
+    </row>
+    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>159</v>
       </c>
@@ -5574,17 +6070,20 @@
         <v>item_10608</v>
       </c>
       <c r="E162" s="4">
+        <v>0</v>
+      </c>
+      <c r="F162" s="4">
         <v>5</v>
       </c>
-      <c r="F162" s="4">
-        <v>4</v>
-      </c>
-      <c r="G162" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="4"/>
-    </row>
-    <row r="163" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G162" s="4">
+        <v>4</v>
+      </c>
+      <c r="H162" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I162" s="4"/>
+    </row>
+    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>160</v>
       </c>
@@ -5599,17 +6098,20 @@
         <v>item_10609</v>
       </c>
       <c r="E163" s="4">
+        <v>0</v>
+      </c>
+      <c r="F163" s="4">
         <v>5</v>
       </c>
-      <c r="F163" s="4">
-        <v>4</v>
-      </c>
-      <c r="G163" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="4"/>
-    </row>
-    <row r="164" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G163" s="4">
+        <v>4</v>
+      </c>
+      <c r="H163" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I163" s="4"/>
+    </row>
+    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>161</v>
       </c>
@@ -5624,17 +6126,20 @@
         <v>item_10610</v>
       </c>
       <c r="E164" s="4">
+        <v>0</v>
+      </c>
+      <c r="F164" s="4">
         <v>5</v>
       </c>
-      <c r="F164" s="4">
-        <v>4</v>
-      </c>
-      <c r="G164" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H164" s="4"/>
-    </row>
-    <row r="165" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G164" s="4">
+        <v>4</v>
+      </c>
+      <c r="H164" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I164" s="4"/>
+    </row>
+    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>162</v>
       </c>
@@ -5649,17 +6154,20 @@
         <v>item_10611</v>
       </c>
       <c r="E165" s="4">
+        <v>0</v>
+      </c>
+      <c r="F165" s="4">
         <v>5</v>
       </c>
-      <c r="F165" s="4">
-        <v>4</v>
-      </c>
-      <c r="G165" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165" s="4"/>
-    </row>
-    <row r="166" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G165" s="4">
+        <v>4</v>
+      </c>
+      <c r="H165" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I165" s="4"/>
+    </row>
+    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>163</v>
       </c>
@@ -5674,17 +6182,20 @@
         <v>item_10612</v>
       </c>
       <c r="E166" s="4">
+        <v>0</v>
+      </c>
+      <c r="F166" s="4">
         <v>5</v>
       </c>
-      <c r="F166" s="4">
-        <v>4</v>
-      </c>
-      <c r="G166" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H166" s="4"/>
-    </row>
-    <row r="167" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G166" s="4">
+        <v>4</v>
+      </c>
+      <c r="H166" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I166" s="4"/>
+    </row>
+    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>164</v>
       </c>
@@ -5699,17 +6210,20 @@
         <v>item_10613</v>
       </c>
       <c r="E167" s="4">
+        <v>0</v>
+      </c>
+      <c r="F167" s="4">
         <v>5</v>
       </c>
-      <c r="F167" s="4">
-        <v>4</v>
-      </c>
-      <c r="G167" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H167" s="4"/>
-    </row>
-    <row r="168" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G167" s="4">
+        <v>4</v>
+      </c>
+      <c r="H167" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I167" s="4"/>
+    </row>
+    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>165</v>
       </c>
@@ -5724,19 +6238,22 @@
         <v>item_20001</v>
       </c>
       <c r="E168" s="4">
+        <v>0</v>
+      </c>
+      <c r="F168" s="4">
         <v>2</v>
       </c>
-      <c r="F168" s="4">
+      <c r="G168" s="4">
         <v>5</v>
       </c>
-      <c r="G168" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" s="4" t="s">
+      <c r="H168" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I168" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>166</v>
       </c>
@@ -5751,19 +6268,22 @@
         <v>item_20002</v>
       </c>
       <c r="E169" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F169" s="4">
+        <v>3</v>
+      </c>
+      <c r="G169" s="4">
         <v>5</v>
       </c>
-      <c r="G169" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="4" t="s">
+      <c r="H169" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I169" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>167</v>
       </c>
@@ -5778,19 +6298,22 @@
         <v>item_20003</v>
       </c>
       <c r="E170" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F170" s="4">
+        <v>4</v>
+      </c>
+      <c r="G170" s="4">
         <v>5</v>
       </c>
-      <c r="G170" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="4" t="s">
+      <c r="H170" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I170" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>168</v>
       </c>
@@ -5805,19 +6328,22 @@
         <v>item_20006</v>
       </c>
       <c r="E171" s="4">
+        <v>0</v>
+      </c>
+      <c r="F171" s="4">
         <v>2</v>
       </c>
-      <c r="F171" s="4">
+      <c r="G171" s="4">
         <v>5</v>
       </c>
-      <c r="G171" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="4" t="s">
+      <c r="H171" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I171" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>169</v>
       </c>
@@ -5832,19 +6358,22 @@
         <v>item_20007</v>
       </c>
       <c r="E172" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F172" s="4">
+        <v>3</v>
+      </c>
+      <c r="G172" s="4">
         <v>5</v>
       </c>
-      <c r="G172" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="4" t="s">
+      <c r="H172" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I172" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>170</v>
       </c>
@@ -5859,19 +6388,22 @@
         <v>item_20008</v>
       </c>
       <c r="E173" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F173" s="4">
+        <v>4</v>
+      </c>
+      <c r="G173" s="4">
         <v>5</v>
       </c>
-      <c r="G173" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="4" t="s">
+      <c r="H173" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I173" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>171</v>
       </c>
@@ -5886,19 +6418,22 @@
         <v>item_20010</v>
       </c>
       <c r="E174" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F174" s="4">
+        <v>4</v>
+      </c>
+      <c r="G174" s="4">
         <v>5</v>
       </c>
-      <c r="G174" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="4" t="s">
+      <c r="H174" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I174" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>172</v>
       </c>
@@ -5913,15 +6448,18 @@
         <v>item_20011</v>
       </c>
       <c r="E175" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F175" s="4">
+        <v>4</v>
+      </c>
+      <c r="G175" s="4">
         <v>5</v>
       </c>
-      <c r="G175" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="4" t="s">
+      <c r="H175" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I175" s="4" t="s">
         <v>225</v>
       </c>
     </row>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BDB900-BC91-441B-89C2-91CBC9B514F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C607F74-A6A7-49A1-BC33-7203C04D5EB1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="231">
   <si>
     <t>sheet名</t>
   </si>
@@ -890,6 +890,14 @@
   </si>
   <si>
     <t>初始值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片抽取券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于晶片抽取。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1502,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2934E6-EE36-4525-8F91-B89D67D36F59}">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1796,7 +1804,7 @@
         <v>96</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f t="shared" ref="D10:D76" si="1">"item_"&amp;B10</f>
+        <f t="shared" ref="D10:D77" si="1">"item_"&amp;B10</f>
         <v>item_15</v>
       </c>
       <c r="E10" s="4">
@@ -2000,42 +2008,44 @@
         <v>14</v>
       </c>
       <c r="B17" s="4">
-        <v>1001</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1001</v>
+        <v>item_22</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
       <c r="B18" s="4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1002</v>
+        <v>item_1001</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -2056,14 +2066,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1003</v>
+        <v>item_1002</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -2084,14 +2094,14 @@
         <v>17</v>
       </c>
       <c r="B20" s="4">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1004</v>
+        <v>item_1003</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -2112,14 +2122,14 @@
         <v>18</v>
       </c>
       <c r="B21" s="4">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1005</v>
+        <v>item_1004</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -2140,14 +2150,14 @@
         <v>19</v>
       </c>
       <c r="B22" s="4">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1006</v>
+        <v>item_1005</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -2168,20 +2178,20 @@
         <v>20</v>
       </c>
       <c r="B23" s="4">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1011</v>
+        <v>item_1006</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4">
         <v>3</v>
@@ -2196,14 +2206,14 @@
         <v>21</v>
       </c>
       <c r="B24" s="4">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1012</v>
+        <v>item_1011</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -2224,14 +2234,14 @@
         <v>22</v>
       </c>
       <c r="B25" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1013</v>
+        <v>item_1012</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -2252,14 +2262,14 @@
         <v>23</v>
       </c>
       <c r="B26" s="4">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1014</v>
+        <v>item_1013</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -2280,14 +2290,14 @@
         <v>24</v>
       </c>
       <c r="B27" s="4">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1015</v>
+        <v>item_1014</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -2308,14 +2318,14 @@
         <v>25</v>
       </c>
       <c r="B28" s="4">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1016</v>
+        <v>item_1015</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -2336,14 +2346,14 @@
         <v>26</v>
       </c>
       <c r="B29" s="4">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1021</v>
+        <v>item_1016</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -2364,14 +2374,14 @@
         <v>27</v>
       </c>
       <c r="B30" s="4">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1022</v>
+        <v>item_1021</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2392,14 +2402,14 @@
         <v>28</v>
       </c>
       <c r="B31" s="4">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1023</v>
+        <v>item_1022</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -2420,14 +2430,14 @@
         <v>29</v>
       </c>
       <c r="B32" s="4">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1024</v>
+        <v>item_1023</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -2448,14 +2458,14 @@
         <v>30</v>
       </c>
       <c r="B33" s="4">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1025</v>
+        <v>item_1024</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -2476,14 +2486,14 @@
         <v>31</v>
       </c>
       <c r="B34" s="4">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1026</v>
+        <v>item_1025</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -2504,20 +2514,20 @@
         <v>32</v>
       </c>
       <c r="B35" s="4">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1031</v>
+        <v>item_1026</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
       </c>
       <c r="F35" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="4">
         <v>3</v>
@@ -2532,14 +2542,14 @@
         <v>33</v>
       </c>
       <c r="B36" s="4">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1032</v>
+        <v>item_1031</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -2560,14 +2570,14 @@
         <v>34</v>
       </c>
       <c r="B37" s="4">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1033</v>
+        <v>item_1032</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -2588,14 +2598,14 @@
         <v>35</v>
       </c>
       <c r="B38" s="4">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1034</v>
+        <v>item_1033</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -2616,14 +2626,14 @@
         <v>36</v>
       </c>
       <c r="B39" s="4">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1035</v>
+        <v>item_1034</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -2644,14 +2654,14 @@
         <v>37</v>
       </c>
       <c r="B40" s="4">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1036</v>
+        <v>item_1035</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -2672,14 +2682,14 @@
         <v>38</v>
       </c>
       <c r="B41" s="4">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1041</v>
+        <v>item_1036</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -2700,14 +2710,14 @@
         <v>39</v>
       </c>
       <c r="B42" s="4">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1042</v>
+        <v>item_1041</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -2728,14 +2738,14 @@
         <v>40</v>
       </c>
       <c r="B43" s="4">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1043</v>
+        <v>item_1042</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -2756,14 +2766,14 @@
         <v>41</v>
       </c>
       <c r="B44" s="4">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1044</v>
+        <v>item_1043</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -2784,14 +2794,14 @@
         <v>42</v>
       </c>
       <c r="B45" s="4">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1045</v>
+        <v>item_1044</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -2812,14 +2822,14 @@
         <v>43</v>
       </c>
       <c r="B46" s="4">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1046</v>
+        <v>item_1045</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -2840,14 +2850,14 @@
         <v>44</v>
       </c>
       <c r="B47" s="4">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D47" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1051</v>
+        <v>item_1046</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -2868,14 +2878,14 @@
         <v>45</v>
       </c>
       <c r="B48" s="4">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1052</v>
+        <v>item_1051</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
@@ -2896,14 +2906,14 @@
         <v>46</v>
       </c>
       <c r="B49" s="4">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1053</v>
+        <v>item_1052</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -2924,14 +2934,14 @@
         <v>47</v>
       </c>
       <c r="B50" s="4">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1054</v>
+        <v>item_1053</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -2952,14 +2962,14 @@
         <v>48</v>
       </c>
       <c r="B51" s="4">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1055</v>
+        <v>item_1054</v>
       </c>
       <c r="E51" s="4">
         <v>0</v>
@@ -2980,14 +2990,14 @@
         <v>49</v>
       </c>
       <c r="B52" s="4">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1056</v>
+        <v>item_1055</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
@@ -3008,20 +3018,20 @@
         <v>50</v>
       </c>
       <c r="B53" s="4">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1061</v>
+        <v>item_1056</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
       </c>
       <c r="F53" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G53" s="4">
         <v>3</v>
@@ -3036,14 +3046,14 @@
         <v>51</v>
       </c>
       <c r="B54" s="4">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1062</v>
+        <v>item_1061</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -3064,14 +3074,14 @@
         <v>52</v>
       </c>
       <c r="B55" s="4">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1063</v>
+        <v>item_1062</v>
       </c>
       <c r="E55" s="4">
         <v>0</v>
@@ -3092,14 +3102,14 @@
         <v>53</v>
       </c>
       <c r="B56" s="4">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1064</v>
+        <v>item_1063</v>
       </c>
       <c r="E56" s="4">
         <v>0</v>
@@ -3120,14 +3130,14 @@
         <v>54</v>
       </c>
       <c r="B57" s="4">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D57" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1065</v>
+        <v>item_1064</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
@@ -3148,14 +3158,14 @@
         <v>55</v>
       </c>
       <c r="B58" s="4">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D58" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1066</v>
+        <v>item_1065</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
@@ -3176,14 +3186,14 @@
         <v>56</v>
       </c>
       <c r="B59" s="4">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1071</v>
+        <v>item_1066</v>
       </c>
       <c r="E59" s="4">
         <v>0</v>
@@ -3204,14 +3214,14 @@
         <v>57</v>
       </c>
       <c r="B60" s="4">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D60" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1072</v>
+        <v>item_1071</v>
       </c>
       <c r="E60" s="4">
         <v>0</v>
@@ -3232,14 +3242,14 @@
         <v>58</v>
       </c>
       <c r="B61" s="4">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1073</v>
+        <v>item_1072</v>
       </c>
       <c r="E61" s="4">
         <v>0</v>
@@ -3260,14 +3270,14 @@
         <v>59</v>
       </c>
       <c r="B62" s="4">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D62" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1074</v>
+        <v>item_1073</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
@@ -3288,14 +3298,14 @@
         <v>60</v>
       </c>
       <c r="B63" s="4">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1075</v>
+        <v>item_1074</v>
       </c>
       <c r="E63" s="4">
         <v>0</v>
@@ -3316,14 +3326,14 @@
         <v>61</v>
       </c>
       <c r="B64" s="4">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1076</v>
+        <v>item_1075</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -3344,14 +3354,14 @@
         <v>62</v>
       </c>
       <c r="B65" s="4">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D65" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1081</v>
+        <v>item_1076</v>
       </c>
       <c r="E65" s="4">
         <v>0</v>
@@ -3372,14 +3382,14 @@
         <v>63</v>
       </c>
       <c r="B66" s="4">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1082</v>
+        <v>item_1081</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -3400,14 +3410,14 @@
         <v>64</v>
       </c>
       <c r="B67" s="4">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1083</v>
+        <v>item_1082</v>
       </c>
       <c r="E67" s="4">
         <v>0</v>
@@ -3428,14 +3438,14 @@
         <v>65</v>
       </c>
       <c r="B68" s="4">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1084</v>
+        <v>item_1083</v>
       </c>
       <c r="E68" s="4">
         <v>0</v>
@@ -3456,14 +3466,14 @@
         <v>66</v>
       </c>
       <c r="B69" s="4">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D69" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1085</v>
+        <v>item_1084</v>
       </c>
       <c r="E69" s="4">
         <v>0</v>
@@ -3484,14 +3494,14 @@
         <v>67</v>
       </c>
       <c r="B70" s="4">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1086</v>
+        <v>item_1085</v>
       </c>
       <c r="E70" s="4">
         <v>0</v>
@@ -3512,20 +3522,20 @@
         <v>68</v>
       </c>
       <c r="B71" s="4">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D71" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1091</v>
+        <v>item_1086</v>
       </c>
       <c r="E71" s="4">
         <v>0</v>
       </c>
       <c r="F71" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G71" s="4">
         <v>3</v>
@@ -3540,14 +3550,14 @@
         <v>69</v>
       </c>
       <c r="B72" s="4">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D72" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1092</v>
+        <v>item_1091</v>
       </c>
       <c r="E72" s="4">
         <v>0</v>
@@ -3568,14 +3578,14 @@
         <v>70</v>
       </c>
       <c r="B73" s="4">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D73" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1093</v>
+        <v>item_1092</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
@@ -3596,14 +3606,14 @@
         <v>71</v>
       </c>
       <c r="B74" s="4">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D74" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1094</v>
+        <v>item_1093</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
@@ -3624,14 +3634,14 @@
         <v>72</v>
       </c>
       <c r="B75" s="4">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1095</v>
+        <v>item_1094</v>
       </c>
       <c r="E75" s="4">
         <v>0</v>
@@ -3652,14 +3662,14 @@
         <v>73</v>
       </c>
       <c r="B76" s="4">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_1096</v>
+        <v>item_1095</v>
       </c>
       <c r="E76" s="4">
         <v>0</v>
@@ -3680,23 +3690,23 @@
         <v>74</v>
       </c>
       <c r="B77" s="4">
-        <v>10001</v>
+        <v>1096</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D77" s="4" t="str">
-        <f t="shared" ref="D77:D140" si="2">"item_"&amp;B77</f>
-        <v>item_10001</v>
+        <f t="shared" si="1"/>
+        <v>item_1096</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
       </c>
       <c r="F77" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G77" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H77" s="4" t="b">
         <v>1</v>
@@ -3708,14 +3718,14 @@
         <v>75</v>
       </c>
       <c r="B78" s="4">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D78" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>item_10002</v>
+        <f t="shared" ref="D78:D141" si="2">"item_"&amp;B78</f>
+        <v>item_10001</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
@@ -3736,14 +3746,14 @@
         <v>76</v>
       </c>
       <c r="B79" s="4">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D79" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10003</v>
+        <v>item_10002</v>
       </c>
       <c r="E79" s="4">
         <v>0</v>
@@ -3764,14 +3774,14 @@
         <v>77</v>
       </c>
       <c r="B80" s="4">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D80" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10004</v>
+        <v>item_10003</v>
       </c>
       <c r="E80" s="4">
         <v>0</v>
@@ -3792,14 +3802,14 @@
         <v>78</v>
       </c>
       <c r="B81" s="4">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D81" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10005</v>
+        <v>item_10004</v>
       </c>
       <c r="E81" s="4">
         <v>0</v>
@@ -3820,14 +3830,14 @@
         <v>79</v>
       </c>
       <c r="B82" s="4">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D82" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10006</v>
+        <v>item_10005</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
@@ -3848,14 +3858,14 @@
         <v>80</v>
       </c>
       <c r="B83" s="4">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D83" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10007</v>
+        <v>item_10006</v>
       </c>
       <c r="E83" s="4">
         <v>0</v>
@@ -3876,14 +3886,14 @@
         <v>81</v>
       </c>
       <c r="B84" s="4">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="D84" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10008</v>
+        <v>item_10007</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
@@ -3904,14 +3914,14 @@
         <v>82</v>
       </c>
       <c r="B85" s="4">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="D85" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10009</v>
+        <v>item_10008</v>
       </c>
       <c r="E85" s="4">
         <v>0</v>
@@ -3932,14 +3942,14 @@
         <v>83</v>
       </c>
       <c r="B86" s="4">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D86" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10010</v>
+        <v>item_10009</v>
       </c>
       <c r="E86" s="4">
         <v>0</v>
@@ -3960,14 +3970,14 @@
         <v>84</v>
       </c>
       <c r="B87" s="4">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D87" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10011</v>
+        <v>item_10010</v>
       </c>
       <c r="E87" s="4">
         <v>0</v>
@@ -3988,14 +3998,14 @@
         <v>85</v>
       </c>
       <c r="B88" s="4">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D88" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10012</v>
+        <v>item_10011</v>
       </c>
       <c r="E88" s="4">
         <v>0</v>
@@ -4016,14 +4026,14 @@
         <v>86</v>
       </c>
       <c r="B89" s="4">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="D89" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10013</v>
+        <v>item_10012</v>
       </c>
       <c r="E89" s="4">
         <v>0</v>
@@ -4044,14 +4054,14 @@
         <v>87</v>
       </c>
       <c r="B90" s="4">
-        <v>10101</v>
+        <v>10013</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="D90" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10101</v>
+        <v>item_10013</v>
       </c>
       <c r="E90" s="4">
         <v>0</v>
@@ -4072,14 +4082,14 @@
         <v>88</v>
       </c>
       <c r="B91" s="4">
-        <v>10102</v>
+        <v>10101</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D91" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10102</v>
+        <v>item_10101</v>
       </c>
       <c r="E91" s="4">
         <v>0</v>
@@ -4100,14 +4110,14 @@
         <v>89</v>
       </c>
       <c r="B92" s="4">
-        <v>10103</v>
+        <v>10102</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D92" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10103</v>
+        <v>item_10102</v>
       </c>
       <c r="E92" s="4">
         <v>0</v>
@@ -4128,14 +4138,14 @@
         <v>90</v>
       </c>
       <c r="B93" s="4">
-        <v>10104</v>
+        <v>10103</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D93" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10104</v>
+        <v>item_10103</v>
       </c>
       <c r="E93" s="4">
         <v>0</v>
@@ -4156,14 +4166,14 @@
         <v>91</v>
       </c>
       <c r="B94" s="4">
-        <v>10105</v>
+        <v>10104</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D94" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10105</v>
+        <v>item_10104</v>
       </c>
       <c r="E94" s="4">
         <v>0</v>
@@ -4184,14 +4194,14 @@
         <v>92</v>
       </c>
       <c r="B95" s="4">
-        <v>10106</v>
+        <v>10105</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D95" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10106</v>
+        <v>item_10105</v>
       </c>
       <c r="E95" s="4">
         <v>0</v>
@@ -4212,14 +4222,14 @@
         <v>93</v>
       </c>
       <c r="B96" s="4">
-        <v>10107</v>
+        <v>10106</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D96" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10107</v>
+        <v>item_10106</v>
       </c>
       <c r="E96" s="4">
         <v>0</v>
@@ -4240,14 +4250,14 @@
         <v>94</v>
       </c>
       <c r="B97" s="4">
-        <v>10108</v>
+        <v>10107</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="D97" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10108</v>
+        <v>item_10107</v>
       </c>
       <c r="E97" s="4">
         <v>0</v>
@@ -4268,14 +4278,14 @@
         <v>95</v>
       </c>
       <c r="B98" s="4">
-        <v>10109</v>
+        <v>10108</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="D98" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10109</v>
+        <v>item_10108</v>
       </c>
       <c r="E98" s="4">
         <v>0</v>
@@ -4296,14 +4306,14 @@
         <v>96</v>
       </c>
       <c r="B99" s="4">
-        <v>10110</v>
+        <v>10109</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D99" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10110</v>
+        <v>item_10109</v>
       </c>
       <c r="E99" s="4">
         <v>0</v>
@@ -4324,14 +4334,14 @@
         <v>97</v>
       </c>
       <c r="B100" s="4">
-        <v>10111</v>
+        <v>10110</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D100" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10111</v>
+        <v>item_10110</v>
       </c>
       <c r="E100" s="4">
         <v>0</v>
@@ -4352,14 +4362,14 @@
         <v>98</v>
       </c>
       <c r="B101" s="4">
-        <v>10112</v>
+        <v>10111</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D101" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10112</v>
+        <v>item_10111</v>
       </c>
       <c r="E101" s="4">
         <v>0</v>
@@ -4380,14 +4390,14 @@
         <v>99</v>
       </c>
       <c r="B102" s="4">
-        <v>10113</v>
+        <v>10112</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="D102" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10113</v>
+        <v>item_10112</v>
       </c>
       <c r="E102" s="4">
         <v>0</v>
@@ -4408,20 +4418,20 @@
         <v>100</v>
       </c>
       <c r="B103" s="4">
-        <v>10201</v>
+        <v>10113</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="D103" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10201</v>
+        <v>item_10113</v>
       </c>
       <c r="E103" s="4">
         <v>0</v>
       </c>
       <c r="F103" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103" s="4">
         <v>4</v>
@@ -4436,14 +4446,14 @@
         <v>101</v>
       </c>
       <c r="B104" s="4">
-        <v>10202</v>
+        <v>10201</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D104" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10202</v>
+        <v>item_10201</v>
       </c>
       <c r="E104" s="4">
         <v>0</v>
@@ -4464,14 +4474,14 @@
         <v>102</v>
       </c>
       <c r="B105" s="4">
-        <v>10203</v>
+        <v>10202</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D105" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10203</v>
+        <v>item_10202</v>
       </c>
       <c r="E105" s="4">
         <v>0</v>
@@ -4492,14 +4502,14 @@
         <v>103</v>
       </c>
       <c r="B106" s="4">
-        <v>10204</v>
+        <v>10203</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D106" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10204</v>
+        <v>item_10203</v>
       </c>
       <c r="E106" s="4">
         <v>0</v>
@@ -4520,14 +4530,14 @@
         <v>104</v>
       </c>
       <c r="B107" s="4">
-        <v>10205</v>
+        <v>10204</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D107" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10205</v>
+        <v>item_10204</v>
       </c>
       <c r="E107" s="4">
         <v>0</v>
@@ -4548,14 +4558,14 @@
         <v>105</v>
       </c>
       <c r="B108" s="4">
-        <v>10206</v>
+        <v>10205</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D108" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10206</v>
+        <v>item_10205</v>
       </c>
       <c r="E108" s="4">
         <v>0</v>
@@ -4576,14 +4586,14 @@
         <v>106</v>
       </c>
       <c r="B109" s="4">
-        <v>10207</v>
+        <v>10206</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D109" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10207</v>
+        <v>item_10206</v>
       </c>
       <c r="E109" s="4">
         <v>0</v>
@@ -4604,14 +4614,14 @@
         <v>107</v>
       </c>
       <c r="B110" s="4">
-        <v>10208</v>
+        <v>10207</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="D110" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10208</v>
+        <v>item_10207</v>
       </c>
       <c r="E110" s="4">
         <v>0</v>
@@ -4632,14 +4642,14 @@
         <v>108</v>
       </c>
       <c r="B111" s="4">
-        <v>10209</v>
+        <v>10208</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D111" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10209</v>
+        <v>item_10208</v>
       </c>
       <c r="E111" s="4">
         <v>0</v>
@@ -4660,14 +4670,14 @@
         <v>109</v>
       </c>
       <c r="B112" s="4">
-        <v>10210</v>
+        <v>10209</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D112" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10210</v>
+        <v>item_10209</v>
       </c>
       <c r="E112" s="4">
         <v>0</v>
@@ -4688,14 +4698,14 @@
         <v>110</v>
       </c>
       <c r="B113" s="4">
-        <v>10211</v>
+        <v>10210</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D113" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10211</v>
+        <v>item_10210</v>
       </c>
       <c r="E113" s="4">
         <v>0</v>
@@ -4716,14 +4726,14 @@
         <v>111</v>
       </c>
       <c r="B114" s="4">
-        <v>10212</v>
+        <v>10211</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D114" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10212</v>
+        <v>item_10211</v>
       </c>
       <c r="E114" s="4">
         <v>0</v>
@@ -4744,14 +4754,14 @@
         <v>112</v>
       </c>
       <c r="B115" s="4">
-        <v>10213</v>
+        <v>10212</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="D115" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10213</v>
+        <v>item_10212</v>
       </c>
       <c r="E115" s="4">
         <v>0</v>
@@ -4772,14 +4782,14 @@
         <v>113</v>
       </c>
       <c r="B116" s="4">
-        <v>10301</v>
+        <v>10213</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="D116" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10301</v>
+        <v>item_10213</v>
       </c>
       <c r="E116" s="4">
         <v>0</v>
@@ -4800,14 +4810,14 @@
         <v>114</v>
       </c>
       <c r="B117" s="4">
-        <v>10302</v>
+        <v>10301</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D117" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10302</v>
+        <v>item_10301</v>
       </c>
       <c r="E117" s="4">
         <v>0</v>
@@ -4828,14 +4838,14 @@
         <v>115</v>
       </c>
       <c r="B118" s="4">
-        <v>10303</v>
+        <v>10302</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D118" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10303</v>
+        <v>item_10302</v>
       </c>
       <c r="E118" s="4">
         <v>0</v>
@@ -4856,14 +4866,14 @@
         <v>116</v>
       </c>
       <c r="B119" s="4">
-        <v>10304</v>
+        <v>10303</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D119" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10304</v>
+        <v>item_10303</v>
       </c>
       <c r="E119" s="4">
         <v>0</v>
@@ -4884,14 +4894,14 @@
         <v>117</v>
       </c>
       <c r="B120" s="4">
-        <v>10305</v>
+        <v>10304</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D120" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10305</v>
+        <v>item_10304</v>
       </c>
       <c r="E120" s="4">
         <v>0</v>
@@ -4912,14 +4922,14 @@
         <v>118</v>
       </c>
       <c r="B121" s="4">
-        <v>10306</v>
+        <v>10305</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D121" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10306</v>
+        <v>item_10305</v>
       </c>
       <c r="E121" s="4">
         <v>0</v>
@@ -4940,14 +4950,14 @@
         <v>119</v>
       </c>
       <c r="B122" s="4">
-        <v>10307</v>
+        <v>10306</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D122" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10307</v>
+        <v>item_10306</v>
       </c>
       <c r="E122" s="4">
         <v>0</v>
@@ -4968,14 +4978,14 @@
         <v>120</v>
       </c>
       <c r="B123" s="4">
-        <v>10308</v>
+        <v>10307</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="D123" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10308</v>
+        <v>item_10307</v>
       </c>
       <c r="E123" s="4">
         <v>0</v>
@@ -4996,14 +5006,14 @@
         <v>121</v>
       </c>
       <c r="B124" s="4">
-        <v>10309</v>
+        <v>10308</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="D124" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10309</v>
+        <v>item_10308</v>
       </c>
       <c r="E124" s="4">
         <v>0</v>
@@ -5024,14 +5034,14 @@
         <v>122</v>
       </c>
       <c r="B125" s="4">
-        <v>10310</v>
+        <v>10309</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D125" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10310</v>
+        <v>item_10309</v>
       </c>
       <c r="E125" s="4">
         <v>0</v>
@@ -5052,14 +5062,14 @@
         <v>123</v>
       </c>
       <c r="B126" s="4">
-        <v>10311</v>
+        <v>10310</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D126" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10311</v>
+        <v>item_10310</v>
       </c>
       <c r="E126" s="4">
         <v>0</v>
@@ -5080,14 +5090,14 @@
         <v>124</v>
       </c>
       <c r="B127" s="4">
-        <v>10312</v>
+        <v>10311</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D127" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10312</v>
+        <v>item_10311</v>
       </c>
       <c r="E127" s="4">
         <v>0</v>
@@ -5108,14 +5118,14 @@
         <v>125</v>
       </c>
       <c r="B128" s="4">
-        <v>10313</v>
+        <v>10312</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D128" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10313</v>
+        <v>item_10312</v>
       </c>
       <c r="E128" s="4">
         <v>0</v>
@@ -5136,20 +5146,20 @@
         <v>126</v>
       </c>
       <c r="B129" s="4">
-        <v>10401</v>
+        <v>10313</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="D129" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10401</v>
+        <v>item_10313</v>
       </c>
       <c r="E129" s="4">
         <v>0</v>
       </c>
       <c r="F129" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G129" s="4">
         <v>4</v>
@@ -5164,14 +5174,14 @@
         <v>127</v>
       </c>
       <c r="B130" s="4">
-        <v>10402</v>
+        <v>10401</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D130" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10402</v>
+        <v>item_10401</v>
       </c>
       <c r="E130" s="4">
         <v>0</v>
@@ -5192,14 +5202,14 @@
         <v>128</v>
       </c>
       <c r="B131" s="4">
-        <v>10403</v>
+        <v>10402</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D131" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10403</v>
+        <v>item_10402</v>
       </c>
       <c r="E131" s="4">
         <v>0</v>
@@ -5220,14 +5230,14 @@
         <v>129</v>
       </c>
       <c r="B132" s="4">
-        <v>10404</v>
+        <v>10403</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D132" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10404</v>
+        <v>item_10403</v>
       </c>
       <c r="E132" s="4">
         <v>0</v>
@@ -5248,14 +5258,14 @@
         <v>130</v>
       </c>
       <c r="B133" s="4">
-        <v>10405</v>
+        <v>10404</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D133" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10405</v>
+        <v>item_10404</v>
       </c>
       <c r="E133" s="4">
         <v>0</v>
@@ -5276,14 +5286,14 @@
         <v>131</v>
       </c>
       <c r="B134" s="4">
-        <v>10406</v>
+        <v>10405</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D134" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10406</v>
+        <v>item_10405</v>
       </c>
       <c r="E134" s="4">
         <v>0</v>
@@ -5304,14 +5314,14 @@
         <v>132</v>
       </c>
       <c r="B135" s="4">
-        <v>10407</v>
+        <v>10406</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D135" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10407</v>
+        <v>item_10406</v>
       </c>
       <c r="E135" s="4">
         <v>0</v>
@@ -5332,14 +5342,14 @@
         <v>133</v>
       </c>
       <c r="B136" s="4">
-        <v>10408</v>
+        <v>10407</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="D136" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10408</v>
+        <v>item_10407</v>
       </c>
       <c r="E136" s="4">
         <v>0</v>
@@ -5360,14 +5370,14 @@
         <v>134</v>
       </c>
       <c r="B137" s="4">
-        <v>10409</v>
+        <v>10408</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="D137" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10409</v>
+        <v>item_10408</v>
       </c>
       <c r="E137" s="4">
         <v>0</v>
@@ -5388,14 +5398,14 @@
         <v>135</v>
       </c>
       <c r="B138" s="4">
-        <v>10410</v>
+        <v>10409</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D138" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10410</v>
+        <v>item_10409</v>
       </c>
       <c r="E138" s="4">
         <v>0</v>
@@ -5416,14 +5426,14 @@
         <v>136</v>
       </c>
       <c r="B139" s="4">
-        <v>10411</v>
+        <v>10410</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D139" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10411</v>
+        <v>item_10410</v>
       </c>
       <c r="E139" s="4">
         <v>0</v>
@@ -5444,14 +5454,14 @@
         <v>137</v>
       </c>
       <c r="B140" s="4">
-        <v>10412</v>
+        <v>10411</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D140" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10412</v>
+        <v>item_10411</v>
       </c>
       <c r="E140" s="4">
         <v>0</v>
@@ -5472,14 +5482,14 @@
         <v>138</v>
       </c>
       <c r="B141" s="4">
-        <v>10413</v>
+        <v>10412</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D141" s="4" t="str">
-        <f t="shared" ref="D141:D175" si="3">"item_"&amp;B141</f>
-        <v>item_10413</v>
+        <f t="shared" si="2"/>
+        <v>item_10412</v>
       </c>
       <c r="E141" s="4">
         <v>0</v>
@@ -5500,14 +5510,14 @@
         <v>139</v>
       </c>
       <c r="B142" s="4">
-        <v>10501</v>
+        <v>10413</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="D142" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>item_10501</v>
+        <f t="shared" ref="D142:D176" si="3">"item_"&amp;B142</f>
+        <v>item_10413</v>
       </c>
       <c r="E142" s="4">
         <v>0</v>
@@ -5528,14 +5538,14 @@
         <v>140</v>
       </c>
       <c r="B143" s="4">
-        <v>10502</v>
+        <v>10501</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D143" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10502</v>
+        <v>item_10501</v>
       </c>
       <c r="E143" s="4">
         <v>0</v>
@@ -5556,14 +5566,14 @@
         <v>141</v>
       </c>
       <c r="B144" s="4">
-        <v>10503</v>
+        <v>10502</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D144" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10503</v>
+        <v>item_10502</v>
       </c>
       <c r="E144" s="4">
         <v>0</v>
@@ -5584,14 +5594,14 @@
         <v>142</v>
       </c>
       <c r="B145" s="4">
-        <v>10504</v>
+        <v>10503</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D145" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10504</v>
+        <v>item_10503</v>
       </c>
       <c r="E145" s="4">
         <v>0</v>
@@ -5612,14 +5622,14 @@
         <v>143</v>
       </c>
       <c r="B146" s="4">
-        <v>10505</v>
+        <v>10504</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D146" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10505</v>
+        <v>item_10504</v>
       </c>
       <c r="E146" s="4">
         <v>0</v>
@@ -5640,14 +5650,14 @@
         <v>144</v>
       </c>
       <c r="B147" s="4">
-        <v>10506</v>
+        <v>10505</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D147" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10506</v>
+        <v>item_10505</v>
       </c>
       <c r="E147" s="4">
         <v>0</v>
@@ -5668,14 +5678,14 @@
         <v>145</v>
       </c>
       <c r="B148" s="4">
-        <v>10507</v>
+        <v>10506</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D148" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10507</v>
+        <v>item_10506</v>
       </c>
       <c r="E148" s="4">
         <v>0</v>
@@ -5696,14 +5706,14 @@
         <v>146</v>
       </c>
       <c r="B149" s="4">
-        <v>10508</v>
+        <v>10507</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D149" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10508</v>
+        <v>item_10507</v>
       </c>
       <c r="E149" s="4">
         <v>0</v>
@@ -5724,14 +5734,14 @@
         <v>147</v>
       </c>
       <c r="B150" s="4">
-        <v>10509</v>
+        <v>10508</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D150" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10509</v>
+        <v>item_10508</v>
       </c>
       <c r="E150" s="4">
         <v>0</v>
@@ -5752,14 +5762,14 @@
         <v>148</v>
       </c>
       <c r="B151" s="4">
-        <v>10510</v>
+        <v>10509</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D151" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10510</v>
+        <v>item_10509</v>
       </c>
       <c r="E151" s="4">
         <v>0</v>
@@ -5780,14 +5790,14 @@
         <v>149</v>
       </c>
       <c r="B152" s="4">
-        <v>10511</v>
+        <v>10510</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D152" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10511</v>
+        <v>item_10510</v>
       </c>
       <c r="E152" s="4">
         <v>0</v>
@@ -5808,14 +5818,14 @@
         <v>150</v>
       </c>
       <c r="B153" s="4">
-        <v>10512</v>
+        <v>10511</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D153" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10512</v>
+        <v>item_10511</v>
       </c>
       <c r="E153" s="4">
         <v>0</v>
@@ -5836,14 +5846,14 @@
         <v>151</v>
       </c>
       <c r="B154" s="4">
-        <v>10513</v>
+        <v>10512</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D154" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10513</v>
+        <v>item_10512</v>
       </c>
       <c r="E154" s="4">
         <v>0</v>
@@ -5864,20 +5874,20 @@
         <v>152</v>
       </c>
       <c r="B155" s="4">
-        <v>10601</v>
+        <v>10513</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="D155" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10601</v>
+        <v>item_10513</v>
       </c>
       <c r="E155" s="4">
         <v>0</v>
       </c>
       <c r="F155" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G155" s="4">
         <v>4</v>
@@ -5892,14 +5902,14 @@
         <v>153</v>
       </c>
       <c r="B156" s="4">
-        <v>10602</v>
+        <v>10601</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D156" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10602</v>
+        <v>item_10601</v>
       </c>
       <c r="E156" s="4">
         <v>0</v>
@@ -5920,14 +5930,14 @@
         <v>154</v>
       </c>
       <c r="B157" s="4">
-        <v>10603</v>
+        <v>10602</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D157" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10603</v>
+        <v>item_10602</v>
       </c>
       <c r="E157" s="4">
         <v>0</v>
@@ -5948,14 +5958,14 @@
         <v>155</v>
       </c>
       <c r="B158" s="4">
-        <v>10604</v>
+        <v>10603</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D158" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10604</v>
+        <v>item_10603</v>
       </c>
       <c r="E158" s="4">
         <v>0</v>
@@ -5976,14 +5986,14 @@
         <v>156</v>
       </c>
       <c r="B159" s="4">
-        <v>10605</v>
+        <v>10604</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D159" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10605</v>
+        <v>item_10604</v>
       </c>
       <c r="E159" s="4">
         <v>0</v>
@@ -6004,14 +6014,14 @@
         <v>157</v>
       </c>
       <c r="B160" s="4">
-        <v>10606</v>
+        <v>10605</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D160" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10606</v>
+        <v>item_10605</v>
       </c>
       <c r="E160" s="4">
         <v>0</v>
@@ -6032,14 +6042,14 @@
         <v>158</v>
       </c>
       <c r="B161" s="4">
-        <v>10607</v>
+        <v>10606</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D161" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10607</v>
+        <v>item_10606</v>
       </c>
       <c r="E161" s="4">
         <v>0</v>
@@ -6060,14 +6070,14 @@
         <v>159</v>
       </c>
       <c r="B162" s="4">
-        <v>10608</v>
+        <v>10607</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D162" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10608</v>
+        <v>item_10607</v>
       </c>
       <c r="E162" s="4">
         <v>0</v>
@@ -6088,14 +6098,14 @@
         <v>160</v>
       </c>
       <c r="B163" s="4">
-        <v>10609</v>
+        <v>10608</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D163" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10609</v>
+        <v>item_10608</v>
       </c>
       <c r="E163" s="4">
         <v>0</v>
@@ -6116,14 +6126,14 @@
         <v>161</v>
       </c>
       <c r="B164" s="4">
-        <v>10610</v>
+        <v>10609</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D164" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10610</v>
+        <v>item_10609</v>
       </c>
       <c r="E164" s="4">
         <v>0</v>
@@ -6144,14 +6154,14 @@
         <v>162</v>
       </c>
       <c r="B165" s="4">
-        <v>10611</v>
+        <v>10610</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D165" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10611</v>
+        <v>item_10610</v>
       </c>
       <c r="E165" s="4">
         <v>0</v>
@@ -6172,14 +6182,14 @@
         <v>163</v>
       </c>
       <c r="B166" s="4">
-        <v>10612</v>
+        <v>10611</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D166" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10612</v>
+        <v>item_10611</v>
       </c>
       <c r="E166" s="4">
         <v>0</v>
@@ -6200,14 +6210,14 @@
         <v>164</v>
       </c>
       <c r="B167" s="4">
-        <v>10613</v>
+        <v>10612</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D167" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10613</v>
+        <v>item_10612</v>
       </c>
       <c r="E167" s="4">
         <v>0</v>
@@ -6228,50 +6238,48 @@
         <v>165</v>
       </c>
       <c r="B168" s="4">
-        <v>20001</v>
+        <v>10613</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D168" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_20001</v>
+        <v>item_10613</v>
       </c>
       <c r="E168" s="4">
         <v>0</v>
       </c>
       <c r="F168" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G168" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H168" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="I168" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="I168" s="4"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>166</v>
       </c>
       <c r="B169" s="4">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D169" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_20002</v>
+        <v>item_20001</v>
       </c>
       <c r="E169" s="4">
         <v>0</v>
       </c>
       <c r="F169" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G169" s="4">
         <v>5</v>
@@ -6280,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6288,20 +6296,20 @@
         <v>167</v>
       </c>
       <c r="B170" s="4">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D170" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_20003</v>
+        <v>item_20002</v>
       </c>
       <c r="E170" s="4">
         <v>0</v>
       </c>
       <c r="F170" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G170" s="4">
         <v>5</v>
@@ -6310,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6318,20 +6326,20 @@
         <v>168</v>
       </c>
       <c r="B171" s="4">
-        <v>20006</v>
+        <v>20003</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D171" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_20006</v>
+        <v>item_20003</v>
       </c>
       <c r="E171" s="4">
         <v>0</v>
       </c>
       <c r="F171" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G171" s="4">
         <v>5</v>
@@ -6340,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6348,20 +6356,20 @@
         <v>169</v>
       </c>
       <c r="B172" s="4">
-        <v>20007</v>
+        <v>20006</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D172" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_20007</v>
+        <v>item_20006</v>
       </c>
       <c r="E172" s="4">
         <v>0</v>
       </c>
       <c r="F172" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G172" s="4">
         <v>5</v>
@@ -6370,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6378,20 +6386,20 @@
         <v>170</v>
       </c>
       <c r="B173" s="4">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D173" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_20008</v>
+        <v>item_20007</v>
       </c>
       <c r="E173" s="4">
         <v>0</v>
       </c>
       <c r="F173" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G173" s="4">
         <v>5</v>
@@ -6400,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6408,14 +6416,14 @@
         <v>171</v>
       </c>
       <c r="B174" s="4">
-        <v>20010</v>
+        <v>20008</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D174" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_20010</v>
+        <v>item_20008</v>
       </c>
       <c r="E174" s="4">
         <v>0</v>
@@ -6430,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6438,14 +6446,14 @@
         <v>172</v>
       </c>
       <c r="B175" s="4">
-        <v>20011</v>
+        <v>20010</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D175" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_20011</v>
+        <v>item_20010</v>
       </c>
       <c r="E175" s="4">
         <v>0</v>
@@ -6460,6 +6468,36 @@
         <v>1</v>
       </c>
       <c r="I175" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>173</v>
+      </c>
+      <c r="B176" s="4">
+        <v>20011</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D176" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_20011</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0</v>
+      </c>
+      <c r="F176" s="4">
+        <v>4</v>
+      </c>
+      <c r="G176" s="4">
+        <v>5</v>
+      </c>
+      <c r="H176" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I176" s="4" t="s">
         <v>225</v>
       </c>
     </row>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C607F74-A6A7-49A1-BC33-7203C04D5EB1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B11F66A-0FB6-40A5-9C53-62DCD8C86026}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,9 +497,6 @@
     <t>护盾晶片S1</t>
   </si>
   <si>
-    <t>护盾回复晶片S1</t>
-  </si>
-  <si>
     <t>暴击晶片S1</t>
   </si>
   <si>
@@ -509,15 +506,6 @@
     <t>格挡晶片S1</t>
   </si>
   <si>
-    <t>伤害提升晶片S1</t>
-  </si>
-  <si>
-    <t>伤害减免晶片S1</t>
-  </si>
-  <si>
-    <t>金币获取晶片S1</t>
-  </si>
-  <si>
     <t>攻击晶片S2</t>
   </si>
   <si>
@@ -530,9 +518,6 @@
     <t>护盾晶片S2</t>
   </si>
   <si>
-    <t>护盾回复晶片S2</t>
-  </si>
-  <si>
     <t>暴击晶片S2</t>
   </si>
   <si>
@@ -542,15 +527,6 @@
     <t>格挡晶片S2</t>
   </si>
   <si>
-    <t>伤害提升晶片S2</t>
-  </si>
-  <si>
-    <t>伤害减免晶片S2</t>
-  </si>
-  <si>
-    <t>金币获取晶片S2</t>
-  </si>
-  <si>
     <t>攻击晶片S3</t>
   </si>
   <si>
@@ -563,9 +539,6 @@
     <t>护盾晶片S3</t>
   </si>
   <si>
-    <t>护盾回复晶片S3</t>
-  </si>
-  <si>
     <t>暴击晶片S3</t>
   </si>
   <si>
@@ -575,15 +548,6 @@
     <t>格挡晶片S3</t>
   </si>
   <si>
-    <t>伤害提升晶片S3</t>
-  </si>
-  <si>
-    <t>伤害减免晶片S3</t>
-  </si>
-  <si>
-    <t>金币获取晶片S3</t>
-  </si>
-  <si>
     <t>攻击晶片S4</t>
   </si>
   <si>
@@ -596,9 +560,6 @@
     <t>护盾晶片S4</t>
   </si>
   <si>
-    <t>护盾回复晶片S4</t>
-  </si>
-  <si>
     <t>暴击晶片S4</t>
   </si>
   <si>
@@ -608,15 +569,6 @@
     <t>格挡晶片S4</t>
   </si>
   <si>
-    <t>伤害提升晶片S4</t>
-  </si>
-  <si>
-    <t>伤害减免晶片S4</t>
-  </si>
-  <si>
-    <t>金币获取晶片S4</t>
-  </si>
-  <si>
     <t>攻击晶片S5</t>
   </si>
   <si>
@@ -629,9 +581,6 @@
     <t>护盾晶片S5</t>
   </si>
   <si>
-    <t>护盾回复晶片S5</t>
-  </si>
-  <si>
     <t>暴击晶片S5</t>
   </si>
   <si>
@@ -641,15 +590,6 @@
     <t>格挡晶片S5</t>
   </si>
   <si>
-    <t>伤害提升晶片S5</t>
-  </si>
-  <si>
-    <t>伤害减免晶片S5</t>
-  </si>
-  <si>
-    <t>金币获取晶片S5</t>
-  </si>
-  <si>
     <t>攻击晶片S6</t>
   </si>
   <si>
@@ -662,9 +602,6 @@
     <t>护盾晶片S6</t>
   </si>
   <si>
-    <t>护盾回复晶片S6</t>
-  </si>
-  <si>
     <t>暴击晶片S6</t>
   </si>
   <si>
@@ -674,15 +611,6 @@
     <t>格挡晶片S6</t>
   </si>
   <si>
-    <t>伤害提升晶片S6</t>
-  </si>
-  <si>
-    <t>伤害减免晶片S6</t>
-  </si>
-  <si>
-    <t>金币获取晶片S6</t>
-  </si>
-  <si>
     <t>攻击晶片S7</t>
   </si>
   <si>
@@ -695,9 +623,6 @@
     <t>护盾晶片S7</t>
   </si>
   <si>
-    <t>护盾回复晶片S7</t>
-  </si>
-  <si>
     <t>暴击晶片S7</t>
   </si>
   <si>
@@ -707,15 +632,6 @@
     <t>格挡晶片S7</t>
   </si>
   <si>
-    <t>伤害提升晶片S7</t>
-  </si>
-  <si>
-    <t>伤害减免晶片S7</t>
-  </si>
-  <si>
-    <t>金币获取晶片S7</t>
-  </si>
-  <si>
     <t>冲击晶片S1</t>
   </si>
   <si>
@@ -899,6 +815,90 @@
   <si>
     <t>用于晶片抽取。</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富晶片S1</t>
+  </si>
+  <si>
+    <t>财富晶片S2</t>
+  </si>
+  <si>
+    <t>财富晶片S3</t>
+  </si>
+  <si>
+    <t>财富晶片S4</t>
+  </si>
+  <si>
+    <t>财富晶片S5</t>
+  </si>
+  <si>
+    <t>财富晶片S6</t>
+  </si>
+  <si>
+    <t>财富晶片S7</t>
+  </si>
+  <si>
+    <t>增伤晶片S1</t>
+  </si>
+  <si>
+    <t>增伤晶片S2</t>
+  </si>
+  <si>
+    <t>增伤晶片S3</t>
+  </si>
+  <si>
+    <t>增伤晶片S4</t>
+  </si>
+  <si>
+    <t>增伤晶片S5</t>
+  </si>
+  <si>
+    <t>增伤晶片S6</t>
+  </si>
+  <si>
+    <t>增伤晶片S7</t>
+  </si>
+  <si>
+    <t>减伤晶片S1</t>
+  </si>
+  <si>
+    <t>减伤晶片S2</t>
+  </si>
+  <si>
+    <t>减伤晶片S3</t>
+  </si>
+  <si>
+    <t>减伤晶片S4</t>
+  </si>
+  <si>
+    <t>减伤晶片S5</t>
+  </si>
+  <si>
+    <t>减伤晶片S6</t>
+  </si>
+  <si>
+    <t>减伤晶片S7</t>
+  </si>
+  <si>
+    <t>奥能晶片S1</t>
+  </si>
+  <si>
+    <t>奥能晶片S2</t>
+  </si>
+  <si>
+    <t>奥能晶片S3</t>
+  </si>
+  <si>
+    <t>奥能晶片S4</t>
+  </si>
+  <si>
+    <t>奥能晶片S5</t>
+  </si>
+  <si>
+    <t>奥能晶片S6</t>
+  </si>
+  <si>
+    <t>奥能晶片S7</t>
   </si>
 </sst>
 </file>
@@ -1461,17 +1461,17 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -1483,16 +1483,16 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -1512,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2934E6-EE36-4525-8F91-B89D67D36F59}">
   <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1528,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1569,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1598,7 +1598,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>20</v>
@@ -1921,7 +1921,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -2011,7 +2011,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3833,7 +3833,7 @@
         <v>10005</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="D82" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3861,7 +3861,7 @@
         <v>10006</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D83" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3889,7 +3889,7 @@
         <v>10007</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D84" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3917,7 +3917,7 @@
         <v>10008</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="D85" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3945,7 +3945,7 @@
         <v>10009</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D86" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3973,7 +3973,7 @@
         <v>10010</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="D87" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4001,7 +4001,7 @@
         <v>10011</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="D88" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4029,7 +4029,7 @@
         <v>10012</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="D89" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4057,7 +4057,7 @@
         <v>10013</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="D90" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4085,7 +4085,7 @@
         <v>10101</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D91" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4113,7 +4113,7 @@
         <v>10102</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D92" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4141,7 +4141,7 @@
         <v>10103</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D93" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4169,7 +4169,7 @@
         <v>10104</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D94" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4197,7 +4197,7 @@
         <v>10105</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="D95" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4225,7 +4225,7 @@
         <v>10106</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D96" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4253,7 +4253,7 @@
         <v>10107</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D97" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4281,7 +4281,7 @@
         <v>10108</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D98" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4309,7 +4309,7 @@
         <v>10109</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D99" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4337,7 +4337,7 @@
         <v>10110</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="D100" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4365,7 +4365,7 @@
         <v>10111</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="D101" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4393,7 +4393,7 @@
         <v>10112</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="D102" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4421,7 +4421,7 @@
         <v>10113</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="D103" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4449,7 +4449,7 @@
         <v>10201</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D104" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4477,7 +4477,7 @@
         <v>10202</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D105" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4505,7 +4505,7 @@
         <v>10203</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D106" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4533,7 +4533,7 @@
         <v>10204</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D107" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4561,7 +4561,7 @@
         <v>10205</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="D108" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4589,7 +4589,7 @@
         <v>10206</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D109" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4617,7 +4617,7 @@
         <v>10207</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D110" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4645,7 +4645,7 @@
         <v>10208</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="D111" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4673,7 +4673,7 @@
         <v>10209</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D112" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4701,7 +4701,7 @@
         <v>10210</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="D113" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4729,7 +4729,7 @@
         <v>10211</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="D114" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4757,7 +4757,7 @@
         <v>10212</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="D115" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4785,7 +4785,7 @@
         <v>10213</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D116" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4813,7 +4813,7 @@
         <v>10301</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D117" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4841,7 +4841,7 @@
         <v>10302</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D118" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4869,7 +4869,7 @@
         <v>10303</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D119" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4897,7 +4897,7 @@
         <v>10304</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D120" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4925,7 +4925,7 @@
         <v>10305</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="D121" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4953,7 +4953,7 @@
         <v>10306</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D122" s="4" t="str">
         <f t="shared" si="2"/>
@@ -4981,7 +4981,7 @@
         <v>10307</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D123" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5009,7 +5009,7 @@
         <v>10308</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="D124" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5037,7 +5037,7 @@
         <v>10309</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D125" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5065,7 +5065,7 @@
         <v>10310</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="D126" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5093,7 +5093,7 @@
         <v>10311</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="D127" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5121,7 +5121,7 @@
         <v>10312</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="D128" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5149,7 +5149,7 @@
         <v>10313</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D129" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5177,7 +5177,7 @@
         <v>10401</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D130" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5205,7 +5205,7 @@
         <v>10402</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D131" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5233,7 +5233,7 @@
         <v>10403</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D132" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5261,7 +5261,7 @@
         <v>10404</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D133" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5289,7 +5289,7 @@
         <v>10405</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="D134" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5317,7 +5317,7 @@
         <v>10406</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D135" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5345,7 +5345,7 @@
         <v>10407</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D136" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5373,7 +5373,7 @@
         <v>10408</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D137" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5401,7 +5401,7 @@
         <v>10409</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D138" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5429,7 +5429,7 @@
         <v>10410</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="D139" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5457,7 +5457,7 @@
         <v>10411</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="D140" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5485,7 +5485,7 @@
         <v>10412</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="D141" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5513,7 +5513,7 @@
         <v>10413</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D142" s="4" t="str">
         <f t="shared" ref="D142:D176" si="3">"item_"&amp;B142</f>
@@ -5541,7 +5541,7 @@
         <v>10501</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D143" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5569,7 +5569,7 @@
         <v>10502</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D144" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5597,7 +5597,7 @@
         <v>10503</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D145" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5625,7 +5625,7 @@
         <v>10504</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D146" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5653,7 +5653,7 @@
         <v>10505</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="D147" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5681,7 +5681,7 @@
         <v>10506</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D148" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5709,7 +5709,7 @@
         <v>10507</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D149" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5737,7 +5737,7 @@
         <v>10508</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="D150" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5765,7 +5765,7 @@
         <v>10509</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D151" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5793,7 +5793,7 @@
         <v>10510</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="D152" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5821,7 +5821,7 @@
         <v>10511</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="D153" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5849,7 +5849,7 @@
         <v>10512</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="D154" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5877,7 +5877,7 @@
         <v>10513</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D155" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5905,7 +5905,7 @@
         <v>10601</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D156" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5933,7 +5933,7 @@
         <v>10602</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D157" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5961,7 +5961,7 @@
         <v>10603</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D158" s="4" t="str">
         <f t="shared" si="3"/>
@@ -5989,7 +5989,7 @@
         <v>10604</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D159" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6017,7 +6017,7 @@
         <v>10605</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="D160" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6045,7 +6045,7 @@
         <v>10606</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D161" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6073,7 +6073,7 @@
         <v>10607</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="D162" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6101,7 +6101,7 @@
         <v>10608</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="D163" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6129,7 +6129,7 @@
         <v>10609</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D164" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6157,7 +6157,7 @@
         <v>10610</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="D165" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6185,7 +6185,7 @@
         <v>10611</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="D166" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6213,7 +6213,7 @@
         <v>10612</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="D167" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6241,7 +6241,7 @@
         <v>10613</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="D168" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6269,7 +6269,7 @@
         <v>20001</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D169" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6288,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6299,7 +6299,7 @@
         <v>20002</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="D170" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6329,7 +6329,7 @@
         <v>20003</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="D171" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6348,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6359,7 +6359,7 @@
         <v>20006</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="D172" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6378,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6389,7 +6389,7 @@
         <v>20007</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D173" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6419,7 +6419,7 @@
         <v>20008</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="D174" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6438,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6449,7 +6449,7 @@
         <v>20010</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="D175" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6468,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -6479,7 +6479,7 @@
         <v>20011</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="D176" s="4" t="str">
         <f t="shared" si="3"/>
@@ -6498,7 +6498,7 @@
         <v>1</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF6F697-D0AA-472D-A3E7-CCA37B4CBF5A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43184619-E663-4150-B1E1-E77EFD6271D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="宝箱" sheetId="42" r:id="rId3"/>
     <sheet name="宝箱固定掉落" sheetId="43" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="555">
   <si>
     <t>sheet名</t>
   </si>
@@ -1446,414 +1446,470 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励道具ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量权重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片宝箱</t>
+  </si>
+  <si>
+    <t>装备宝箱</t>
+  </si>
+  <si>
+    <t>dropIds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:a&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>铜宝箱钥匙</t>
+  </si>
+  <si>
+    <t>银宝箱钥匙</t>
+  </si>
+  <si>
+    <t>金宝箱钥匙</t>
+  </si>
+  <si>
+    <t>晶片抽取券</t>
+  </si>
+  <si>
+    <t>金币小宝箱</t>
+  </si>
+  <si>
+    <t>金币中宝箱</t>
+  </si>
+  <si>
+    <t>金币大宝箱</t>
+  </si>
+  <si>
+    <t>铜宝箱</t>
+  </si>
+  <si>
+    <t>银宝箱</t>
+  </si>
+  <si>
+    <t>金宝箱</t>
+  </si>
+  <si>
+    <t>突破丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙魂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级精炼石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级精炼石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级精炼石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特技精炼石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S1</t>
+  </si>
+  <si>
+    <t>武器S2</t>
+  </si>
+  <si>
+    <t>武器S3</t>
+  </si>
+  <si>
+    <t>武器S4</t>
+  </si>
+  <si>
+    <t>武器S5</t>
+  </si>
+  <si>
+    <t>武器S6</t>
+  </si>
+  <si>
+    <t>武器S7</t>
+  </si>
+  <si>
+    <t>武器S8</t>
+  </si>
+  <si>
+    <t>武器S9</t>
+  </si>
+  <si>
+    <t>武器S10</t>
+  </si>
+  <si>
+    <t>武器S11</t>
+  </si>
+  <si>
+    <t>武器S12</t>
+  </si>
+  <si>
+    <t>头盔S1</t>
+  </si>
+  <si>
+    <t>头盔S2</t>
+  </si>
+  <si>
+    <t>头盔S3</t>
+  </si>
+  <si>
+    <t>头盔S4</t>
+  </si>
+  <si>
+    <t>头盔S5</t>
+  </si>
+  <si>
+    <t>头盔S6</t>
+  </si>
+  <si>
+    <t>头盔S7</t>
+  </si>
+  <si>
+    <t>头盔S8</t>
+  </si>
+  <si>
+    <t>头盔S9</t>
+  </si>
+  <si>
+    <t>头盔S10</t>
+  </si>
+  <si>
+    <t>头盔S11</t>
+  </si>
+  <si>
+    <t>头盔S12</t>
+  </si>
+  <si>
+    <t>肩甲S1</t>
+  </si>
+  <si>
+    <t>肩甲S2</t>
+  </si>
+  <si>
+    <t>肩甲S3</t>
+  </si>
+  <si>
+    <t>肩甲S4</t>
+  </si>
+  <si>
+    <t>肩甲S5</t>
+  </si>
+  <si>
+    <t>肩甲S6</t>
+  </si>
+  <si>
+    <t>肩甲S7</t>
+  </si>
+  <si>
+    <t>肩甲S8</t>
+  </si>
+  <si>
+    <t>肩甲S9</t>
+  </si>
+  <si>
+    <t>肩甲S10</t>
+  </si>
+  <si>
+    <t>肩甲S11</t>
+  </si>
+  <si>
+    <t>肩甲S12</t>
+  </si>
+  <si>
+    <t>衣服S1</t>
+  </si>
+  <si>
+    <t>衣服S2</t>
+  </si>
+  <si>
+    <t>衣服S3</t>
+  </si>
+  <si>
+    <t>衣服S4</t>
+  </si>
+  <si>
+    <t>衣服S5</t>
+  </si>
+  <si>
+    <t>衣服S6</t>
+  </si>
+  <si>
+    <t>衣服S7</t>
+  </si>
+  <si>
+    <t>衣服S8</t>
+  </si>
+  <si>
+    <t>衣服S9</t>
+  </si>
+  <si>
+    <t>衣服S10</t>
+  </si>
+  <si>
+    <t>衣服S11</t>
+  </si>
+  <si>
+    <t>衣服S12</t>
+  </si>
+  <si>
+    <t>裤子S1</t>
+  </si>
+  <si>
+    <t>裤子S2</t>
+  </si>
+  <si>
+    <t>裤子S3</t>
+  </si>
+  <si>
+    <t>裤子S4</t>
+  </si>
+  <si>
+    <t>裤子S5</t>
+  </si>
+  <si>
+    <t>裤子S6</t>
+  </si>
+  <si>
+    <t>裤子S7</t>
+  </si>
+  <si>
+    <t>裤子S8</t>
+  </si>
+  <si>
+    <t>裤子S9</t>
+  </si>
+  <si>
+    <t>裤子S10</t>
+  </si>
+  <si>
+    <t>裤子S11</t>
+  </si>
+  <si>
+    <t>裤子S12</t>
+  </si>
+  <si>
+    <t>鞋子S1</t>
+  </si>
+  <si>
+    <t>鞋子S2</t>
+  </si>
+  <si>
+    <t>鞋子S3</t>
+  </si>
+  <si>
+    <t>鞋子S4</t>
+  </si>
+  <si>
+    <t>鞋子S5</t>
+  </si>
+  <si>
+    <t>鞋子S6</t>
+  </si>
+  <si>
+    <t>鞋子S7</t>
+  </si>
+  <si>
+    <t>鞋子S8</t>
+  </si>
+  <si>
+    <t>鞋子S9</t>
+  </si>
+  <si>
+    <t>鞋子S10</t>
+  </si>
+  <si>
+    <t>鞋子S11</t>
+  </si>
+  <si>
+    <t>鞋子S12</t>
+  </si>
+  <si>
+    <t>项链S1</t>
+  </si>
+  <si>
+    <t>项链S2</t>
+  </si>
+  <si>
+    <t>项链S3</t>
+  </si>
+  <si>
+    <t>项链S4</t>
+  </si>
+  <si>
+    <t>项链S5</t>
+  </si>
+  <si>
+    <t>项链S6</t>
+  </si>
+  <si>
+    <t>项链S7</t>
+  </si>
+  <si>
+    <t>项链S8</t>
+  </si>
+  <si>
+    <t>项链S9</t>
+  </si>
+  <si>
+    <t>项链S10</t>
+  </si>
+  <si>
+    <t>项链S11</t>
+  </si>
+  <si>
+    <t>项链S12</t>
+  </si>
+  <si>
+    <t>戒指S1</t>
+  </si>
+  <si>
+    <t>戒指S2</t>
+  </si>
+  <si>
+    <t>戒指S3</t>
+  </si>
+  <si>
+    <t>戒指S4</t>
+  </si>
+  <si>
+    <t>戒指S5</t>
+  </si>
+  <si>
+    <t>戒指S6</t>
+  </si>
+  <si>
+    <t>戒指S7</t>
+  </si>
+  <si>
+    <t>戒指S8</t>
+  </si>
+  <si>
+    <t>戒指S9</t>
+  </si>
+  <si>
+    <t>戒指S10</t>
+  </si>
+  <si>
+    <t>戒指S11</t>
+  </si>
+  <si>
+    <t>戒指S12</t>
+  </si>
+  <si>
+    <t>龙晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>awards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙魂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱固定掉落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>box.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱的固定掉落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,102,103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106,107,108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>itemId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励道具ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量权重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶片宝箱</t>
-  </si>
-  <si>
-    <t>装备宝箱</t>
-  </si>
-  <si>
-    <t>dropIds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop_id:a&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>钻石</t>
-  </si>
-  <si>
-    <t>铜宝箱钥匙</t>
-  </si>
-  <si>
-    <t>银宝箱钥匙</t>
-  </si>
-  <si>
-    <t>金宝箱钥匙</t>
-  </si>
-  <si>
-    <t>晶片抽取券</t>
-  </si>
-  <si>
-    <t>金币小宝箱</t>
-  </si>
-  <si>
-    <t>金币中宝箱</t>
-  </si>
-  <si>
-    <t>金币大宝箱</t>
-  </si>
-  <si>
-    <t>铜宝箱</t>
-  </si>
-  <si>
-    <t>银宝箱</t>
-  </si>
-  <si>
-    <t>金宝箱</t>
-  </si>
-  <si>
-    <t>突破丹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天命丹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙魂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级精炼石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级精炼石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级精炼石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特技精炼石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S1</t>
-  </si>
-  <si>
-    <t>武器S2</t>
-  </si>
-  <si>
-    <t>武器S3</t>
-  </si>
-  <si>
-    <t>武器S4</t>
-  </si>
-  <si>
-    <t>武器S5</t>
-  </si>
-  <si>
-    <t>武器S6</t>
-  </si>
-  <si>
-    <t>武器S7</t>
-  </si>
-  <si>
-    <t>武器S8</t>
-  </si>
-  <si>
-    <t>武器S9</t>
-  </si>
-  <si>
-    <t>武器S10</t>
-  </si>
-  <si>
-    <t>武器S11</t>
-  </si>
-  <si>
-    <t>武器S12</t>
-  </si>
-  <si>
-    <t>头盔S1</t>
-  </si>
-  <si>
-    <t>头盔S2</t>
-  </si>
-  <si>
-    <t>头盔S3</t>
-  </si>
-  <si>
-    <t>头盔S4</t>
-  </si>
-  <si>
-    <t>头盔S5</t>
-  </si>
-  <si>
-    <t>头盔S6</t>
-  </si>
-  <si>
-    <t>头盔S7</t>
-  </si>
-  <si>
-    <t>头盔S8</t>
-  </si>
-  <si>
-    <t>头盔S9</t>
-  </si>
-  <si>
-    <t>头盔S10</t>
-  </si>
-  <si>
-    <t>头盔S11</t>
-  </si>
-  <si>
-    <t>头盔S12</t>
-  </si>
-  <si>
-    <t>肩甲S1</t>
-  </si>
-  <si>
-    <t>肩甲S2</t>
-  </si>
-  <si>
-    <t>肩甲S3</t>
-  </si>
-  <si>
-    <t>肩甲S4</t>
-  </si>
-  <si>
-    <t>肩甲S5</t>
-  </si>
-  <si>
-    <t>肩甲S6</t>
-  </si>
-  <si>
-    <t>肩甲S7</t>
-  </si>
-  <si>
-    <t>肩甲S8</t>
-  </si>
-  <si>
-    <t>肩甲S9</t>
-  </si>
-  <si>
-    <t>肩甲S10</t>
-  </si>
-  <si>
-    <t>肩甲S11</t>
-  </si>
-  <si>
-    <t>肩甲S12</t>
-  </si>
-  <si>
-    <t>衣服S1</t>
-  </si>
-  <si>
-    <t>衣服S2</t>
-  </si>
-  <si>
-    <t>衣服S3</t>
-  </si>
-  <si>
-    <t>衣服S4</t>
-  </si>
-  <si>
-    <t>衣服S5</t>
-  </si>
-  <si>
-    <t>衣服S6</t>
-  </si>
-  <si>
-    <t>衣服S7</t>
-  </si>
-  <si>
-    <t>衣服S8</t>
-  </si>
-  <si>
-    <t>衣服S9</t>
-  </si>
-  <si>
-    <t>衣服S10</t>
-  </si>
-  <si>
-    <t>衣服S11</t>
-  </si>
-  <si>
-    <t>衣服S12</t>
-  </si>
-  <si>
-    <t>裤子S1</t>
-  </si>
-  <si>
-    <t>裤子S2</t>
-  </si>
-  <si>
-    <t>裤子S3</t>
-  </si>
-  <si>
-    <t>裤子S4</t>
-  </si>
-  <si>
-    <t>裤子S5</t>
-  </si>
-  <si>
-    <t>裤子S6</t>
-  </si>
-  <si>
-    <t>裤子S7</t>
-  </si>
-  <si>
-    <t>裤子S8</t>
-  </si>
-  <si>
-    <t>裤子S9</t>
-  </si>
-  <si>
-    <t>裤子S10</t>
-  </si>
-  <si>
-    <t>裤子S11</t>
-  </si>
-  <si>
-    <t>裤子S12</t>
-  </si>
-  <si>
-    <t>鞋子S1</t>
-  </si>
-  <si>
-    <t>鞋子S2</t>
-  </si>
-  <si>
-    <t>鞋子S3</t>
-  </si>
-  <si>
-    <t>鞋子S4</t>
-  </si>
-  <si>
-    <t>鞋子S5</t>
-  </si>
-  <si>
-    <t>鞋子S6</t>
-  </si>
-  <si>
-    <t>鞋子S7</t>
-  </si>
-  <si>
-    <t>鞋子S8</t>
-  </si>
-  <si>
-    <t>鞋子S9</t>
-  </si>
-  <si>
-    <t>鞋子S10</t>
-  </si>
-  <si>
-    <t>鞋子S11</t>
-  </si>
-  <si>
-    <t>鞋子S12</t>
-  </si>
-  <si>
-    <t>项链S1</t>
-  </si>
-  <si>
-    <t>项链S2</t>
-  </si>
-  <si>
-    <t>项链S3</t>
-  </si>
-  <si>
-    <t>项链S4</t>
-  </si>
-  <si>
-    <t>项链S5</t>
-  </si>
-  <si>
-    <t>项链S6</t>
-  </si>
-  <si>
-    <t>项链S7</t>
-  </si>
-  <si>
-    <t>项链S8</t>
-  </si>
-  <si>
-    <t>项链S9</t>
-  </si>
-  <si>
-    <t>项链S10</t>
-  </si>
-  <si>
-    <t>项链S11</t>
-  </si>
-  <si>
-    <t>项链S12</t>
-  </si>
-  <si>
-    <t>戒指S1</t>
-  </si>
-  <si>
-    <t>戒指S2</t>
-  </si>
-  <si>
-    <t>戒指S3</t>
-  </si>
-  <si>
-    <t>戒指S4</t>
-  </si>
-  <si>
-    <t>戒指S5</t>
-  </si>
-  <si>
-    <t>戒指S6</t>
-  </si>
-  <si>
-    <t>戒指S7</t>
-  </si>
-  <si>
-    <t>戒指S8</t>
-  </si>
-  <si>
-    <t>戒指S9</t>
-  </si>
-  <si>
-    <t>戒指S10</t>
-  </si>
-  <si>
-    <t>戒指S11</t>
-  </si>
-  <si>
-    <t>戒指S12</t>
+    <t>itemId,rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemId,help_col,loc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemId,help_col,loc,rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2088,7 +2144,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -2109,6 +2165,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2403,10 +2462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2485,9 +2544,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2499,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2934E6-EE36-4525-8F91-B89D67D36F59}">
   <dimension ref="A1:K213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2523,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>21</v>
@@ -2593,7 +2699,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
@@ -2628,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>25</v>
@@ -2663,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>26</v>
@@ -2698,7 +2804,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>96</v>
@@ -2733,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>28</v>
@@ -2768,7 +2874,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>27</v>
@@ -2803,7 +2909,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>40</v>
@@ -2838,7 +2944,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>35</v>
@@ -2873,7 +2979,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>33</v>
@@ -2908,7 +3014,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>34</v>
@@ -2943,7 +3049,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>39</v>
@@ -2978,7 +3084,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>59</v>
@@ -3013,7 +3119,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>60</v>
@@ -3048,7 +3154,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>61</v>
@@ -3083,7 +3189,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>72</v>
@@ -3118,7 +3224,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>398</v>
@@ -3154,7 +3260,7 @@
         <v>1001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>206</v>
@@ -3188,7 +3294,7 @@
         <v>1002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>207</v>
@@ -3222,7 +3328,7 @@
         <v>1003</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>208</v>
@@ -3256,7 +3362,7 @@
         <v>1004</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>209</v>
@@ -3290,7 +3396,7 @@
         <v>1005</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>218</v>
@@ -3324,7 +3430,7 @@
         <v>1006</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>210</v>
@@ -3358,7 +3464,7 @@
         <v>1007</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>219</v>
@@ -3392,7 +3498,7 @@
         <v>1008</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>220</v>
@@ -3426,7 +3532,7 @@
         <v>1011</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>222</v>
@@ -3460,7 +3566,7 @@
         <v>1012</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>224</v>
@@ -3494,7 +3600,7 @@
         <v>1013</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>226</v>
@@ -3528,7 +3634,7 @@
         <v>1014</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>228</v>
@@ -3562,7 +3668,7 @@
         <v>1015</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>230</v>
@@ -3596,7 +3702,7 @@
         <v>1016</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>232</v>
@@ -3630,7 +3736,7 @@
         <v>1017</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>234</v>
@@ -3664,7 +3770,7 @@
         <v>1018</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>236</v>
@@ -3698,7 +3804,7 @@
         <v>1021</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>238</v>
@@ -3732,7 +3838,7 @@
         <v>1022</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>240</v>
@@ -3766,7 +3872,7 @@
         <v>1023</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>242</v>
@@ -3800,7 +3906,7 @@
         <v>1024</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>244</v>
@@ -3834,7 +3940,7 @@
         <v>1025</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>246</v>
@@ -3868,7 +3974,7 @@
         <v>1026</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>248</v>
@@ -3902,7 +4008,7 @@
         <v>1027</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>250</v>
@@ -3936,7 +4042,7 @@
         <v>1028</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>252</v>
@@ -3970,7 +4076,7 @@
         <v>1031</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>254</v>
@@ -4004,7 +4110,7 @@
         <v>1032</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>256</v>
@@ -4038,7 +4144,7 @@
         <v>1033</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>258</v>
@@ -4072,7 +4178,7 @@
         <v>1034</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>260</v>
@@ -4106,7 +4212,7 @@
         <v>1035</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>262</v>
@@ -4140,7 +4246,7 @@
         <v>1036</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>264</v>
@@ -4174,7 +4280,7 @@
         <v>1037</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>266</v>
@@ -4208,7 +4314,7 @@
         <v>1038</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>268</v>
@@ -4242,7 +4348,7 @@
         <v>1041</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>270</v>
@@ -4276,7 +4382,7 @@
         <v>1042</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>272</v>
@@ -4310,7 +4416,7 @@
         <v>1043</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>274</v>
@@ -4344,7 +4450,7 @@
         <v>1044</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>276</v>
@@ -4378,7 +4484,7 @@
         <v>1045</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>278</v>
@@ -4412,7 +4518,7 @@
         <v>1046</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>280</v>
@@ -4446,7 +4552,7 @@
         <v>1047</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>282</v>
@@ -4480,7 +4586,7 @@
         <v>1048</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>284</v>
@@ -4514,7 +4620,7 @@
         <v>1051</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>286</v>
@@ -4548,7 +4654,7 @@
         <v>1052</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>288</v>
@@ -4582,7 +4688,7 @@
         <v>1053</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>290</v>
@@ -4616,7 +4722,7 @@
         <v>1054</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>292</v>
@@ -4650,7 +4756,7 @@
         <v>1055</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>294</v>
@@ -4684,7 +4790,7 @@
         <v>1056</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>296</v>
@@ -4718,7 +4824,7 @@
         <v>1057</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>298</v>
@@ -4752,7 +4858,7 @@
         <v>1058</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>300</v>
@@ -4786,7 +4892,7 @@
         <v>1061</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>302</v>
@@ -4820,7 +4926,7 @@
         <v>1062</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>304</v>
@@ -4854,7 +4960,7 @@
         <v>1063</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>306</v>
@@ -4888,7 +4994,7 @@
         <v>1064</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>308</v>
@@ -4922,7 +5028,7 @@
         <v>1065</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>310</v>
@@ -4956,7 +5062,7 @@
         <v>1066</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>312</v>
@@ -4990,7 +5096,7 @@
         <v>1067</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>314</v>
@@ -5024,7 +5130,7 @@
         <v>1068</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>316</v>
@@ -5058,7 +5164,7 @@
         <v>1071</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>318</v>
@@ -5092,7 +5198,7 @@
         <v>1072</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>320</v>
@@ -5126,7 +5232,7 @@
         <v>1073</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>322</v>
@@ -5160,7 +5266,7 @@
         <v>1074</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>324</v>
@@ -5194,7 +5300,7 @@
         <v>1075</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>326</v>
@@ -5228,7 +5334,7 @@
         <v>1076</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>328</v>
@@ -5262,7 +5368,7 @@
         <v>1077</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>330</v>
@@ -5296,7 +5402,7 @@
         <v>1078</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>332</v>
@@ -5330,7 +5436,7 @@
         <v>1081</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>334</v>
@@ -5364,7 +5470,7 @@
         <v>1082</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>336</v>
@@ -5398,7 +5504,7 @@
         <v>1083</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>338</v>
@@ -5432,7 +5538,7 @@
         <v>1084</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>340</v>
@@ -5466,7 +5572,7 @@
         <v>1085</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>342</v>
@@ -5500,7 +5606,7 @@
         <v>1086</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>344</v>
@@ -5534,7 +5640,7 @@
         <v>1087</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>346</v>
@@ -5568,7 +5674,7 @@
         <v>1088</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>348</v>
@@ -5602,7 +5708,7 @@
         <v>1091</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>350</v>
@@ -5636,7 +5742,7 @@
         <v>1092</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>352</v>
@@ -5670,7 +5776,7 @@
         <v>1093</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>354</v>
@@ -5704,7 +5810,7 @@
         <v>1094</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>356</v>
@@ -5738,7 +5844,7 @@
         <v>1095</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>358</v>
@@ -5772,7 +5878,7 @@
         <v>1096</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>360</v>
@@ -5806,7 +5912,7 @@
         <v>1097</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>362</v>
@@ -5840,7 +5946,7 @@
         <v>1098</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>364</v>
@@ -5874,7 +5980,7 @@
         <v>1101</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>366</v>
@@ -5908,7 +6014,7 @@
         <v>1102</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>368</v>
@@ -5942,7 +6048,7 @@
         <v>1103</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>370</v>
@@ -5976,7 +6082,7 @@
         <v>1104</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>372</v>
@@ -6010,7 +6116,7 @@
         <v>1105</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>374</v>
@@ -6044,7 +6150,7 @@
         <v>1106</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>376</v>
@@ -6078,7 +6184,7 @@
         <v>1107</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>378</v>
@@ -6112,7 +6218,7 @@
         <v>1108</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>380</v>
@@ -6146,7 +6252,7 @@
         <v>1111</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>382</v>
@@ -6180,7 +6286,7 @@
         <v>1112</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>384</v>
@@ -6214,7 +6320,7 @@
         <v>1113</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>386</v>
@@ -6248,7 +6354,7 @@
         <v>1114</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>388</v>
@@ -6282,7 +6388,7 @@
         <v>1115</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>390</v>
@@ -6316,7 +6422,7 @@
         <v>1116</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>392</v>
@@ -6350,7 +6456,7 @@
         <v>1117</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>394</v>
@@ -6384,7 +6490,7 @@
         <v>1118</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>396</v>
@@ -9694,7 +9800,7 @@
         <v>20001</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>51</v>
@@ -9729,7 +9835,7 @@
         <v>20002</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>52</v>
@@ -9764,7 +9870,7 @@
         <v>20003</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>53</v>
@@ -9799,7 +9905,7 @@
         <v>20006</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>56</v>
@@ -9834,7 +9940,7 @@
         <v>20007</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>57</v>
@@ -9869,7 +9975,7 @@
         <v>20008</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>58</v>
@@ -9904,7 +10010,7 @@
         <v>20010</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>97</v>
@@ -9939,7 +10045,7 @@
         <v>20011</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>68</v>
@@ -9979,7 +10085,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9993,13 +10099,13 @@
         <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>551</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>402</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -10013,7 +10119,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10038,9 +10144,11 @@
         <v>20010</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>417</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -10050,10 +10158,10 @@
         <v>20011</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D5" s="4">
-        <v>106</v>
+        <v>418</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -10064,10 +10172,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B8F1E6-D2C3-4200-85B4-CE263FF5866F}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10082,7 +10190,7 @@
         <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>411</v>
+        <v>551</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>403</v>
@@ -10105,7 +10213,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -10120,7 +10228,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -10131,19 +10239,88 @@
         <v>407</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>417</v>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20011</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20011</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20011</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43184619-E663-4150-B1E1-E77EFD6271D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD7E073-2403-4F01-91A2-6CCC215E4F05}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="宝箱" sheetId="42" r:id="rId3"/>
     <sheet name="宝箱固定掉落" sheetId="43" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="555">
   <si>
     <t>sheet名</t>
   </si>
@@ -1900,15 +1900,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>itemId,rowId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemId,help_col,loc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemId,help_col,loc,rowId</t>
+    <t>rowId,help_col,loc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,help_col,loc,rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,rowId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2464,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2548,17 +2548,15 @@
       <c r="A4" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>546</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>546</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>551</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>547</v>
@@ -2571,17 +2569,15 @@
       <c r="A5" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>546</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>546</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>548</v>
@@ -2593,7 +2589,7 @@
     <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10085,7 +10081,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10172,43 +10168,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B8F1E6-D2C3-4200-85B4-CE263FF5866F}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>403</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>404</v>
+      </c>
       <c r="D1" s="5" t="s">
-        <v>404</v>
+        <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>8</v>
+        <v>405</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G1" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -10216,110 +10208,95 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>410</v>
-      </c>
       <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G3" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>20011</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>540</v>
       </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
       <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>20011</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>20011</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>543</v>
       </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
       <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
         <v>5</v>
       </c>
     </row>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD7E073-2403-4F01-91A2-6CCC215E4F05}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDDDCB6-937B-4E17-8607-D0F35E4F52CF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="554">
   <si>
     <t>sheet名</t>
   </si>
@@ -1905,10 +1905,6 @@
   </si>
   <si>
     <t>rowId,help_col,loc,rowId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowId,rowId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2465,7 +2461,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2556,7 +2552,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>554</v>
+        <v>45</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>547</v>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDDDCB6-937B-4E17-8607-D0F35E4F52CF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18FEDF9-87FD-49F9-8AE9-70A37D76B89F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2460,7 +2460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2597,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2934E6-EE36-4525-8F91-B89D67D36F59}">
   <dimension ref="A1:K213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B7351C-AA2E-498D-8AF1-218A0734D506}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -12,23 +18,24 @@
     <sheet name="宝箱" sheetId="42" r:id="rId3"/>
     <sheet name="宝箱固定掉落" sheetId="43" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -37,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="664">
   <si>
     <t>sheet名</t>
   </si>
@@ -453,6 +461,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电磁增强装置</t>
@@ -462,7 +471,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>S1</t>
     </r>
@@ -1945,19 +1954,169 @@
   </si>
   <si>
     <t>awards</t>
+  </si>
+  <si>
+    <t>8级攻击晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级防御晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级生命晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级护盾晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级盾复晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级暴击晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级抗暴晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级冲击晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级格挡晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级增伤晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级减伤晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级财富晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级幸运晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级攻击晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级防御晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级生命晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级护盾晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级盾复晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级暴击晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级抗暴晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级冲击晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级格挡晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级增伤晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级减伤晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级财富晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级幸运晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级攻击晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级防御晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级生命晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级护盾晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级盾复晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级暴击晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级抗暴晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级冲击晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级格挡晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级增伤晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级减伤晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级财富晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级幸运晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1970,113 +2129,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2084,6 +2166,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2091,69 +2174,8 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2161,6 +2183,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2168,16 +2191,45 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2198,42 +2250,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2246,151 +2262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,12 +2274,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2431,60 +2303,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2495,332 +2313,97 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3078,19 +2661,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -3101,7 +2684,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3124,7 +2707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3145,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="44.25" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3166,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="27.75" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3186,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="27.75" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -3207,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -3228,31 +2811,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="21.75" customHeight="1" spans="1:1">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" ht="21.75" customHeight="1"/>
+    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L252"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E255" sqref="E255"/>
+      <selection pane="bottomRight" activeCell="M206" sqref="M206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
@@ -3264,7 +2845,7 @@
     <col min="11" max="11" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3299,7 +2880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3334,7 +2915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:11">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -3369,7 +2950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:11">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3404,7 +2985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:11">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3439,7 +3020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3474,7 +3055,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:11">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -3509,7 +3090,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:11">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3544,7 +3125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:11">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -3579,7 +3160,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:11">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -3615,7 +3196,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:11">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -3650,7 +3231,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:11">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -3685,7 +3266,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:11">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -3720,7 +3301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:11">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3755,7 +3336,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:11">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -3790,7 +3371,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:11">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -3825,7 +3406,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:11">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -3861,7 +3442,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:11">
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -3897,7 +3478,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:11">
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -3933,7 +3514,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:11">
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3969,7 +3550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:11">
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -4005,7 +3586,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:11">
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -4041,7 +3622,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:11">
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -4074,7 +3655,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" ht="16.5" spans="1:11">
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -4107,7 +3688,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" ht="16.5" spans="1:11">
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -4140,7 +3721,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" ht="16.5" spans="1:11">
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -4173,7 +3754,7 @@
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" ht="16.5" spans="1:11">
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -4186,7 +3767,7 @@
       <c r="D27" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>124</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -4206,7 +3787,7 @@
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" ht="16.5" spans="1:11">
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -4239,7 +3820,7 @@
       </c>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" ht="16.5" spans="1:11">
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -4249,7 +3830,7 @@
       <c r="C29" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -4272,7 +3853,7 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" ht="16.5" spans="1:11">
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -4305,7 +3886,7 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" ht="16.5" spans="1:11">
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -4338,7 +3919,7 @@
       </c>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" ht="16.5" spans="1:11">
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -4371,7 +3952,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" ht="16.5" spans="1:11">
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -4404,7 +3985,7 @@
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" ht="16.5" spans="1:11">
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -4437,7 +4018,7 @@
       </c>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" ht="16.5" spans="1:11">
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -4470,7 +4051,7 @@
       </c>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" ht="16.5" spans="1:11">
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -4503,7 +4084,7 @@
       </c>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" ht="16.5" spans="1:11">
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -4513,7 +4094,7 @@
       <c r="C37" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>157</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -4536,7 +4117,7 @@
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" ht="16.5" spans="1:11">
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -4569,7 +4150,7 @@
       </c>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" ht="16.5" spans="1:11">
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -4602,7 +4183,7 @@
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" ht="16.5" spans="1:11">
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -4635,7 +4216,7 @@
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" ht="16.5" spans="1:11">
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -4668,7 +4249,7 @@
       </c>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" ht="16.5" spans="1:11">
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -4701,7 +4282,7 @@
       </c>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" ht="16.5" spans="1:11">
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -4734,7 +4315,7 @@
       </c>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" ht="16.5" spans="1:11">
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -4767,7 +4348,7 @@
       </c>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" ht="16.5" spans="1:11">
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -4777,7 +4358,7 @@
       <c r="C45" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -4800,7 +4381,7 @@
       </c>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" ht="16.5" spans="1:11">
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -4833,7 +4414,7 @@
       </c>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" ht="16.5" spans="1:11">
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -4866,7 +4447,7 @@
       </c>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" ht="16.5" spans="1:11">
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -4899,7 +4480,7 @@
       </c>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" ht="16.5" spans="1:11">
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -4932,7 +4513,7 @@
       </c>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" ht="16.5" spans="1:11">
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -4965,7 +4546,7 @@
       </c>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" ht="16.5" spans="1:11">
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -4998,7 +4579,7 @@
       </c>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" ht="16.5" spans="1:11">
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -5031,7 +4612,7 @@
       </c>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" ht="16.5" spans="1:11">
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -5041,7 +4622,7 @@
       <c r="C53" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>211</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -5064,7 +4645,7 @@
       </c>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" ht="16.5" spans="1:11">
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -5097,7 +4678,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" ht="16.5" spans="1:11">
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -5130,7 +4711,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" ht="16.5" spans="1:11">
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -5163,7 +4744,7 @@
       </c>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" ht="16.5" spans="1:11">
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -5196,7 +4777,7 @@
       </c>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" ht="16.5" spans="1:11">
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -5229,7 +4810,7 @@
       </c>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" ht="16.5" spans="1:11">
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -5262,7 +4843,7 @@
       </c>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" ht="16.5" spans="1:11">
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -5295,7 +4876,7 @@
       </c>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" ht="16.5" spans="1:11">
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -5305,7 +4886,7 @@
       <c r="C61" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>237</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -5328,7 +4909,7 @@
       </c>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" ht="16.5" spans="1:11">
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -5361,7 +4942,7 @@
       </c>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" ht="16.5" spans="1:11">
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -5394,7 +4975,7 @@
       </c>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" ht="16.5" spans="1:11">
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>61</v>
       </c>
@@ -5427,7 +5008,7 @@
       </c>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" ht="16.5" spans="1:11">
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -5460,7 +5041,7 @@
       </c>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" ht="16.5" spans="1:11">
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -5493,7 +5074,7 @@
       </c>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" ht="16.5" spans="1:11">
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -5526,7 +5107,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" ht="16.5" spans="1:11">
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -5559,7 +5140,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" ht="16.5" spans="1:11">
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>66</v>
       </c>
@@ -5569,7 +5150,7 @@
       <c r="C69" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>261</v>
       </c>
       <c r="E69" s="4" t="s">
@@ -5592,7 +5173,7 @@
       </c>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" ht="16.5" spans="1:11">
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -5625,7 +5206,7 @@
       </c>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" ht="16.5" spans="1:11">
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>68</v>
       </c>
@@ -5658,7 +5239,7 @@
       </c>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" ht="16.5" spans="1:11">
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>69</v>
       </c>
@@ -5691,7 +5272,7 @@
       </c>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" ht="16.5" spans="1:11">
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>70</v>
       </c>
@@ -5724,7 +5305,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" ht="16.5" spans="1:11">
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>71</v>
       </c>
@@ -5757,7 +5338,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" ht="16.5" spans="1:11">
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>72</v>
       </c>
@@ -5790,7 +5371,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" ht="16.5" spans="1:11">
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>73</v>
       </c>
@@ -5823,7 +5404,7 @@
       </c>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" ht="16.5" spans="1:11">
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>74</v>
       </c>
@@ -5833,7 +5414,7 @@
       <c r="C77" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>291</v>
       </c>
       <c r="E77" s="4" t="s">
@@ -5856,7 +5437,7 @@
       </c>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" ht="16.5" spans="1:11">
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>75</v>
       </c>
@@ -5889,7 +5470,7 @@
       </c>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" ht="16.5" spans="1:11">
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>76</v>
       </c>
@@ -5922,7 +5503,7 @@
       </c>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" ht="16.5" spans="1:11">
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>77</v>
       </c>
@@ -5955,7 +5536,7 @@
       </c>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" ht="16.5" spans="1:11">
+    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>78</v>
       </c>
@@ -5988,7 +5569,7 @@
       </c>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" ht="16.5" spans="1:11">
+    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>79</v>
       </c>
@@ -6021,7 +5602,7 @@
       </c>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" ht="16.5" spans="1:11">
+    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>80</v>
       </c>
@@ -6054,7 +5635,7 @@
       </c>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" ht="16.5" spans="1:11">
+    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>81</v>
       </c>
@@ -6087,7 +5668,7 @@
       </c>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" ht="16.5" spans="1:11">
+    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>82</v>
       </c>
@@ -6097,7 +5678,7 @@
       <c r="C85" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E85" s="4" t="s">
@@ -6120,7 +5701,7 @@
       </c>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" ht="16.5" spans="1:11">
+    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>83</v>
       </c>
@@ -6153,7 +5734,7 @@
       </c>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" ht="16.5" spans="1:11">
+    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>84</v>
       </c>
@@ -6186,7 +5767,7 @@
       </c>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" ht="16.5" spans="1:11">
+    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>85</v>
       </c>
@@ -6219,7 +5800,7 @@
       </c>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" ht="16.5" spans="1:11">
+    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>86</v>
       </c>
@@ -6252,7 +5833,7 @@
       </c>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" ht="16.5" spans="1:11">
+    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>87</v>
       </c>
@@ -6285,7 +5866,7 @@
       </c>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" ht="16.5" spans="1:11">
+    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>88</v>
       </c>
@@ -6318,7 +5899,7 @@
       </c>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" ht="16.5" spans="1:11">
+    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>89</v>
       </c>
@@ -6351,7 +5932,7 @@
       </c>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" ht="16.5" spans="1:11">
+    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>90</v>
       </c>
@@ -6361,7 +5942,7 @@
       <c r="C93" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="9" t="s">
         <v>341</v>
       </c>
       <c r="E93" s="4" t="s">
@@ -6384,7 +5965,7 @@
       </c>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" ht="16.5" spans="1:11">
+    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>91</v>
       </c>
@@ -6417,7 +5998,7 @@
       </c>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" ht="16.5" spans="1:11">
+    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>92</v>
       </c>
@@ -6450,7 +6031,7 @@
       </c>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" ht="16.5" spans="1:11">
+    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>93</v>
       </c>
@@ -6483,7 +6064,7 @@
       </c>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" ht="16.5" spans="1:11">
+    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>94</v>
       </c>
@@ -6516,7 +6097,7 @@
       </c>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" ht="16.5" spans="1:11">
+    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>95</v>
       </c>
@@ -6549,7 +6130,7 @@
       </c>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" ht="16.5" customHeight="1" spans="1:11">
+    <row r="99" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>96</v>
       </c>
@@ -6582,7 +6163,7 @@
       </c>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" ht="16.5" customHeight="1" spans="1:11">
+    <row r="100" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>97</v>
       </c>
@@ -6615,7 +6196,7 @@
       </c>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" ht="16.5" customHeight="1" spans="1:11">
+    <row r="101" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>98</v>
       </c>
@@ -6625,7 +6206,7 @@
       <c r="C101" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E101" s="4" t="s">
@@ -6648,7 +6229,7 @@
       </c>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" ht="16.5" customHeight="1" spans="1:11">
+    <row r="102" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>99</v>
       </c>
@@ -6681,7 +6262,7 @@
       </c>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" ht="16.5" spans="1:11">
+    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>100</v>
       </c>
@@ -6714,7 +6295,7 @@
       </c>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" ht="16.5" spans="1:11">
+    <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>101</v>
       </c>
@@ -6747,7 +6328,7 @@
       </c>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" ht="16.5" spans="1:11">
+    <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>102</v>
       </c>
@@ -6780,7 +6361,7 @@
       </c>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" ht="16.5" spans="1:11">
+    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>103</v>
       </c>
@@ -6813,7 +6394,7 @@
       </c>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" ht="16.5" spans="1:11">
+    <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>104</v>
       </c>
@@ -6846,7 +6427,7 @@
       </c>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" ht="16.5" spans="1:11">
+    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>105</v>
       </c>
@@ -6879,7 +6460,7 @@
       </c>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" ht="16.5" spans="1:11">
+    <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>106</v>
       </c>
@@ -6889,7 +6470,7 @@
       <c r="C109" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="9" t="s">
         <v>395</v>
       </c>
       <c r="E109" s="4" t="s">
@@ -6912,7 +6493,7 @@
       </c>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" ht="16.5" spans="1:11">
+    <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>107</v>
       </c>
@@ -6945,7 +6526,7 @@
       </c>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" ht="16.5" spans="1:11">
+    <row r="111" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>108</v>
       </c>
@@ -6978,7 +6559,7 @@
       </c>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" ht="16.5" spans="1:11">
+    <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>109</v>
       </c>
@@ -7011,7 +6592,7 @@
       </c>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" ht="16.5" spans="1:11">
+    <row r="113" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>110</v>
       </c>
@@ -7044,7 +6625,7 @@
       </c>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" ht="16.5" spans="1:11">
+    <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>111</v>
       </c>
@@ -7077,7 +6658,7 @@
       </c>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" ht="16.5" spans="1:11">
+    <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>112</v>
       </c>
@@ -7110,7 +6691,7 @@
       </c>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" ht="16.5" spans="1:11">
+    <row r="116" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>113</v>
       </c>
@@ -7143,7 +6724,7 @@
       </c>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" ht="16.5" spans="1:11">
+    <row r="117" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>114</v>
       </c>
@@ -7153,7 +6734,7 @@
       <c r="C117" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="9" t="s">
         <v>421</v>
       </c>
       <c r="E117" s="4" t="s">
@@ -7176,7 +6757,7 @@
       </c>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" ht="16.5" spans="1:11">
+    <row r="118" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>115</v>
       </c>
@@ -7209,7 +6790,7 @@
       </c>
       <c r="K118" s="4"/>
     </row>
-    <row r="119" ht="16.5" spans="1:11">
+    <row r="119" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>116</v>
       </c>
@@ -7245,7 +6826,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:11">
+    <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>117</v>
       </c>
@@ -7281,7 +6862,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:11">
+    <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>118</v>
       </c>
@@ -7317,7 +6898,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:11">
+    <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>119</v>
       </c>
@@ -7353,7 +6934,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:11">
+    <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>120</v>
       </c>
@@ -7389,7 +6970,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:11">
+    <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>121</v>
       </c>
@@ -7399,10 +6980,10 @@
       <c r="C124" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="8" t="s">
         <v>436</v>
       </c>
       <c r="F124" s="4" t="str">
@@ -7425,7 +7006,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:11">
+    <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>122</v>
       </c>
@@ -7435,10 +7016,10 @@
       <c r="C125" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="8" t="s">
         <v>438</v>
       </c>
       <c r="F125" s="4" t="str">
@@ -7461,7 +7042,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:11">
+    <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>123</v>
       </c>
@@ -7471,10 +7052,10 @@
       <c r="C126" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="8" t="s">
         <v>440</v>
       </c>
       <c r="F126" s="4" t="str">
@@ -7497,7 +7078,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:11">
+    <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>124</v>
       </c>
@@ -7507,10 +7088,10 @@
       <c r="C127" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="8" t="s">
         <v>442</v>
       </c>
       <c r="F127" s="4" t="str">
@@ -7533,7 +7114,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:11">
+    <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>125</v>
       </c>
@@ -7569,7 +7150,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:11">
+    <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>126</v>
       </c>
@@ -7605,7 +7186,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:11">
+    <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>127</v>
       </c>
@@ -7641,7 +7222,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:11">
+    <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>128</v>
       </c>
@@ -7677,7 +7258,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:11">
+    <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>129</v>
       </c>
@@ -7713,7 +7294,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:11">
+    <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>130</v>
       </c>
@@ -7749,7 +7330,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:11">
+    <row r="134" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>131</v>
       </c>
@@ -7785,7 +7366,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:11">
+    <row r="135" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>132</v>
       </c>
@@ -7821,7 +7402,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:11">
+    <row r="136" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>133</v>
       </c>
@@ -7857,7 +7438,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:11">
+    <row r="137" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>134</v>
       </c>
@@ -7893,7 +7474,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:11">
+    <row r="138" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>135</v>
       </c>
@@ -7929,7 +7510,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:11">
+    <row r="139" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>136</v>
       </c>
@@ -7965,7 +7546,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:11">
+    <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>137</v>
       </c>
@@ -8001,7 +7582,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:11">
+    <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>138</v>
       </c>
@@ -8037,7 +7618,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:11">
+    <row r="142" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>139</v>
       </c>
@@ -8073,7 +7654,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:11">
+    <row r="143" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>140</v>
       </c>
@@ -8109,7 +7690,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:11">
+    <row r="144" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>141</v>
       </c>
@@ -8145,7 +7726,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:11">
+    <row r="145" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>142</v>
       </c>
@@ -8181,7 +7762,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:11">
+    <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>143</v>
       </c>
@@ -8217,7 +7798,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:11">
+    <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>144</v>
       </c>
@@ -8253,7 +7834,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:11">
+    <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>145</v>
       </c>
@@ -8289,7 +7870,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:11">
+    <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>146</v>
       </c>
@@ -8325,7 +7906,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:11">
+    <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>147</v>
       </c>
@@ -8361,7 +7942,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:11">
+    <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>148</v>
       </c>
@@ -8397,7 +7978,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:11">
+    <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>149</v>
       </c>
@@ -8433,7 +8014,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:11">
+    <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>150</v>
       </c>
@@ -8469,7 +8050,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:11">
+    <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>151</v>
       </c>
@@ -8505,7 +8086,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:11">
+    <row r="155" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>152</v>
       </c>
@@ -8541,7 +8122,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:11">
+    <row r="156" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>153</v>
       </c>
@@ -8577,7 +8158,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:11">
+    <row r="157" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>154</v>
       </c>
@@ -8613,7 +8194,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:11">
+    <row r="158" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>155</v>
       </c>
@@ -8649,7 +8230,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:11">
+    <row r="159" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>156</v>
       </c>
@@ -8685,7 +8266,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:11">
+    <row r="160" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>157</v>
       </c>
@@ -8721,7 +8302,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:11">
+    <row r="161" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>158</v>
       </c>
@@ -8757,7 +8338,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:11">
+    <row r="162" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>159</v>
       </c>
@@ -8793,7 +8374,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:11">
+    <row r="163" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>160</v>
       </c>
@@ -8829,7 +8410,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:11">
+    <row r="164" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>161</v>
       </c>
@@ -8865,7 +8446,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:11">
+    <row r="165" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>162</v>
       </c>
@@ -8901,7 +8482,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:11">
+    <row r="166" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>163</v>
       </c>
@@ -8937,7 +8518,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:11">
+    <row r="167" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>164</v>
       </c>
@@ -8973,7 +8554,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:11">
+    <row r="168" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>165</v>
       </c>
@@ -9009,7 +8590,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:11">
+    <row r="169" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>166</v>
       </c>
@@ -9045,7 +8626,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:11">
+    <row r="170" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>167</v>
       </c>
@@ -9081,7 +8662,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:11">
+    <row r="171" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>168</v>
       </c>
@@ -9117,7 +8698,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:11">
+    <row r="172" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>169</v>
       </c>
@@ -9153,7 +8734,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:11">
+    <row r="173" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>170</v>
       </c>
@@ -9189,7 +8770,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:11">
+    <row r="174" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>171</v>
       </c>
@@ -9225,7 +8806,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:11">
+    <row r="175" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>172</v>
       </c>
@@ -9261,7 +8842,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:11">
+    <row r="176" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>173</v>
       </c>
@@ -9297,7 +8878,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:11">
+    <row r="177" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>174</v>
       </c>
@@ -9333,7 +8914,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:11">
+    <row r="178" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>175</v>
       </c>
@@ -9369,7 +8950,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:11">
+    <row r="179" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>176</v>
       </c>
@@ -9405,7 +8986,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="180" ht="16.5" spans="1:11">
+    <row r="180" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>177</v>
       </c>
@@ -9441,7 +9022,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="181" ht="16.5" spans="1:11">
+    <row r="181" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>178</v>
       </c>
@@ -9477,7 +9058,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="182" ht="16.5" spans="1:11">
+    <row r="182" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>179</v>
       </c>
@@ -9513,7 +9094,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:11">
+    <row r="183" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>180</v>
       </c>
@@ -9549,7 +9130,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:11">
+    <row r="184" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>181</v>
       </c>
@@ -9585,7 +9166,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:11">
+    <row r="185" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>182</v>
       </c>
@@ -9621,7 +9202,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:11">
+    <row r="186" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>183</v>
       </c>
@@ -9657,7 +9238,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:11">
+    <row r="187" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>184</v>
       </c>
@@ -9693,7 +9274,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:11">
+    <row r="188" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>185</v>
       </c>
@@ -9729,7 +9310,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:11">
+    <row r="189" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>186</v>
       </c>
@@ -9765,7 +9346,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:11">
+    <row r="190" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>187</v>
       </c>
@@ -9801,7 +9382,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:11">
+    <row r="191" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>188</v>
       </c>
@@ -9837,7 +9418,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:11">
+    <row r="192" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>189</v>
       </c>
@@ -9873,7 +9454,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:11">
+    <row r="193" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>190</v>
       </c>
@@ -9909,7 +9490,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:11">
+    <row r="194" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>191</v>
       </c>
@@ -9945,7 +9526,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:11">
+    <row r="195" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>192</v>
       </c>
@@ -9981,7 +9562,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:11">
+    <row r="196" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>193</v>
       </c>
@@ -10017,7 +9598,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:11">
+    <row r="197" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>194</v>
       </c>
@@ -10053,7 +9634,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:11">
+    <row r="198" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>195</v>
       </c>
@@ -10089,7 +9670,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:11">
+    <row r="199" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>196</v>
       </c>
@@ -10125,7 +9706,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:11">
+    <row r="200" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>197</v>
       </c>
@@ -10161,7 +9742,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:11">
+    <row r="201" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>198</v>
       </c>
@@ -10197,7 +9778,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:11">
+    <row r="202" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>199</v>
       </c>
@@ -10233,7 +9814,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:11">
+    <row r="203" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>200</v>
       </c>
@@ -10269,7 +9850,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:11">
+    <row r="204" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>201</v>
       </c>
@@ -10305,7 +9886,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:11">
+    <row r="205" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>202</v>
       </c>
@@ -10341,7 +9922,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:11">
+    <row r="206" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>203</v>
       </c>
@@ -10377,7 +9958,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:11">
+    <row r="207" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>204</v>
       </c>
@@ -10413,7 +9994,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:11">
+    <row r="208" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>205</v>
       </c>
@@ -10449,7 +10030,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:11">
+    <row r="209" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>206</v>
       </c>
@@ -10485,164 +10066,169 @@
         <v>451</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:11">
+    <row r="210" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>207</v>
       </c>
-      <c r="B210" s="5">
-        <v>20001</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>81</v>
+      <c r="B210" s="4">
+        <v>10701</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F210" s="4" t="str">
+        <f t="shared" ref="F210:F222" si="3">"item_"&amp;B210</f>
+        <v>item_10701</v>
       </c>
       <c r="G210" s="4">
         <v>0</v>
       </c>
       <c r="H210" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I210" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J210" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K210" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="211" ht="16.5" spans="1:11">
+      <c r="K210" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>208</v>
       </c>
-      <c r="B211" s="5">
-        <v>20002</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>81</v>
+      <c r="B211" s="4">
+        <v>10702</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="F211" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10702</v>
       </c>
       <c r="G211" s="4">
         <v>0</v>
       </c>
       <c r="H211" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I211" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J211" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K211" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="212" ht="16.5" spans="1:11">
+      <c r="K211" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>209</v>
       </c>
-      <c r="B212" s="5">
-        <v>20003</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>81</v>
+      <c r="B212" s="4">
+        <v>10703</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="F212" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10703</v>
       </c>
       <c r="G212" s="4">
         <v>0</v>
       </c>
       <c r="H212" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I212" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J212" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K212" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="213" ht="16.5" spans="1:11">
+      <c r="K212" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>210</v>
       </c>
-      <c r="B213" s="5">
-        <v>20004</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>81</v>
+      <c r="B213" s="4">
+        <v>10704</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F213" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10704</v>
       </c>
       <c r="G213" s="4">
         <v>0</v>
       </c>
       <c r="H213" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I213" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J213" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K213" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="214" ht="16.5" spans="1:11">
+      <c r="K213" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>211</v>
       </c>
-      <c r="B214" s="5">
-        <v>20005</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>81</v>
+      <c r="B214" s="4">
+        <v>10705</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F214" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10705</v>
       </c>
       <c r="G214" s="4">
         <v>0</v>
@@ -10651,33 +10237,34 @@
         <v>5</v>
       </c>
       <c r="I214" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J214" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K214" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="215" ht="16.5" spans="1:11">
+      <c r="K214" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>212</v>
       </c>
-      <c r="B215" s="5">
-        <v>20006</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>81</v>
+      <c r="B215" s="4">
+        <v>10706</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F215" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10706</v>
       </c>
       <c r="G215" s="4">
         <v>0</v>
@@ -10686,173 +10273,178 @@
         <v>5</v>
       </c>
       <c r="I215" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J215" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K215" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="216" ht="16.5" spans="1:11">
+      <c r="K215" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>213</v>
       </c>
-      <c r="B216" s="5">
-        <v>20101</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>81</v>
+      <c r="B216" s="4">
+        <v>10707</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F216" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10707</v>
       </c>
       <c r="G216" s="4">
         <v>0</v>
       </c>
       <c r="H216" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I216" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J216" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K216" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="217" ht="16.5" spans="1:11">
+      <c r="K216" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>214</v>
       </c>
-      <c r="B217" s="5">
-        <v>20102</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>81</v>
+      <c r="B217" s="4">
+        <v>10708</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F217" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10708</v>
       </c>
       <c r="G217" s="4">
         <v>0</v>
       </c>
       <c r="H217" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I217" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J217" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K217" s="5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="218" ht="16.5" spans="1:11">
+      <c r="K217" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>215</v>
       </c>
-      <c r="B218" s="5">
-        <v>20103</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>81</v>
+      <c r="B218" s="4">
+        <v>10709</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="F218" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10709</v>
       </c>
       <c r="G218" s="4">
         <v>0</v>
       </c>
       <c r="H218" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I218" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J218" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K218" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="219" ht="16.5" spans="1:11">
+      <c r="K218" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>216</v>
       </c>
-      <c r="B219" s="5">
-        <v>20104</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="E219" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="F219" s="4" t="s">
-        <v>81</v>
+      <c r="B219" s="4">
+        <v>10710</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="F219" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10710</v>
       </c>
       <c r="G219" s="4">
         <v>0</v>
       </c>
       <c r="H219" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I219" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J219" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K219" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="220" ht="16.5" spans="1:11">
+      <c r="K219" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>217</v>
       </c>
-      <c r="B220" s="5">
-        <v>20105</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>81</v>
+      <c r="B220" s="4">
+        <v>10711</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="F220" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10711</v>
       </c>
       <c r="G220" s="4">
         <v>0</v>
@@ -10861,33 +10453,34 @@
         <v>5</v>
       </c>
       <c r="I220" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J220" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K220" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="221" ht="16.5" spans="1:11">
+      <c r="K220" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>218</v>
       </c>
-      <c r="B221" s="5">
-        <v>20106</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>81</v>
+      <c r="B221" s="4">
+        <v>10712</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F221" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10712</v>
       </c>
       <c r="G221" s="4">
         <v>0</v>
@@ -10896,173 +10489,178 @@
         <v>5</v>
       </c>
       <c r="I221" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J221" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K221" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="222" ht="16.5" spans="1:11">
+      <c r="K221" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>219</v>
       </c>
-      <c r="B222" s="5">
-        <v>20201</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="F222" s="4" t="s">
-        <v>81</v>
+      <c r="B222" s="4">
+        <v>10713</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="F222" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>item_10713</v>
       </c>
       <c r="G222" s="4">
         <v>0</v>
       </c>
       <c r="H222" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I222" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J222" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K222" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="223" ht="16.5" spans="1:11">
+      <c r="K222" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>220</v>
       </c>
-      <c r="B223" s="5">
-        <v>20202</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="E223" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>81</v>
+      <c r="B223" s="4">
+        <v>10801</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="F223" s="4" t="str">
+        <f t="shared" ref="F223:F235" si="4">"item_"&amp;B223</f>
+        <v>item_10801</v>
       </c>
       <c r="G223" s="4">
         <v>0</v>
       </c>
       <c r="H223" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I223" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J223" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K223" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="224" ht="16.5" spans="1:11">
+      <c r="K223" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>221</v>
       </c>
-      <c r="B224" s="5">
-        <v>20203</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="E224" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>81</v>
+      <c r="B224" s="4">
+        <v>10802</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="F224" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_10802</v>
       </c>
       <c r="G224" s="4">
         <v>0</v>
       </c>
       <c r="H224" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I224" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J224" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K224" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="225" ht="16.5" spans="1:11">
+      <c r="K224" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>222</v>
       </c>
-      <c r="B225" s="5">
-        <v>20204</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="E225" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>81</v>
+      <c r="B225" s="4">
+        <v>10803</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F225" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_10803</v>
       </c>
       <c r="G225" s="4">
         <v>0</v>
       </c>
       <c r="H225" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I225" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J225" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K225" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="226" ht="16.5" spans="1:11">
+      <c r="K225" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>223</v>
       </c>
-      <c r="B226" s="5">
-        <v>20205</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>81</v>
+      <c r="B226" s="4">
+        <v>10804</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="F226" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_10804</v>
       </c>
       <c r="G226" s="4">
         <v>0</v>
@@ -11071,33 +10669,34 @@
         <v>5</v>
       </c>
       <c r="I226" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J226" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K226" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="227" ht="16.5" spans="1:11">
+      <c r="K226" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>224</v>
       </c>
-      <c r="B227" s="5">
-        <v>20206</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>81</v>
+      <c r="B227" s="4">
+        <v>10805</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="F227" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_10805</v>
       </c>
       <c r="G227" s="4">
         <v>0</v>
@@ -11106,173 +10705,178 @@
         <v>5</v>
       </c>
       <c r="I227" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J227" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K227" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="228" ht="16.5" spans="1:11">
+      <c r="K227" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>225</v>
       </c>
-      <c r="B228" s="5">
-        <v>20301</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E228" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="F228" s="4" t="s">
-        <v>81</v>
+      <c r="B228" s="4">
+        <v>10806</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="F228" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_10806</v>
       </c>
       <c r="G228" s="4">
         <v>0</v>
       </c>
       <c r="H228" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I228" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J228" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K228" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="229" ht="16.5" spans="1:11">
+      <c r="K228" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>226</v>
       </c>
-      <c r="B229" s="5">
-        <v>20302</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>81</v>
+      <c r="B229" s="4">
+        <v>10807</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F229" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_10807</v>
       </c>
       <c r="G229" s="4">
         <v>0</v>
       </c>
       <c r="H229" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I229" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J229" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K229" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="230" ht="16.5" spans="1:11">
+      <c r="K229" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>227</v>
       </c>
-      <c r="B230" s="5">
-        <v>20303</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="E230" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>81</v>
+      <c r="B230" s="4">
+        <v>10808</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F230" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_10808</v>
       </c>
       <c r="G230" s="4">
         <v>0</v>
       </c>
       <c r="H230" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I230" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J230" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K230" s="5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="231" ht="16.5" spans="1:11">
+      <c r="K230" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>228</v>
       </c>
-      <c r="B231" s="5">
-        <v>20304</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="F231" s="4" t="s">
-        <v>81</v>
+      <c r="B231" s="4">
+        <v>10809</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F231" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_10809</v>
       </c>
       <c r="G231" s="4">
         <v>0</v>
       </c>
       <c r="H231" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I231" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J231" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K231" s="5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="232" ht="16.5" spans="1:11">
+      <c r="K231" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>229</v>
       </c>
-      <c r="B232" s="5">
-        <v>20305</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>81</v>
+      <c r="B232" s="4">
+        <v>10810</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="F232" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_10810</v>
       </c>
       <c r="G232" s="4">
         <v>0</v>
@@ -11281,33 +10885,34 @@
         <v>5</v>
       </c>
       <c r="I232" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J232" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K232" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="233" ht="16.5" spans="1:11">
+      <c r="K232" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>230</v>
       </c>
-      <c r="B233" s="5">
-        <v>20306</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="F233" s="4" t="s">
-        <v>81</v>
+      <c r="B233" s="4">
+        <v>10811</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="F233" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_10811</v>
       </c>
       <c r="G233" s="4">
         <v>0</v>
@@ -11316,33 +10921,34 @@
         <v>5</v>
       </c>
       <c r="I233" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J233" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K233" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="234" ht="17.25" customHeight="1" spans="1:11">
+      <c r="K233" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>231</v>
       </c>
       <c r="B234" s="4">
-        <v>20401</v>
+        <v>10812</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>577</v>
+        <v>649</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>577</v>
+        <v>649</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>81</v>
+        <v>649</v>
+      </c>
+      <c r="F234" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_10812</v>
       </c>
       <c r="G234" s="4">
         <v>0</v>
@@ -11351,189 +10957,178 @@
         <v>5</v>
       </c>
       <c r="I234" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J234" s="4" t="b">
         <v>1</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="235" ht="16.5" spans="1:12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>232</v>
       </c>
-      <c r="B235" s="5">
-        <v>20501</v>
-      </c>
-      <c r="C235" t="s">
-        <v>578</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="E235" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F235" s="4" t="s">
-        <v>81</v>
+      <c r="B235" s="4">
+        <v>10813</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="F235" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_10813</v>
       </c>
       <c r="G235" s="4">
         <v>0</v>
       </c>
       <c r="H235" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I235" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J235" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K235" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="L235" t="str">
-        <f>"解锁的"&amp;D235</f>
-        <v>解锁的晶片铜宝箱</v>
-      </c>
-    </row>
-    <row r="236" ht="16.5" spans="1:12">
+      <c r="K235" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>233</v>
       </c>
-      <c r="B236" s="5">
-        <v>20502</v>
-      </c>
-      <c r="C236" t="s">
-        <v>579</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E236" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>81</v>
+      <c r="B236" s="4">
+        <v>10901</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="F236" s="4" t="str">
+        <f t="shared" ref="F236:F248" si="5">"item_"&amp;B236</f>
+        <v>item_10901</v>
       </c>
       <c r="G236" s="4">
         <v>0</v>
       </c>
       <c r="H236" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I236" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J236" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K236" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="L236" t="str">
-        <f t="shared" ref="L236:L252" si="3">"解锁的"&amp;D236</f>
-        <v>解锁的晶片银宝箱</v>
-      </c>
-    </row>
-    <row r="237" ht="16.5" spans="1:12">
+      <c r="K236" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>234</v>
       </c>
-      <c r="B237" s="5">
-        <v>20503</v>
-      </c>
-      <c r="C237" t="s">
-        <v>580</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E237" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>81</v>
+      <c r="B237" s="4">
+        <v>10902</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F237" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10902</v>
       </c>
       <c r="G237" s="4">
         <v>0</v>
       </c>
       <c r="H237" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I237" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J237" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K237" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="L237" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的晶片金宝箱</v>
-      </c>
-    </row>
-    <row r="238" ht="16.5" spans="1:12">
+      <c r="K237" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>235</v>
       </c>
-      <c r="B238" s="5">
-        <v>20504</v>
-      </c>
-      <c r="C238" t="s">
-        <v>581</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>81</v>
+      <c r="B238" s="4">
+        <v>10903</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="F238" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10903</v>
       </c>
       <c r="G238" s="4">
         <v>0</v>
       </c>
       <c r="H238" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I238" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J238" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K238" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="L238" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的晶片钻宝箱</v>
-      </c>
-    </row>
-    <row r="239" ht="16.5" spans="1:12">
+      <c r="K238" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>236</v>
       </c>
-      <c r="B239" s="5">
-        <v>20505</v>
-      </c>
-      <c r="C239" t="s">
-        <v>582</v>
-      </c>
-      <c r="D239" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="E239" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>81</v>
+      <c r="B239" s="4">
+        <v>10904</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="F239" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10904</v>
       </c>
       <c r="G239" s="4">
         <v>0</v>
@@ -11542,37 +11137,34 @@
         <v>5</v>
       </c>
       <c r="I239" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J239" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K239" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="L239" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的晶片玉宝箱</v>
-      </c>
-    </row>
-    <row r="240" ht="16.5" spans="1:12">
+      <c r="K239" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>237</v>
       </c>
-      <c r="B240" s="5">
-        <v>20506</v>
-      </c>
-      <c r="C240" t="s">
-        <v>583</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="E240" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>81</v>
+      <c r="B240" s="4">
+        <v>10905</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="F240" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10905</v>
       </c>
       <c r="G240" s="4">
         <v>0</v>
@@ -11581,193 +11173,178 @@
         <v>5</v>
       </c>
       <c r="I240" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J240" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K240" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="L240" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的晶片魔宝箱</v>
-      </c>
-    </row>
-    <row r="241" ht="16.5" spans="1:12">
+      <c r="K240" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>238</v>
       </c>
-      <c r="B241" s="5">
-        <v>20601</v>
-      </c>
-      <c r="C241" t="s">
-        <v>584</v>
-      </c>
-      <c r="D241" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>81</v>
+      <c r="B241" s="4">
+        <v>10906</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="F241" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10906</v>
       </c>
       <c r="G241" s="4">
         <v>0</v>
       </c>
       <c r="H241" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I241" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J241" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K241" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="L241" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的装备铜宝箱</v>
-      </c>
-    </row>
-    <row r="242" ht="16.5" spans="1:12">
+      <c r="K241" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>239</v>
       </c>
-      <c r="B242" s="5">
-        <v>20602</v>
-      </c>
-      <c r="C242" t="s">
-        <v>585</v>
-      </c>
-      <c r="D242" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="E242" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>81</v>
+      <c r="B242" s="4">
+        <v>10907</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="F242" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10907</v>
       </c>
       <c r="G242" s="4">
         <v>0</v>
       </c>
       <c r="H242" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I242" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J242" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K242" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="L242" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的装备银宝箱</v>
-      </c>
-    </row>
-    <row r="243" ht="16.5" spans="1:12">
+      <c r="K242" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>240</v>
       </c>
-      <c r="B243" s="5">
-        <v>20603</v>
-      </c>
-      <c r="C243" t="s">
-        <v>586</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="E243" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>81</v>
+      <c r="B243" s="4">
+        <v>10908</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="F243" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10908</v>
       </c>
       <c r="G243" s="4">
         <v>0</v>
       </c>
       <c r="H243" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I243" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J243" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K243" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="L243" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的装备金宝箱</v>
-      </c>
-    </row>
-    <row r="244" ht="16.5" spans="1:12">
+      <c r="K243" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>241</v>
       </c>
-      <c r="B244" s="5">
-        <v>20604</v>
-      </c>
-      <c r="C244" t="s">
-        <v>587</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="E244" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="F244" s="4" t="s">
-        <v>81</v>
+      <c r="B244" s="4">
+        <v>10909</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="F244" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10909</v>
       </c>
       <c r="G244" s="4">
         <v>0</v>
       </c>
       <c r="H244" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I244" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J244" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K244" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="L244" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的装备钻宝箱</v>
-      </c>
-    </row>
-    <row r="245" ht="16.5" spans="1:12">
+      <c r="K244" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>242</v>
       </c>
-      <c r="B245" s="5">
-        <v>20605</v>
-      </c>
-      <c r="C245" t="s">
-        <v>588</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="E245" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F245" s="4" t="s">
-        <v>81</v>
+      <c r="B245" s="4">
+        <v>10910</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="F245" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10910</v>
       </c>
       <c r="G245" s="4">
         <v>0</v>
@@ -11776,37 +11353,34 @@
         <v>5</v>
       </c>
       <c r="I245" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J245" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K245" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="L245" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的装备玉宝箱</v>
-      </c>
-    </row>
-    <row r="246" ht="16.5" spans="1:12">
+      <c r="K245" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>243</v>
       </c>
-      <c r="B246" s="5">
-        <v>20606</v>
-      </c>
-      <c r="C246" t="s">
-        <v>589</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="E246" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="F246" s="4" t="s">
-        <v>81</v>
+      <c r="B246" s="4">
+        <v>10911</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="F246" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10911</v>
       </c>
       <c r="G246" s="4">
         <v>0</v>
@@ -11815,112 +11389,102 @@
         <v>5</v>
       </c>
       <c r="I246" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J246" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K246" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="L246" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的装备魔宝箱</v>
-      </c>
-    </row>
-    <row r="247" ht="16.5" spans="1:12">
+      <c r="K246" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>244</v>
       </c>
-      <c r="B247" s="5">
-        <v>20701</v>
-      </c>
-      <c r="C247" t="s">
-        <v>590</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>81</v>
+      <c r="B247" s="4">
+        <v>10912</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="F247" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10912</v>
       </c>
       <c r="G247" s="4">
         <v>0</v>
       </c>
       <c r="H247" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I247" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J247" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K247" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="L247" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的财富铜宝箱</v>
-      </c>
-    </row>
-    <row r="248" ht="16.5" spans="1:12">
+      <c r="K247" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>245</v>
       </c>
-      <c r="B248" s="5">
-        <v>20702</v>
-      </c>
-      <c r="C248" t="s">
-        <v>591</v>
-      </c>
-      <c r="D248" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="E248" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="F248" s="4" t="s">
-        <v>81</v>
+      <c r="B248" s="4">
+        <v>10913</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="F248" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10913</v>
       </c>
       <c r="G248" s="4">
         <v>0</v>
       </c>
       <c r="H248" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I248" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J248" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K248" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="L248" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的财富银宝箱</v>
-      </c>
-    </row>
-    <row r="249" ht="16.5" spans="1:12">
+      <c r="K248" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>246</v>
       </c>
       <c r="B249" s="5">
-        <v>20703</v>
-      </c>
-      <c r="C249" t="s">
-        <v>592</v>
+        <v>20001</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>530</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>81</v>
@@ -11929,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="H249" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I249" s="4">
         <v>5</v>
@@ -11938,28 +11502,24 @@
         <v>1</v>
       </c>
       <c r="K249" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="L249" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的财富金宝箱</v>
-      </c>
-    </row>
-    <row r="250" ht="16.5" spans="1:12">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>247</v>
       </c>
       <c r="B250" s="5">
-        <v>20704</v>
-      </c>
-      <c r="C250" t="s">
-        <v>593</v>
+        <v>20002</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>532</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>81</v>
@@ -11968,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="H250" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I250" s="4">
         <v>5</v>
@@ -11977,28 +11537,24 @@
         <v>1</v>
       </c>
       <c r="K250" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="L250" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的财富钻宝箱</v>
-      </c>
-    </row>
-    <row r="251" ht="16.5" spans="1:12">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>248</v>
       </c>
       <c r="B251" s="5">
-        <v>20705</v>
-      </c>
-      <c r="C251" t="s">
-        <v>594</v>
+        <v>20003</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>81</v>
@@ -12007,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="H251" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I251" s="4">
         <v>5</v>
@@ -12016,28 +11572,24 @@
         <v>1</v>
       </c>
       <c r="K251" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="L251" t="str">
-        <f t="shared" si="3"/>
-        <v>解锁的财富玉宝箱</v>
-      </c>
-    </row>
-    <row r="252" ht="16.5" spans="1:12">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>249</v>
       </c>
       <c r="B252" s="5">
-        <v>20706</v>
-      </c>
-      <c r="C252" t="s">
-        <v>595</v>
+        <v>20004</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>536</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>81</v>
@@ -12046,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="H252" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I252" s="4">
         <v>5</v>
@@ -12055,37 +11607,1469 @@
         <v>1</v>
       </c>
       <c r="K252" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A253" s="4">
+        <v>250</v>
+      </c>
+      <c r="B253" s="5">
+        <v>20005</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G253" s="4">
+        <v>0</v>
+      </c>
+      <c r="H253" s="4">
+        <v>5</v>
+      </c>
+      <c r="I253" s="4">
+        <v>5</v>
+      </c>
+      <c r="J253" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K253" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="4">
+        <v>251</v>
+      </c>
+      <c r="B254" s="5">
+        <v>20006</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G254" s="4">
+        <v>0</v>
+      </c>
+      <c r="H254" s="4">
+        <v>5</v>
+      </c>
+      <c r="I254" s="4">
+        <v>5</v>
+      </c>
+      <c r="J254" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K254" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A255" s="4">
+        <v>252</v>
+      </c>
+      <c r="B255" s="5">
+        <v>20101</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G255" s="4">
+        <v>0</v>
+      </c>
+      <c r="H255" s="4">
+        <v>1</v>
+      </c>
+      <c r="I255" s="4">
+        <v>5</v>
+      </c>
+      <c r="J255" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K255" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A256" s="4">
+        <v>253</v>
+      </c>
+      <c r="B256" s="5">
+        <v>20102</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G256" s="4">
+        <v>0</v>
+      </c>
+      <c r="H256" s="4">
+        <v>2</v>
+      </c>
+      <c r="I256" s="4">
+        <v>5</v>
+      </c>
+      <c r="J256" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K256" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="4">
+        <v>254</v>
+      </c>
+      <c r="B257" s="5">
+        <v>20103</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G257" s="4">
+        <v>0</v>
+      </c>
+      <c r="H257" s="4">
+        <v>3</v>
+      </c>
+      <c r="I257" s="4">
+        <v>5</v>
+      </c>
+      <c r="J257" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K257" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="4">
+        <v>255</v>
+      </c>
+      <c r="B258" s="5">
+        <v>20104</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G258" s="4">
+        <v>0</v>
+      </c>
+      <c r="H258" s="4">
+        <v>4</v>
+      </c>
+      <c r="I258" s="4">
+        <v>5</v>
+      </c>
+      <c r="J258" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K258" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="4">
+        <v>256</v>
+      </c>
+      <c r="B259" s="5">
+        <v>20105</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G259" s="4">
+        <v>0</v>
+      </c>
+      <c r="H259" s="4">
+        <v>5</v>
+      </c>
+      <c r="I259" s="4">
+        <v>5</v>
+      </c>
+      <c r="J259" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K259" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="4">
+        <v>257</v>
+      </c>
+      <c r="B260" s="5">
+        <v>20106</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G260" s="4">
+        <v>0</v>
+      </c>
+      <c r="H260" s="4">
+        <v>5</v>
+      </c>
+      <c r="I260" s="4">
+        <v>5</v>
+      </c>
+      <c r="J260" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K260" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="4">
+        <v>258</v>
+      </c>
+      <c r="B261" s="5">
+        <v>20201</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G261" s="4">
+        <v>0</v>
+      </c>
+      <c r="H261" s="4">
+        <v>1</v>
+      </c>
+      <c r="I261" s="4">
+        <v>5</v>
+      </c>
+      <c r="J261" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K261" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="4">
+        <v>259</v>
+      </c>
+      <c r="B262" s="5">
+        <v>20202</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G262" s="4">
+        <v>0</v>
+      </c>
+      <c r="H262" s="4">
+        <v>2</v>
+      </c>
+      <c r="I262" s="4">
+        <v>5</v>
+      </c>
+      <c r="J262" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K262" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A263" s="4">
+        <v>260</v>
+      </c>
+      <c r="B263" s="5">
+        <v>20203</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G263" s="4">
+        <v>0</v>
+      </c>
+      <c r="H263" s="4">
+        <v>3</v>
+      </c>
+      <c r="I263" s="4">
+        <v>5</v>
+      </c>
+      <c r="J263" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K263" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="4">
+        <v>261</v>
+      </c>
+      <c r="B264" s="5">
+        <v>20204</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G264" s="4">
+        <v>0</v>
+      </c>
+      <c r="H264" s="4">
+        <v>4</v>
+      </c>
+      <c r="I264" s="4">
+        <v>5</v>
+      </c>
+      <c r="J264" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K264" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="4">
+        <v>262</v>
+      </c>
+      <c r="B265" s="5">
+        <v>20205</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G265" s="4">
+        <v>0</v>
+      </c>
+      <c r="H265" s="4">
+        <v>5</v>
+      </c>
+      <c r="I265" s="4">
+        <v>5</v>
+      </c>
+      <c r="J265" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K265" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="4">
+        <v>263</v>
+      </c>
+      <c r="B266" s="5">
+        <v>20206</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G266" s="4">
+        <v>0</v>
+      </c>
+      <c r="H266" s="4">
+        <v>5</v>
+      </c>
+      <c r="I266" s="4">
+        <v>5</v>
+      </c>
+      <c r="J266" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K266" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="L252" t="str">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="267" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="4">
+        <v>264</v>
+      </c>
+      <c r="B267" s="5">
+        <v>20301</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G267" s="4">
+        <v>0</v>
+      </c>
+      <c r="H267" s="4">
+        <v>1</v>
+      </c>
+      <c r="I267" s="4">
+        <v>5</v>
+      </c>
+      <c r="J267" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K267" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="4">
+        <v>265</v>
+      </c>
+      <c r="B268" s="5">
+        <v>20302</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G268" s="4">
+        <v>0</v>
+      </c>
+      <c r="H268" s="4">
+        <v>2</v>
+      </c>
+      <c r="I268" s="4">
+        <v>5</v>
+      </c>
+      <c r="J268" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K268" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="4">
+        <v>266</v>
+      </c>
+      <c r="B269" s="5">
+        <v>20303</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G269" s="4">
+        <v>0</v>
+      </c>
+      <c r="H269" s="4">
+        <v>3</v>
+      </c>
+      <c r="I269" s="4">
+        <v>5</v>
+      </c>
+      <c r="J269" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K269" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="4">
+        <v>267</v>
+      </c>
+      <c r="B270" s="5">
+        <v>20304</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G270" s="4">
+        <v>0</v>
+      </c>
+      <c r="H270" s="4">
+        <v>4</v>
+      </c>
+      <c r="I270" s="4">
+        <v>5</v>
+      </c>
+      <c r="J270" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K270" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="4">
+        <v>268</v>
+      </c>
+      <c r="B271" s="5">
+        <v>20305</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G271" s="4">
+        <v>0</v>
+      </c>
+      <c r="H271" s="4">
+        <v>5</v>
+      </c>
+      <c r="I271" s="4">
+        <v>5</v>
+      </c>
+      <c r="J271" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K271" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="4">
+        <v>269</v>
+      </c>
+      <c r="B272" s="5">
+        <v>20306</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G272" s="4">
+        <v>0</v>
+      </c>
+      <c r="H272" s="4">
+        <v>5</v>
+      </c>
+      <c r="I272" s="4">
+        <v>5</v>
+      </c>
+      <c r="J272" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K272" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="4">
+        <v>270</v>
+      </c>
+      <c r="B273" s="4">
+        <v>20401</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G273" s="4">
+        <v>0</v>
+      </c>
+      <c r="H273" s="4">
+        <v>5</v>
+      </c>
+      <c r="I273" s="4">
+        <v>5</v>
+      </c>
+      <c r="J273" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K273" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="4">
+        <v>271</v>
+      </c>
+      <c r="B274" s="5">
+        <v>20501</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G274" s="4">
+        <v>0</v>
+      </c>
+      <c r="H274" s="4">
+        <v>1</v>
+      </c>
+      <c r="I274" s="4">
+        <v>5</v>
+      </c>
+      <c r="J274" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K274" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="L274" t="str">
+        <f>"解锁的"&amp;D274</f>
+        <v>解锁的晶片铜宝箱</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="4">
+        <v>272</v>
+      </c>
+      <c r="B275" s="5">
+        <v>20502</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G275" s="4">
+        <v>0</v>
+      </c>
+      <c r="H275" s="4">
+        <v>2</v>
+      </c>
+      <c r="I275" s="4">
+        <v>5</v>
+      </c>
+      <c r="J275" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K275" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="L275" t="str">
+        <f t="shared" ref="L275:L291" si="6">"解锁的"&amp;D275</f>
+        <v>解锁的晶片银宝箱</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="4">
+        <v>273</v>
+      </c>
+      <c r="B276" s="5">
+        <v>20503</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G276" s="4">
+        <v>0</v>
+      </c>
+      <c r="H276" s="4">
+        <v>3</v>
+      </c>
+      <c r="I276" s="4">
+        <v>5</v>
+      </c>
+      <c r="J276" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K276" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="L276" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的晶片金宝箱</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="4">
+        <v>274</v>
+      </c>
+      <c r="B277" s="5">
+        <v>20504</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G277" s="4">
+        <v>0</v>
+      </c>
+      <c r="H277" s="4">
+        <v>4</v>
+      </c>
+      <c r="I277" s="4">
+        <v>5</v>
+      </c>
+      <c r="J277" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K277" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="L277" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的晶片钻宝箱</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="4">
+        <v>275</v>
+      </c>
+      <c r="B278" s="5">
+        <v>20505</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G278" s="4">
+        <v>0</v>
+      </c>
+      <c r="H278" s="4">
+        <v>5</v>
+      </c>
+      <c r="I278" s="4">
+        <v>5</v>
+      </c>
+      <c r="J278" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K278" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="L278" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的晶片玉宝箱</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="4">
+        <v>276</v>
+      </c>
+      <c r="B279" s="5">
+        <v>20506</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G279" s="4">
+        <v>0</v>
+      </c>
+      <c r="H279" s="4">
+        <v>5</v>
+      </c>
+      <c r="I279" s="4">
+        <v>5</v>
+      </c>
+      <c r="J279" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K279" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="L279" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的晶片魔宝箱</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="4">
+        <v>277</v>
+      </c>
+      <c r="B280" s="5">
+        <v>20601</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G280" s="4">
+        <v>0</v>
+      </c>
+      <c r="H280" s="4">
+        <v>1</v>
+      </c>
+      <c r="I280" s="4">
+        <v>5</v>
+      </c>
+      <c r="J280" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K280" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="L280" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的装备铜宝箱</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="4">
+        <v>278</v>
+      </c>
+      <c r="B281" s="5">
+        <v>20602</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F281" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G281" s="4">
+        <v>0</v>
+      </c>
+      <c r="H281" s="4">
+        <v>2</v>
+      </c>
+      <c r="I281" s="4">
+        <v>5</v>
+      </c>
+      <c r="J281" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K281" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L281" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的装备银宝箱</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="4">
+        <v>279</v>
+      </c>
+      <c r="B282" s="5">
+        <v>20603</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F282" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G282" s="4">
+        <v>0</v>
+      </c>
+      <c r="H282" s="4">
+        <v>3</v>
+      </c>
+      <c r="I282" s="4">
+        <v>5</v>
+      </c>
+      <c r="J282" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K282" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="L282" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的装备金宝箱</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="4">
+        <v>280</v>
+      </c>
+      <c r="B283" s="5">
+        <v>20604</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F283" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G283" s="4">
+        <v>0</v>
+      </c>
+      <c r="H283" s="4">
+        <v>4</v>
+      </c>
+      <c r="I283" s="4">
+        <v>5</v>
+      </c>
+      <c r="J283" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K283" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="L283" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的装备钻宝箱</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="4">
+        <v>281</v>
+      </c>
+      <c r="B284" s="5">
+        <v>20605</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F284" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G284" s="4">
+        <v>0</v>
+      </c>
+      <c r="H284" s="4">
+        <v>5</v>
+      </c>
+      <c r="I284" s="4">
+        <v>5</v>
+      </c>
+      <c r="J284" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K284" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="L284" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的装备玉宝箱</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="4">
+        <v>282</v>
+      </c>
+      <c r="B285" s="5">
+        <v>20606</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F285" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G285" s="4">
+        <v>0</v>
+      </c>
+      <c r="H285" s="4">
+        <v>5</v>
+      </c>
+      <c r="I285" s="4">
+        <v>5</v>
+      </c>
+      <c r="J285" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K285" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="L285" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的装备魔宝箱</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="4">
+        <v>283</v>
+      </c>
+      <c r="B286" s="5">
+        <v>20701</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G286" s="4">
+        <v>0</v>
+      </c>
+      <c r="H286" s="4">
+        <v>1</v>
+      </c>
+      <c r="I286" s="4">
+        <v>5</v>
+      </c>
+      <c r="J286" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K286" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="L286" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的财富铜宝箱</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="4">
+        <v>284</v>
+      </c>
+      <c r="B287" s="5">
+        <v>20702</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F287" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G287" s="4">
+        <v>0</v>
+      </c>
+      <c r="H287" s="4">
+        <v>2</v>
+      </c>
+      <c r="I287" s="4">
+        <v>5</v>
+      </c>
+      <c r="J287" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K287" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="L287" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的财富银宝箱</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="4">
+        <v>285</v>
+      </c>
+      <c r="B288" s="5">
+        <v>20703</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G288" s="4">
+        <v>0</v>
+      </c>
+      <c r="H288" s="4">
+        <v>3</v>
+      </c>
+      <c r="I288" s="4">
+        <v>5</v>
+      </c>
+      <c r="J288" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K288" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="L288" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的财富金宝箱</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="4">
+        <v>286</v>
+      </c>
+      <c r="B289" s="5">
+        <v>20704</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G289" s="4">
+        <v>0</v>
+      </c>
+      <c r="H289" s="4">
+        <v>4</v>
+      </c>
+      <c r="I289" s="4">
+        <v>5</v>
+      </c>
+      <c r="J289" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K289" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="L289" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的财富钻宝箱</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="4">
+        <v>287</v>
+      </c>
+      <c r="B290" s="5">
+        <v>20705</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F290" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G290" s="4">
+        <v>0</v>
+      </c>
+      <c r="H290" s="4">
+        <v>5</v>
+      </c>
+      <c r="I290" s="4">
+        <v>5</v>
+      </c>
+      <c r="J290" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K290" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="L290" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的财富玉宝箱</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="4">
+        <v>288</v>
+      </c>
+      <c r="B291" s="5">
+        <v>20706</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G291" s="4">
+        <v>0</v>
+      </c>
+      <c r="H291" s="4">
+        <v>5</v>
+      </c>
+      <c r="I291" s="4">
+        <v>5</v>
+      </c>
+      <c r="J291" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K291" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="L291" t="str">
+        <f t="shared" si="6"/>
         <v>解锁的财富魔宝箱</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12105,7 +13089,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -12125,7 +13109,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:6">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -12145,7 +13129,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -12165,7 +13149,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -12185,7 +13169,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -12205,7 +13189,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -12225,7 +13209,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -12245,7 +13229,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -12265,7 +13249,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -12281,11 +13265,11 @@
       <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:6">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -12301,11 +13285,11 @@
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:6">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -12321,11 +13305,11 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -12341,11 +13325,11 @@
       <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:6">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -12361,11 +13345,11 @@
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:6">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -12381,11 +13365,11 @@
       <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:6">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -12401,11 +13385,11 @@
       <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>126</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:6">
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -12421,11 +13405,11 @@
       <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>127</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:6">
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -12441,11 +13425,11 @@
       <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>128</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:6">
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -12461,11 +13445,11 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>129</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:6">
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -12481,11 +13465,11 @@
       <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>130</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:6">
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -12501,11 +13485,11 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>131</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:6">
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -12521,7 +13505,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:6">
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -12537,7 +13521,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:6">
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -12553,7 +13537,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:6">
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -12569,7 +13553,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:6">
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -12585,7 +13569,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:6">
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -12601,7 +13585,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:6">
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -12618,28 +13602,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -12659,7 +13642,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -12679,7 +13662,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:6">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -12699,7 +13682,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -12719,7 +13702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -12739,7 +13722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -12760,7 +13743,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B7351C-AA2E-498D-8AF1-218A0734D506}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9631A7B5-A6E7-46EA-BFFE-8445554A97E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2827,10 +2827,10 @@
   <dimension ref="A1:L291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M206" sqref="M206"/>
+      <selection pane="bottomRight" activeCell="B236" sqref="B236:B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9631A7B5-A6E7-46EA-BFFE-8445554A97E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9661910B-CC57-4944-B860-FE02C1EB13EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="668">
   <si>
     <t>sheet名</t>
   </si>
@@ -2109,6 +2109,21 @@
   </si>
   <si>
     <t>10级幸运晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片抽取券</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备抽取券</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_23</t>
+  </si>
+  <si>
+    <t>用于装备抽取。</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2824,13 +2839,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L291"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B236" sqref="B236:B248"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3344,7 +3359,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>664</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>88</v>
@@ -3375,26 +3390,26 @@
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
-        <v>101</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>91</v>
+      <c r="B16" s="4">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>665</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>92</v>
+        <v>666</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" s="4">
         <v>2</v>
@@ -3403,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>93</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3411,26 +3426,25 @@
         <v>14</v>
       </c>
       <c r="B17" s="5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="4" t="str">
-        <f t="shared" ref="F17:F22" si="0">"item_"&amp;B17</f>
-        <v>item_102</v>
+        <v>91</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="4">
         <v>2</v>
@@ -3439,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3447,26 +3461,26 @@
         <v>15</v>
       </c>
       <c r="B18" s="5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>item_103</v>
+        <f t="shared" ref="F18:F23" si="0">"item_"&amp;B18</f>
+        <v>item_102</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="4">
         <v>2</v>
@@ -3475,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3483,26 +3497,26 @@
         <v>16</v>
       </c>
       <c r="B19" s="5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>item_104</v>
+        <v>item_103</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="4">
         <v>2</v>
@@ -3511,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3519,26 +3533,26 @@
         <v>17</v>
       </c>
       <c r="B20" s="5">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>item_105</v>
+        <v>item_104</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" s="4">
         <v>2</v>
@@ -3547,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3555,20 +3569,20 @@
         <v>18</v>
       </c>
       <c r="B21" s="5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>item_106</v>
+        <v>item_105</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -3583,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3591,20 +3605,20 @@
         <v>19</v>
       </c>
       <c r="B22" s="5">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>item_201</v>
+        <v>item_106</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -3619,60 +3633,63 @@
         <v>1</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>109</v>
+      <c r="B23" s="5">
+        <v>201</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>item_201</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
       </c>
       <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
         <v>2</v>
       </c>
-      <c r="I23" s="4">
-        <v>3</v>
-      </c>
       <c r="J23" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -3693,19 +3710,19 @@
         <v>22</v>
       </c>
       <c r="B25" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -3726,19 +3743,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="4">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -3759,19 +3776,19 @@
         <v>24</v>
       </c>
       <c r="B27" s="4">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -3792,19 +3809,19 @@
         <v>25</v>
       </c>
       <c r="B28" s="4">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -3825,19 +3842,19 @@
         <v>26</v>
       </c>
       <c r="B29" s="4">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -3858,19 +3875,19 @@
         <v>27</v>
       </c>
       <c r="B30" s="4">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
@@ -3891,19 +3908,19 @@
         <v>28</v>
       </c>
       <c r="B31" s="4">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -3924,19 +3941,19 @@
         <v>29</v>
       </c>
       <c r="B32" s="4">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
@@ -3957,19 +3974,19 @@
         <v>30</v>
       </c>
       <c r="B33" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
@@ -3990,19 +4007,19 @@
         <v>31</v>
       </c>
       <c r="B34" s="4">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
@@ -4023,19 +4040,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="4">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
@@ -4056,19 +4073,19 @@
         <v>33</v>
       </c>
       <c r="B36" s="4">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
@@ -4089,19 +4106,19 @@
         <v>34</v>
       </c>
       <c r="B37" s="4">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
@@ -4122,19 +4139,19 @@
         <v>35</v>
       </c>
       <c r="B38" s="4">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
@@ -4155,19 +4172,19 @@
         <v>36</v>
       </c>
       <c r="B39" s="4">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -4188,19 +4205,19 @@
         <v>37</v>
       </c>
       <c r="B40" s="4">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -4221,19 +4238,19 @@
         <v>38</v>
       </c>
       <c r="B41" s="4">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -4254,19 +4271,19 @@
         <v>39</v>
       </c>
       <c r="B42" s="4">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -4287,19 +4304,19 @@
         <v>40</v>
       </c>
       <c r="B43" s="4">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -4320,19 +4337,19 @@
         <v>41</v>
       </c>
       <c r="B44" s="4">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
@@ -4353,19 +4370,19 @@
         <v>42</v>
       </c>
       <c r="B45" s="4">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
@@ -4386,19 +4403,19 @@
         <v>43</v>
       </c>
       <c r="B46" s="4">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
@@ -4419,25 +4436,25 @@
         <v>44</v>
       </c>
       <c r="B47" s="4">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" s="4">
         <v>3</v>
@@ -4452,19 +4469,19 @@
         <v>45</v>
       </c>
       <c r="B48" s="4">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
@@ -4485,19 +4502,19 @@
         <v>46</v>
       </c>
       <c r="B49" s="4">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
@@ -4518,19 +4535,19 @@
         <v>47</v>
       </c>
       <c r="B50" s="4">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
@@ -4551,19 +4568,19 @@
         <v>48</v>
       </c>
       <c r="B51" s="4">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
@@ -4584,19 +4601,19 @@
         <v>49</v>
       </c>
       <c r="B52" s="4">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
@@ -4617,19 +4634,19 @@
         <v>50</v>
       </c>
       <c r="B53" s="4">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
@@ -4650,19 +4667,19 @@
         <v>51</v>
       </c>
       <c r="B54" s="4">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G54" s="4">
         <v>0</v>
@@ -4683,19 +4700,19 @@
         <v>52</v>
       </c>
       <c r="B55" s="4">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="G55" s="4">
         <v>0</v>
@@ -4716,19 +4733,19 @@
         <v>53</v>
       </c>
       <c r="B56" s="4">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
@@ -4749,19 +4766,19 @@
         <v>54</v>
       </c>
       <c r="B57" s="4">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
@@ -4782,19 +4799,19 @@
         <v>55</v>
       </c>
       <c r="B58" s="4">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
@@ -4815,19 +4832,19 @@
         <v>56</v>
       </c>
       <c r="B59" s="4">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
@@ -4848,19 +4865,19 @@
         <v>57</v>
       </c>
       <c r="B60" s="4">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
@@ -4881,19 +4898,19 @@
         <v>58</v>
       </c>
       <c r="B61" s="4">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G61" s="4">
         <v>0</v>
@@ -4914,19 +4931,19 @@
         <v>59</v>
       </c>
       <c r="B62" s="4">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
@@ -4947,19 +4964,19 @@
         <v>60</v>
       </c>
       <c r="B63" s="4">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="G63" s="4">
         <v>0</v>
@@ -4980,19 +4997,19 @@
         <v>61</v>
       </c>
       <c r="B64" s="4">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
@@ -5013,19 +5030,19 @@
         <v>62</v>
       </c>
       <c r="B65" s="4">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
@@ -5046,19 +5063,19 @@
         <v>63</v>
       </c>
       <c r="B66" s="4">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
@@ -5079,19 +5096,19 @@
         <v>64</v>
       </c>
       <c r="B67" s="4">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
@@ -5112,19 +5129,19 @@
         <v>65</v>
       </c>
       <c r="B68" s="4">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G68" s="4">
         <v>0</v>
@@ -5145,19 +5162,19 @@
         <v>66</v>
       </c>
       <c r="B69" s="4">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G69" s="4">
         <v>0</v>
@@ -5178,19 +5195,19 @@
         <v>67</v>
       </c>
       <c r="B70" s="4">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
@@ -5211,25 +5228,25 @@
         <v>68</v>
       </c>
       <c r="B71" s="4">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71" s="4">
         <v>3</v>
@@ -5244,19 +5261,19 @@
         <v>69</v>
       </c>
       <c r="B72" s="4">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G72" s="4">
         <v>0</v>
@@ -5277,19 +5294,19 @@
         <v>70</v>
       </c>
       <c r="B73" s="4">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G73" s="4">
         <v>0</v>
@@ -5310,19 +5327,19 @@
         <v>71</v>
       </c>
       <c r="B74" s="4">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G74" s="4">
         <v>0</v>
@@ -5343,19 +5360,19 @@
         <v>72</v>
       </c>
       <c r="B75" s="4">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
@@ -5376,19 +5393,19 @@
         <v>73</v>
       </c>
       <c r="B76" s="4">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G76" s="4">
         <v>0</v>
@@ -5409,19 +5426,19 @@
         <v>74</v>
       </c>
       <c r="B77" s="4">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G77" s="4">
         <v>0</v>
@@ -5442,19 +5459,19 @@
         <v>75</v>
       </c>
       <c r="B78" s="4">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G78" s="4">
         <v>0</v>
@@ -5475,19 +5492,19 @@
         <v>76</v>
       </c>
       <c r="B79" s="4">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="G79" s="4">
         <v>0</v>
@@ -5508,19 +5525,19 @@
         <v>77</v>
       </c>
       <c r="B80" s="4">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G80" s="4">
         <v>0</v>
@@ -5541,19 +5558,19 @@
         <v>78</v>
       </c>
       <c r="B81" s="4">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G81" s="4">
         <v>0</v>
@@ -5574,19 +5591,19 @@
         <v>79</v>
       </c>
       <c r="B82" s="4">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G82" s="4">
         <v>0</v>
@@ -5607,19 +5624,19 @@
         <v>80</v>
       </c>
       <c r="B83" s="4">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G83" s="4">
         <v>0</v>
@@ -5640,19 +5657,19 @@
         <v>81</v>
       </c>
       <c r="B84" s="4">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G84" s="4">
         <v>0</v>
@@ -5673,19 +5690,19 @@
         <v>82</v>
       </c>
       <c r="B85" s="4">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>317</v>
+        <v>313</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G85" s="4">
         <v>0</v>
@@ -5706,19 +5723,19 @@
         <v>83</v>
       </c>
       <c r="B86" s="4">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>317</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G86" s="4">
         <v>0</v>
@@ -5739,19 +5756,19 @@
         <v>84</v>
       </c>
       <c r="B87" s="4">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="G87" s="4">
         <v>0</v>
@@ -5772,19 +5789,19 @@
         <v>85</v>
       </c>
       <c r="B88" s="4">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G88" s="4">
         <v>0</v>
@@ -5805,19 +5822,19 @@
         <v>86</v>
       </c>
       <c r="B89" s="4">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G89" s="4">
         <v>0</v>
@@ -5838,19 +5855,19 @@
         <v>87</v>
       </c>
       <c r="B90" s="4">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G90" s="4">
         <v>0</v>
@@ -5871,19 +5888,19 @@
         <v>88</v>
       </c>
       <c r="B91" s="4">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G91" s="4">
         <v>0</v>
@@ -5904,19 +5921,19 @@
         <v>89</v>
       </c>
       <c r="B92" s="4">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G92" s="4">
         <v>0</v>
@@ -5937,19 +5954,19 @@
         <v>90</v>
       </c>
       <c r="B93" s="4">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G93" s="4">
         <v>0</v>
@@ -5970,19 +5987,19 @@
         <v>91</v>
       </c>
       <c r="B94" s="4">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G94" s="4">
         <v>0</v>
@@ -6003,19 +6020,19 @@
         <v>92</v>
       </c>
       <c r="B95" s="4">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="G95" s="4">
         <v>0</v>
@@ -6036,19 +6053,19 @@
         <v>93</v>
       </c>
       <c r="B96" s="4">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G96" s="4">
         <v>0</v>
@@ -6069,19 +6086,19 @@
         <v>94</v>
       </c>
       <c r="B97" s="4">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G97" s="4">
         <v>0</v>
@@ -6102,19 +6119,19 @@
         <v>95</v>
       </c>
       <c r="B98" s="4">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G98" s="4">
         <v>0</v>
@@ -6130,24 +6147,24 @@
       </c>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>96</v>
       </c>
       <c r="B99" s="4">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G99" s="4">
         <v>0</v>
@@ -6168,19 +6185,19 @@
         <v>97</v>
       </c>
       <c r="B100" s="4">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G100" s="4">
         <v>0</v>
@@ -6201,19 +6218,19 @@
         <v>98</v>
       </c>
       <c r="B101" s="4">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>365</v>
+        <v>361</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G101" s="4">
         <v>0</v>
@@ -6234,19 +6251,19 @@
         <v>99</v>
       </c>
       <c r="B102" s="4">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>365</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G102" s="4">
         <v>0</v>
@@ -6262,30 +6279,30 @@
       </c>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>100</v>
       </c>
       <c r="B103" s="4">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="G103" s="4">
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I103" s="4">
         <v>3</v>
@@ -6300,19 +6317,19 @@
         <v>101</v>
       </c>
       <c r="B104" s="4">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G104" s="4">
         <v>0</v>
@@ -6333,19 +6350,19 @@
         <v>102</v>
       </c>
       <c r="B105" s="4">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G105" s="4">
         <v>0</v>
@@ -6366,19 +6383,19 @@
         <v>103</v>
       </c>
       <c r="B106" s="4">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G106" s="4">
         <v>0</v>
@@ -6399,19 +6416,19 @@
         <v>104</v>
       </c>
       <c r="B107" s="4">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G107" s="4">
         <v>0</v>
@@ -6432,19 +6449,19 @@
         <v>105</v>
       </c>
       <c r="B108" s="4">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G108" s="4">
         <v>0</v>
@@ -6465,19 +6482,19 @@
         <v>106</v>
       </c>
       <c r="B109" s="4">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G109" s="4">
         <v>0</v>
@@ -6498,19 +6515,19 @@
         <v>107</v>
       </c>
       <c r="B110" s="4">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>395</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G110" s="4">
         <v>0</v>
@@ -6531,19 +6548,19 @@
         <v>108</v>
       </c>
       <c r="B111" s="4">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="G111" s="4">
         <v>0</v>
@@ -6564,19 +6581,19 @@
         <v>109</v>
       </c>
       <c r="B112" s="4">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G112" s="4">
         <v>0</v>
@@ -6597,19 +6614,19 @@
         <v>110</v>
       </c>
       <c r="B113" s="4">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G113" s="4">
         <v>0</v>
@@ -6630,19 +6647,19 @@
         <v>111</v>
       </c>
       <c r="B114" s="4">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G114" s="4">
         <v>0</v>
@@ -6663,19 +6680,19 @@
         <v>112</v>
       </c>
       <c r="B115" s="4">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G115" s="4">
         <v>0</v>
@@ -6696,19 +6713,19 @@
         <v>113</v>
       </c>
       <c r="B116" s="4">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G116" s="4">
         <v>0</v>
@@ -6729,19 +6746,19 @@
         <v>114</v>
       </c>
       <c r="B117" s="4">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>421</v>
+        <v>417</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G117" s="4">
         <v>0</v>
@@ -6762,19 +6779,19 @@
         <v>115</v>
       </c>
       <c r="B118" s="4">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G118" s="4">
         <v>0</v>
@@ -6795,56 +6812,53 @@
         <v>116</v>
       </c>
       <c r="B119" s="4">
-        <v>10001</v>
+        <v>1118</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F119" s="4" t="str">
-        <f t="shared" ref="F119:F182" si="1">"item_"&amp;B119</f>
-        <v>item_10001</v>
+        <v>425</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="G119" s="4">
         <v>0</v>
       </c>
       <c r="H119" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I119" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J119" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K119" s="4" t="s">
-        <v>427</v>
-      </c>
+      <c r="K119" s="4"/>
     </row>
     <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>117</v>
       </c>
       <c r="B120" s="4">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F120" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>item_10002</v>
+        <f t="shared" ref="F120:F183" si="1">"item_"&amp;B120</f>
+        <v>item_10001</v>
       </c>
       <c r="G120" s="4">
         <v>0</v>
@@ -6859,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -6867,20 +6881,20 @@
         <v>118</v>
       </c>
       <c r="B121" s="4">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F121" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10003</v>
+        <v>item_10002</v>
       </c>
       <c r="G121" s="4">
         <v>0</v>
@@ -6895,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -6903,20 +6917,20 @@
         <v>119</v>
       </c>
       <c r="B122" s="4">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F122" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10004</v>
+        <v>item_10003</v>
       </c>
       <c r="G122" s="4">
         <v>0</v>
@@ -6931,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -6939,20 +6953,20 @@
         <v>120</v>
       </c>
       <c r="B123" s="4">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F123" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10005</v>
+        <v>item_10004</v>
       </c>
       <c r="G123" s="4">
         <v>0</v>
@@ -6967,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -6975,20 +6989,20 @@
         <v>121</v>
       </c>
       <c r="B124" s="4">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="F124" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10006</v>
+        <v>item_10005</v>
       </c>
       <c r="G124" s="4">
         <v>0</v>
@@ -7003,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7011,20 +7025,20 @@
         <v>122</v>
       </c>
       <c r="B125" s="4">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F125" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10007</v>
+        <v>item_10006</v>
       </c>
       <c r="G125" s="4">
         <v>0</v>
@@ -7039,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7047,20 +7061,20 @@
         <v>123</v>
       </c>
       <c r="B126" s="4">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F126" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10008</v>
+        <v>item_10007</v>
       </c>
       <c r="G126" s="4">
         <v>0</v>
@@ -7075,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7083,20 +7097,20 @@
         <v>124</v>
       </c>
       <c r="B127" s="4">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F127" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10009</v>
+        <v>item_10008</v>
       </c>
       <c r="G127" s="4">
         <v>0</v>
@@ -7111,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7119,20 +7133,20 @@
         <v>125</v>
       </c>
       <c r="B128" s="4">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="F128" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10010</v>
+        <v>item_10009</v>
       </c>
       <c r="G128" s="4">
         <v>0</v>
@@ -7147,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7155,20 +7169,20 @@
         <v>126</v>
       </c>
       <c r="B129" s="4">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F129" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10011</v>
+        <v>item_10010</v>
       </c>
       <c r="G129" s="4">
         <v>0</v>
@@ -7183,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7191,20 +7205,20 @@
         <v>127</v>
       </c>
       <c r="B130" s="4">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F130" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10012</v>
+        <v>item_10011</v>
       </c>
       <c r="G130" s="4">
         <v>0</v>
@@ -7219,7 +7233,7 @@
         <v>1</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7227,20 +7241,20 @@
         <v>128</v>
       </c>
       <c r="B131" s="4">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F131" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10013</v>
+        <v>item_10012</v>
       </c>
       <c r="G131" s="4">
         <v>0</v>
@@ -7255,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7263,20 +7277,20 @@
         <v>129</v>
       </c>
       <c r="B132" s="4">
-        <v>10101</v>
+        <v>10013</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F132" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10101</v>
+        <v>item_10013</v>
       </c>
       <c r="G132" s="4">
         <v>0</v>
@@ -7291,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7299,20 +7313,20 @@
         <v>130</v>
       </c>
       <c r="B133" s="4">
-        <v>10102</v>
+        <v>10101</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F133" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10102</v>
+        <v>item_10101</v>
       </c>
       <c r="G133" s="4">
         <v>0</v>
@@ -7327,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7335,20 +7349,20 @@
         <v>131</v>
       </c>
       <c r="B134" s="4">
-        <v>10103</v>
+        <v>10102</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F134" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10103</v>
+        <v>item_10102</v>
       </c>
       <c r="G134" s="4">
         <v>0</v>
@@ -7363,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7371,20 +7385,20 @@
         <v>132</v>
       </c>
       <c r="B135" s="4">
-        <v>10104</v>
+        <v>10103</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F135" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10104</v>
+        <v>item_10103</v>
       </c>
       <c r="G135" s="4">
         <v>0</v>
@@ -7399,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7407,20 +7421,20 @@
         <v>133</v>
       </c>
       <c r="B136" s="4">
-        <v>10105</v>
+        <v>10104</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F136" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10105</v>
+        <v>item_10104</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
@@ -7435,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7443,20 +7457,20 @@
         <v>134</v>
       </c>
       <c r="B137" s="4">
-        <v>10106</v>
+        <v>10105</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F137" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10106</v>
+        <v>item_10105</v>
       </c>
       <c r="G137" s="4">
         <v>0</v>
@@ -7471,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7479,20 +7493,20 @@
         <v>135</v>
       </c>
       <c r="B138" s="4">
-        <v>10107</v>
+        <v>10106</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F138" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10107</v>
+        <v>item_10106</v>
       </c>
       <c r="G138" s="4">
         <v>0</v>
@@ -7507,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7515,20 +7529,20 @@
         <v>136</v>
       </c>
       <c r="B139" s="4">
-        <v>10108</v>
+        <v>10107</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F139" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10108</v>
+        <v>item_10107</v>
       </c>
       <c r="G139" s="4">
         <v>0</v>
@@ -7543,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7551,20 +7565,20 @@
         <v>137</v>
       </c>
       <c r="B140" s="4">
-        <v>10109</v>
+        <v>10108</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F140" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10109</v>
+        <v>item_10108</v>
       </c>
       <c r="G140" s="4">
         <v>0</v>
@@ -7579,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7587,20 +7601,20 @@
         <v>138</v>
       </c>
       <c r="B141" s="4">
-        <v>10110</v>
+        <v>10109</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F141" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10110</v>
+        <v>item_10109</v>
       </c>
       <c r="G141" s="4">
         <v>0</v>
@@ -7615,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7623,20 +7637,20 @@
         <v>139</v>
       </c>
       <c r="B142" s="4">
-        <v>10111</v>
+        <v>10110</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F142" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10111</v>
+        <v>item_10110</v>
       </c>
       <c r="G142" s="4">
         <v>0</v>
@@ -7651,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7659,20 +7673,20 @@
         <v>140</v>
       </c>
       <c r="B143" s="4">
-        <v>10112</v>
+        <v>10111</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F143" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10112</v>
+        <v>item_10111</v>
       </c>
       <c r="G143" s="4">
         <v>0</v>
@@ -7687,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7695,20 +7709,20 @@
         <v>141</v>
       </c>
       <c r="B144" s="4">
-        <v>10113</v>
+        <v>10112</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F144" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10113</v>
+        <v>item_10112</v>
       </c>
       <c r="G144" s="4">
         <v>0</v>
@@ -7723,7 +7737,7 @@
         <v>1</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7731,26 +7745,26 @@
         <v>142</v>
       </c>
       <c r="B145" s="4">
-        <v>10201</v>
+        <v>10113</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F145" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10201</v>
+        <v>item_10113</v>
       </c>
       <c r="G145" s="4">
         <v>0</v>
       </c>
       <c r="H145" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" s="4">
         <v>4</v>
@@ -7759,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7767,20 +7781,20 @@
         <v>143</v>
       </c>
       <c r="B146" s="4">
-        <v>10202</v>
+        <v>10201</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F146" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10202</v>
+        <v>item_10201</v>
       </c>
       <c r="G146" s="4">
         <v>0</v>
@@ -7795,7 +7809,7 @@
         <v>1</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7803,20 +7817,20 @@
         <v>144</v>
       </c>
       <c r="B147" s="4">
-        <v>10203</v>
+        <v>10202</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F147" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10203</v>
+        <v>item_10202</v>
       </c>
       <c r="G147" s="4">
         <v>0</v>
@@ -7831,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7839,20 +7853,20 @@
         <v>145</v>
       </c>
       <c r="B148" s="4">
-        <v>10204</v>
+        <v>10203</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F148" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10204</v>
+        <v>item_10203</v>
       </c>
       <c r="G148" s="4">
         <v>0</v>
@@ -7867,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7875,20 +7889,20 @@
         <v>146</v>
       </c>
       <c r="B149" s="4">
-        <v>10205</v>
+        <v>10204</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F149" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10205</v>
+        <v>item_10204</v>
       </c>
       <c r="G149" s="4">
         <v>0</v>
@@ -7903,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7911,20 +7925,20 @@
         <v>147</v>
       </c>
       <c r="B150" s="4">
-        <v>10206</v>
+        <v>10205</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F150" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10206</v>
+        <v>item_10205</v>
       </c>
       <c r="G150" s="4">
         <v>0</v>
@@ -7939,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7947,20 +7961,20 @@
         <v>148</v>
       </c>
       <c r="B151" s="4">
-        <v>10207</v>
+        <v>10206</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F151" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10207</v>
+        <v>item_10206</v>
       </c>
       <c r="G151" s="4">
         <v>0</v>
@@ -7975,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7983,20 +7997,20 @@
         <v>149</v>
       </c>
       <c r="B152" s="4">
-        <v>10208</v>
+        <v>10207</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F152" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10208</v>
+        <v>item_10207</v>
       </c>
       <c r="G152" s="4">
         <v>0</v>
@@ -8011,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8019,20 +8033,20 @@
         <v>150</v>
       </c>
       <c r="B153" s="4">
-        <v>10209</v>
+        <v>10208</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F153" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10209</v>
+        <v>item_10208</v>
       </c>
       <c r="G153" s="4">
         <v>0</v>
@@ -8047,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8055,20 +8069,20 @@
         <v>151</v>
       </c>
       <c r="B154" s="4">
-        <v>10210</v>
+        <v>10209</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F154" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10210</v>
+        <v>item_10209</v>
       </c>
       <c r="G154" s="4">
         <v>0</v>
@@ -8083,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8091,20 +8105,20 @@
         <v>152</v>
       </c>
       <c r="B155" s="4">
-        <v>10211</v>
+        <v>10210</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F155" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10211</v>
+        <v>item_10210</v>
       </c>
       <c r="G155" s="4">
         <v>0</v>
@@ -8119,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8127,20 +8141,20 @@
         <v>153</v>
       </c>
       <c r="B156" s="4">
-        <v>10212</v>
+        <v>10211</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F156" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10212</v>
+        <v>item_10211</v>
       </c>
       <c r="G156" s="4">
         <v>0</v>
@@ -8155,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8163,20 +8177,20 @@
         <v>154</v>
       </c>
       <c r="B157" s="4">
-        <v>10213</v>
+        <v>10212</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F157" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10213</v>
+        <v>item_10212</v>
       </c>
       <c r="G157" s="4">
         <v>0</v>
@@ -8191,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8199,20 +8213,20 @@
         <v>155</v>
       </c>
       <c r="B158" s="4">
-        <v>10301</v>
+        <v>10213</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F158" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10301</v>
+        <v>item_10213</v>
       </c>
       <c r="G158" s="4">
         <v>0</v>
@@ -8227,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8235,20 +8249,20 @@
         <v>156</v>
       </c>
       <c r="B159" s="4">
-        <v>10302</v>
+        <v>10301</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F159" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10302</v>
+        <v>item_10301</v>
       </c>
       <c r="G159" s="4">
         <v>0</v>
@@ -8263,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8271,20 +8285,20 @@
         <v>157</v>
       </c>
       <c r="B160" s="4">
-        <v>10303</v>
+        <v>10302</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F160" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10303</v>
+        <v>item_10302</v>
       </c>
       <c r="G160" s="4">
         <v>0</v>
@@ -8299,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8307,20 +8321,20 @@
         <v>158</v>
       </c>
       <c r="B161" s="4">
-        <v>10304</v>
+        <v>10303</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F161" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10304</v>
+        <v>item_10303</v>
       </c>
       <c r="G161" s="4">
         <v>0</v>
@@ -8335,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8343,20 +8357,20 @@
         <v>159</v>
       </c>
       <c r="B162" s="4">
-        <v>10305</v>
+        <v>10304</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F162" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10305</v>
+        <v>item_10304</v>
       </c>
       <c r="G162" s="4">
         <v>0</v>
@@ -8371,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8379,20 +8393,20 @@
         <v>160</v>
       </c>
       <c r="B163" s="4">
-        <v>10306</v>
+        <v>10305</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F163" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10306</v>
+        <v>item_10305</v>
       </c>
       <c r="G163" s="4">
         <v>0</v>
@@ -8407,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8415,20 +8429,20 @@
         <v>161</v>
       </c>
       <c r="B164" s="4">
-        <v>10307</v>
+        <v>10306</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F164" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10307</v>
+        <v>item_10306</v>
       </c>
       <c r="G164" s="4">
         <v>0</v>
@@ -8443,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8451,20 +8465,20 @@
         <v>162</v>
       </c>
       <c r="B165" s="4">
-        <v>10308</v>
+        <v>10307</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F165" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10308</v>
+        <v>item_10307</v>
       </c>
       <c r="G165" s="4">
         <v>0</v>
@@ -8479,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8487,20 +8501,20 @@
         <v>163</v>
       </c>
       <c r="B166" s="4">
-        <v>10309</v>
+        <v>10308</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F166" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10309</v>
+        <v>item_10308</v>
       </c>
       <c r="G166" s="4">
         <v>0</v>
@@ -8515,7 +8529,7 @@
         <v>1</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8523,20 +8537,20 @@
         <v>164</v>
       </c>
       <c r="B167" s="4">
-        <v>10310</v>
+        <v>10309</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F167" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10310</v>
+        <v>item_10309</v>
       </c>
       <c r="G167" s="4">
         <v>0</v>
@@ -8551,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8559,20 +8573,20 @@
         <v>165</v>
       </c>
       <c r="B168" s="4">
-        <v>10311</v>
+        <v>10310</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F168" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10311</v>
+        <v>item_10310</v>
       </c>
       <c r="G168" s="4">
         <v>0</v>
@@ -8587,7 +8601,7 @@
         <v>1</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8595,20 +8609,20 @@
         <v>166</v>
       </c>
       <c r="B169" s="4">
-        <v>10312</v>
+        <v>10311</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F169" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10312</v>
+        <v>item_10311</v>
       </c>
       <c r="G169" s="4">
         <v>0</v>
@@ -8623,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8631,20 +8645,20 @@
         <v>167</v>
       </c>
       <c r="B170" s="4">
-        <v>10313</v>
+        <v>10312</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F170" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10313</v>
+        <v>item_10312</v>
       </c>
       <c r="G170" s="4">
         <v>0</v>
@@ -8659,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8667,26 +8681,26 @@
         <v>168</v>
       </c>
       <c r="B171" s="4">
-        <v>10401</v>
+        <v>10313</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F171" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10401</v>
+        <v>item_10313</v>
       </c>
       <c r="G171" s="4">
         <v>0</v>
       </c>
       <c r="H171" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I171" s="4">
         <v>4</v>
@@ -8695,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8703,20 +8717,20 @@
         <v>169</v>
       </c>
       <c r="B172" s="4">
-        <v>10402</v>
+        <v>10401</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F172" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10402</v>
+        <v>item_10401</v>
       </c>
       <c r="G172" s="4">
         <v>0</v>
@@ -8731,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8739,20 +8753,20 @@
         <v>170</v>
       </c>
       <c r="B173" s="4">
-        <v>10403</v>
+        <v>10402</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F173" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10403</v>
+        <v>item_10402</v>
       </c>
       <c r="G173" s="4">
         <v>0</v>
@@ -8767,7 +8781,7 @@
         <v>1</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8775,20 +8789,20 @@
         <v>171</v>
       </c>
       <c r="B174" s="4">
-        <v>10404</v>
+        <v>10403</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F174" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10404</v>
+        <v>item_10403</v>
       </c>
       <c r="G174" s="4">
         <v>0</v>
@@ -8803,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8811,20 +8825,20 @@
         <v>172</v>
       </c>
       <c r="B175" s="4">
-        <v>10405</v>
+        <v>10404</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F175" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10405</v>
+        <v>item_10404</v>
       </c>
       <c r="G175" s="4">
         <v>0</v>
@@ -8839,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8847,20 +8861,20 @@
         <v>173</v>
       </c>
       <c r="B176" s="4">
-        <v>10406</v>
+        <v>10405</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F176" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10406</v>
+        <v>item_10405</v>
       </c>
       <c r="G176" s="4">
         <v>0</v>
@@ -8875,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8883,20 +8897,20 @@
         <v>174</v>
       </c>
       <c r="B177" s="4">
-        <v>10407</v>
+        <v>10406</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F177" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10407</v>
+        <v>item_10406</v>
       </c>
       <c r="G177" s="4">
         <v>0</v>
@@ -8911,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8919,20 +8933,20 @@
         <v>175</v>
       </c>
       <c r="B178" s="4">
-        <v>10408</v>
+        <v>10407</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F178" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10408</v>
+        <v>item_10407</v>
       </c>
       <c r="G178" s="4">
         <v>0</v>
@@ -8947,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="K178" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8955,20 +8969,20 @@
         <v>176</v>
       </c>
       <c r="B179" s="4">
-        <v>10409</v>
+        <v>10408</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F179" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10409</v>
+        <v>item_10408</v>
       </c>
       <c r="G179" s="4">
         <v>0</v>
@@ -8983,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8991,20 +9005,20 @@
         <v>177</v>
       </c>
       <c r="B180" s="4">
-        <v>10410</v>
+        <v>10409</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F180" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10410</v>
+        <v>item_10409</v>
       </c>
       <c r="G180" s="4">
         <v>0</v>
@@ -9019,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9027,20 +9041,20 @@
         <v>178</v>
       </c>
       <c r="B181" s="4">
-        <v>10411</v>
+        <v>10410</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F181" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10411</v>
+        <v>item_10410</v>
       </c>
       <c r="G181" s="4">
         <v>0</v>
@@ -9055,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9063,20 +9077,20 @@
         <v>179</v>
       </c>
       <c r="B182" s="4">
-        <v>10412</v>
+        <v>10411</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F182" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>item_10412</v>
+        <v>item_10411</v>
       </c>
       <c r="G182" s="4">
         <v>0</v>
@@ -9091,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9099,20 +9113,20 @@
         <v>180</v>
       </c>
       <c r="B183" s="4">
-        <v>10413</v>
+        <v>10412</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F183" s="4" t="str">
-        <f t="shared" ref="F183:F209" si="2">"item_"&amp;B183</f>
-        <v>item_10413</v>
+        <f t="shared" si="1"/>
+        <v>item_10412</v>
       </c>
       <c r="G183" s="4">
         <v>0</v>
@@ -9127,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9135,20 +9149,20 @@
         <v>181</v>
       </c>
       <c r="B184" s="4">
-        <v>10501</v>
+        <v>10413</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F184" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>item_10501</v>
+        <f t="shared" ref="F184:F210" si="2">"item_"&amp;B184</f>
+        <v>item_10413</v>
       </c>
       <c r="G184" s="4">
         <v>0</v>
@@ -9163,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9171,20 +9185,20 @@
         <v>182</v>
       </c>
       <c r="B185" s="4">
-        <v>10502</v>
+        <v>10501</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F185" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10502</v>
+        <v>item_10501</v>
       </c>
       <c r="G185" s="4">
         <v>0</v>
@@ -9199,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="K185" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9207,20 +9221,20 @@
         <v>183</v>
       </c>
       <c r="B186" s="4">
-        <v>10503</v>
+        <v>10502</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F186" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10503</v>
+        <v>item_10502</v>
       </c>
       <c r="G186" s="4">
         <v>0</v>
@@ -9235,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="K186" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9243,20 +9257,20 @@
         <v>184</v>
       </c>
       <c r="B187" s="4">
-        <v>10504</v>
+        <v>10503</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F187" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10504</v>
+        <v>item_10503</v>
       </c>
       <c r="G187" s="4">
         <v>0</v>
@@ -9271,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9279,20 +9293,20 @@
         <v>185</v>
       </c>
       <c r="B188" s="4">
-        <v>10505</v>
+        <v>10504</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F188" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10505</v>
+        <v>item_10504</v>
       </c>
       <c r="G188" s="4">
         <v>0</v>
@@ -9307,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9315,20 +9329,20 @@
         <v>186</v>
       </c>
       <c r="B189" s="4">
-        <v>10506</v>
+        <v>10505</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F189" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10506</v>
+        <v>item_10505</v>
       </c>
       <c r="G189" s="4">
         <v>0</v>
@@ -9343,7 +9357,7 @@
         <v>1</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9351,20 +9365,20 @@
         <v>187</v>
       </c>
       <c r="B190" s="4">
-        <v>10507</v>
+        <v>10506</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F190" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10507</v>
+        <v>item_10506</v>
       </c>
       <c r="G190" s="4">
         <v>0</v>
@@ -9379,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9387,20 +9401,20 @@
         <v>188</v>
       </c>
       <c r="B191" s="4">
-        <v>10508</v>
+        <v>10507</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F191" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10508</v>
+        <v>item_10507</v>
       </c>
       <c r="G191" s="4">
         <v>0</v>
@@ -9415,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9423,20 +9437,20 @@
         <v>189</v>
       </c>
       <c r="B192" s="4">
-        <v>10509</v>
+        <v>10508</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F192" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10509</v>
+        <v>item_10508</v>
       </c>
       <c r="G192" s="4">
         <v>0</v>
@@ -9451,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9459,20 +9473,20 @@
         <v>190</v>
       </c>
       <c r="B193" s="4">
-        <v>10510</v>
+        <v>10509</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F193" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10510</v>
+        <v>item_10509</v>
       </c>
       <c r="G193" s="4">
         <v>0</v>
@@ -9487,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9495,20 +9509,20 @@
         <v>191</v>
       </c>
       <c r="B194" s="4">
-        <v>10511</v>
+        <v>10510</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F194" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10511</v>
+        <v>item_10510</v>
       </c>
       <c r="G194" s="4">
         <v>0</v>
@@ -9523,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9531,20 +9545,20 @@
         <v>192</v>
       </c>
       <c r="B195" s="4">
-        <v>10512</v>
+        <v>10511</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F195" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10512</v>
+        <v>item_10511</v>
       </c>
       <c r="G195" s="4">
         <v>0</v>
@@ -9559,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9567,20 +9581,20 @@
         <v>193</v>
       </c>
       <c r="B196" s="4">
-        <v>10513</v>
+        <v>10512</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F196" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10513</v>
+        <v>item_10512</v>
       </c>
       <c r="G196" s="4">
         <v>0</v>
@@ -9595,7 +9609,7 @@
         <v>1</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9603,26 +9617,26 @@
         <v>194</v>
       </c>
       <c r="B197" s="4">
-        <v>10601</v>
+        <v>10513</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F197" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10601</v>
+        <v>item_10513</v>
       </c>
       <c r="G197" s="4">
         <v>0</v>
       </c>
       <c r="H197" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I197" s="4">
         <v>4</v>
@@ -9631,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9639,20 +9653,20 @@
         <v>195</v>
       </c>
       <c r="B198" s="4">
-        <v>10602</v>
+        <v>10601</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F198" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10602</v>
+        <v>item_10601</v>
       </c>
       <c r="G198" s="4">
         <v>0</v>
@@ -9667,7 +9681,7 @@
         <v>1</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9675,20 +9689,20 @@
         <v>196</v>
       </c>
       <c r="B199" s="4">
-        <v>10603</v>
+        <v>10602</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F199" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10603</v>
+        <v>item_10602</v>
       </c>
       <c r="G199" s="4">
         <v>0</v>
@@ -9703,7 +9717,7 @@
         <v>1</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9711,20 +9725,20 @@
         <v>197</v>
       </c>
       <c r="B200" s="4">
-        <v>10604</v>
+        <v>10603</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F200" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10604</v>
+        <v>item_10603</v>
       </c>
       <c r="G200" s="4">
         <v>0</v>
@@ -9739,7 +9753,7 @@
         <v>1</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9747,20 +9761,20 @@
         <v>198</v>
       </c>
       <c r="B201" s="4">
-        <v>10605</v>
+        <v>10604</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F201" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10605</v>
+        <v>item_10604</v>
       </c>
       <c r="G201" s="4">
         <v>0</v>
@@ -9775,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9783,20 +9797,20 @@
         <v>199</v>
       </c>
       <c r="B202" s="4">
-        <v>10606</v>
+        <v>10605</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F202" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10606</v>
+        <v>item_10605</v>
       </c>
       <c r="G202" s="4">
         <v>0</v>
@@ -9811,7 +9825,7 @@
         <v>1</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9819,20 +9833,20 @@
         <v>200</v>
       </c>
       <c r="B203" s="4">
-        <v>10607</v>
+        <v>10606</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F203" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10607</v>
+        <v>item_10606</v>
       </c>
       <c r="G203" s="4">
         <v>0</v>
@@ -9847,7 +9861,7 @@
         <v>1</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9855,20 +9869,20 @@
         <v>201</v>
       </c>
       <c r="B204" s="4">
-        <v>10608</v>
+        <v>10607</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F204" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10608</v>
+        <v>item_10607</v>
       </c>
       <c r="G204" s="4">
         <v>0</v>
@@ -9883,7 +9897,7 @@
         <v>1</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9891,20 +9905,20 @@
         <v>202</v>
       </c>
       <c r="B205" s="4">
-        <v>10609</v>
+        <v>10608</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F205" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10609</v>
+        <v>item_10608</v>
       </c>
       <c r="G205" s="4">
         <v>0</v>
@@ -9919,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9927,20 +9941,20 @@
         <v>203</v>
       </c>
       <c r="B206" s="4">
-        <v>10610</v>
+        <v>10609</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F206" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10610</v>
+        <v>item_10609</v>
       </c>
       <c r="G206" s="4">
         <v>0</v>
@@ -9955,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="K206" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9963,20 +9977,20 @@
         <v>204</v>
       </c>
       <c r="B207" s="4">
-        <v>10611</v>
+        <v>10610</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F207" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10611</v>
+        <v>item_10610</v>
       </c>
       <c r="G207" s="4">
         <v>0</v>
@@ -9991,7 +10005,7 @@
         <v>1</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9999,20 +10013,20 @@
         <v>205</v>
       </c>
       <c r="B208" s="4">
-        <v>10612</v>
+        <v>10611</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F208" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10612</v>
+        <v>item_10611</v>
       </c>
       <c r="G208" s="4">
         <v>0</v>
@@ -10027,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10035,20 +10049,20 @@
         <v>206</v>
       </c>
       <c r="B209" s="4">
-        <v>10613</v>
+        <v>10612</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F209" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>item_10613</v>
+        <v>item_10612</v>
       </c>
       <c r="G209" s="4">
         <v>0</v>
@@ -10063,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10071,20 +10085,20 @@
         <v>207</v>
       </c>
       <c r="B210" s="4">
-        <v>10701</v>
+        <v>10613</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>625</v>
+        <v>529</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>625</v>
+        <v>529</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>625</v>
+        <v>529</v>
       </c>
       <c r="F210" s="4" t="str">
-        <f t="shared" ref="F210:F222" si="3">"item_"&amp;B210</f>
-        <v>item_10701</v>
+        <f t="shared" si="2"/>
+        <v>item_10613</v>
       </c>
       <c r="G210" s="4">
         <v>0</v>
@@ -10099,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10107,20 +10121,20 @@
         <v>208</v>
       </c>
       <c r="B211" s="4">
-        <v>10702</v>
+        <v>10701</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F211" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>item_10702</v>
+        <f t="shared" ref="F211:F223" si="3">"item_"&amp;B211</f>
+        <v>item_10701</v>
       </c>
       <c r="G211" s="4">
         <v>0</v>
@@ -10135,7 +10149,7 @@
         <v>1</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10143,20 +10157,20 @@
         <v>209</v>
       </c>
       <c r="B212" s="4">
-        <v>10703</v>
+        <v>10702</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F212" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10703</v>
+        <v>item_10702</v>
       </c>
       <c r="G212" s="4">
         <v>0</v>
@@ -10171,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10179,20 +10193,20 @@
         <v>210</v>
       </c>
       <c r="B213" s="4">
-        <v>10704</v>
+        <v>10703</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F213" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10704</v>
+        <v>item_10703</v>
       </c>
       <c r="G213" s="4">
         <v>0</v>
@@ -10207,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="K213" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10215,20 +10229,20 @@
         <v>211</v>
       </c>
       <c r="B214" s="4">
-        <v>10705</v>
+        <v>10704</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F214" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10705</v>
+        <v>item_10704</v>
       </c>
       <c r="G214" s="4">
         <v>0</v>
@@ -10243,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10251,20 +10265,20 @@
         <v>212</v>
       </c>
       <c r="B215" s="4">
-        <v>10706</v>
+        <v>10705</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F215" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10706</v>
+        <v>item_10705</v>
       </c>
       <c r="G215" s="4">
         <v>0</v>
@@ -10279,7 +10293,7 @@
         <v>1</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10287,20 +10301,20 @@
         <v>213</v>
       </c>
       <c r="B216" s="4">
-        <v>10707</v>
+        <v>10706</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F216" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10707</v>
+        <v>item_10706</v>
       </c>
       <c r="G216" s="4">
         <v>0</v>
@@ -10315,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10323,20 +10337,20 @@
         <v>214</v>
       </c>
       <c r="B217" s="4">
-        <v>10708</v>
+        <v>10707</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F217" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10708</v>
+        <v>item_10707</v>
       </c>
       <c r="G217" s="4">
         <v>0</v>
@@ -10351,7 +10365,7 @@
         <v>1</v>
       </c>
       <c r="K217" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10359,20 +10373,20 @@
         <v>215</v>
       </c>
       <c r="B218" s="4">
-        <v>10709</v>
+        <v>10708</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F218" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10709</v>
+        <v>item_10708</v>
       </c>
       <c r="G218" s="4">
         <v>0</v>
@@ -10387,7 +10401,7 @@
         <v>1</v>
       </c>
       <c r="K218" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10395,20 +10409,20 @@
         <v>216</v>
       </c>
       <c r="B219" s="4">
-        <v>10710</v>
+        <v>10709</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F219" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10710</v>
+        <v>item_10709</v>
       </c>
       <c r="G219" s="4">
         <v>0</v>
@@ -10423,7 +10437,7 @@
         <v>1</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10431,20 +10445,20 @@
         <v>217</v>
       </c>
       <c r="B220" s="4">
-        <v>10711</v>
+        <v>10710</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F220" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10711</v>
+        <v>item_10710</v>
       </c>
       <c r="G220" s="4">
         <v>0</v>
@@ -10459,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10467,20 +10481,20 @@
         <v>218</v>
       </c>
       <c r="B221" s="4">
-        <v>10712</v>
+        <v>10711</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F221" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10712</v>
+        <v>item_10711</v>
       </c>
       <c r="G221" s="4">
         <v>0</v>
@@ -10495,7 +10509,7 @@
         <v>1</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10503,20 +10517,20 @@
         <v>219</v>
       </c>
       <c r="B222" s="4">
-        <v>10713</v>
+        <v>10712</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F222" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>item_10713</v>
+        <v>item_10712</v>
       </c>
       <c r="G222" s="4">
         <v>0</v>
@@ -10531,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="K222" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10539,20 +10553,20 @@
         <v>220</v>
       </c>
       <c r="B223" s="4">
-        <v>10801</v>
+        <v>10713</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F223" s="4" t="str">
-        <f t="shared" ref="F223:F235" si="4">"item_"&amp;B223</f>
-        <v>item_10801</v>
+        <f t="shared" si="3"/>
+        <v>item_10713</v>
       </c>
       <c r="G223" s="4">
         <v>0</v>
@@ -10567,7 +10581,7 @@
         <v>1</v>
       </c>
       <c r="K223" s="4" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10575,20 +10589,20 @@
         <v>221</v>
       </c>
       <c r="B224" s="4">
-        <v>10802</v>
+        <v>10801</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F224" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>item_10802</v>
+        <f t="shared" ref="F224:F236" si="4">"item_"&amp;B224</f>
+        <v>item_10801</v>
       </c>
       <c r="G224" s="4">
         <v>0</v>
@@ -10603,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="K224" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10611,20 +10625,20 @@
         <v>222</v>
       </c>
       <c r="B225" s="4">
-        <v>10803</v>
+        <v>10802</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F225" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>item_10803</v>
+        <v>item_10802</v>
       </c>
       <c r="G225" s="4">
         <v>0</v>
@@ -10639,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="K225" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10647,20 +10661,20 @@
         <v>223</v>
       </c>
       <c r="B226" s="4">
-        <v>10804</v>
+        <v>10803</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F226" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>item_10804</v>
+        <v>item_10803</v>
       </c>
       <c r="G226" s="4">
         <v>0</v>
@@ -10675,7 +10689,7 @@
         <v>1</v>
       </c>
       <c r="K226" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10683,20 +10697,20 @@
         <v>224</v>
       </c>
       <c r="B227" s="4">
-        <v>10805</v>
+        <v>10804</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F227" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>item_10805</v>
+        <v>item_10804</v>
       </c>
       <c r="G227" s="4">
         <v>0</v>
@@ -10711,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="K227" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10719,20 +10733,20 @@
         <v>225</v>
       </c>
       <c r="B228" s="4">
-        <v>10806</v>
+        <v>10805</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F228" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>item_10806</v>
+        <v>item_10805</v>
       </c>
       <c r="G228" s="4">
         <v>0</v>
@@ -10747,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="K228" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10755,20 +10769,20 @@
         <v>226</v>
       </c>
       <c r="B229" s="4">
-        <v>10807</v>
+        <v>10806</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F229" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>item_10807</v>
+        <v>item_10806</v>
       </c>
       <c r="G229" s="4">
         <v>0</v>
@@ -10783,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10791,20 +10805,20 @@
         <v>227</v>
       </c>
       <c r="B230" s="4">
-        <v>10808</v>
+        <v>10807</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F230" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>item_10808</v>
+        <v>item_10807</v>
       </c>
       <c r="G230" s="4">
         <v>0</v>
@@ -10819,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10827,20 +10841,20 @@
         <v>228</v>
       </c>
       <c r="B231" s="4">
-        <v>10809</v>
+        <v>10808</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F231" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>item_10809</v>
+        <v>item_10808</v>
       </c>
       <c r="G231" s="4">
         <v>0</v>
@@ -10855,7 +10869,7 @@
         <v>1</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10863,20 +10877,20 @@
         <v>229</v>
       </c>
       <c r="B232" s="4">
-        <v>10810</v>
+        <v>10809</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F232" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>item_10810</v>
+        <v>item_10809</v>
       </c>
       <c r="G232" s="4">
         <v>0</v>
@@ -10891,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10899,20 +10913,20 @@
         <v>230</v>
       </c>
       <c r="B233" s="4">
-        <v>10811</v>
+        <v>10810</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F233" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>item_10811</v>
+        <v>item_10810</v>
       </c>
       <c r="G233" s="4">
         <v>0</v>
@@ -10927,7 +10941,7 @@
         <v>1</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10935,20 +10949,20 @@
         <v>231</v>
       </c>
       <c r="B234" s="4">
-        <v>10812</v>
+        <v>10811</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F234" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>item_10812</v>
+        <v>item_10811</v>
       </c>
       <c r="G234" s="4">
         <v>0</v>
@@ -10963,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10971,20 +10985,20 @@
         <v>232</v>
       </c>
       <c r="B235" s="4">
-        <v>10813</v>
+        <v>10812</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F235" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>item_10813</v>
+        <v>item_10812</v>
       </c>
       <c r="G235" s="4">
         <v>0</v>
@@ -10999,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="K235" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11007,20 +11021,20 @@
         <v>233</v>
       </c>
       <c r="B236" s="4">
-        <v>10901</v>
+        <v>10813</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F236" s="4" t="str">
-        <f t="shared" ref="F236:F248" si="5">"item_"&amp;B236</f>
-        <v>item_10901</v>
+        <f t="shared" si="4"/>
+        <v>item_10813</v>
       </c>
       <c r="G236" s="4">
         <v>0</v>
@@ -11035,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="K236" s="4" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11043,20 +11057,20 @@
         <v>234</v>
       </c>
       <c r="B237" s="4">
-        <v>10902</v>
+        <v>10901</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F237" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>item_10902</v>
+        <f t="shared" ref="F237:F249" si="5">"item_"&amp;B237</f>
+        <v>item_10901</v>
       </c>
       <c r="G237" s="4">
         <v>0</v>
@@ -11071,7 +11085,7 @@
         <v>1</v>
       </c>
       <c r="K237" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11079,20 +11093,20 @@
         <v>235</v>
       </c>
       <c r="B238" s="4">
-        <v>10903</v>
+        <v>10902</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F238" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>item_10903</v>
+        <v>item_10902</v>
       </c>
       <c r="G238" s="4">
         <v>0</v>
@@ -11107,7 +11121,7 @@
         <v>1</v>
       </c>
       <c r="K238" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11115,20 +11129,20 @@
         <v>236</v>
       </c>
       <c r="B239" s="4">
-        <v>10904</v>
+        <v>10903</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F239" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>item_10904</v>
+        <v>item_10903</v>
       </c>
       <c r="G239" s="4">
         <v>0</v>
@@ -11143,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="K239" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11151,20 +11165,20 @@
         <v>237</v>
       </c>
       <c r="B240" s="4">
-        <v>10905</v>
+        <v>10904</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F240" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>item_10905</v>
+        <v>item_10904</v>
       </c>
       <c r="G240" s="4">
         <v>0</v>
@@ -11179,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="K240" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11187,20 +11201,20 @@
         <v>238</v>
       </c>
       <c r="B241" s="4">
-        <v>10906</v>
+        <v>10905</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F241" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>item_10906</v>
+        <v>item_10905</v>
       </c>
       <c r="G241" s="4">
         <v>0</v>
@@ -11215,7 +11229,7 @@
         <v>1</v>
       </c>
       <c r="K241" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11223,20 +11237,20 @@
         <v>239</v>
       </c>
       <c r="B242" s="4">
-        <v>10907</v>
+        <v>10906</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F242" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>item_10907</v>
+        <v>item_10906</v>
       </c>
       <c r="G242" s="4">
         <v>0</v>
@@ -11251,7 +11265,7 @@
         <v>1</v>
       </c>
       <c r="K242" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11259,20 +11273,20 @@
         <v>240</v>
       </c>
       <c r="B243" s="4">
-        <v>10908</v>
+        <v>10907</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F243" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>item_10908</v>
+        <v>item_10907</v>
       </c>
       <c r="G243" s="4">
         <v>0</v>
@@ -11287,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="K243" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11295,20 +11309,20 @@
         <v>241</v>
       </c>
       <c r="B244" s="4">
-        <v>10909</v>
+        <v>10908</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F244" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>item_10909</v>
+        <v>item_10908</v>
       </c>
       <c r="G244" s="4">
         <v>0</v>
@@ -11323,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="K244" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11331,20 +11345,20 @@
         <v>242</v>
       </c>
       <c r="B245" s="4">
-        <v>10910</v>
+        <v>10909</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F245" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>item_10910</v>
+        <v>item_10909</v>
       </c>
       <c r="G245" s="4">
         <v>0</v>
@@ -11359,7 +11373,7 @@
         <v>1</v>
       </c>
       <c r="K245" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11367,20 +11381,20 @@
         <v>243</v>
       </c>
       <c r="B246" s="4">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F246" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>item_10911</v>
+        <v>item_10910</v>
       </c>
       <c r="G246" s="4">
         <v>0</v>
@@ -11395,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="K246" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11403,20 +11417,20 @@
         <v>244</v>
       </c>
       <c r="B247" s="4">
-        <v>10912</v>
+        <v>10911</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F247" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>item_10912</v>
+        <v>item_10911</v>
       </c>
       <c r="G247" s="4">
         <v>0</v>
@@ -11431,7 +11445,7 @@
         <v>1</v>
       </c>
       <c r="K247" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11439,20 +11453,20 @@
         <v>245</v>
       </c>
       <c r="B248" s="4">
-        <v>10913</v>
+        <v>10912</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F248" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>item_10913</v>
+        <v>item_10912</v>
       </c>
       <c r="G248" s="4">
         <v>0</v>
@@ -11467,42 +11481,43 @@
         <v>1</v>
       </c>
       <c r="K248" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>246</v>
       </c>
-      <c r="B249" s="5">
-        <v>20001</v>
+      <c r="B249" s="4">
+        <v>10913</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="E249" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>81</v>
+        <v>663</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="F249" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>item_10913</v>
       </c>
       <c r="G249" s="4">
         <v>0</v>
       </c>
       <c r="H249" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I249" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J249" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K249" s="5" t="s">
-        <v>531</v>
+      <c r="K249" s="4" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11510,16 +11525,16 @@
         <v>247</v>
       </c>
       <c r="B250" s="5">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>81</v>
@@ -11528,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="H250" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" s="4">
         <v>5</v>
@@ -11537,7 +11552,7 @@
         <v>1</v>
       </c>
       <c r="K250" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11545,16 +11560,16 @@
         <v>248</v>
       </c>
       <c r="B251" s="5">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>81</v>
@@ -11563,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="H251" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" s="4">
         <v>5</v>
@@ -11572,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="K251" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11580,16 +11595,16 @@
         <v>249</v>
       </c>
       <c r="B252" s="5">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>81</v>
@@ -11598,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="H252" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I252" s="4">
         <v>5</v>
@@ -11607,7 +11622,7 @@
         <v>1</v>
       </c>
       <c r="K252" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11615,16 +11630,16 @@
         <v>250</v>
       </c>
       <c r="B253" s="5">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>81</v>
@@ -11633,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="H253" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I253" s="4">
         <v>5</v>
@@ -11642,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="K253" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11650,16 +11665,16 @@
         <v>251</v>
       </c>
       <c r="B254" s="5">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>81</v>
@@ -11677,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="K254" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11685,16 +11700,16 @@
         <v>252</v>
       </c>
       <c r="B255" s="5">
-        <v>20101</v>
+        <v>20006</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>81</v>
@@ -11703,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="H255" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I255" s="4">
         <v>5</v>
@@ -11712,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="K255" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11720,16 +11735,16 @@
         <v>253</v>
       </c>
       <c r="B256" s="5">
-        <v>20102</v>
+        <v>20101</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>81</v>
@@ -11738,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="H256" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" s="4">
         <v>5</v>
@@ -11747,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="K256" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11755,16 +11770,16 @@
         <v>254</v>
       </c>
       <c r="B257" s="5">
-        <v>20103</v>
+        <v>20102</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>81</v>
@@ -11773,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="H257" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" s="4">
         <v>5</v>
@@ -11782,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="K257" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11790,16 +11805,16 @@
         <v>255</v>
       </c>
       <c r="B258" s="5">
-        <v>20104</v>
+        <v>20103</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>81</v>
@@ -11808,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="H258" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I258" s="4">
         <v>5</v>
@@ -11817,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="K258" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11825,16 +11840,16 @@
         <v>256</v>
       </c>
       <c r="B259" s="5">
-        <v>20105</v>
+        <v>20104</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F259" s="4" t="s">
         <v>81</v>
@@ -11843,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="H259" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I259" s="4">
         <v>5</v>
@@ -11852,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="K259" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11860,16 +11875,16 @@
         <v>257</v>
       </c>
       <c r="B260" s="5">
-        <v>20106</v>
+        <v>20105</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>81</v>
@@ -11887,7 +11902,7 @@
         <v>1</v>
       </c>
       <c r="K260" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11895,16 +11910,16 @@
         <v>258</v>
       </c>
       <c r="B261" s="5">
-        <v>20201</v>
+        <v>20106</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>81</v>
@@ -11913,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="H261" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I261" s="4">
         <v>5</v>
@@ -11922,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="K261" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11930,16 +11945,16 @@
         <v>259</v>
       </c>
       <c r="B262" s="5">
-        <v>20202</v>
+        <v>20201</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F262" s="4" t="s">
         <v>81</v>
@@ -11948,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="H262" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" s="4">
         <v>5</v>
@@ -11957,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="K262" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11965,16 +11980,16 @@
         <v>260</v>
       </c>
       <c r="B263" s="5">
-        <v>20203</v>
+        <v>20202</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>81</v>
@@ -11983,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="H263" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" s="4">
         <v>5</v>
@@ -11992,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="K263" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12000,16 +12015,16 @@
         <v>261</v>
       </c>
       <c r="B264" s="5">
-        <v>20204</v>
+        <v>20203</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>81</v>
@@ -12018,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="H264" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I264" s="4">
         <v>5</v>
@@ -12027,7 +12042,7 @@
         <v>1</v>
       </c>
       <c r="K264" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12035,16 +12050,16 @@
         <v>262</v>
       </c>
       <c r="B265" s="5">
-        <v>20205</v>
+        <v>20204</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F265" s="4" t="s">
         <v>81</v>
@@ -12053,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="H265" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I265" s="4">
         <v>5</v>
@@ -12062,7 +12077,7 @@
         <v>1</v>
       </c>
       <c r="K265" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12070,16 +12085,16 @@
         <v>263</v>
       </c>
       <c r="B266" s="5">
-        <v>20206</v>
+        <v>20205</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>81</v>
@@ -12097,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="K266" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12105,16 +12120,16 @@
         <v>264</v>
       </c>
       <c r="B267" s="5">
-        <v>20301</v>
+        <v>20206</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F267" s="4" t="s">
         <v>81</v>
@@ -12123,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="H267" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I267" s="4">
         <v>5</v>
@@ -12132,7 +12147,7 @@
         <v>1</v>
       </c>
       <c r="K267" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12140,16 +12155,16 @@
         <v>265</v>
       </c>
       <c r="B268" s="5">
-        <v>20302</v>
+        <v>20301</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F268" s="4" t="s">
         <v>81</v>
@@ -12158,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="H268" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" s="4">
         <v>5</v>
@@ -12167,7 +12182,7 @@
         <v>1</v>
       </c>
       <c r="K268" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12175,16 +12190,16 @@
         <v>266</v>
       </c>
       <c r="B269" s="5">
-        <v>20303</v>
+        <v>20302</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F269" s="4" t="s">
         <v>81</v>
@@ -12193,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="H269" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" s="4">
         <v>5</v>
@@ -12202,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="K269" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12210,16 +12225,16 @@
         <v>267</v>
       </c>
       <c r="B270" s="5">
-        <v>20304</v>
+        <v>20303</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>81</v>
@@ -12228,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I270" s="4">
         <v>5</v>
@@ -12237,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="K270" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12245,16 +12260,16 @@
         <v>268</v>
       </c>
       <c r="B271" s="5">
-        <v>20305</v>
+        <v>20304</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>81</v>
@@ -12263,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="H271" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I271" s="4">
         <v>5</v>
@@ -12272,7 +12287,7 @@
         <v>1</v>
       </c>
       <c r="K271" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12280,16 +12295,16 @@
         <v>269</v>
       </c>
       <c r="B272" s="5">
-        <v>20306</v>
+        <v>20305</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F272" s="4" t="s">
         <v>81</v>
@@ -12310,21 +12325,21 @@
         <v>575</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>270</v>
       </c>
-      <c r="B273" s="4">
-        <v>20401</v>
+      <c r="B273" s="5">
+        <v>20306</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="D273" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>576</v>
       </c>
       <c r="F273" s="4" t="s">
         <v>81</v>
@@ -12341,25 +12356,25 @@
       <c r="J273" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K273" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K273" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>271</v>
       </c>
-      <c r="B274" s="5">
-        <v>20501</v>
+      <c r="B274" s="4">
+        <v>20401</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="E274" s="5" t="s">
-        <v>530</v>
+        <v>577</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>577</v>
       </c>
       <c r="F274" s="4" t="s">
         <v>81</v>
@@ -12368,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="H274" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I274" s="4">
         <v>5</v>
@@ -12376,12 +12391,8 @@
       <c r="J274" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K274" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="L274" t="str">
-        <f>"解锁的"&amp;D274</f>
-        <v>解锁的晶片铜宝箱</v>
+      <c r="K274" s="4" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="275" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12389,16 +12400,16 @@
         <v>272</v>
       </c>
       <c r="B275" s="5">
-        <v>20502</v>
+        <v>20501</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F275" s="4" t="s">
         <v>81</v>
@@ -12407,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="H275" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" s="4">
         <v>5</v>
@@ -12416,11 +12427,11 @@
         <v>1</v>
       </c>
       <c r="K275" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L275" t="str">
-        <f t="shared" ref="L275:L291" si="6">"解锁的"&amp;D275</f>
-        <v>解锁的晶片银宝箱</v>
+        <f>"解锁的"&amp;D275</f>
+        <v>解锁的晶片铜宝箱</v>
       </c>
     </row>
     <row r="276" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12428,16 +12439,16 @@
         <v>273</v>
       </c>
       <c r="B276" s="5">
-        <v>20503</v>
+        <v>20502</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F276" s="4" t="s">
         <v>81</v>
@@ -12446,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="H276" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" s="4">
         <v>5</v>
@@ -12455,11 +12466,11 @@
         <v>1</v>
       </c>
       <c r="K276" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L276" t="str">
-        <f t="shared" si="6"/>
-        <v>解锁的晶片金宝箱</v>
+        <f t="shared" ref="L276:L292" si="6">"解锁的"&amp;D276</f>
+        <v>解锁的晶片银宝箱</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12467,16 +12478,16 @@
         <v>274</v>
       </c>
       <c r="B277" s="5">
-        <v>20504</v>
+        <v>20503</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F277" s="4" t="s">
         <v>81</v>
@@ -12485,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I277" s="4">
         <v>5</v>
@@ -12494,11 +12505,11 @@
         <v>1</v>
       </c>
       <c r="K277" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L277" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的晶片钻宝箱</v>
+        <v>解锁的晶片金宝箱</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12506,16 +12517,16 @@
         <v>275</v>
       </c>
       <c r="B278" s="5">
-        <v>20505</v>
+        <v>20504</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>81</v>
@@ -12524,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="H278" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I278" s="4">
         <v>5</v>
@@ -12533,11 +12544,11 @@
         <v>1</v>
       </c>
       <c r="K278" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L278" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的晶片玉宝箱</v>
+        <v>解锁的晶片钻宝箱</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12545,16 +12556,16 @@
         <v>276</v>
       </c>
       <c r="B279" s="5">
-        <v>20506</v>
+        <v>20505</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>81</v>
@@ -12572,11 +12583,11 @@
         <v>1</v>
       </c>
       <c r="K279" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L279" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的晶片魔宝箱</v>
+        <v>解锁的晶片玉宝箱</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12584,16 +12595,16 @@
         <v>277</v>
       </c>
       <c r="B280" s="5">
-        <v>20601</v>
+        <v>20506</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>81</v>
@@ -12602,7 +12613,7 @@
         <v>0</v>
       </c>
       <c r="H280" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I280" s="4">
         <v>5</v>
@@ -12611,11 +12622,11 @@
         <v>1</v>
       </c>
       <c r="K280" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L280" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的装备铜宝箱</v>
+        <v>解锁的晶片魔宝箱</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12623,16 +12634,16 @@
         <v>278</v>
       </c>
       <c r="B281" s="5">
-        <v>20602</v>
+        <v>20601</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>81</v>
@@ -12641,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" s="4">
         <v>5</v>
@@ -12650,11 +12661,11 @@
         <v>1</v>
       </c>
       <c r="K281" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L281" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的装备银宝箱</v>
+        <v>解锁的装备铜宝箱</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12662,16 +12673,16 @@
         <v>279</v>
       </c>
       <c r="B282" s="5">
-        <v>20603</v>
+        <v>20602</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>81</v>
@@ -12680,7 +12691,7 @@
         <v>0</v>
       </c>
       <c r="H282" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" s="4">
         <v>5</v>
@@ -12689,11 +12700,11 @@
         <v>1</v>
       </c>
       <c r="K282" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L282" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的装备金宝箱</v>
+        <v>解锁的装备银宝箱</v>
       </c>
     </row>
     <row r="283" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12701,16 +12712,16 @@
         <v>280</v>
       </c>
       <c r="B283" s="5">
-        <v>20604</v>
+        <v>20603</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F283" s="4" t="s">
         <v>81</v>
@@ -12719,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I283" s="4">
         <v>5</v>
@@ -12728,11 +12739,11 @@
         <v>1</v>
       </c>
       <c r="K283" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L283" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的装备钻宝箱</v>
+        <v>解锁的装备金宝箱</v>
       </c>
     </row>
     <row r="284" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12740,16 +12751,16 @@
         <v>281</v>
       </c>
       <c r="B284" s="5">
-        <v>20605</v>
+        <v>20604</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>81</v>
@@ -12758,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="H284" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I284" s="4">
         <v>5</v>
@@ -12767,11 +12778,11 @@
         <v>1</v>
       </c>
       <c r="K284" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L284" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的装备玉宝箱</v>
+        <v>解锁的装备钻宝箱</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12779,16 +12790,16 @@
         <v>282</v>
       </c>
       <c r="B285" s="5">
-        <v>20606</v>
+        <v>20605</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>81</v>
@@ -12806,11 +12817,11 @@
         <v>1</v>
       </c>
       <c r="K285" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L285" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的装备魔宝箱</v>
+        <v>解锁的装备玉宝箱</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12818,16 +12829,16 @@
         <v>283</v>
       </c>
       <c r="B286" s="5">
-        <v>20701</v>
+        <v>20606</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>81</v>
@@ -12836,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="H286" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I286" s="4">
         <v>5</v>
@@ -12845,11 +12856,11 @@
         <v>1</v>
       </c>
       <c r="K286" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L286" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的财富铜宝箱</v>
+        <v>解锁的装备魔宝箱</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12857,16 +12868,16 @@
         <v>284</v>
       </c>
       <c r="B287" s="5">
-        <v>20702</v>
+        <v>20701</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>81</v>
@@ -12875,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="H287" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" s="4">
         <v>5</v>
@@ -12884,11 +12895,11 @@
         <v>1</v>
       </c>
       <c r="K287" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L287" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的财富银宝箱</v>
+        <v>解锁的财富铜宝箱</v>
       </c>
     </row>
     <row r="288" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12896,16 +12907,16 @@
         <v>285</v>
       </c>
       <c r="B288" s="5">
-        <v>20703</v>
+        <v>20702</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>81</v>
@@ -12914,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="H288" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" s="4">
         <v>5</v>
@@ -12923,11 +12934,11 @@
         <v>1</v>
       </c>
       <c r="K288" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L288" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的财富金宝箱</v>
+        <v>解锁的财富银宝箱</v>
       </c>
     </row>
     <row r="289" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12935,16 +12946,16 @@
         <v>286</v>
       </c>
       <c r="B289" s="5">
-        <v>20704</v>
+        <v>20703</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>81</v>
@@ -12953,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="H289" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I289" s="4">
         <v>5</v>
@@ -12962,11 +12973,11 @@
         <v>1</v>
       </c>
       <c r="K289" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L289" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的财富钻宝箱</v>
+        <v>解锁的财富金宝箱</v>
       </c>
     </row>
     <row r="290" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12974,16 +12985,16 @@
         <v>287</v>
       </c>
       <c r="B290" s="5">
-        <v>20705</v>
+        <v>20704</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F290" s="4" t="s">
         <v>81</v>
@@ -12992,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="H290" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I290" s="4">
         <v>5</v>
@@ -13001,11 +13012,11 @@
         <v>1</v>
       </c>
       <c r="K290" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L290" t="str">
         <f t="shared" si="6"/>
-        <v>解锁的财富玉宝箱</v>
+        <v>解锁的财富钻宝箱</v>
       </c>
     </row>
     <row r="291" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -13013,16 +13024,16 @@
         <v>288</v>
       </c>
       <c r="B291" s="5">
-        <v>20706</v>
+        <v>20705</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>81</v>
@@ -13040,9 +13051,48 @@
         <v>1</v>
       </c>
       <c r="K291" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="L291" t="str">
+        <f t="shared" si="6"/>
+        <v>解锁的财富玉宝箱</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="4">
+        <v>289</v>
+      </c>
+      <c r="B292" s="5">
+        <v>20706</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G292" s="4">
+        <v>0</v>
+      </c>
+      <c r="H292" s="4">
+        <v>5</v>
+      </c>
+      <c r="I292" s="4">
+        <v>5</v>
+      </c>
+      <c r="J292" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K292" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="L291" t="str">
+      <c r="L292" t="str">
         <f t="shared" si="6"/>
         <v>解锁的财富魔宝箱</v>
       </c>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3406B594-3B04-4E6C-BB30-9CD9E84686CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26925" windowHeight="11910" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -12,23 +18,24 @@
     <sheet name="宝箱" sheetId="42" r:id="rId3"/>
     <sheet name="宝箱固定掉落" sheetId="43" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -37,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="681">
   <si>
     <t>sheet名</t>
   </si>
@@ -462,6 +470,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电磁增强装置</t>
@@ -471,7 +480,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>S1</t>
     </r>
@@ -2110,19 +2119,17 @@
   </si>
   <si>
     <t>awards</t>
+  </si>
+  <si>
+    <t>装备抽取券</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2135,188 +2142,51 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2325,6 +2195,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2333,6 +2204,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2340,16 +2212,37 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2370,199 +2263,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2574,7 +2281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2585,7 +2292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2611,104 +2318,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2718,287 +2327,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3256,19 +2674,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -3279,7 +2697,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3302,7 +2720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="44.25" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3344,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="27.75" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3364,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="27.75" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -3385,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -3406,31 +2824,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="21.75" customHeight="1" spans="1:1">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" ht="21.75" customHeight="1"/>
+    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F226" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F250" sqref="F250"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
@@ -3442,7 +2858,7 @@
     <col min="11" max="11" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3477,7 +2893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3512,7 +2928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:11">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -3547,7 +2963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:11">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3582,7 +2998,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:11">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3617,7 +3033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3652,7 +3068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:11">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -3687,7 +3103,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:11">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3722,7 +3138,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:11">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -3757,7 +3173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:11">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -3793,7 +3209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:11">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -3828,7 +3244,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:11">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -3863,7 +3279,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:11">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -3898,7 +3314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:11">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3933,7 +3349,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:11">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -3968,7 +3384,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:11">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -3976,7 +3392,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>91</v>
+        <v>680</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>91</v>
@@ -4003,7 +3419,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:11">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -4038,7 +3454,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:11">
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -4074,7 +3490,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:11">
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -4110,7 +3526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:11">
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -4146,7 +3562,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:11">
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -4182,7 +3598,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:11">
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -4218,7 +3634,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:11">
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -4254,7 +3670,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:11">
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -4287,7 +3703,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" ht="16.5" spans="1:11">
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -4320,7 +3736,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" ht="16.5" spans="1:11">
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -4353,7 +3769,7 @@
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" ht="16.5" spans="1:11">
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -4386,7 +3802,7 @@
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" ht="16.5" spans="1:11">
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -4399,7 +3815,7 @@
       <c r="D28" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>127</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -4419,7 +3835,7 @@
       </c>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" ht="16.5" spans="1:11">
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -4452,7 +3868,7 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" ht="16.5" spans="1:11">
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -4462,7 +3878,7 @@
       <c r="C30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -4485,7 +3901,7 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" ht="16.5" spans="1:11">
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -4518,7 +3934,7 @@
       </c>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" ht="16.5" spans="1:11">
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -4551,7 +3967,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" ht="16.5" spans="1:11">
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -4584,7 +4000,7 @@
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" ht="16.5" spans="1:11">
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -4617,7 +4033,7 @@
       </c>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" ht="16.5" spans="1:11">
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -4650,7 +4066,7 @@
       </c>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" ht="16.5" spans="1:11">
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -4683,7 +4099,7 @@
       </c>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" ht="16.5" spans="1:11">
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -4716,7 +4132,7 @@
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" ht="16.5" spans="1:11">
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -4726,7 +4142,7 @@
       <c r="C38" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>160</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -4749,7 +4165,7 @@
       </c>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" ht="16.5" spans="1:11">
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -4782,7 +4198,7 @@
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" ht="16.5" spans="1:11">
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -4815,7 +4231,7 @@
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" ht="16.5" spans="1:11">
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -4848,7 +4264,7 @@
       </c>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" ht="16.5" spans="1:11">
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -4881,7 +4297,7 @@
       </c>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" ht="16.5" spans="1:11">
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -4914,7 +4330,7 @@
       </c>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" ht="16.5" spans="1:11">
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -4947,7 +4363,7 @@
       </c>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" ht="16.5" spans="1:11">
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -4980,7 +4396,7 @@
       </c>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" ht="16.5" spans="1:11">
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -4990,7 +4406,7 @@
       <c r="C46" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -5013,7 +4429,7 @@
       </c>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" ht="16.5" spans="1:11">
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -5046,7 +4462,7 @@
       </c>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" ht="16.5" spans="1:11">
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -5079,7 +4495,7 @@
       </c>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" ht="16.5" spans="1:11">
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -5112,7 +4528,7 @@
       </c>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" ht="16.5" spans="1:11">
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -5145,7 +4561,7 @@
       </c>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" ht="16.5" spans="1:11">
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -5178,7 +4594,7 @@
       </c>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" ht="16.5" spans="1:11">
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -5211,7 +4627,7 @@
       </c>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" ht="16.5" spans="1:11">
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -5244,7 +4660,7 @@
       </c>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" ht="16.5" spans="1:11">
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -5254,7 +4670,7 @@
       <c r="C54" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>214</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -5277,7 +4693,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" ht="16.5" spans="1:11">
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -5310,7 +4726,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" ht="16.5" spans="1:11">
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -5343,7 +4759,7 @@
       </c>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" ht="16.5" spans="1:11">
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -5376,7 +4792,7 @@
       </c>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" ht="16.5" spans="1:11">
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -5409,7 +4825,7 @@
       </c>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" ht="16.5" spans="1:11">
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -5442,7 +4858,7 @@
       </c>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" ht="16.5" spans="1:11">
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -5475,7 +4891,7 @@
       </c>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" ht="16.5" spans="1:11">
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -5508,7 +4924,7 @@
       </c>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" ht="16.5" spans="1:11">
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -5518,7 +4934,7 @@
       <c r="C62" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>240</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -5541,7 +4957,7 @@
       </c>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" ht="16.5" spans="1:11">
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -5574,7 +4990,7 @@
       </c>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" ht="16.5" spans="1:11">
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>61</v>
       </c>
@@ -5607,7 +5023,7 @@
       </c>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" ht="16.5" spans="1:11">
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -5640,7 +5056,7 @@
       </c>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" ht="16.5" spans="1:11">
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -5673,7 +5089,7 @@
       </c>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" ht="16.5" spans="1:11">
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -5706,7 +5122,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" ht="16.5" spans="1:11">
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -5739,7 +5155,7 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" ht="16.5" spans="1:11">
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>66</v>
       </c>
@@ -5772,7 +5188,7 @@
       </c>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" ht="16.5" spans="1:11">
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -5782,7 +5198,7 @@
       <c r="C70" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>264</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -5805,7 +5221,7 @@
       </c>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" ht="16.5" spans="1:11">
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>68</v>
       </c>
@@ -5838,7 +5254,7 @@
       </c>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" ht="16.5" spans="1:11">
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>69</v>
       </c>
@@ -5871,7 +5287,7 @@
       </c>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" ht="16.5" spans="1:11">
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>70</v>
       </c>
@@ -5904,7 +5320,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" ht="16.5" spans="1:11">
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>71</v>
       </c>
@@ -5937,7 +5353,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" ht="16.5" spans="1:11">
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>72</v>
       </c>
@@ -5970,7 +5386,7 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" ht="16.5" spans="1:11">
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>73</v>
       </c>
@@ -6003,7 +5419,7 @@
       </c>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" ht="16.5" spans="1:11">
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>74</v>
       </c>
@@ -6036,7 +5452,7 @@
       </c>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" ht="16.5" spans="1:11">
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>75</v>
       </c>
@@ -6046,7 +5462,7 @@
       <c r="C78" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="9" t="s">
         <v>294</v>
       </c>
       <c r="E78" s="4" t="s">
@@ -6069,7 +5485,7 @@
       </c>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" ht="16.5" spans="1:11">
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>76</v>
       </c>
@@ -6102,7 +5518,7 @@
       </c>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" ht="16.5" spans="1:11">
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>77</v>
       </c>
@@ -6135,7 +5551,7 @@
       </c>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" ht="16.5" spans="1:11">
+    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>78</v>
       </c>
@@ -6168,7 +5584,7 @@
       </c>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" ht="16.5" spans="1:11">
+    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>79</v>
       </c>
@@ -6201,7 +5617,7 @@
       </c>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" ht="16.5" spans="1:11">
+    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>80</v>
       </c>
@@ -6234,7 +5650,7 @@
       </c>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" ht="16.5" spans="1:11">
+    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>81</v>
       </c>
@@ -6267,7 +5683,7 @@
       </c>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" ht="16.5" spans="1:11">
+    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>82</v>
       </c>
@@ -6300,7 +5716,7 @@
       </c>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" ht="16.5" spans="1:11">
+    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>83</v>
       </c>
@@ -6310,7 +5726,7 @@
       <c r="C86" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="9" t="s">
         <v>320</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -6333,7 +5749,7 @@
       </c>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" ht="16.5" spans="1:11">
+    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>84</v>
       </c>
@@ -6366,7 +5782,7 @@
       </c>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" ht="16.5" spans="1:11">
+    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>85</v>
       </c>
@@ -6399,7 +5815,7 @@
       </c>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" ht="16.5" spans="1:11">
+    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>86</v>
       </c>
@@ -6432,7 +5848,7 @@
       </c>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" ht="16.5" spans="1:11">
+    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>87</v>
       </c>
@@ -6465,7 +5881,7 @@
       </c>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" ht="16.5" spans="1:11">
+    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>88</v>
       </c>
@@ -6498,7 +5914,7 @@
       </c>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" ht="16.5" spans="1:11">
+    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>89</v>
       </c>
@@ -6531,7 +5947,7 @@
       </c>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" ht="16.5" spans="1:11">
+    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>90</v>
       </c>
@@ -6564,7 +5980,7 @@
       </c>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" ht="16.5" spans="1:11">
+    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>91</v>
       </c>
@@ -6574,7 +5990,7 @@
       <c r="C94" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="9" t="s">
         <v>344</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -6597,7 +6013,7 @@
       </c>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" ht="16.5" spans="1:11">
+    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>92</v>
       </c>
@@ -6630,7 +6046,7 @@
       </c>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" ht="16.5" spans="1:11">
+    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>93</v>
       </c>
@@ -6663,7 +6079,7 @@
       </c>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" ht="16.5" spans="1:11">
+    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>94</v>
       </c>
@@ -6696,7 +6112,7 @@
       </c>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" ht="16.5" spans="1:11">
+    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>95</v>
       </c>
@@ -6729,7 +6145,7 @@
       </c>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" ht="16.5" spans="1:11">
+    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>96</v>
       </c>
@@ -6762,7 +6178,7 @@
       </c>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" ht="16.5" customHeight="1" spans="1:11">
+    <row r="100" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>97</v>
       </c>
@@ -6795,7 +6211,7 @@
       </c>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" ht="16.5" customHeight="1" spans="1:11">
+    <row r="101" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>98</v>
       </c>
@@ -6828,7 +6244,7 @@
       </c>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" ht="16.5" customHeight="1" spans="1:11">
+    <row r="102" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>99</v>
       </c>
@@ -6838,7 +6254,7 @@
       <c r="C102" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E102" s="4" t="s">
@@ -6861,7 +6277,7 @@
       </c>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" ht="16.5" customHeight="1" spans="1:11">
+    <row r="103" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>100</v>
       </c>
@@ -6894,7 +6310,7 @@
       </c>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" ht="16.5" spans="1:11">
+    <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>101</v>
       </c>
@@ -6927,7 +6343,7 @@
       </c>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" ht="16.5" spans="1:11">
+    <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>102</v>
       </c>
@@ -6960,7 +6376,7 @@
       </c>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" ht="16.5" spans="1:11">
+    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>103</v>
       </c>
@@ -6993,7 +6409,7 @@
       </c>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" ht="16.5" spans="1:11">
+    <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>104</v>
       </c>
@@ -7026,7 +6442,7 @@
       </c>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" ht="16.5" spans="1:11">
+    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>105</v>
       </c>
@@ -7059,7 +6475,7 @@
       </c>
       <c r="K108" s="4"/>
     </row>
-    <row r="109" ht="16.5" spans="1:11">
+    <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>106</v>
       </c>
@@ -7092,7 +6508,7 @@
       </c>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" ht="16.5" spans="1:11">
+    <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>107</v>
       </c>
@@ -7102,7 +6518,7 @@
       <c r="C110" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E110" s="4" t="s">
@@ -7125,7 +6541,7 @@
       </c>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" ht="16.5" spans="1:11">
+    <row r="111" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>108</v>
       </c>
@@ -7158,7 +6574,7 @@
       </c>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" ht="16.5" spans="1:11">
+    <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>109</v>
       </c>
@@ -7191,7 +6607,7 @@
       </c>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" ht="16.5" spans="1:11">
+    <row r="113" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>110</v>
       </c>
@@ -7224,7 +6640,7 @@
       </c>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" ht="16.5" spans="1:11">
+    <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>111</v>
       </c>
@@ -7257,7 +6673,7 @@
       </c>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" ht="16.5" spans="1:11">
+    <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>112</v>
       </c>
@@ -7290,7 +6706,7 @@
       </c>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" ht="16.5" spans="1:11">
+    <row r="116" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>113</v>
       </c>
@@ -7323,7 +6739,7 @@
       </c>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" ht="16.5" spans="1:11">
+    <row r="117" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>114</v>
       </c>
@@ -7356,7 +6772,7 @@
       </c>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" ht="16.5" spans="1:11">
+    <row r="118" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>115</v>
       </c>
@@ -7366,7 +6782,7 @@
       <c r="C118" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="9" t="s">
         <v>424</v>
       </c>
       <c r="E118" s="4" t="s">
@@ -7389,7 +6805,7 @@
       </c>
       <c r="K118" s="4"/>
     </row>
-    <row r="119" ht="16.5" spans="1:11">
+    <row r="119" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>116</v>
       </c>
@@ -7422,7 +6838,7 @@
       </c>
       <c r="K119" s="4"/>
     </row>
-    <row r="120" ht="16.5" spans="1:11">
+    <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>117</v>
       </c>
@@ -7457,7 +6873,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:11">
+    <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>118</v>
       </c>
@@ -7492,7 +6908,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:11">
+    <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>119</v>
       </c>
@@ -7527,7 +6943,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:11">
+    <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>120</v>
       </c>
@@ -7562,7 +6978,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:11">
+    <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>121</v>
       </c>
@@ -7597,7 +7013,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:11">
+    <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>122</v>
       </c>
@@ -7607,10 +7023,10 @@
       <c r="C125" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="8" t="s">
         <v>444</v>
       </c>
       <c r="F125" s="4" t="s">
@@ -7632,7 +7048,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:11">
+    <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>123</v>
       </c>
@@ -7642,10 +7058,10 @@
       <c r="C126" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="8" t="s">
         <v>447</v>
       </c>
       <c r="F126" s="4" t="s">
@@ -7667,7 +7083,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:11">
+    <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>124</v>
       </c>
@@ -7677,10 +7093,10 @@
       <c r="C127" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="8" t="s">
         <v>450</v>
       </c>
       <c r="F127" s="4" t="s">
@@ -7702,7 +7118,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:11">
+    <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>125</v>
       </c>
@@ -7712,10 +7128,10 @@
       <c r="C128" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="8" t="s">
         <v>453</v>
       </c>
       <c r="F128" s="4" t="s">
@@ -7737,7 +7153,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:11">
+    <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>126</v>
       </c>
@@ -7772,7 +7188,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:11">
+    <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>127</v>
       </c>
@@ -7807,7 +7223,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:11">
+    <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>128</v>
       </c>
@@ -7842,7 +7258,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:11">
+    <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>129</v>
       </c>
@@ -7877,7 +7293,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:11">
+    <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>130</v>
       </c>
@@ -7912,7 +7328,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:11">
+    <row r="134" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>131</v>
       </c>
@@ -7947,7 +7363,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:11">
+    <row r="135" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>132</v>
       </c>
@@ -7982,7 +7398,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:11">
+    <row r="136" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>133</v>
       </c>
@@ -8017,7 +7433,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:11">
+    <row r="137" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>134</v>
       </c>
@@ -8052,7 +7468,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:11">
+    <row r="138" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>135</v>
       </c>
@@ -8087,7 +7503,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:11">
+    <row r="139" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>136</v>
       </c>
@@ -8122,7 +7538,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:11">
+    <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>137</v>
       </c>
@@ -8157,7 +7573,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:11">
+    <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>138</v>
       </c>
@@ -8192,7 +7608,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:11">
+    <row r="142" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>139</v>
       </c>
@@ -8227,7 +7643,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:11">
+    <row r="143" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>140</v>
       </c>
@@ -8262,7 +7678,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:11">
+    <row r="144" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>141</v>
       </c>
@@ -8297,7 +7713,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:11">
+    <row r="145" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>142</v>
       </c>
@@ -8332,7 +7748,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:11">
+    <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>143</v>
       </c>
@@ -8367,7 +7783,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:11">
+    <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>144</v>
       </c>
@@ -8402,7 +7818,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:11">
+    <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>145</v>
       </c>
@@ -8437,7 +7853,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:11">
+    <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>146</v>
       </c>
@@ -8472,7 +7888,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:11">
+    <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>147</v>
       </c>
@@ -8507,7 +7923,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:11">
+    <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>148</v>
       </c>
@@ -8542,7 +7958,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:11">
+    <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>149</v>
       </c>
@@ -8577,7 +7993,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:11">
+    <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>150</v>
       </c>
@@ -8612,7 +8028,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:11">
+    <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>151</v>
       </c>
@@ -8647,7 +8063,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:11">
+    <row r="155" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>152</v>
       </c>
@@ -8682,7 +8098,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:11">
+    <row r="156" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>153</v>
       </c>
@@ -8717,7 +8133,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:11">
+    <row r="157" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>154</v>
       </c>
@@ -8752,7 +8168,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:11">
+    <row r="158" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>155</v>
       </c>
@@ -8787,7 +8203,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:11">
+    <row r="159" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>156</v>
       </c>
@@ -8822,7 +8238,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:11">
+    <row r="160" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>157</v>
       </c>
@@ -8857,7 +8273,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:11">
+    <row r="161" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>158</v>
       </c>
@@ -8892,7 +8308,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:11">
+    <row r="162" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>159</v>
       </c>
@@ -8927,7 +8343,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:11">
+    <row r="163" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>160</v>
       </c>
@@ -8962,7 +8378,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:11">
+    <row r="164" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>161</v>
       </c>
@@ -8997,7 +8413,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:11">
+    <row r="165" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>162</v>
       </c>
@@ -9032,7 +8448,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:11">
+    <row r="166" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>163</v>
       </c>
@@ -9067,7 +8483,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:11">
+    <row r="167" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>164</v>
       </c>
@@ -9102,7 +8518,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:11">
+    <row r="168" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>165</v>
       </c>
@@ -9137,7 +8553,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:11">
+    <row r="169" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>166</v>
       </c>
@@ -9172,7 +8588,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:11">
+    <row r="170" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>167</v>
       </c>
@@ -9207,7 +8623,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:11">
+    <row r="171" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>168</v>
       </c>
@@ -9242,7 +8658,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:11">
+    <row r="172" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>169</v>
       </c>
@@ -9277,7 +8693,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:11">
+    <row r="173" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>170</v>
       </c>
@@ -9312,7 +8728,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:11">
+    <row r="174" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>171</v>
       </c>
@@ -9347,7 +8763,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:11">
+    <row r="175" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>172</v>
       </c>
@@ -9382,7 +8798,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:11">
+    <row r="176" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>173</v>
       </c>
@@ -9417,7 +8833,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:11">
+    <row r="177" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>174</v>
       </c>
@@ -9452,7 +8868,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:11">
+    <row r="178" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>175</v>
       </c>
@@ -9487,7 +8903,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:11">
+    <row r="179" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>176</v>
       </c>
@@ -9522,7 +8938,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="180" ht="16.5" spans="1:11">
+    <row r="180" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>177</v>
       </c>
@@ -9557,7 +8973,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="181" ht="16.5" spans="1:11">
+    <row r="181" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>178</v>
       </c>
@@ -9592,7 +9008,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="182" ht="16.5" spans="1:11">
+    <row r="182" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>179</v>
       </c>
@@ -9627,7 +9043,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:11">
+    <row r="183" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>180</v>
       </c>
@@ -9662,7 +9078,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:11">
+    <row r="184" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>181</v>
       </c>
@@ -9697,7 +9113,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:11">
+    <row r="185" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>182</v>
       </c>
@@ -9732,7 +9148,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:11">
+    <row r="186" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>183</v>
       </c>
@@ -9767,7 +9183,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:11">
+    <row r="187" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>184</v>
       </c>
@@ -9802,7 +9218,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:11">
+    <row r="188" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>185</v>
       </c>
@@ -9837,7 +9253,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:11">
+    <row r="189" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>186</v>
       </c>
@@ -9872,7 +9288,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:11">
+    <row r="190" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>187</v>
       </c>
@@ -9907,7 +9323,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:11">
+    <row r="191" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>188</v>
       </c>
@@ -9942,7 +9358,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:11">
+    <row r="192" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>189</v>
       </c>
@@ -9977,7 +9393,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:11">
+    <row r="193" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>190</v>
       </c>
@@ -10012,7 +9428,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:11">
+    <row r="194" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>191</v>
       </c>
@@ -10047,7 +9463,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:11">
+    <row r="195" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>192</v>
       </c>
@@ -10082,7 +9498,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:11">
+    <row r="196" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>193</v>
       </c>
@@ -10117,7 +9533,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:11">
+    <row r="197" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>194</v>
       </c>
@@ -10152,7 +9568,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:11">
+    <row r="198" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>195</v>
       </c>
@@ -10187,7 +9603,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:11">
+    <row r="199" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>196</v>
       </c>
@@ -10222,7 +9638,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:11">
+    <row r="200" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>197</v>
       </c>
@@ -10257,7 +9673,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:11">
+    <row r="201" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>198</v>
       </c>
@@ -10292,7 +9708,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:11">
+    <row r="202" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>199</v>
       </c>
@@ -10327,7 +9743,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:11">
+    <row r="203" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>200</v>
       </c>
@@ -10362,7 +9778,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:11">
+    <row r="204" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>201</v>
       </c>
@@ -10397,7 +9813,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:11">
+    <row r="205" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>202</v>
       </c>
@@ -10432,7 +9848,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:11">
+    <row r="206" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>203</v>
       </c>
@@ -10467,7 +9883,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:11">
+    <row r="207" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>204</v>
       </c>
@@ -10502,7 +9918,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:11">
+    <row r="208" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>205</v>
       </c>
@@ -10537,7 +9953,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:11">
+    <row r="209" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>206</v>
       </c>
@@ -10572,7 +9988,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:11">
+    <row r="210" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>207</v>
       </c>
@@ -10607,7 +10023,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:11">
+    <row r="211" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>208</v>
       </c>
@@ -10642,7 +10058,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:11">
+    <row r="212" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>209</v>
       </c>
@@ -10677,7 +10093,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:11">
+    <row r="213" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>210</v>
       </c>
@@ -10712,7 +10128,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:11">
+    <row r="214" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>211</v>
       </c>
@@ -10747,7 +10163,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:11">
+    <row r="215" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>212</v>
       </c>
@@ -10782,7 +10198,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:11">
+    <row r="216" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>213</v>
       </c>
@@ -10817,7 +10233,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:11">
+    <row r="217" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>214</v>
       </c>
@@ -10852,7 +10268,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:11">
+    <row r="218" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>215</v>
       </c>
@@ -10887,7 +10303,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:11">
+    <row r="219" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>216</v>
       </c>
@@ -10922,7 +10338,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:11">
+    <row r="220" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>217</v>
       </c>
@@ -10957,7 +10373,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:11">
+    <row r="221" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>218</v>
       </c>
@@ -10992,7 +10408,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:11">
+    <row r="222" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>219</v>
       </c>
@@ -11027,7 +10443,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:11">
+    <row r="223" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>220</v>
       </c>
@@ -11062,7 +10478,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:11">
+    <row r="224" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>221</v>
       </c>
@@ -11097,7 +10513,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:11">
+    <row r="225" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>222</v>
       </c>
@@ -11132,7 +10548,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:11">
+    <row r="226" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>223</v>
       </c>
@@ -11167,7 +10583,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:11">
+    <row r="227" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>224</v>
       </c>
@@ -11202,7 +10618,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:11">
+    <row r="228" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>225</v>
       </c>
@@ -11237,7 +10653,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:11">
+    <row r="229" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>226</v>
       </c>
@@ -11272,7 +10688,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:11">
+    <row r="230" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>227</v>
       </c>
@@ -11307,7 +10723,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:11">
+    <row r="231" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>228</v>
       </c>
@@ -11342,7 +10758,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:11">
+    <row r="232" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>229</v>
       </c>
@@ -11377,7 +10793,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:11">
+    <row r="233" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>230</v>
       </c>
@@ -11412,7 +10828,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:11">
+    <row r="234" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>231</v>
       </c>
@@ -11447,7 +10863,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:11">
+    <row r="235" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>232</v>
       </c>
@@ -11482,7 +10898,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:11">
+    <row r="236" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>233</v>
       </c>
@@ -11517,7 +10933,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:11">
+    <row r="237" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>234</v>
       </c>
@@ -11552,7 +10968,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:11">
+    <row r="238" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>235</v>
       </c>
@@ -11587,7 +11003,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:11">
+    <row r="239" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>236</v>
       </c>
@@ -11622,7 +11038,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:11">
+    <row r="240" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>237</v>
       </c>
@@ -11657,7 +11073,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:11">
+    <row r="241" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>238</v>
       </c>
@@ -11692,7 +11108,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:11">
+    <row r="242" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>239</v>
       </c>
@@ -11727,7 +11143,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:11">
+    <row r="243" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>240</v>
       </c>
@@ -11762,7 +11178,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:11">
+    <row r="244" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>241</v>
       </c>
@@ -11797,7 +11213,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:11">
+    <row r="245" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>242</v>
       </c>
@@ -11832,7 +11248,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:11">
+    <row r="246" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>243</v>
       </c>
@@ -11867,7 +11283,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:11">
+    <row r="247" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>244</v>
       </c>
@@ -11902,7 +11318,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:11">
+    <row r="248" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>245</v>
       </c>
@@ -11937,7 +11353,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:11">
+    <row r="249" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>246</v>
       </c>
@@ -11972,7 +11388,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:11">
+    <row r="250" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>247</v>
       </c>
@@ -12007,7 +11423,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:11">
+    <row r="251" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>248</v>
       </c>
@@ -12042,7 +11458,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:11">
+    <row r="252" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>249</v>
       </c>
@@ -12077,7 +11493,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:11">
+    <row r="253" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>250</v>
       </c>
@@ -12112,7 +11528,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:11">
+    <row r="254" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>251</v>
       </c>
@@ -12147,7 +11563,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:11">
+    <row r="255" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>252</v>
       </c>
@@ -12182,7 +11598,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="256" ht="16.5" spans="1:11">
+    <row r="256" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>253</v>
       </c>
@@ -12217,7 +11633,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="257" ht="16.5" spans="1:11">
+    <row r="257" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>254</v>
       </c>
@@ -12252,7 +11668,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="258" ht="16.5" spans="1:11">
+    <row r="258" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>255</v>
       </c>
@@ -12287,7 +11703,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="259" ht="16.5" spans="1:11">
+    <row r="259" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>256</v>
       </c>
@@ -12322,7 +11738,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="260" ht="16.5" spans="1:11">
+    <row r="260" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>257</v>
       </c>
@@ -12357,7 +11773,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:11">
+    <row r="261" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>258</v>
       </c>
@@ -12392,7 +11808,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:11">
+    <row r="262" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>259</v>
       </c>
@@ -12427,7 +11843,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="263" ht="16.5" spans="1:11">
+    <row r="263" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>260</v>
       </c>
@@ -12462,7 +11878,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="264" ht="16.5" spans="1:11">
+    <row r="264" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>261</v>
       </c>
@@ -12497,7 +11913,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="265" ht="16.5" spans="1:11">
+    <row r="265" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <v>262</v>
       </c>
@@ -12532,7 +11948,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="266" ht="16.5" spans="1:11">
+    <row r="266" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <v>263</v>
       </c>
@@ -12567,7 +11983,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="267" ht="16.5" spans="1:11">
+    <row r="267" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <v>264</v>
       </c>
@@ -12602,7 +12018,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="268" ht="16.5" spans="1:11">
+    <row r="268" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>265</v>
       </c>
@@ -12637,7 +12053,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="269" ht="16.5" spans="1:11">
+    <row r="269" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>266</v>
       </c>
@@ -12672,7 +12088,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="270" ht="16.5" spans="1:11">
+    <row r="270" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>267</v>
       </c>
@@ -12707,7 +12123,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="271" ht="16.5" spans="1:11">
+    <row r="271" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>268</v>
       </c>
@@ -12742,7 +12158,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="272" ht="16.5" spans="1:11">
+    <row r="272" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>269</v>
       </c>
@@ -12777,7 +12193,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="273" ht="16.5" spans="1:11">
+    <row r="273" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>270</v>
       </c>
@@ -12812,7 +12228,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="274" ht="17.25" customHeight="1" spans="1:11">
+    <row r="274" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>271</v>
       </c>
@@ -12847,7 +12263,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="275" ht="16.5" spans="1:12">
+    <row r="275" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>272</v>
       </c>
@@ -12886,7 +12302,7 @@
         <v>解锁的晶片铜宝箱</v>
       </c>
     </row>
-    <row r="276" ht="16.5" spans="1:12">
+    <row r="276" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <v>273</v>
       </c>
@@ -12925,7 +12341,7 @@
         <v>解锁的晶片银宝箱</v>
       </c>
     </row>
-    <row r="277" ht="16.5" spans="1:12">
+    <row r="277" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>274</v>
       </c>
@@ -12964,7 +12380,7 @@
         <v>解锁的晶片金宝箱</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:12">
+    <row r="278" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>275</v>
       </c>
@@ -13003,7 +12419,7 @@
         <v>解锁的晶片钻宝箱</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:12">
+    <row r="279" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>276</v>
       </c>
@@ -13042,7 +12458,7 @@
         <v>解锁的晶片玉宝箱</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:12">
+    <row r="280" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <v>277</v>
       </c>
@@ -13081,7 +12497,7 @@
         <v>解锁的晶片魔宝箱</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:12">
+    <row r="281" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <v>278</v>
       </c>
@@ -13120,7 +12536,7 @@
         <v>解锁的装备铜宝箱</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:12">
+    <row r="282" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <v>279</v>
       </c>
@@ -13159,7 +12575,7 @@
         <v>解锁的装备银宝箱</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:12">
+    <row r="283" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <v>280</v>
       </c>
@@ -13198,7 +12614,7 @@
         <v>解锁的装备金宝箱</v>
       </c>
     </row>
-    <row r="284" ht="16.5" spans="1:12">
+    <row r="284" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <v>281</v>
       </c>
@@ -13237,7 +12653,7 @@
         <v>解锁的装备钻宝箱</v>
       </c>
     </row>
-    <row r="285" ht="16.5" spans="1:12">
+    <row r="285" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>282</v>
       </c>
@@ -13276,7 +12692,7 @@
         <v>解锁的装备玉宝箱</v>
       </c>
     </row>
-    <row r="286" ht="16.5" spans="1:12">
+    <row r="286" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <v>283</v>
       </c>
@@ -13315,7 +12731,7 @@
         <v>解锁的装备魔宝箱</v>
       </c>
     </row>
-    <row r="287" ht="16.5" spans="1:12">
+    <row r="287" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <v>284</v>
       </c>
@@ -13354,7 +12770,7 @@
         <v>解锁的财富铜宝箱</v>
       </c>
     </row>
-    <row r="288" ht="16.5" spans="1:12">
+    <row r="288" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <v>285</v>
       </c>
@@ -13393,7 +12809,7 @@
         <v>解锁的财富银宝箱</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:12">
+    <row r="289" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <v>286</v>
       </c>
@@ -13432,7 +12848,7 @@
         <v>解锁的财富金宝箱</v>
       </c>
     </row>
-    <row r="290" ht="16.5" spans="1:12">
+    <row r="290" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <v>287</v>
       </c>
@@ -13471,7 +12887,7 @@
         <v>解锁的财富钻宝箱</v>
       </c>
     </row>
-    <row r="291" ht="16.5" spans="1:12">
+    <row r="291" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>288</v>
       </c>
@@ -13510,7 +12926,7 @@
         <v>解锁的财富玉宝箱</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:12">
+    <row r="292" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <v>289</v>
       </c>
@@ -13550,29 +12966,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -13592,7 +13007,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -13612,7 +13027,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:6">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -13632,7 +13047,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -13652,7 +13067,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -13672,7 +13087,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -13692,7 +13107,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -13712,7 +13127,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -13732,7 +13147,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -13752,7 +13167,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -13768,11 +13183,11 @@
       <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:6">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -13788,11 +13203,11 @@
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:6">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -13808,11 +13223,11 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -13828,11 +13243,11 @@
       <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:6">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -13848,11 +13263,11 @@
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:6">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -13868,11 +13283,11 @@
       <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:6">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -13888,11 +13303,11 @@
       <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>126</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:6">
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -13908,11 +13323,11 @@
       <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>127</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:6">
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -13928,11 +13343,11 @@
       <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>128</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:6">
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -13948,11 +13363,11 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>129</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:6">
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -13968,11 +13383,11 @@
       <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>130</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:6">
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -13988,11 +13403,11 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>131</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:6">
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -14008,7 +13423,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:6">
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -14024,7 +13439,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:6">
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -14040,7 +13455,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:6">
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -14056,7 +13471,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:6">
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -14072,7 +13487,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:6">
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -14088,7 +13503,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:6">
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -14105,28 +13520,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -14146,7 +13560,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -14166,7 +13580,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:6">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -14186,7 +13600,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -14206,7 +13620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -14226,7 +13640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -14247,7 +13661,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3406B594-3B04-4E6C-BB30-9CD9E84686CC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D736C1F-1EEE-4DC9-87CF-77F508F495E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2839,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
@@ -12977,8 +12977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D736C1F-1EEE-4DC9-87CF-77F508F495E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0692354E-6CD6-48CD-8D47-B9072FC28C8E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="682">
   <si>
     <t>sheet名</t>
   </si>
@@ -2122,6 +2122,10 @@
   </si>
   <si>
     <t>装备抽取券</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币幸运宝箱</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2837,13 +2841,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L292"/>
+  <dimension ref="A1:L293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F264" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C275" sqref="C275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12263,21 +12267,21 @@
         <v>632</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>272</v>
       </c>
-      <c r="B275" s="5">
-        <v>20501</v>
+      <c r="B275" s="4">
+        <v>20402</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E275" s="5" t="s">
-        <v>585</v>
+        <v>681</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>681</v>
       </c>
       <c r="F275" s="4" t="s">
         <v>81</v>
@@ -12286,20 +12290,16 @@
         <v>0</v>
       </c>
       <c r="H275" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I275" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J275" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K275" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="L275" t="str">
-        <f>"解锁的"&amp;D275</f>
-        <v>解锁的晶片铜宝箱</v>
+      <c r="K275" s="4" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="276" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12307,16 +12307,16 @@
         <v>273</v>
       </c>
       <c r="B276" s="5">
-        <v>20502</v>
+        <v>20501</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F276" s="4" t="s">
         <v>81</v>
@@ -12325,7 +12325,7 @@
         <v>0</v>
       </c>
       <c r="H276" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" s="4">
         <v>5</v>
@@ -12334,11 +12334,11 @@
         <v>1</v>
       </c>
       <c r="K276" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L276" t="str">
-        <f t="shared" ref="L276:L292" si="1">"解锁的"&amp;D276</f>
-        <v>解锁的晶片银宝箱</v>
+        <f>"解锁的"&amp;D276</f>
+        <v>解锁的晶片铜宝箱</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12346,16 +12346,16 @@
         <v>274</v>
       </c>
       <c r="B277" s="5">
-        <v>20503</v>
+        <v>20502</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F277" s="4" t="s">
         <v>81</v>
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" s="4">
         <v>5</v>
@@ -12373,11 +12373,11 @@
         <v>1</v>
       </c>
       <c r="K277" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L277" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的晶片金宝箱</v>
+        <f t="shared" ref="L277:L293" si="1">"解锁的"&amp;D277</f>
+        <v>解锁的晶片银宝箱</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12385,16 +12385,16 @@
         <v>275</v>
       </c>
       <c r="B278" s="5">
-        <v>20504</v>
+        <v>20503</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>81</v>
@@ -12403,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="H278" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I278" s="4">
         <v>5</v>
@@ -12412,11 +12412,11 @@
         <v>1</v>
       </c>
       <c r="K278" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L278" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的晶片钻宝箱</v>
+        <v>解锁的晶片金宝箱</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12424,16 +12424,16 @@
         <v>276</v>
       </c>
       <c r="B279" s="5">
-        <v>20505</v>
+        <v>20504</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>81</v>
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="H279" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I279" s="4">
         <v>5</v>
@@ -12451,11 +12451,11 @@
         <v>1</v>
       </c>
       <c r="K279" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L279" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的晶片玉宝箱</v>
+        <v>解锁的晶片钻宝箱</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12463,16 +12463,16 @@
         <v>277</v>
       </c>
       <c r="B280" s="5">
-        <v>20506</v>
+        <v>20505</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>81</v>
@@ -12490,11 +12490,11 @@
         <v>1</v>
       </c>
       <c r="K280" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L280" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的晶片魔宝箱</v>
+        <v>解锁的晶片玉宝箱</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12502,16 +12502,16 @@
         <v>278</v>
       </c>
       <c r="B281" s="5">
-        <v>20601</v>
+        <v>20506</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>81</v>
@@ -12520,7 +12520,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I281" s="4">
         <v>5</v>
@@ -12529,11 +12529,11 @@
         <v>1</v>
       </c>
       <c r="K281" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L281" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的装备铜宝箱</v>
+        <v>解锁的晶片魔宝箱</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12541,16 +12541,16 @@
         <v>279</v>
       </c>
       <c r="B282" s="5">
-        <v>20602</v>
+        <v>20601</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>81</v>
@@ -12559,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="H282" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" s="4">
         <v>5</v>
@@ -12568,11 +12568,11 @@
         <v>1</v>
       </c>
       <c r="K282" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="L282" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的装备银宝箱</v>
+        <v>解锁的装备铜宝箱</v>
       </c>
     </row>
     <row r="283" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12580,16 +12580,16 @@
         <v>280</v>
       </c>
       <c r="B283" s="5">
-        <v>20603</v>
+        <v>20602</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F283" s="4" t="s">
         <v>81</v>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" s="4">
         <v>5</v>
@@ -12607,11 +12607,11 @@
         <v>1</v>
       </c>
       <c r="K283" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L283" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的装备金宝箱</v>
+        <v>解锁的装备银宝箱</v>
       </c>
     </row>
     <row r="284" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12619,16 +12619,16 @@
         <v>281</v>
       </c>
       <c r="B284" s="5">
-        <v>20604</v>
+        <v>20603</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>81</v>
@@ -12637,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="H284" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I284" s="4">
         <v>5</v>
@@ -12646,11 +12646,11 @@
         <v>1</v>
       </c>
       <c r="K284" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L284" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的装备钻宝箱</v>
+        <v>解锁的装备金宝箱</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12658,16 +12658,16 @@
         <v>282</v>
       </c>
       <c r="B285" s="5">
-        <v>20605</v>
+        <v>20604</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>81</v>
@@ -12676,7 +12676,7 @@
         <v>0</v>
       </c>
       <c r="H285" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I285" s="4">
         <v>5</v>
@@ -12685,11 +12685,11 @@
         <v>1</v>
       </c>
       <c r="K285" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L285" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的装备玉宝箱</v>
+        <v>解锁的装备钻宝箱</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12697,16 +12697,16 @@
         <v>283</v>
       </c>
       <c r="B286" s="5">
-        <v>20606</v>
+        <v>20605</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>81</v>
@@ -12724,11 +12724,11 @@
         <v>1</v>
       </c>
       <c r="K286" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L286" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的装备魔宝箱</v>
+        <v>解锁的装备玉宝箱</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12736,16 +12736,16 @@
         <v>284</v>
       </c>
       <c r="B287" s="5">
-        <v>20701</v>
+        <v>20606</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>81</v>
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
       <c r="H287" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I287" s="4">
         <v>5</v>
@@ -12763,11 +12763,11 @@
         <v>1</v>
       </c>
       <c r="K287" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L287" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的财富铜宝箱</v>
+        <v>解锁的装备魔宝箱</v>
       </c>
     </row>
     <row r="288" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12775,16 +12775,16 @@
         <v>285</v>
       </c>
       <c r="B288" s="5">
-        <v>20702</v>
+        <v>20701</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>81</v>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="H288" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" s="4">
         <v>5</v>
@@ -12802,11 +12802,11 @@
         <v>1</v>
       </c>
       <c r="K288" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L288" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的财富银宝箱</v>
+        <v>解锁的财富铜宝箱</v>
       </c>
     </row>
     <row r="289" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12814,16 +12814,16 @@
         <v>286</v>
       </c>
       <c r="B289" s="5">
-        <v>20703</v>
+        <v>20702</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>81</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="H289" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" s="4">
         <v>5</v>
@@ -12841,11 +12841,11 @@
         <v>1</v>
       </c>
       <c r="K289" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L289" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的财富金宝箱</v>
+        <v>解锁的财富银宝箱</v>
       </c>
     </row>
     <row r="290" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12853,16 +12853,16 @@
         <v>287</v>
       </c>
       <c r="B290" s="5">
-        <v>20704</v>
+        <v>20703</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F290" s="4" t="s">
         <v>81</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="H290" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I290" s="4">
         <v>5</v>
@@ -12880,11 +12880,11 @@
         <v>1</v>
       </c>
       <c r="K290" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L290" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的财富钻宝箱</v>
+        <v>解锁的财富金宝箱</v>
       </c>
     </row>
     <row r="291" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12892,16 +12892,16 @@
         <v>288</v>
       </c>
       <c r="B291" s="5">
-        <v>20705</v>
+        <v>20704</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>81</v>
@@ -12910,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="H291" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I291" s="4">
         <v>5</v>
@@ -12919,11 +12919,11 @@
         <v>1</v>
       </c>
       <c r="K291" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="L291" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的财富玉宝箱</v>
+        <v>解锁的财富钻宝箱</v>
       </c>
     </row>
     <row r="292" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12931,16 +12931,16 @@
         <v>289</v>
       </c>
       <c r="B292" s="5">
-        <v>20706</v>
+        <v>20705</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>81</v>
@@ -12958,9 +12958,48 @@
         <v>1</v>
       </c>
       <c r="K292" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L292" t="str">
+        <f t="shared" si="1"/>
+        <v>解锁的财富玉宝箱</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="4">
+        <v>290</v>
+      </c>
+      <c r="B293" s="5">
+        <v>20706</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="F293" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G293" s="4">
+        <v>0</v>
+      </c>
+      <c r="H293" s="4">
+        <v>5</v>
+      </c>
+      <c r="I293" s="4">
+        <v>5</v>
+      </c>
+      <c r="J293" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K293" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="L292" t="str">
+      <c r="L293" t="str">
         <f t="shared" si="1"/>
         <v>解锁的财富魔宝箱</v>
       </c>
@@ -12975,10 +13014,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13517,6 +13556,22 @@
       <c r="E28" s="5"/>
       <c r="F28" s="6">
         <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>20402</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0692354E-6CD6-48CD-8D47-B9072FC28C8E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56BB90-85C5-4243-B1F6-352F8F497628}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2843,11 +2843,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F264" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C275" sqref="C275"/>
+      <selection pane="bottomRight" activeCell="E278" sqref="E278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13016,8 +13016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56BB90-85C5-4243-B1F6-352F8F497628}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43528F58-7D23-4E3D-8779-EB109913524C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="693">
   <si>
     <t>sheet名</t>
   </si>
@@ -2126,6 +2126,47 @@
   </si>
   <si>
     <t>金币幸运宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备宝箱</t>
+  </si>
+  <si>
+    <t>装备宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备养成宝箱</t>
+  </si>
+  <si>
+    <t>装备养成宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>战机养成宝箱</t>
+  </si>
+  <si>
+    <t>战机养成宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以开出2~4阶的装备</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以开出1~3阶的晶片</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以开出智慧机体和核子精华</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以开出龙晶石，装备精炼材料</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2841,13 +2882,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L293"/>
+  <dimension ref="A1:L297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F256" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F271" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E278" sqref="E278"/>
+      <selection pane="bottomRight" activeCell="A276" sqref="A276:XFD277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12290,10 +12331,10 @@
         <v>0</v>
       </c>
       <c r="H275" s="4">
+        <v>3</v>
+      </c>
+      <c r="I275" s="4">
         <v>5</v>
-      </c>
-      <c r="I275" s="4">
-        <v>3</v>
       </c>
       <c r="J275" s="4" t="b">
         <v>1</v>
@@ -12306,17 +12347,17 @@
       <c r="A276" s="4">
         <v>273</v>
       </c>
-      <c r="B276" s="5">
-        <v>20501</v>
+      <c r="B276" s="4">
+        <v>20403</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E276" s="5" t="s">
-        <v>585</v>
+        <v>683</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>682</v>
       </c>
       <c r="F276" s="4" t="s">
         <v>81</v>
@@ -12325,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="H276" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I276" s="4">
         <v>5</v>
@@ -12333,29 +12374,25 @@
       <c r="J276" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K276" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="L276" t="str">
-        <f>"解锁的"&amp;D276</f>
-        <v>解锁的晶片铜宝箱</v>
+      <c r="K276" s="4" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>274</v>
       </c>
-      <c r="B277" s="5">
-        <v>20502</v>
+      <c r="B277" s="4">
+        <v>20404</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E277" s="5" t="s">
-        <v>587</v>
+        <v>690</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>690</v>
       </c>
       <c r="F277" s="4" t="s">
         <v>81</v>
@@ -12364,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I277" s="4">
         <v>5</v>
@@ -12372,29 +12409,25 @@
       <c r="J277" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K277" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="L277" t="str">
-        <f t="shared" ref="L277:L293" si="1">"解锁的"&amp;D277</f>
-        <v>解锁的晶片银宝箱</v>
+      <c r="K277" s="4" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>275</v>
       </c>
-      <c r="B278" s="5">
-        <v>20503</v>
+      <c r="B278" s="4">
+        <v>20405</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="D278" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="E278" s="5" t="s">
-        <v>589</v>
+        <v>687</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>686</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>81</v>
@@ -12411,29 +12444,25 @@
       <c r="J278" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K278" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="L278" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的晶片金宝箱</v>
+      <c r="K278" s="4" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>276</v>
       </c>
-      <c r="B279" s="5">
-        <v>20504</v>
+      <c r="B279" s="4">
+        <v>20406</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="E279" s="5" t="s">
-        <v>591</v>
+        <v>685</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>684</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>81</v>
@@ -12442,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="H279" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I279" s="4">
         <v>5</v>
@@ -12450,12 +12479,8 @@
       <c r="J279" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K279" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="L279" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的晶片钻宝箱</v>
+      <c r="K279" s="4" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12463,16 +12488,16 @@
         <v>277</v>
       </c>
       <c r="B280" s="5">
-        <v>20505</v>
+        <v>20501</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>81</v>
@@ -12481,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="H280" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I280" s="4">
         <v>5</v>
@@ -12490,11 +12515,11 @@
         <v>1</v>
       </c>
       <c r="K280" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="L280" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的晶片玉宝箱</v>
+        <f>"解锁的"&amp;D280</f>
+        <v>解锁的晶片铜宝箱</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12502,16 +12527,16 @@
         <v>278</v>
       </c>
       <c r="B281" s="5">
-        <v>20506</v>
+        <v>20502</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>81</v>
@@ -12520,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I281" s="4">
         <v>5</v>
@@ -12529,11 +12554,11 @@
         <v>1</v>
       </c>
       <c r="K281" s="5" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="L281" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的晶片魔宝箱</v>
+        <f t="shared" ref="L281:L297" si="1">"解锁的"&amp;D281</f>
+        <v>解锁的晶片银宝箱</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12541,16 +12566,16 @@
         <v>279</v>
       </c>
       <c r="B282" s="5">
-        <v>20601</v>
+        <v>20503</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>81</v>
@@ -12559,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="H282" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I282" s="4">
         <v>5</v>
@@ -12568,11 +12593,11 @@
         <v>1</v>
       </c>
       <c r="K282" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="L282" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的装备铜宝箱</v>
+        <v>解锁的晶片金宝箱</v>
       </c>
     </row>
     <row r="283" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12580,16 +12605,16 @@
         <v>280</v>
       </c>
       <c r="B283" s="5">
-        <v>20602</v>
+        <v>20504</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F283" s="4" t="s">
         <v>81</v>
@@ -12598,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I283" s="4">
         <v>5</v>
@@ -12607,11 +12632,11 @@
         <v>1</v>
       </c>
       <c r="K283" s="5" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="L283" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的装备银宝箱</v>
+        <v>解锁的晶片钻宝箱</v>
       </c>
     </row>
     <row r="284" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12619,16 +12644,16 @@
         <v>281</v>
       </c>
       <c r="B284" s="5">
-        <v>20603</v>
+        <v>20505</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>81</v>
@@ -12637,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="H284" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I284" s="4">
         <v>5</v>
@@ -12646,11 +12671,11 @@
         <v>1</v>
       </c>
       <c r="K284" s="5" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="L284" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的装备金宝箱</v>
+        <v>解锁的晶片玉宝箱</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12658,16 +12683,16 @@
         <v>282</v>
       </c>
       <c r="B285" s="5">
-        <v>20604</v>
+        <v>20506</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>81</v>
@@ -12676,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="H285" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I285" s="4">
         <v>5</v>
@@ -12685,11 +12710,11 @@
         <v>1</v>
       </c>
       <c r="K285" s="5" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="L285" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的装备钻宝箱</v>
+        <v>解锁的晶片魔宝箱</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12697,16 +12722,16 @@
         <v>283</v>
       </c>
       <c r="B286" s="5">
-        <v>20605</v>
+        <v>20601</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>81</v>
@@ -12715,7 +12740,7 @@
         <v>0</v>
       </c>
       <c r="H286" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I286" s="4">
         <v>5</v>
@@ -12724,11 +12749,11 @@
         <v>1</v>
       </c>
       <c r="K286" s="5" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="L286" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的装备玉宝箱</v>
+        <v>解锁的装备铜宝箱</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12736,16 +12761,16 @@
         <v>284</v>
       </c>
       <c r="B287" s="5">
-        <v>20606</v>
+        <v>20602</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>81</v>
@@ -12754,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="H287" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I287" s="4">
         <v>5</v>
@@ -12763,11 +12788,11 @@
         <v>1</v>
       </c>
       <c r="K287" s="5" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="L287" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的装备魔宝箱</v>
+        <v>解锁的装备银宝箱</v>
       </c>
     </row>
     <row r="288" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12775,16 +12800,16 @@
         <v>285</v>
       </c>
       <c r="B288" s="5">
-        <v>20701</v>
+        <v>20603</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>81</v>
@@ -12793,7 +12818,7 @@
         <v>0</v>
       </c>
       <c r="H288" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I288" s="4">
         <v>5</v>
@@ -12802,11 +12827,11 @@
         <v>1</v>
       </c>
       <c r="K288" s="5" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="L288" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的财富铜宝箱</v>
+        <v>解锁的装备金宝箱</v>
       </c>
     </row>
     <row r="289" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12814,16 +12839,16 @@
         <v>286</v>
       </c>
       <c r="B289" s="5">
-        <v>20702</v>
+        <v>20604</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>81</v>
@@ -12832,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="H289" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I289" s="4">
         <v>5</v>
@@ -12841,11 +12866,11 @@
         <v>1</v>
       </c>
       <c r="K289" s="5" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L289" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的财富银宝箱</v>
+        <v>解锁的装备钻宝箱</v>
       </c>
     </row>
     <row r="290" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12853,16 +12878,16 @@
         <v>287</v>
       </c>
       <c r="B290" s="5">
-        <v>20703</v>
+        <v>20605</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F290" s="4" t="s">
         <v>81</v>
@@ -12871,7 +12896,7 @@
         <v>0</v>
       </c>
       <c r="H290" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I290" s="4">
         <v>5</v>
@@ -12880,11 +12905,11 @@
         <v>1</v>
       </c>
       <c r="K290" s="5" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="L290" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的财富金宝箱</v>
+        <v>解锁的装备玉宝箱</v>
       </c>
     </row>
     <row r="291" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12892,16 +12917,16 @@
         <v>288</v>
       </c>
       <c r="B291" s="5">
-        <v>20704</v>
+        <v>20606</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>81</v>
@@ -12910,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="H291" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I291" s="4">
         <v>5</v>
@@ -12919,11 +12944,11 @@
         <v>1</v>
       </c>
       <c r="K291" s="5" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="L291" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的财富钻宝箱</v>
+        <v>解锁的装备魔宝箱</v>
       </c>
     </row>
     <row r="292" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12931,16 +12956,16 @@
         <v>289</v>
       </c>
       <c r="B292" s="5">
-        <v>20705</v>
+        <v>20701</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>81</v>
@@ -12949,7 +12974,7 @@
         <v>0</v>
       </c>
       <c r="H292" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I292" s="4">
         <v>5</v>
@@ -12958,11 +12983,11 @@
         <v>1</v>
       </c>
       <c r="K292" s="5" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="L292" t="str">
         <f t="shared" si="1"/>
-        <v>解锁的财富玉宝箱</v>
+        <v>解锁的财富铜宝箱</v>
       </c>
     </row>
     <row r="293" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -12970,16 +12995,16 @@
         <v>290</v>
       </c>
       <c r="B293" s="5">
-        <v>20706</v>
+        <v>20702</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F293" s="4" t="s">
         <v>81</v>
@@ -12988,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="H293" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I293" s="4">
         <v>5</v>
@@ -12997,9 +13022,165 @@
         <v>1</v>
       </c>
       <c r="K293" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="L293" t="str">
+        <f t="shared" si="1"/>
+        <v>解锁的财富银宝箱</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="4">
+        <v>291</v>
+      </c>
+      <c r="B294" s="5">
+        <v>20703</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="F294" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G294" s="4">
+        <v>0</v>
+      </c>
+      <c r="H294" s="4">
+        <v>3</v>
+      </c>
+      <c r="I294" s="4">
+        <v>5</v>
+      </c>
+      <c r="J294" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K294" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="L294" t="str">
+        <f t="shared" si="1"/>
+        <v>解锁的财富金宝箱</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="4">
+        <v>292</v>
+      </c>
+      <c r="B295" s="5">
+        <v>20704</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F295" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G295" s="4">
+        <v>0</v>
+      </c>
+      <c r="H295" s="4">
+        <v>4</v>
+      </c>
+      <c r="I295" s="4">
+        <v>5</v>
+      </c>
+      <c r="J295" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K295" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="L295" t="str">
+        <f t="shared" si="1"/>
+        <v>解锁的财富钻宝箱</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="4">
+        <v>293</v>
+      </c>
+      <c r="B296" s="5">
+        <v>20705</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F296" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G296" s="4">
+        <v>0</v>
+      </c>
+      <c r="H296" s="4">
+        <v>5</v>
+      </c>
+      <c r="I296" s="4">
+        <v>5</v>
+      </c>
+      <c r="J296" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K296" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L296" t="str">
+        <f t="shared" si="1"/>
+        <v>解锁的财富玉宝箱</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="4">
+        <v>294</v>
+      </c>
+      <c r="B297" s="5">
+        <v>20706</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="F297" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G297" s="4">
+        <v>0</v>
+      </c>
+      <c r="H297" s="4">
+        <v>5</v>
+      </c>
+      <c r="I297" s="4">
+        <v>5</v>
+      </c>
+      <c r="J297" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K297" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="L293" t="str">
+      <c r="L297" t="str">
         <f t="shared" si="1"/>
         <v>解锁的财富魔宝箱</v>
       </c>
@@ -13017,7 +13198,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43528F58-7D23-4E3D-8779-EB109913524C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3AD0A7-3A47-460E-A4AC-97E3BEE7E780}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="705">
   <si>
     <t>sheet名</t>
   </si>
@@ -2136,20 +2136,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>装备养成宝箱</t>
-  </si>
-  <si>
-    <t>装备养成宝箱</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>战机养成宝箱</t>
-  </si>
-  <si>
-    <t>战机养成宝箱</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>可以开出2~4阶的装备</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2166,8 +2152,64 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>可以开出龙晶石，装备精炼材料</t>
+    <t>可以开出龙晶石</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙晶石宝箱</t>
+  </si>
+  <si>
+    <t>龙晶石宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙晶石宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼石宝箱</t>
+  </si>
+  <si>
+    <t>精炼石宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>可开出中级精炼纤维和高级精炼纤维</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片宝箱</t>
+  </si>
+  <si>
+    <t>金币宝箱</t>
+  </si>
+  <si>
+    <t>突破丹宝箱</t>
+  </si>
+  <si>
+    <t>天命丹宝箱</t>
+  </si>
+  <si>
+    <t>突破丹宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命石宝箱</t>
+  </si>
+  <si>
+    <t>天命石宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧机体宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>核子精华宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币幸运宝箱</t>
   </si>
 </sst>
 </file>
@@ -2882,13 +2924,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L297"/>
+  <dimension ref="A1:K299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F271" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F270" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A276" sqref="A276:XFD277"/>
+      <selection pane="bottomRight" activeCell="C275" sqref="C275:C281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2900,7 +2942,7 @@
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="60.5" customWidth="1"/>
+    <col min="11" max="11" width="63.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12238,7 +12280,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>270</v>
       </c>
@@ -12273,7 +12315,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>271</v>
       </c>
@@ -12308,7 +12350,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>272</v>
       </c>
@@ -12343,7 +12385,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <v>273</v>
       </c>
@@ -12375,10 +12417,10 @@
         <v>1</v>
       </c>
       <c r="K276" s="4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>274</v>
       </c>
@@ -12386,13 +12428,13 @@
         <v>20404</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F277" s="4" t="s">
         <v>81</v>
@@ -12410,10 +12452,10 @@
         <v>1</v>
       </c>
       <c r="K277" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>275</v>
       </c>
@@ -12421,13 +12463,13 @@
         <v>20405</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>81</v>
@@ -12445,10 +12487,10 @@
         <v>1</v>
       </c>
       <c r="K278" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>276</v>
       </c>
@@ -12456,13 +12498,13 @@
         <v>20406</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>81</v>
@@ -12480,24 +12522,24 @@
         <v>1</v>
       </c>
       <c r="K279" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <v>277</v>
       </c>
-      <c r="B280" s="5">
-        <v>20501</v>
+      <c r="B280" s="4">
+        <v>20407</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="D280" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E280" s="5" t="s">
-        <v>585</v>
+        <v>690</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>691</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>81</v>
@@ -12506,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="H280" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I280" s="4">
         <v>5</v>
@@ -12514,29 +12556,25 @@
       <c r="J280" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K280" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="L280" t="str">
-        <f>"解锁的"&amp;D280</f>
-        <v>解锁的晶片铜宝箱</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K280" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <v>278</v>
       </c>
-      <c r="B281" s="5">
-        <v>20502</v>
+      <c r="B281" s="4">
+        <v>20408</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="D281" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E281" s="5" t="s">
-        <v>587</v>
+        <v>693</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>693</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>81</v>
@@ -12545,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I281" s="4">
         <v>5</v>
@@ -12553,29 +12591,25 @@
       <c r="J281" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K281" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="L281" t="str">
-        <f t="shared" ref="L281:L297" si="1">"解锁的"&amp;D281</f>
-        <v>解锁的晶片银宝箱</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K281" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <v>279</v>
       </c>
       <c r="B282" s="5">
-        <v>20503</v>
+        <v>20501</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>81</v>
@@ -12584,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="H282" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I282" s="4">
         <v>5</v>
@@ -12593,28 +12627,24 @@
         <v>1</v>
       </c>
       <c r="K282" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="L282" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的晶片金宝箱</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <v>280</v>
       </c>
       <c r="B283" s="5">
-        <v>20504</v>
+        <v>20502</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F283" s="4" t="s">
         <v>81</v>
@@ -12623,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I283" s="4">
         <v>5</v>
@@ -12632,28 +12662,24 @@
         <v>1</v>
       </c>
       <c r="K283" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="L283" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的晶片钻宝箱</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <v>281</v>
       </c>
       <c r="B284" s="5">
-        <v>20505</v>
+        <v>20503</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>81</v>
@@ -12662,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="H284" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I284" s="4">
         <v>5</v>
@@ -12671,28 +12697,24 @@
         <v>1</v>
       </c>
       <c r="K284" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="L284" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的晶片玉宝箱</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>282</v>
       </c>
       <c r="B285" s="5">
-        <v>20506</v>
+        <v>20504</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>81</v>
@@ -12701,7 +12723,7 @@
         <v>0</v>
       </c>
       <c r="H285" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I285" s="4">
         <v>5</v>
@@ -12710,28 +12732,24 @@
         <v>1</v>
       </c>
       <c r="K285" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="L285" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的晶片魔宝箱</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <v>283</v>
       </c>
       <c r="B286" s="5">
-        <v>20601</v>
+        <v>20505</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>81</v>
@@ -12740,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="H286" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I286" s="4">
         <v>5</v>
@@ -12749,28 +12767,24 @@
         <v>1</v>
       </c>
       <c r="K286" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="L286" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的装备铜宝箱</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <v>284</v>
       </c>
       <c r="B287" s="5">
-        <v>20602</v>
+        <v>20506</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>81</v>
@@ -12779,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="H287" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I287" s="4">
         <v>5</v>
@@ -12788,28 +12802,24 @@
         <v>1</v>
       </c>
       <c r="K287" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="L287" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的装备银宝箱</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <v>285</v>
       </c>
       <c r="B288" s="5">
-        <v>20603</v>
+        <v>20601</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>81</v>
@@ -12818,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="H288" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I288" s="4">
         <v>5</v>
@@ -12827,28 +12837,24 @@
         <v>1</v>
       </c>
       <c r="K288" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="L288" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的装备金宝箱</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <v>286</v>
       </c>
       <c r="B289" s="5">
-        <v>20604</v>
+        <v>20602</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F289" s="4" t="s">
         <v>81</v>
@@ -12857,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="H289" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I289" s="4">
         <v>5</v>
@@ -12866,28 +12872,24 @@
         <v>1</v>
       </c>
       <c r="K289" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="L289" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的装备钻宝箱</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <v>287</v>
       </c>
       <c r="B290" s="5">
-        <v>20605</v>
+        <v>20603</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F290" s="4" t="s">
         <v>81</v>
@@ -12896,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="H290" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I290" s="4">
         <v>5</v>
@@ -12905,28 +12907,24 @@
         <v>1</v>
       </c>
       <c r="K290" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="L290" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的装备玉宝箱</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>288</v>
       </c>
       <c r="B291" s="5">
-        <v>20606</v>
+        <v>20604</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>81</v>
@@ -12935,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="H291" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I291" s="4">
         <v>5</v>
@@ -12944,28 +12942,24 @@
         <v>1</v>
       </c>
       <c r="K291" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="L291" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的装备魔宝箱</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <v>289</v>
       </c>
       <c r="B292" s="5">
-        <v>20701</v>
+        <v>20605</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F292" s="4" t="s">
         <v>81</v>
@@ -12974,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="H292" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I292" s="4">
         <v>5</v>
@@ -12983,28 +12977,24 @@
         <v>1</v>
       </c>
       <c r="K292" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="L292" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的财富铜宝箱</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
         <v>290</v>
       </c>
       <c r="B293" s="5">
-        <v>20702</v>
+        <v>20606</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F293" s="4" t="s">
         <v>81</v>
@@ -13013,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="H293" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I293" s="4">
         <v>5</v>
@@ -13022,28 +13012,24 @@
         <v>1</v>
       </c>
       <c r="K293" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="L293" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的财富银宝箱</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
         <v>291</v>
       </c>
       <c r="B294" s="5">
-        <v>20703</v>
+        <v>20701</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F294" s="4" t="s">
         <v>81</v>
@@ -13052,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="H294" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I294" s="4">
         <v>5</v>
@@ -13061,28 +13047,24 @@
         <v>1</v>
       </c>
       <c r="K294" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="L294" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的财富金宝箱</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
         <v>292</v>
       </c>
       <c r="B295" s="5">
-        <v>20704</v>
+        <v>20702</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F295" s="4" t="s">
         <v>81</v>
@@ -13091,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="H295" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I295" s="4">
         <v>5</v>
@@ -13100,28 +13082,24 @@
         <v>1</v>
       </c>
       <c r="K295" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="L295" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的财富钻宝箱</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <v>293</v>
       </c>
       <c r="B296" s="5">
-        <v>20705</v>
+        <v>20703</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F296" s="4" t="s">
         <v>81</v>
@@ -13130,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="H296" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I296" s="4">
         <v>5</v>
@@ -13139,28 +13117,24 @@
         <v>1</v>
       </c>
       <c r="K296" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="L296" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的财富玉宝箱</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <v>294</v>
       </c>
       <c r="B297" s="5">
-        <v>20706</v>
+        <v>20704</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F297" s="4" t="s">
         <v>81</v>
@@ -13169,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I297" s="4">
         <v>5</v>
@@ -13178,11 +13152,77 @@
         <v>1</v>
       </c>
       <c r="K297" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="4">
+        <v>295</v>
+      </c>
+      <c r="B298" s="5">
+        <v>20705</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G298" s="4">
+        <v>0</v>
+      </c>
+      <c r="H298" s="4">
+        <v>5</v>
+      </c>
+      <c r="I298" s="4">
+        <v>5</v>
+      </c>
+      <c r="J298" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K298" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="4">
+        <v>296</v>
+      </c>
+      <c r="B299" s="5">
+        <v>20706</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G299" s="4">
+        <v>0</v>
+      </c>
+      <c r="H299" s="4">
+        <v>5</v>
+      </c>
+      <c r="I299" s="4">
+        <v>5</v>
+      </c>
+      <c r="J299" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K299" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="L297" t="str">
-        <f t="shared" si="1"/>
-        <v>解锁的财富魔宝箱</v>
       </c>
     </row>
   </sheetData>
@@ -13195,10 +13235,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13747,12 +13787,108 @@
         <v>20402</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4">
-        <v>145</v>
+      <c r="F29" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>20403</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <v>20404</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <v>20405</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4">
+        <v>20406</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4">
+        <v>20407</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4">
+        <v>20408</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -13767,7 +13903,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3AD0A7-3A47-460E-A4AC-97E3BEE7E780}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5CF7F3-B24E-4667-AD51-1C6036FB6D59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -252,9 +252,6 @@
     <t>item_13</t>
   </si>
   <si>
-    <t>材料科学的最新产物，用于战舰装备的4~6阶段的锻造</t>
-  </si>
-  <si>
     <t>龙魂</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
   </si>
   <si>
     <t>item_14</t>
-  </si>
-  <si>
-    <t>来自外星科技的材料，用于战舰装备的7~10阶段的锻造</t>
   </si>
   <si>
     <t>龙元</t>
@@ -2210,6 +2204,14 @@
   </si>
   <si>
     <t>金币幸运宝箱</t>
+  </si>
+  <si>
+    <t>材料科学的最新产物，用于战舰装备的4~10阶段的锻造</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自外星科技的材料，用于战舰装备的11~12阶段的锻造</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2926,11 +2928,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F270" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C275" sqref="C275:C281"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="A8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3140,7 +3142,7 @@
         <v>54</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H6" s="4">
         <v>3</v>
@@ -3210,7 +3212,7 @@
         <v>62</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H8" s="4">
         <v>3</v>
@@ -3222,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>63</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3233,16 +3235,16 @@
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -3257,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>67</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3268,13 +3270,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>"item_"&amp;B10</f>
@@ -3293,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3304,16 +3306,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -3328,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3339,16 +3341,16 @@
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3374,16 +3376,16 @@
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -3398,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3409,16 +3411,16 @@
         <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3444,16 +3446,16 @@
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -3468,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3479,16 +3481,16 @@
         <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3514,16 +3516,16 @@
         <v>101</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -3538,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3549,13 +3551,13 @@
         <v>102</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" ref="F18:F23" si="0">"item_"&amp;B18</f>
@@ -3574,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3585,13 +3587,13 @@
         <v>103</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3610,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3621,13 +3623,13 @@
         <v>104</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3646,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3657,13 +3659,13 @@
         <v>105</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3682,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3693,13 +3695,13 @@
         <v>106</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3718,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3729,13 +3731,13 @@
         <v>201</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -3754,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3765,16 +3767,16 @@
         <v>1001</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -3798,16 +3800,16 @@
         <v>1002</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -3831,16 +3833,16 @@
         <v>1003</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -3864,16 +3866,16 @@
         <v>1004</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -3897,16 +3899,16 @@
         <v>1005</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -3930,16 +3932,16 @@
         <v>1006</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -3963,16 +3965,16 @@
         <v>1007</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="F30" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
@@ -3996,16 +3998,16 @@
         <v>1008</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -4029,16 +4031,16 @@
         <v>1011</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="F32" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
@@ -4062,16 +4064,16 @@
         <v>1012</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="F33" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
@@ -4095,16 +4097,16 @@
         <v>1013</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="F34" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
@@ -4128,16 +4130,16 @@
         <v>1014</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="F35" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
@@ -4161,16 +4163,16 @@
         <v>1015</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="F36" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
@@ -4194,16 +4196,16 @@
         <v>1016</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="F37" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
@@ -4227,16 +4229,16 @@
         <v>1017</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="F38" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
@@ -4260,16 +4262,16 @@
         <v>1018</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="F39" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -4293,16 +4295,16 @@
         <v>1021</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -4326,16 +4328,16 @@
         <v>1022</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
@@ -4359,16 +4361,16 @@
         <v>1023</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="F42" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -4392,16 +4394,16 @@
         <v>1024</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -4425,16 +4427,16 @@
         <v>1025</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="F44" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
@@ -4458,16 +4460,16 @@
         <v>1026</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="F45" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
@@ -4491,16 +4493,16 @@
         <v>1027</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
@@ -4524,16 +4526,16 @@
         <v>1028</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G47" s="4">
         <v>0</v>
@@ -4557,16 +4559,16 @@
         <v>1031</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
@@ -4590,16 +4592,16 @@
         <v>1032</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
@@ -4623,16 +4625,16 @@
         <v>1033</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
@@ -4656,16 +4658,16 @@
         <v>1034</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
@@ -4689,16 +4691,16 @@
         <v>1035</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
@@ -4722,16 +4724,16 @@
         <v>1036</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
@@ -4755,16 +4757,16 @@
         <v>1037</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="F54" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="G54" s="4">
         <v>0</v>
@@ -4788,16 +4790,16 @@
         <v>1038</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="G55" s="4">
         <v>0</v>
@@ -4821,16 +4823,16 @@
         <v>1041</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
@@ -4854,16 +4856,16 @@
         <v>1042</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="F57" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
@@ -4887,16 +4889,16 @@
         <v>1043</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="F58" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
@@ -4920,16 +4922,16 @@
         <v>1044</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="F59" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
@@ -4953,16 +4955,16 @@
         <v>1045</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="F60" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
@@ -4986,16 +4988,16 @@
         <v>1046</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="F61" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G61" s="4">
         <v>0</v>
@@ -5019,16 +5021,16 @@
         <v>1047</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="F62" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G62" s="4">
         <v>0</v>
@@ -5052,16 +5054,16 @@
         <v>1048</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="F63" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G63" s="4">
         <v>0</v>
@@ -5085,16 +5087,16 @@
         <v>1051</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="F64" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
@@ -5118,16 +5120,16 @@
         <v>1052</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="F65" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
@@ -5151,16 +5153,16 @@
         <v>1053</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="F66" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G66" s="4">
         <v>0</v>
@@ -5184,16 +5186,16 @@
         <v>1054</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="F67" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
@@ -5217,16 +5219,16 @@
         <v>1055</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="F68" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G68" s="4">
         <v>0</v>
@@ -5250,16 +5252,16 @@
         <v>1056</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="F69" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G69" s="4">
         <v>0</v>
@@ -5283,16 +5285,16 @@
         <v>1057</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="F70" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
@@ -5316,16 +5318,16 @@
         <v>1058</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="F71" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
@@ -5349,16 +5351,16 @@
         <v>1061</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="G72" s="4">
         <v>0</v>
@@ -5382,16 +5384,16 @@
         <v>1062</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="G73" s="4">
         <v>0</v>
@@ -5415,16 +5417,16 @@
         <v>1063</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="G74" s="4">
         <v>0</v>
@@ -5448,16 +5450,16 @@
         <v>1064</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
@@ -5481,16 +5483,16 @@
         <v>1065</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="G76" s="4">
         <v>0</v>
@@ -5514,16 +5516,16 @@
         <v>1066</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="G77" s="4">
         <v>0</v>
@@ -5547,16 +5549,16 @@
         <v>1067</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="F78" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="G78" s="4">
         <v>0</v>
@@ -5580,16 +5582,16 @@
         <v>1068</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="G79" s="4">
         <v>0</v>
@@ -5613,16 +5615,16 @@
         <v>1071</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="F80" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G80" s="4">
         <v>0</v>
@@ -5646,16 +5648,16 @@
         <v>1072</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="F81" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G81" s="4">
         <v>0</v>
@@ -5679,16 +5681,16 @@
         <v>1073</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="F82" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G82" s="4">
         <v>0</v>
@@ -5712,16 +5714,16 @@
         <v>1074</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="F83" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G83" s="4">
         <v>0</v>
@@ -5745,16 +5747,16 @@
         <v>1075</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="F84" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G84" s="4">
         <v>0</v>
@@ -5778,16 +5780,16 @@
         <v>1076</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="F85" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G85" s="4">
         <v>0</v>
@@ -5811,16 +5813,16 @@
         <v>1077</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="F86" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G86" s="4">
         <v>0</v>
@@ -5844,16 +5846,16 @@
         <v>1078</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="F87" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G87" s="4">
         <v>0</v>
@@ -5877,16 +5879,16 @@
         <v>1081</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="F88" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G88" s="4">
         <v>0</v>
@@ -5910,16 +5912,16 @@
         <v>1082</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="F89" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G89" s="4">
         <v>0</v>
@@ -5943,16 +5945,16 @@
         <v>1083</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="F90" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G90" s="4">
         <v>0</v>
@@ -5976,16 +5978,16 @@
         <v>1084</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="F91" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G91" s="4">
         <v>0</v>
@@ -6009,16 +6011,16 @@
         <v>1085</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="F92" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G92" s="4">
         <v>0</v>
@@ -6042,16 +6044,16 @@
         <v>1086</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="F93" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G93" s="4">
         <v>0</v>
@@ -6075,16 +6077,16 @@
         <v>1087</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="F94" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G94" s="4">
         <v>0</v>
@@ -6108,16 +6110,16 @@
         <v>1088</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="F95" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G95" s="4">
         <v>0</v>
@@ -6141,16 +6143,16 @@
         <v>1091</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="F96" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G96" s="4">
         <v>0</v>
@@ -6174,16 +6176,16 @@
         <v>1092</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="F97" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G97" s="4">
         <v>0</v>
@@ -6207,16 +6209,16 @@
         <v>1093</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="F98" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G98" s="4">
         <v>0</v>
@@ -6240,16 +6242,16 @@
         <v>1094</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="F99" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G99" s="4">
         <v>0</v>
@@ -6273,16 +6275,16 @@
         <v>1095</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="F100" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G100" s="4">
         <v>0</v>
@@ -6306,16 +6308,16 @@
         <v>1096</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="F101" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G101" s="4">
         <v>0</v>
@@ -6339,16 +6341,16 @@
         <v>1097</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="F102" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G102" s="4">
         <v>0</v>
@@ -6372,16 +6374,16 @@
         <v>1098</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="F103" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G103" s="4">
         <v>0</v>
@@ -6405,16 +6407,16 @@
         <v>1101</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="F104" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="G104" s="4">
         <v>0</v>
@@ -6438,16 +6440,16 @@
         <v>1102</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="F105" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="G105" s="4">
         <v>0</v>
@@ -6471,16 +6473,16 @@
         <v>1103</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="F106" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="G106" s="4">
         <v>0</v>
@@ -6504,16 +6506,16 @@
         <v>1104</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="F107" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="G107" s="4">
         <v>0</v>
@@ -6537,16 +6539,16 @@
         <v>1105</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="F108" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="G108" s="4">
         <v>0</v>
@@ -6570,16 +6572,16 @@
         <v>1106</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="F109" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="G109" s="4">
         <v>0</v>
@@ -6603,16 +6605,16 @@
         <v>1107</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="F110" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="G110" s="4">
         <v>0</v>
@@ -6636,16 +6638,16 @@
         <v>1108</v>
       </c>
       <c r="C111" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="F111" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="G111" s="4">
         <v>0</v>
@@ -6669,16 +6671,16 @@
         <v>1111</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>407</v>
-      </c>
       <c r="F112" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G112" s="4">
         <v>0</v>
@@ -6702,16 +6704,16 @@
         <v>1112</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>410</v>
-      </c>
       <c r="F113" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G113" s="4">
         <v>0</v>
@@ -6735,16 +6737,16 @@
         <v>1113</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="F114" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G114" s="4">
         <v>0</v>
@@ -6768,16 +6770,16 @@
         <v>1114</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="F115" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G115" s="4">
         <v>0</v>
@@ -6801,16 +6803,16 @@
         <v>1115</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="F116" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G116" s="4">
         <v>0</v>
@@ -6834,16 +6836,16 @@
         <v>1116</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="F117" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G117" s="4">
         <v>0</v>
@@ -6867,16 +6869,16 @@
         <v>1117</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="D118" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>425</v>
-      </c>
       <c r="F118" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G118" s="4">
         <v>0</v>
@@ -6900,16 +6902,16 @@
         <v>1118</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>428</v>
-      </c>
       <c r="F119" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G119" s="4">
         <v>0</v>
@@ -6933,16 +6935,16 @@
         <v>10001</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G120" s="4">
         <v>0</v>
@@ -6957,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -6968,16 +6970,16 @@
         <v>10002</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G121" s="4">
         <v>0</v>
@@ -6992,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7003,16 +7005,16 @@
         <v>10003</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G122" s="4">
         <v>0</v>
@@ -7027,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7038,16 +7040,16 @@
         <v>10004</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G123" s="4">
         <v>0</v>
@@ -7062,7 +7064,7 @@
         <v>1</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7073,16 +7075,16 @@
         <v>10005</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G124" s="4">
         <v>0</v>
@@ -7097,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7108,16 +7110,16 @@
         <v>10006</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G125" s="4">
         <v>0</v>
@@ -7132,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7143,16 +7145,16 @@
         <v>10007</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G126" s="4">
         <v>0</v>
@@ -7167,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7178,16 +7180,16 @@
         <v>10008</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G127" s="4">
         <v>0</v>
@@ -7202,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7213,16 +7215,16 @@
         <v>10009</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G128" s="4">
         <v>0</v>
@@ -7237,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7248,16 +7250,16 @@
         <v>10010</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G129" s="4">
         <v>0</v>
@@ -7272,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7283,16 +7285,16 @@
         <v>10011</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G130" s="4">
         <v>0</v>
@@ -7307,7 +7309,7 @@
         <v>1</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7318,16 +7320,16 @@
         <v>10012</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G131" s="4">
         <v>0</v>
@@ -7342,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7353,16 +7355,16 @@
         <v>10013</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G132" s="4">
         <v>0</v>
@@ -7377,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7388,16 +7390,16 @@
         <v>10101</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G133" s="4">
         <v>0</v>
@@ -7412,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7423,16 +7425,16 @@
         <v>10102</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G134" s="4">
         <v>0</v>
@@ -7447,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7458,16 +7460,16 @@
         <v>10103</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G135" s="4">
         <v>0</v>
@@ -7482,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7493,16 +7495,16 @@
         <v>10104</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
@@ -7517,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7528,16 +7530,16 @@
         <v>10105</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G137" s="4">
         <v>0</v>
@@ -7552,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7563,16 +7565,16 @@
         <v>10106</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G138" s="4">
         <v>0</v>
@@ -7587,7 +7589,7 @@
         <v>1</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7598,16 +7600,16 @@
         <v>10107</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G139" s="4">
         <v>0</v>
@@ -7622,7 +7624,7 @@
         <v>1</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7633,16 +7635,16 @@
         <v>10108</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G140" s="4">
         <v>0</v>
@@ -7657,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7668,16 +7670,16 @@
         <v>10109</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G141" s="4">
         <v>0</v>
@@ -7692,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7703,16 +7705,16 @@
         <v>10110</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G142" s="4">
         <v>0</v>
@@ -7727,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7738,16 +7740,16 @@
         <v>10111</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G143" s="4">
         <v>0</v>
@@ -7762,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7773,16 +7775,16 @@
         <v>10112</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G144" s="4">
         <v>0</v>
@@ -7797,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7808,16 +7810,16 @@
         <v>10113</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G145" s="4">
         <v>0</v>
@@ -7832,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7843,16 +7845,16 @@
         <v>10201</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G146" s="4">
         <v>0</v>
@@ -7867,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7878,16 +7880,16 @@
         <v>10202</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G147" s="4">
         <v>0</v>
@@ -7902,7 +7904,7 @@
         <v>1</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7913,16 +7915,16 @@
         <v>10203</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G148" s="4">
         <v>0</v>
@@ -7937,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7948,16 +7950,16 @@
         <v>10204</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G149" s="4">
         <v>0</v>
@@ -7972,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -7983,16 +7985,16 @@
         <v>10205</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G150" s="4">
         <v>0</v>
@@ -8007,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8018,16 +8020,16 @@
         <v>10206</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G151" s="4">
         <v>0</v>
@@ -8042,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8053,16 +8055,16 @@
         <v>10207</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G152" s="4">
         <v>0</v>
@@ -8077,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8088,16 +8090,16 @@
         <v>10208</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G153" s="4">
         <v>0</v>
@@ -8112,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8123,16 +8125,16 @@
         <v>10209</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G154" s="4">
         <v>0</v>
@@ -8147,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8158,16 +8160,16 @@
         <v>10210</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G155" s="4">
         <v>0</v>
@@ -8182,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8193,16 +8195,16 @@
         <v>10211</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G156" s="4">
         <v>0</v>
@@ -8217,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8228,16 +8230,16 @@
         <v>10212</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G157" s="4">
         <v>0</v>
@@ -8252,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8263,16 +8265,16 @@
         <v>10213</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G158" s="4">
         <v>0</v>
@@ -8287,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8298,16 +8300,16 @@
         <v>10301</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G159" s="4">
         <v>0</v>
@@ -8322,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8333,16 +8335,16 @@
         <v>10302</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G160" s="4">
         <v>0</v>
@@ -8357,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8368,16 +8370,16 @@
         <v>10303</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G161" s="4">
         <v>0</v>
@@ -8392,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8403,16 +8405,16 @@
         <v>10304</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G162" s="4">
         <v>0</v>
@@ -8427,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8438,16 +8440,16 @@
         <v>10305</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G163" s="4">
         <v>0</v>
@@ -8462,7 +8464,7 @@
         <v>1</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8473,16 +8475,16 @@
         <v>10306</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G164" s="4">
         <v>0</v>
@@ -8497,7 +8499,7 @@
         <v>1</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8508,16 +8510,16 @@
         <v>10307</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G165" s="4">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8543,16 +8545,16 @@
         <v>10308</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G166" s="4">
         <v>0</v>
@@ -8567,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8578,16 +8580,16 @@
         <v>10309</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G167" s="4">
         <v>0</v>
@@ -8602,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8613,16 +8615,16 @@
         <v>10310</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G168" s="4">
         <v>0</v>
@@ -8637,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8648,16 +8650,16 @@
         <v>10311</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G169" s="4">
         <v>0</v>
@@ -8672,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8683,16 +8685,16 @@
         <v>10312</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G170" s="4">
         <v>0</v>
@@ -8707,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8718,16 +8720,16 @@
         <v>10313</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G171" s="4">
         <v>0</v>
@@ -8742,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8753,16 +8755,16 @@
         <v>10401</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G172" s="4">
         <v>0</v>
@@ -8777,7 +8779,7 @@
         <v>1</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8788,16 +8790,16 @@
         <v>10402</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G173" s="4">
         <v>0</v>
@@ -8812,7 +8814,7 @@
         <v>1</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8823,16 +8825,16 @@
         <v>10403</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G174" s="4">
         <v>0</v>
@@ -8847,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8858,16 +8860,16 @@
         <v>10404</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G175" s="4">
         <v>0</v>
@@ -8882,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8893,16 +8895,16 @@
         <v>10405</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G176" s="4">
         <v>0</v>
@@ -8917,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8928,16 +8930,16 @@
         <v>10406</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G177" s="4">
         <v>0</v>
@@ -8952,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8963,16 +8965,16 @@
         <v>10407</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G178" s="4">
         <v>0</v>
@@ -8987,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="K178" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -8998,16 +9000,16 @@
         <v>10408</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G179" s="4">
         <v>0</v>
@@ -9022,7 +9024,7 @@
         <v>1</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9033,16 +9035,16 @@
         <v>10409</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G180" s="4">
         <v>0</v>
@@ -9057,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9068,16 +9070,16 @@
         <v>10410</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G181" s="4">
         <v>0</v>
@@ -9092,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9103,16 +9105,16 @@
         <v>10411</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G182" s="4">
         <v>0</v>
@@ -9127,7 +9129,7 @@
         <v>1</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9138,16 +9140,16 @@
         <v>10412</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G183" s="4">
         <v>0</v>
@@ -9162,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9173,16 +9175,16 @@
         <v>10413</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G184" s="4">
         <v>0</v>
@@ -9197,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9208,16 +9210,16 @@
         <v>10501</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G185" s="4">
         <v>0</v>
@@ -9232,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="K185" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9243,16 +9245,16 @@
         <v>10502</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G186" s="4">
         <v>0</v>
@@ -9267,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="K186" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9278,16 +9280,16 @@
         <v>10503</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G187" s="4">
         <v>0</v>
@@ -9302,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9313,16 +9315,16 @@
         <v>10504</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G188" s="4">
         <v>0</v>
@@ -9337,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9348,16 +9350,16 @@
         <v>10505</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G189" s="4">
         <v>0</v>
@@ -9372,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9383,16 +9385,16 @@
         <v>10506</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G190" s="4">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9418,16 +9420,16 @@
         <v>10507</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G191" s="4">
         <v>0</v>
@@ -9442,7 +9444,7 @@
         <v>1</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9453,16 +9455,16 @@
         <v>10508</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G192" s="4">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>1</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9488,16 +9490,16 @@
         <v>10509</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G193" s="4">
         <v>0</v>
@@ -9512,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9523,16 +9525,16 @@
         <v>10510</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G194" s="4">
         <v>0</v>
@@ -9547,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9558,16 +9560,16 @@
         <v>10511</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G195" s="4">
         <v>0</v>
@@ -9582,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9593,16 +9595,16 @@
         <v>10512</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G196" s="4">
         <v>0</v>
@@ -9617,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9628,16 +9630,16 @@
         <v>10513</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G197" s="4">
         <v>0</v>
@@ -9652,7 +9654,7 @@
         <v>1</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9663,16 +9665,16 @@
         <v>10601</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G198" s="4">
         <v>0</v>
@@ -9687,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9698,16 +9700,16 @@
         <v>10602</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G199" s="4">
         <v>0</v>
@@ -9722,7 +9724,7 @@
         <v>1</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9733,16 +9735,16 @@
         <v>10603</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G200" s="4">
         <v>0</v>
@@ -9757,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9768,16 +9770,16 @@
         <v>10604</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G201" s="4">
         <v>0</v>
@@ -9792,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9803,16 +9805,16 @@
         <v>10605</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G202" s="4">
         <v>0</v>
@@ -9827,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9838,16 +9840,16 @@
         <v>10606</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G203" s="4">
         <v>0</v>
@@ -9862,7 +9864,7 @@
         <v>1</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9873,16 +9875,16 @@
         <v>10607</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G204" s="4">
         <v>0</v>
@@ -9897,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9908,16 +9910,16 @@
         <v>10608</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G205" s="4">
         <v>0</v>
@@ -9932,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9943,16 +9945,16 @@
         <v>10609</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G206" s="4">
         <v>0</v>
@@ -9967,7 +9969,7 @@
         <v>1</v>
       </c>
       <c r="K206" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -9978,16 +9980,16 @@
         <v>10610</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G207" s="4">
         <v>0</v>
@@ -10002,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10013,16 +10015,16 @@
         <v>10611</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G208" s="4">
         <v>0</v>
@@ -10037,7 +10039,7 @@
         <v>1</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10048,16 +10050,16 @@
         <v>10612</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G209" s="4">
         <v>0</v>
@@ -10072,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10083,16 +10085,16 @@
         <v>10613</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G210" s="4">
         <v>0</v>
@@ -10107,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10118,16 +10120,16 @@
         <v>10701</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G211" s="4">
         <v>0</v>
@@ -10142,7 +10144,7 @@
         <v>1</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10153,16 +10155,16 @@
         <v>10702</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G212" s="4">
         <v>0</v>
@@ -10177,7 +10179,7 @@
         <v>1</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10188,16 +10190,16 @@
         <v>10703</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G213" s="4">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="K213" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10223,16 +10225,16 @@
         <v>10704</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G214" s="4">
         <v>0</v>
@@ -10247,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10258,16 +10260,16 @@
         <v>10705</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G215" s="4">
         <v>0</v>
@@ -10282,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10293,16 +10295,16 @@
         <v>10706</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G216" s="4">
         <v>0</v>
@@ -10317,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10328,16 +10330,16 @@
         <v>10707</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G217" s="4">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>1</v>
       </c>
       <c r="K217" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10363,16 +10365,16 @@
         <v>10708</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G218" s="4">
         <v>0</v>
@@ -10387,7 +10389,7 @@
         <v>1</v>
       </c>
       <c r="K218" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10398,16 +10400,16 @@
         <v>10709</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G219" s="4">
         <v>0</v>
@@ -10422,7 +10424,7 @@
         <v>1</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10433,16 +10435,16 @@
         <v>10710</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G220" s="4">
         <v>0</v>
@@ -10457,7 +10459,7 @@
         <v>1</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10468,16 +10470,16 @@
         <v>10711</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G221" s="4">
         <v>0</v>
@@ -10492,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10503,16 +10505,16 @@
         <v>10712</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G222" s="4">
         <v>0</v>
@@ -10527,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="K222" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10538,16 +10540,16 @@
         <v>10713</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G223" s="4">
         <v>0</v>
@@ -10562,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="K223" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10573,16 +10575,16 @@
         <v>10801</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G224" s="4">
         <v>0</v>
@@ -10597,7 +10599,7 @@
         <v>1</v>
       </c>
       <c r="K224" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10608,16 +10610,16 @@
         <v>10802</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G225" s="4">
         <v>0</v>
@@ -10632,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="K225" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10643,16 +10645,16 @@
         <v>10803</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G226" s="4">
         <v>0</v>
@@ -10667,7 +10669,7 @@
         <v>1</v>
       </c>
       <c r="K226" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10678,16 +10680,16 @@
         <v>10804</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G227" s="4">
         <v>0</v>
@@ -10702,7 +10704,7 @@
         <v>1</v>
       </c>
       <c r="K227" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10713,16 +10715,16 @@
         <v>10805</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G228" s="4">
         <v>0</v>
@@ -10737,7 +10739,7 @@
         <v>1</v>
       </c>
       <c r="K228" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10748,16 +10750,16 @@
         <v>10806</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G229" s="4">
         <v>0</v>
@@ -10772,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10783,16 +10785,16 @@
         <v>10807</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G230" s="4">
         <v>0</v>
@@ -10807,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10818,16 +10820,16 @@
         <v>10808</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G231" s="4">
         <v>0</v>
@@ -10842,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10853,16 +10855,16 @@
         <v>10809</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G232" s="4">
         <v>0</v>
@@ -10877,7 +10879,7 @@
         <v>1</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10888,16 +10890,16 @@
         <v>10810</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G233" s="4">
         <v>0</v>
@@ -10912,7 +10914,7 @@
         <v>1</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10923,16 +10925,16 @@
         <v>10811</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G234" s="4">
         <v>0</v>
@@ -10947,7 +10949,7 @@
         <v>1</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10958,16 +10960,16 @@
         <v>10812</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G235" s="4">
         <v>0</v>
@@ -10982,7 +10984,7 @@
         <v>1</v>
       </c>
       <c r="K235" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -10993,16 +10995,16 @@
         <v>10813</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G236" s="4">
         <v>0</v>
@@ -11017,7 +11019,7 @@
         <v>1</v>
       </c>
       <c r="K236" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11028,16 +11030,16 @@
         <v>10901</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G237" s="4">
         <v>0</v>
@@ -11052,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="K237" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11063,16 +11065,16 @@
         <v>10902</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G238" s="4">
         <v>0</v>
@@ -11087,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="K238" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11098,16 +11100,16 @@
         <v>10903</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G239" s="4">
         <v>0</v>
@@ -11122,7 +11124,7 @@
         <v>1</v>
       </c>
       <c r="K239" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11133,16 +11135,16 @@
         <v>10904</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G240" s="4">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>1</v>
       </c>
       <c r="K240" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11168,16 +11170,16 @@
         <v>10905</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G241" s="4">
         <v>0</v>
@@ -11192,7 +11194,7 @@
         <v>1</v>
       </c>
       <c r="K241" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11203,16 +11205,16 @@
         <v>10906</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G242" s="4">
         <v>0</v>
@@ -11227,7 +11229,7 @@
         <v>1</v>
       </c>
       <c r="K242" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11238,16 +11240,16 @@
         <v>10907</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G243" s="4">
         <v>0</v>
@@ -11262,7 +11264,7 @@
         <v>1</v>
       </c>
       <c r="K243" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11273,16 +11275,16 @@
         <v>10908</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G244" s="4">
         <v>0</v>
@@ -11297,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="K244" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11308,16 +11310,16 @@
         <v>10909</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G245" s="4">
         <v>0</v>
@@ -11332,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="K245" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11343,16 +11345,16 @@
         <v>10910</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G246" s="4">
         <v>0</v>
@@ -11367,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="K246" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11378,16 +11380,16 @@
         <v>10911</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G247" s="4">
         <v>0</v>
@@ -11402,7 +11404,7 @@
         <v>1</v>
       </c>
       <c r="K247" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11413,16 +11415,16 @@
         <v>10912</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G248" s="4">
         <v>0</v>
@@ -11437,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="K248" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11448,16 +11450,16 @@
         <v>10913</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G249" s="4">
         <v>0</v>
@@ -11472,7 +11474,7 @@
         <v>1</v>
       </c>
       <c r="K249" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11483,16 +11485,16 @@
         <v>20001</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G250" s="4">
         <v>0</v>
@@ -11507,7 +11509,7 @@
         <v>1</v>
       </c>
       <c r="K250" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11518,16 +11520,16 @@
         <v>20002</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G251" s="4">
         <v>0</v>
@@ -11542,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="K251" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11553,16 +11555,16 @@
         <v>20003</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G252" s="4">
         <v>0</v>
@@ -11577,7 +11579,7 @@
         <v>1</v>
       </c>
       <c r="K252" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11588,16 +11590,16 @@
         <v>20004</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G253" s="4">
         <v>0</v>
@@ -11612,7 +11614,7 @@
         <v>1</v>
       </c>
       <c r="K253" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11623,16 +11625,16 @@
         <v>20005</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G254" s="4">
         <v>0</v>
@@ -11647,7 +11649,7 @@
         <v>1</v>
       </c>
       <c r="K254" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11658,16 +11660,16 @@
         <v>20006</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G255" s="4">
         <v>0</v>
@@ -11682,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="K255" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11693,16 +11695,16 @@
         <v>20101</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G256" s="4">
         <v>0</v>
@@ -11717,7 +11719,7 @@
         <v>1</v>
       </c>
       <c r="K256" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11728,16 +11730,16 @@
         <v>20102</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G257" s="4">
         <v>0</v>
@@ -11752,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="K257" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11763,16 +11765,16 @@
         <v>20103</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G258" s="4">
         <v>0</v>
@@ -11787,7 +11789,7 @@
         <v>1</v>
       </c>
       <c r="K258" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11798,16 +11800,16 @@
         <v>20104</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G259" s="4">
         <v>0</v>
@@ -11822,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="K259" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11833,16 +11835,16 @@
         <v>20105</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G260" s="4">
         <v>0</v>
@@ -11857,7 +11859,7 @@
         <v>1</v>
       </c>
       <c r="K260" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11868,16 +11870,16 @@
         <v>20106</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G261" s="4">
         <v>0</v>
@@ -11892,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="K261" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11903,16 +11905,16 @@
         <v>20201</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G262" s="4">
         <v>0</v>
@@ -11927,7 +11929,7 @@
         <v>1</v>
       </c>
       <c r="K262" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11938,16 +11940,16 @@
         <v>20202</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G263" s="4">
         <v>0</v>
@@ -11962,7 +11964,7 @@
         <v>1</v>
       </c>
       <c r="K263" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -11973,16 +11975,16 @@
         <v>20203</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G264" s="4">
         <v>0</v>
@@ -11997,7 +11999,7 @@
         <v>1</v>
       </c>
       <c r="K264" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12008,16 +12010,16 @@
         <v>20204</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G265" s="4">
         <v>0</v>
@@ -12032,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="K265" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12043,16 +12045,16 @@
         <v>20205</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G266" s="4">
         <v>0</v>
@@ -12067,7 +12069,7 @@
         <v>1</v>
       </c>
       <c r="K266" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12078,16 +12080,16 @@
         <v>20206</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G267" s="4">
         <v>0</v>
@@ -12102,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="K267" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12113,16 +12115,16 @@
         <v>20301</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G268" s="4">
         <v>0</v>
@@ -12137,7 +12139,7 @@
         <v>1</v>
       </c>
       <c r="K268" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12148,16 +12150,16 @@
         <v>20302</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G269" s="4">
         <v>0</v>
@@ -12172,7 +12174,7 @@
         <v>1</v>
       </c>
       <c r="K269" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12183,16 +12185,16 @@
         <v>20303</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G270" s="4">
         <v>0</v>
@@ -12207,7 +12209,7 @@
         <v>1</v>
       </c>
       <c r="K270" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12218,16 +12220,16 @@
         <v>20304</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G271" s="4">
         <v>0</v>
@@ -12242,7 +12244,7 @@
         <v>1</v>
       </c>
       <c r="K271" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12253,16 +12255,16 @@
         <v>20305</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G272" s="4">
         <v>0</v>
@@ -12277,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="K272" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12288,16 +12290,16 @@
         <v>20306</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G273" s="4">
         <v>0</v>
@@ -12312,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="K273" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12323,16 +12325,16 @@
         <v>20401</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G274" s="4">
         <v>0</v>
@@ -12347,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="K274" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12358,16 +12360,16 @@
         <v>20402</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G275" s="4">
         <v>0</v>
@@ -12382,7 +12384,7 @@
         <v>1</v>
       </c>
       <c r="K275" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12393,31 +12395,31 @@
         <v>20403</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D276" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G276" s="4">
+        <v>0</v>
+      </c>
+      <c r="H276" s="4">
+        <v>4</v>
+      </c>
+      <c r="I276" s="4">
+        <v>5</v>
+      </c>
+      <c r="J276" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="F276" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G276" s="4">
-        <v>0</v>
-      </c>
-      <c r="H276" s="4">
-        <v>4</v>
-      </c>
-      <c r="I276" s="4">
-        <v>5</v>
-      </c>
-      <c r="J276" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K276" s="4" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12428,16 +12430,16 @@
         <v>20404</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G277" s="4">
         <v>0</v>
@@ -12452,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="K277" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12463,16 +12465,16 @@
         <v>20405</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G278" s="4">
         <v>0</v>
@@ -12487,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="K278" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12498,16 +12500,16 @@
         <v>20406</v>
       </c>
       <c r="C279" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D279" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="D279" s="4" t="s">
-        <v>703</v>
-      </c>
       <c r="E279" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G279" s="4">
         <v>0</v>
@@ -12522,7 +12524,7 @@
         <v>1</v>
       </c>
       <c r="K279" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12533,16 +12535,16 @@
         <v>20407</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G280" s="4">
         <v>0</v>
@@ -12557,7 +12559,7 @@
         <v>1</v>
       </c>
       <c r="K280" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="281" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12568,16 +12570,16 @@
         <v>20408</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G281" s="4">
         <v>0</v>
@@ -12592,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="K281" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="282" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12603,16 +12605,16 @@
         <v>20501</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G282" s="4">
         <v>0</v>
@@ -12627,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="K282" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="283" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12638,16 +12640,16 @@
         <v>20502</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G283" s="4">
         <v>0</v>
@@ -12662,7 +12664,7 @@
         <v>1</v>
       </c>
       <c r="K283" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="284" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12673,16 +12675,16 @@
         <v>20503</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G284" s="4">
         <v>0</v>
@@ -12697,7 +12699,7 @@
         <v>1</v>
       </c>
       <c r="K284" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="285" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12708,16 +12710,16 @@
         <v>20504</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G285" s="4">
         <v>0</v>
@@ -12732,7 +12734,7 @@
         <v>1</v>
       </c>
       <c r="K285" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="286" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12743,16 +12745,16 @@
         <v>20505</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G286" s="4">
         <v>0</v>
@@ -12767,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="K286" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="287" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12778,16 +12780,16 @@
         <v>20506</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G287" s="4">
         <v>0</v>
@@ -12802,7 +12804,7 @@
         <v>1</v>
       </c>
       <c r="K287" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="288" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12813,16 +12815,16 @@
         <v>20601</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G288" s="4">
         <v>0</v>
@@ -12837,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="K288" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="289" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12848,16 +12850,16 @@
         <v>20602</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G289" s="4">
         <v>0</v>
@@ -12872,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="K289" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="290" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12883,16 +12885,16 @@
         <v>20603</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G290" s="4">
         <v>0</v>
@@ -12907,7 +12909,7 @@
         <v>1</v>
       </c>
       <c r="K290" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="291" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12918,16 +12920,16 @@
         <v>20604</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G291" s="4">
         <v>0</v>
@@ -12942,7 +12944,7 @@
         <v>1</v>
       </c>
       <c r="K291" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="292" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12953,16 +12955,16 @@
         <v>20605</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G292" s="4">
         <v>0</v>
@@ -12977,7 +12979,7 @@
         <v>1</v>
       </c>
       <c r="K292" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="293" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12988,16 +12990,16 @@
         <v>20606</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G293" s="4">
         <v>0</v>
@@ -13012,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="K293" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="294" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -13023,16 +13025,16 @@
         <v>20701</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G294" s="4">
         <v>0</v>
@@ -13047,7 +13049,7 @@
         <v>1</v>
       </c>
       <c r="K294" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="295" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -13058,16 +13060,16 @@
         <v>20702</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G295" s="4">
         <v>0</v>
@@ -13082,7 +13084,7 @@
         <v>1</v>
       </c>
       <c r="K295" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="296" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -13093,16 +13095,16 @@
         <v>20703</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G296" s="4">
         <v>0</v>
@@ -13117,7 +13119,7 @@
         <v>1</v>
       </c>
       <c r="K296" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="297" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -13128,16 +13130,16 @@
         <v>20704</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G297" s="4">
         <v>0</v>
@@ -13152,7 +13154,7 @@
         <v>1</v>
       </c>
       <c r="K297" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="298" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -13163,16 +13165,16 @@
         <v>20705</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G298" s="4">
         <v>0</v>
@@ -13187,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="K298" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="299" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -13198,16 +13200,16 @@
         <v>20706</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F299" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G299" s="4">
         <v>0</v>
@@ -13222,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="K299" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -13237,7 +13239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -13252,19 +13254,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -13278,13 +13280,13 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F2" t="s">
         <v>655</v>
-      </c>
-      <c r="E2" t="s">
-        <v>656</v>
-      </c>
-      <c r="F2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -13292,19 +13294,19 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13315,10 +13317,10 @@
         <v>20001</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -13335,10 +13337,10 @@
         <v>20002</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -13355,10 +13357,10 @@
         <v>20003</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -13375,10 +13377,10 @@
         <v>20004</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -13395,10 +13397,10 @@
         <v>20005</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -13415,10 +13417,10 @@
         <v>20006</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -13435,16 +13437,16 @@
         <v>20101</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13455,16 +13457,16 @@
         <v>20102</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13475,16 +13477,16 @@
         <v>20103</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13495,16 +13497,16 @@
         <v>20104</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13515,16 +13517,16 @@
         <v>20105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13535,16 +13537,16 @@
         <v>20106</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13555,10 +13557,10 @@
         <v>20201</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -13575,10 +13577,10 @@
         <v>20202</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -13595,10 +13597,10 @@
         <v>20203</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -13615,10 +13617,10 @@
         <v>20204</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -13635,10 +13637,10 @@
         <v>20205</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -13655,10 +13657,10 @@
         <v>20206</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -13675,7 +13677,7 @@
         <v>20301</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -13691,7 +13693,7 @@
         <v>20302</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -13707,7 +13709,7 @@
         <v>20303</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -13723,7 +13725,7 @@
         <v>20304</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -13739,7 +13741,7 @@
         <v>20305</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -13755,7 +13757,7 @@
         <v>20305</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -13771,7 +13773,7 @@
         <v>20401</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -13787,12 +13789,12 @@
         <v>20402</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13803,12 +13805,12 @@
         <v>20403</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13819,12 +13821,12 @@
         <v>20404</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13835,12 +13837,12 @@
         <v>20405</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13851,12 +13853,12 @@
         <v>20406</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13867,12 +13869,12 @@
         <v>20407</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13883,12 +13885,12 @@
         <v>20408</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -13917,19 +13919,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -13943,13 +13945,13 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -13957,19 +13959,19 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13977,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -13997,13 +13999,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -14017,13 +14019,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5CF7F3-B24E-4667-AD51-1C6036FB6D59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF49AB-4DE2-43E0-B35D-50B17813E92B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26925" windowHeight="11910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="709">
   <si>
     <t>sheet名</t>
   </si>
@@ -2181,9 +2181,6 @@
     <t>突破丹宝箱</t>
   </si>
   <si>
-    <t>天命丹宝箱</t>
-  </si>
-  <si>
     <t>突破丹宝箱</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -2211,6 +2208,26 @@
   </si>
   <si>
     <t>来自外星科技的材料，用于战舰装备的11~12阶段的锻造</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙晶石宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片宝箱</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命丹宝箱</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2928,7 +2945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3224,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -3259,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -12465,13 +12482,13 @@
         <v>20405</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>79</v>
@@ -12500,13 +12517,13 @@
         <v>20406</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>79</v>
@@ -13239,8 +13256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13789,7 +13806,7 @@
         <v>20402</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -13810,7 +13827,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13826,7 +13843,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13842,7 +13859,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13853,12 +13870,12 @@
         <v>20406</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -13874,7 +13891,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\极致挂机项目\doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD887EF-D3A7-4F5B-9781-5B0151C0CE52}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295FBE31-BC31-47DF-9E51-D5B931A8A4B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="864">
   <si>
     <t>sheet名</t>
   </si>
@@ -4657,6 +4657,22 @@
       <t>su'xing</t>
     </rPh>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_chip</t>
+  </si>
+  <si>
+    <t>box_equip</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_wealth</t>
+  </si>
+  <si>
+    <t>box_random</t>
+  </si>
+  <si>
+    <t>box_lucky</t>
   </si>
 </sst>
 </file>
@@ -4939,7 +4955,15 @@
     <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5369,11 +5393,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F259" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F274" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K93" sqref="K93"/>
+      <selection pane="bottomRight" activeCell="F296" sqref="F296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14128,7 +14152,7 @@
         <v>718</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G250" s="4">
         <v>0</v>
@@ -14163,7 +14187,7 @@
         <v>719</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G251" s="4">
         <v>0</v>
@@ -14198,7 +14222,7 @@
         <v>720</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G252" s="4">
         <v>0</v>
@@ -14233,7 +14257,7 @@
         <v>721</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G253" s="4">
         <v>0</v>
@@ -14268,7 +14292,7 @@
         <v>722</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G254" s="4">
         <v>0</v>
@@ -14303,7 +14327,7 @@
         <v>723</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G255" s="4">
         <v>0</v>
@@ -14338,7 +14362,7 @@
         <v>382</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G256" s="4">
         <v>0</v>
@@ -14373,7 +14397,7 @@
         <v>384</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G257" s="4">
         <v>0</v>
@@ -14408,7 +14432,7 @@
         <v>386</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G258" s="4">
         <v>0</v>
@@ -14443,7 +14467,7 @@
         <v>388</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G259" s="4">
         <v>0</v>
@@ -14478,7 +14502,7 @@
         <v>390</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G260" s="4">
         <v>0</v>
@@ -14513,7 +14537,7 @@
         <v>392</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G261" s="4">
         <v>0</v>
@@ -14547,8 +14571,8 @@
       <c r="E262" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="F262" s="4" t="s">
-        <v>73</v>
+      <c r="F262" t="s">
+        <v>861</v>
       </c>
       <c r="G262" s="4">
         <v>0</v>
@@ -14582,8 +14606,8 @@
       <c r="E263" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="F263" s="4" t="s">
-        <v>73</v>
+      <c r="F263" t="s">
+        <v>861</v>
       </c>
       <c r="G263" s="4">
         <v>0</v>
@@ -14617,8 +14641,8 @@
       <c r="E264" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F264" s="4" t="s">
-        <v>73</v>
+      <c r="F264" t="s">
+        <v>861</v>
       </c>
       <c r="G264" s="4">
         <v>0</v>
@@ -14652,8 +14676,8 @@
       <c r="E265" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="F265" s="4" t="s">
-        <v>73</v>
+      <c r="F265" t="s">
+        <v>861</v>
       </c>
       <c r="G265" s="4">
         <v>0</v>
@@ -14687,8 +14711,8 @@
       <c r="E266" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F266" s="4" t="s">
-        <v>73</v>
+      <c r="F266" t="s">
+        <v>861</v>
       </c>
       <c r="G266" s="4">
         <v>0</v>
@@ -14722,8 +14746,8 @@
       <c r="E267" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="F267" s="4" t="s">
-        <v>73</v>
+      <c r="F267" t="s">
+        <v>861</v>
       </c>
       <c r="G267" s="4">
         <v>0</v>
@@ -14741,7 +14765,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>265</v>
       </c>
@@ -14758,7 +14782,7 @@
         <v>406</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>73</v>
+        <v>862</v>
       </c>
       <c r="G268" s="4">
         <v>0</v>
@@ -14776,7 +14800,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>266</v>
       </c>
@@ -14793,7 +14817,7 @@
         <v>408</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>73</v>
+        <v>862</v>
       </c>
       <c r="G269" s="4">
         <v>0</v>
@@ -14811,7 +14835,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>267</v>
       </c>
@@ -14828,7 +14852,7 @@
         <v>410</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>73</v>
+        <v>862</v>
       </c>
       <c r="G270" s="4">
         <v>0</v>
@@ -14846,7 +14870,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>268</v>
       </c>
@@ -14863,7 +14887,7 @@
         <v>412</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>73</v>
+        <v>862</v>
       </c>
       <c r="G271" s="4">
         <v>0</v>
@@ -14881,7 +14905,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>269</v>
       </c>
@@ -14898,7 +14922,7 @@
         <v>414</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>73</v>
+        <v>862</v>
       </c>
       <c r="G272" s="4">
         <v>0</v>
@@ -14916,7 +14940,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>270</v>
       </c>
@@ -14933,7 +14957,7 @@
         <v>724</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>73</v>
+        <v>862</v>
       </c>
       <c r="G273" s="4">
         <v>0</v>
@@ -14968,7 +14992,7 @@
         <v>416</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>73</v>
+        <v>863</v>
       </c>
       <c r="G274" s="4">
         <v>0</v>
@@ -15003,7 +15027,7 @@
         <v>725</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>73</v>
+        <v>863</v>
       </c>
       <c r="G275" s="4">
         <v>0</v>
@@ -15038,7 +15062,7 @@
         <v>466</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G276" s="4">
         <v>0</v>
@@ -15073,7 +15097,7 @@
         <v>468</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G277" s="4">
         <v>0</v>
@@ -15107,7 +15131,7 @@
       <c r="E278" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="F278" s="4" t="s">
+      <c r="F278" t="s">
         <v>73</v>
       </c>
       <c r="G278" s="4">
@@ -15142,7 +15166,7 @@
       <c r="E279" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F279" s="4" t="s">
+      <c r="F279" t="s">
         <v>73</v>
       </c>
       <c r="G279" s="4">
@@ -15177,7 +15201,7 @@
       <c r="E280" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="F280" s="4" t="s">
+      <c r="F280" t="s">
         <v>73</v>
       </c>
       <c r="G280" s="4">
@@ -15212,7 +15236,7 @@
       <c r="E281" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="F281" s="4" t="s">
+      <c r="F281" t="s">
         <v>73</v>
       </c>
       <c r="G281" s="4">
@@ -15248,7 +15272,7 @@
         <v>718</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G282" s="4">
         <v>0</v>
@@ -15283,7 +15307,7 @@
         <v>719</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G283" s="4">
         <v>0</v>
@@ -15318,7 +15342,7 @@
         <v>720</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G284" s="4">
         <v>0</v>
@@ -15353,7 +15377,7 @@
         <v>721</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G285" s="4">
         <v>0</v>
@@ -15388,7 +15412,7 @@
         <v>722</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G286" s="4">
         <v>0</v>
@@ -15423,7 +15447,7 @@
         <v>723</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="G287" s="4">
         <v>0</v>
@@ -15458,7 +15482,7 @@
         <v>382</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G288" s="4">
         <v>0</v>
@@ -15493,7 +15517,7 @@
         <v>384</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G289" s="4">
         <v>0</v>
@@ -15528,7 +15552,7 @@
         <v>386</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G290" s="4">
         <v>0</v>
@@ -15563,7 +15587,7 @@
         <v>388</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G291" s="4">
         <v>0</v>
@@ -15598,7 +15622,7 @@
         <v>390</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G292" s="4">
         <v>0</v>
@@ -15633,7 +15657,7 @@
         <v>392</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>73</v>
+        <v>860</v>
       </c>
       <c r="G293" s="4">
         <v>0</v>
@@ -15667,8 +15691,8 @@
       <c r="E294" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="F294" s="4" t="s">
-        <v>73</v>
+      <c r="F294" t="s">
+        <v>861</v>
       </c>
       <c r="G294" s="4">
         <v>0</v>
@@ -15702,8 +15726,8 @@
       <c r="E295" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="F295" s="4" t="s">
-        <v>73</v>
+      <c r="F295" t="s">
+        <v>861</v>
       </c>
       <c r="G295" s="4">
         <v>0</v>
@@ -15737,8 +15761,8 @@
       <c r="E296" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F296" s="4" t="s">
-        <v>73</v>
+      <c r="F296" t="s">
+        <v>861</v>
       </c>
       <c r="G296" s="4">
         <v>0</v>
@@ -15772,8 +15796,8 @@
       <c r="E297" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="F297" s="4" t="s">
-        <v>73</v>
+      <c r="F297" t="s">
+        <v>861</v>
       </c>
       <c r="G297" s="4">
         <v>0</v>
@@ -15807,8 +15831,8 @@
       <c r="E298" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F298" s="4" t="s">
-        <v>73</v>
+      <c r="F298" t="s">
+        <v>861</v>
       </c>
       <c r="G298" s="4">
         <v>0</v>
@@ -15842,8 +15866,8 @@
       <c r="E299" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="F299" s="4" t="s">
-        <v>73</v>
+      <c r="F299" t="s">
+        <v>861</v>
       </c>
       <c r="G299" s="4">
         <v>0</v>
@@ -15863,6 +15887,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="F250:F299">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -15873,7 +15902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7CB97-CFDA-4BF6-B2FC-5FB546C02B79}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1B3BB-0B66-42F6-8436-76BD27F1211E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5398,7 +5398,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5609,7 +5609,7 @@
         <v>52</v>
       </c>
       <c r="G6" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <v>3</v>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1B3BB-0B66-42F6-8436-76BD27F1211E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC43029-8C60-413F-B688-5D0BC5DF3E09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5395,10 +5395,10 @@
   <dimension ref="A1:K299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984C2498-7178-40F5-A0D0-29EB51E2FE79}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD25C79-FDC6-463E-AA00-9DC61DB3960D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5407,10 +5407,10 @@
   <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A300"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC94B039-E8C2-469A-9BC5-D421F5CE6D05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16755" windowHeight="12105" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -12,23 +18,24 @@
     <sheet name="宝箱" sheetId="42" r:id="rId3"/>
     <sheet name="宝箱固定掉落" sheetId="43" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -37,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="971">
   <si>
     <t>sheet名</t>
   </si>
@@ -2971,14 +2979,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2991,24 +2993,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3016,6 +3022,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3023,164 +3030,23 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3189,11 +3055,32 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3220,199 +3107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3423,7 +3124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3457,390 +3158,97 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3855,6 +3263,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4112,19 +3523,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -4135,7 +3546,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4158,7 +3569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -4179,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="44.25" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4200,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="27.75" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -4220,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="27.75" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -4241,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -4262,31 +3673,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="21.75" customHeight="1" spans="1:1">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8" ht="21.75" customHeight="1"/>
+    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="K103" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="5" ySplit="3" topLeftCell="K94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E123" sqref="E123"/>
+      <selection pane="bottomRight" activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
@@ -4299,7 +3708,7 @@
     <col min="11" max="11" width="78.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4334,7 +3743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4369,7 +3778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:11">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -4404,7 +3813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:11">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4439,7 +3848,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:11">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -4474,7 +3883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -4509,7 +3918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:11">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -4544,7 +3953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:11">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -4579,7 +3988,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:11">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -4614,7 +4023,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:11">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -4649,7 +4058,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:11">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -4685,7 +4094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:11">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -4720,7 +4129,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:11">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -4755,7 +4164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:11">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -4790,7 +4199,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:11">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -4825,7 +4234,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:11">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -4860,7 +4269,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:11">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -4895,7 +4304,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:11">
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -4930,7 +4339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:11">
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -4966,7 +4375,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:11">
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -5002,7 +4411,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:11">
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -5038,7 +4447,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:11">
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -5074,7 +4483,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:11">
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -5110,7 +4519,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:11">
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -5146,7 +4555,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:11">
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -5177,11 +4586,11 @@
       <c r="J25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:11">
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -5212,11 +4621,11 @@
       <c r="J26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:11">
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -5247,11 +4656,11 @@
       <c r="J27" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:11">
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -5282,11 +4691,11 @@
       <c r="J28" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:11">
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -5299,7 +4708,7 @@
       <c r="D29" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>140</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -5317,11 +4726,11 @@
       <c r="J29" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:11">
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -5352,11 +4761,11 @@
       <c r="J30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:11">
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -5366,7 +4775,7 @@
       <c r="C31" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>149</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -5387,11 +4796,11 @@
       <c r="J31" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:11">
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -5422,11 +4831,11 @@
       <c r="J32" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:11">
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -5457,11 +4866,11 @@
       <c r="J33" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:11">
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -5492,11 +4901,11 @@
       <c r="J34" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:11">
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -5527,11 +4936,11 @@
       <c r="J35" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:11">
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -5562,11 +4971,11 @@
       <c r="J36" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:11">
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -5597,11 +5006,11 @@
       <c r="J37" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:11">
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -5632,11 +5041,11 @@
       <c r="J38" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:11">
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -5646,7 +5055,7 @@
       <c r="C39" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>183</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -5667,11 +5076,11 @@
       <c r="J39" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:11">
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -5702,11 +5111,11 @@
       <c r="J40" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:11">
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -5737,11 +5146,11 @@
       <c r="J41" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:11">
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -5772,11 +5181,11 @@
       <c r="J42" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:11">
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -5807,11 +5216,11 @@
       <c r="J43" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:11">
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -5842,11 +5251,11 @@
       <c r="J44" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:11">
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -5877,11 +5286,11 @@
       <c r="J45" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:11">
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -5912,11 +5321,11 @@
       <c r="J46" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:11">
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -5926,7 +5335,7 @@
       <c r="C47" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>215</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -5947,11 +5356,11 @@
       <c r="J47" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:11">
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -5982,11 +5391,11 @@
       <c r="J48" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:11">
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -6017,11 +5426,11 @@
       <c r="J49" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:11">
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -6052,11 +5461,11 @@
       <c r="J50" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:11">
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -6087,11 +5496,11 @@
       <c r="J51" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:11">
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -6122,11 +5531,11 @@
       <c r="J52" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:11">
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -6157,11 +5566,11 @@
       <c r="J53" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="10" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:11">
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -6192,11 +5601,11 @@
       <c r="J54" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:11">
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -6206,7 +5615,7 @@
       <c r="C55" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>253</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -6227,11 +5636,11 @@
       <c r="J55" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="K55" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:11">
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -6262,11 +5671,11 @@
       <c r="J56" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:11">
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -6297,11 +5706,11 @@
       <c r="J57" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:11">
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -6332,11 +5741,11 @@
       <c r="J58" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:11">
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -6367,11 +5776,11 @@
       <c r="J59" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:11">
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -6402,11 +5811,11 @@
       <c r="J60" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:11">
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -6437,11 +5846,11 @@
       <c r="J61" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:11">
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -6472,11 +5881,11 @@
       <c r="J62" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:11">
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -6486,7 +5895,7 @@
       <c r="C63" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>287</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -6507,11 +5916,11 @@
       <c r="J63" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K63" s="12" t="s">
+      <c r="K63" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:11">
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>61</v>
       </c>
@@ -6542,11 +5951,11 @@
       <c r="J64" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:11">
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -6577,11 +5986,11 @@
       <c r="J65" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:11">
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -6612,11 +6021,11 @@
       <c r="J66" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:11">
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -6647,11 +6056,11 @@
       <c r="J67" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:11">
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -6682,11 +6091,11 @@
       <c r="J68" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="K68" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:11">
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>66</v>
       </c>
@@ -6717,11 +6126,11 @@
       <c r="J69" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K69" s="11" t="s">
+      <c r="K69" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:11">
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -6752,11 +6161,11 @@
       <c r="J70" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K70" s="11" t="s">
+      <c r="K70" s="10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:11">
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>68</v>
       </c>
@@ -6766,7 +6175,7 @@
       <c r="C71" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>319</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -6787,11 +6196,11 @@
       <c r="J71" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K71" s="12" t="s">
+      <c r="K71" s="11" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:11">
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>69</v>
       </c>
@@ -6822,11 +6231,11 @@
       <c r="J72" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K72" s="11" t="s">
+      <c r="K72" s="10" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:11">
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>70</v>
       </c>
@@ -6857,11 +6266,11 @@
       <c r="J73" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K73" s="11" t="s">
+      <c r="K73" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="1:11">
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>71</v>
       </c>
@@ -6892,11 +6301,11 @@
       <c r="J74" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K74" s="11" t="s">
+      <c r="K74" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:11">
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>72</v>
       </c>
@@ -6927,11 +6336,11 @@
       <c r="J75" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K75" s="11" t="s">
+      <c r="K75" s="10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="1:11">
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>73</v>
       </c>
@@ -6962,11 +6371,11 @@
       <c r="J76" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K76" s="11" t="s">
+      <c r="K76" s="10" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:11">
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>74</v>
       </c>
@@ -6997,11 +6406,11 @@
       <c r="J77" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K77" s="11" t="s">
+      <c r="K77" s="10" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:11">
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>75</v>
       </c>
@@ -7032,11 +6441,11 @@
       <c r="J78" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K78" s="11" t="s">
+      <c r="K78" s="10" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:11">
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>76</v>
       </c>
@@ -7046,7 +6455,7 @@
       <c r="C79" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>357</v>
       </c>
       <c r="E79" s="4" t="s">
@@ -7067,11 +6476,11 @@
       <c r="J79" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K79" s="12" t="s">
+      <c r="K79" s="11" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:11">
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>77</v>
       </c>
@@ -7102,11 +6511,11 @@
       <c r="J80" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="K80" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:11">
+    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>78</v>
       </c>
@@ -7137,11 +6546,11 @@
       <c r="J81" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K81" s="11" t="s">
+      <c r="K81" s="10" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:11">
+    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>79</v>
       </c>
@@ -7172,11 +6581,11 @@
       <c r="J82" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K82" s="11" t="s">
+      <c r="K82" s="10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:11">
+    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>80</v>
       </c>
@@ -7207,11 +6616,11 @@
       <c r="J83" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K83" s="11" t="s">
+      <c r="K83" s="10" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:11">
+    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>81</v>
       </c>
@@ -7242,11 +6651,11 @@
       <c r="J84" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K84" s="11" t="s">
+      <c r="K84" s="10" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:11">
+    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>82</v>
       </c>
@@ -7277,11 +6686,11 @@
       <c r="J85" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K85" s="11" t="s">
+      <c r="K85" s="10" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:11">
+    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>83</v>
       </c>
@@ -7312,11 +6721,11 @@
       <c r="J86" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K86" s="11" t="s">
+      <c r="K86" s="10" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:11">
+    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>84</v>
       </c>
@@ -7326,7 +6735,7 @@
       <c r="C87" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="9" t="s">
         <v>391</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -7347,11 +6756,11 @@
       <c r="J87" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K87" s="12" t="s">
+      <c r="K87" s="11" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:11">
+    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>85</v>
       </c>
@@ -7382,11 +6791,11 @@
       <c r="J88" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K88" s="11" t="s">
+      <c r="K88" s="10" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:11">
+    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>86</v>
       </c>
@@ -7417,11 +6826,11 @@
       <c r="J89" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K89" s="11" t="s">
+      <c r="K89" s="10" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:11">
+    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>87</v>
       </c>
@@ -7452,11 +6861,11 @@
       <c r="J90" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K90" s="11" t="s">
+      <c r="K90" s="10" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:11">
+    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>88</v>
       </c>
@@ -7487,11 +6896,11 @@
       <c r="J91" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="K91" s="10" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:11">
+    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>89</v>
       </c>
@@ -7522,11 +6931,11 @@
       <c r="J92" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K92" s="11" t="s">
+      <c r="K92" s="10" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:11">
+    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>90</v>
       </c>
@@ -7557,11 +6966,11 @@
       <c r="J93" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K93" s="11" t="s">
+      <c r="K93" s="10" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:11">
+    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>91</v>
       </c>
@@ -7592,11 +7001,11 @@
       <c r="J94" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K94" s="11" t="s">
+      <c r="K94" s="10" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:11">
+    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>92</v>
       </c>
@@ -7606,7 +7015,7 @@
       <c r="C95" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="9" t="s">
         <v>423</v>
       </c>
       <c r="E95" s="4" t="s">
@@ -7627,11 +7036,11 @@
       <c r="J95" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K95" s="12" t="s">
+      <c r="K95" s="11" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:11">
+    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>93</v>
       </c>
@@ -7662,11 +7071,11 @@
       <c r="J96" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K96" s="11" t="s">
+      <c r="K96" s="10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:11">
+    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>94</v>
       </c>
@@ -7697,11 +7106,11 @@
       <c r="J97" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K97" s="11" t="s">
+      <c r="K97" s="10" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:11">
+    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>95</v>
       </c>
@@ -7732,11 +7141,11 @@
       <c r="J98" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K98" s="11" t="s">
+      <c r="K98" s="10" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:11">
+    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>96</v>
       </c>
@@ -7767,11 +7176,11 @@
       <c r="J99" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K99" s="11" t="s">
+      <c r="K99" s="10" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:11">
+    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>97</v>
       </c>
@@ -7802,11 +7211,11 @@
       <c r="J100" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K100" s="11" t="s">
+      <c r="K100" s="10" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:11">
+    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>98</v>
       </c>
@@ -7837,11 +7246,11 @@
       <c r="J101" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K101" s="11" t="s">
+      <c r="K101" s="10" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:11">
+    <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>99</v>
       </c>
@@ -7872,11 +7281,11 @@
       <c r="J102" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K102" s="11" t="s">
+      <c r="K102" s="10" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:11">
+    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>100</v>
       </c>
@@ -7886,7 +7295,7 @@
       <c r="C103" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="9" t="s">
         <v>455</v>
       </c>
       <c r="E103" s="4" t="s">
@@ -7907,11 +7316,11 @@
       <c r="J103" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K103" s="12" t="s">
+      <c r="K103" s="11" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:11">
+    <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>101</v>
       </c>
@@ -7942,11 +7351,11 @@
       <c r="J104" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K104" s="11" t="s">
+      <c r="K104" s="10" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:11">
+    <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>102</v>
       </c>
@@ -7977,11 +7386,11 @@
       <c r="J105" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K105" s="11" t="s">
+      <c r="K105" s="10" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:11">
+    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>103</v>
       </c>
@@ -8012,11 +7421,11 @@
       <c r="J106" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K106" s="11" t="s">
+      <c r="K106" s="10" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:11">
+    <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>104</v>
       </c>
@@ -8047,11 +7456,11 @@
       <c r="J107" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K107" s="11" t="s">
+      <c r="K107" s="10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:11">
+    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>105</v>
       </c>
@@ -8082,11 +7491,11 @@
       <c r="J108" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K108" s="11" t="s">
+      <c r="K108" s="10" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:11">
+    <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>106</v>
       </c>
@@ -8117,11 +7526,11 @@
       <c r="J109" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K109" s="11" t="s">
+      <c r="K109" s="10" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:11">
+    <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>107</v>
       </c>
@@ -8152,11 +7561,11 @@
       <c r="J110" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K110" s="11" t="s">
+      <c r="K110" s="10" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:11">
+    <row r="111" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>108</v>
       </c>
@@ -8166,7 +7575,7 @@
       <c r="C111" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="9" t="s">
         <v>493</v>
       </c>
       <c r="E111" s="4" t="s">
@@ -8187,11 +7596,11 @@
       <c r="J111" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K111" s="12" t="s">
+      <c r="K111" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:11">
+    <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>109</v>
       </c>
@@ -8222,11 +7631,11 @@
       <c r="J112" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K112" s="11" t="s">
+      <c r="K112" s="10" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:11">
+    <row r="113" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>110</v>
       </c>
@@ -8257,11 +7666,11 @@
       <c r="J113" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K113" s="11" t="s">
+      <c r="K113" s="10" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:11">
+    <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>111</v>
       </c>
@@ -8292,11 +7701,11 @@
       <c r="J114" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K114" s="11" t="s">
+      <c r="K114" s="10" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:11">
+    <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>112</v>
       </c>
@@ -8327,11 +7736,11 @@
       <c r="J115" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K115" s="11" t="s">
+      <c r="K115" s="10" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:11">
+    <row r="116" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>113</v>
       </c>
@@ -8362,11 +7771,11 @@
       <c r="J116" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K116" s="11" t="s">
+      <c r="K116" s="10" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:11">
+    <row r="117" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>114</v>
       </c>
@@ -8397,11 +7806,11 @@
       <c r="J117" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K117" s="11" t="s">
+      <c r="K117" s="10" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:11">
+    <row r="118" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>115</v>
       </c>
@@ -8432,11 +7841,11 @@
       <c r="J118" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K118" s="11" t="s">
+      <c r="K118" s="10" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="1:11">
+    <row r="119" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>116</v>
       </c>
@@ -8446,7 +7855,7 @@
       <c r="C119" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="9" t="s">
         <v>527</v>
       </c>
       <c r="E119" s="4" t="s">
@@ -8467,11 +7876,11 @@
       <c r="J119" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K119" s="12" t="s">
+      <c r="K119" s="11" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:11">
+    <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>117</v>
       </c>
@@ -8502,11 +7911,11 @@
       <c r="J120" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K120" s="11" t="s">
+      <c r="K120" s="10" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:11">
+    <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>118</v>
       </c>
@@ -8541,7 +7950,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:11">
+    <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>119</v>
       </c>
@@ -8576,7 +7985,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:11">
+    <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>120</v>
       </c>
@@ -8611,7 +8020,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:11">
+    <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>121</v>
       </c>
@@ -8646,7 +8055,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:11">
+    <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>122</v>
       </c>
@@ -8681,7 +8090,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:11">
+    <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>123</v>
       </c>
@@ -8691,10 +8100,10 @@
       <c r="C126" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="8" t="s">
         <v>549</v>
       </c>
       <c r="F126" s="4" t="s">
@@ -8716,7 +8125,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:11">
+    <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>124</v>
       </c>
@@ -8726,10 +8135,10 @@
       <c r="C127" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="8" t="s">
         <v>552</v>
       </c>
       <c r="F127" s="4" t="s">
@@ -8751,7 +8160,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:11">
+    <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>125</v>
       </c>
@@ -8761,10 +8170,10 @@
       <c r="C128" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="8" t="s">
         <v>555</v>
       </c>
       <c r="F128" s="4" t="s">
@@ -8786,7 +8195,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:11">
+    <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>126</v>
       </c>
@@ -8796,10 +8205,10 @@
       <c r="C129" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="8" t="s">
         <v>558</v>
       </c>
       <c r="F129" s="4" t="s">
@@ -8821,7 +8230,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:11">
+    <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>127</v>
       </c>
@@ -8856,7 +8265,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:11">
+    <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>128</v>
       </c>
@@ -8891,7 +8300,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:11">
+    <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>129</v>
       </c>
@@ -8926,7 +8335,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:11">
+    <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>130</v>
       </c>
@@ -8961,7 +8370,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:11">
+    <row r="134" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>131</v>
       </c>
@@ -8996,7 +8405,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:11">
+    <row r="135" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>132</v>
       </c>
@@ -9031,7 +8440,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:11">
+    <row r="136" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>133</v>
       </c>
@@ -9066,7 +8475,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:11">
+    <row r="137" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>134</v>
       </c>
@@ -9101,7 +8510,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:11">
+    <row r="138" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>135</v>
       </c>
@@ -9136,7 +8545,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:11">
+    <row r="139" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>136</v>
       </c>
@@ -9171,7 +8580,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:11">
+    <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>137</v>
       </c>
@@ -9206,7 +8615,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:11">
+    <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>138</v>
       </c>
@@ -9241,7 +8650,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:11">
+    <row r="142" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>139</v>
       </c>
@@ -9276,7 +8685,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:11">
+    <row r="143" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>140</v>
       </c>
@@ -9311,7 +8720,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:11">
+    <row r="144" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>141</v>
       </c>
@@ -9346,7 +8755,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:11">
+    <row r="145" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>142</v>
       </c>
@@ -9381,7 +8790,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:11">
+    <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>143</v>
       </c>
@@ -9416,7 +8825,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:11">
+    <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>144</v>
       </c>
@@ -9451,7 +8860,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:11">
+    <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>145</v>
       </c>
@@ -9486,7 +8895,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:11">
+    <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>146</v>
       </c>
@@ -9521,7 +8930,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:11">
+    <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>147</v>
       </c>
@@ -9556,7 +8965,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:11">
+    <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>148</v>
       </c>
@@ -9591,7 +9000,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:11">
+    <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>149</v>
       </c>
@@ -9626,7 +9035,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:11">
+    <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>150</v>
       </c>
@@ -9661,7 +9070,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:11">
+    <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>151</v>
       </c>
@@ -9696,7 +9105,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:11">
+    <row r="155" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>152</v>
       </c>
@@ -9731,7 +9140,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:11">
+    <row r="156" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>153</v>
       </c>
@@ -9766,7 +9175,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:11">
+    <row r="157" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>154</v>
       </c>
@@ -9801,7 +9210,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:11">
+    <row r="158" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>155</v>
       </c>
@@ -9836,7 +9245,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:11">
+    <row r="159" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>156</v>
       </c>
@@ -9871,7 +9280,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:11">
+    <row r="160" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>157</v>
       </c>
@@ -9906,7 +9315,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:11">
+    <row r="161" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>158</v>
       </c>
@@ -9941,7 +9350,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:11">
+    <row r="162" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>159</v>
       </c>
@@ -9976,7 +9385,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:11">
+    <row r="163" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>160</v>
       </c>
@@ -10011,7 +9420,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:11">
+    <row r="164" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>161</v>
       </c>
@@ -10046,7 +9455,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:11">
+    <row r="165" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>162</v>
       </c>
@@ -10081,7 +9490,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:11">
+    <row r="166" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>163</v>
       </c>
@@ -10116,7 +9525,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:11">
+    <row r="167" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>164</v>
       </c>
@@ -10151,7 +9560,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:11">
+    <row r="168" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>165</v>
       </c>
@@ -10186,7 +9595,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:11">
+    <row r="169" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>166</v>
       </c>
@@ -10221,7 +9630,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:11">
+    <row r="170" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>167</v>
       </c>
@@ -10256,7 +9665,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:11">
+    <row r="171" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>168</v>
       </c>
@@ -10291,7 +9700,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:11">
+    <row r="172" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>169</v>
       </c>
@@ -10326,7 +9735,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:11">
+    <row r="173" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>170</v>
       </c>
@@ -10361,7 +9770,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:11">
+    <row r="174" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>171</v>
       </c>
@@ -10396,7 +9805,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:11">
+    <row r="175" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>172</v>
       </c>
@@ -10431,7 +9840,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:11">
+    <row r="176" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>173</v>
       </c>
@@ -10466,7 +9875,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:11">
+    <row r="177" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>174</v>
       </c>
@@ -10501,7 +9910,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:11">
+    <row r="178" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>175</v>
       </c>
@@ -10536,7 +9945,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:11">
+    <row r="179" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>176</v>
       </c>
@@ -10571,7 +9980,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="180" ht="16.5" spans="1:11">
+    <row r="180" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>177</v>
       </c>
@@ -10606,7 +10015,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="181" ht="16.5" spans="1:11">
+    <row r="181" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>178</v>
       </c>
@@ -10641,7 +10050,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="182" ht="16.5" spans="1:11">
+    <row r="182" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>179</v>
       </c>
@@ -10676,7 +10085,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:11">
+    <row r="183" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>180</v>
       </c>
@@ -10711,7 +10120,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:11">
+    <row r="184" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>181</v>
       </c>
@@ -10746,7 +10155,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:11">
+    <row r="185" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>182</v>
       </c>
@@ -10781,7 +10190,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:11">
+    <row r="186" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>183</v>
       </c>
@@ -10816,7 +10225,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:11">
+    <row r="187" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>184</v>
       </c>
@@ -10851,7 +10260,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:11">
+    <row r="188" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>185</v>
       </c>
@@ -10886,7 +10295,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:11">
+    <row r="189" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>186</v>
       </c>
@@ -10921,7 +10330,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:11">
+    <row r="190" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>187</v>
       </c>
@@ -10956,7 +10365,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:11">
+    <row r="191" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>188</v>
       </c>
@@ -10991,7 +10400,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:11">
+    <row r="192" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>189</v>
       </c>
@@ -11026,7 +10435,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:11">
+    <row r="193" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>190</v>
       </c>
@@ -11061,7 +10470,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:11">
+    <row r="194" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>191</v>
       </c>
@@ -11096,7 +10505,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:11">
+    <row r="195" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>192</v>
       </c>
@@ -11131,7 +10540,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:11">
+    <row r="196" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>193</v>
       </c>
@@ -11166,7 +10575,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:11">
+    <row r="197" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>194</v>
       </c>
@@ -11201,7 +10610,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:11">
+    <row r="198" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>195</v>
       </c>
@@ -11236,7 +10645,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:11">
+    <row r="199" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>196</v>
       </c>
@@ -11271,7 +10680,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:11">
+    <row r="200" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>197</v>
       </c>
@@ -11306,7 +10715,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:11">
+    <row r="201" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>198</v>
       </c>
@@ -11341,7 +10750,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:11">
+    <row r="202" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>199</v>
       </c>
@@ -11376,7 +10785,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:11">
+    <row r="203" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>200</v>
       </c>
@@ -11411,7 +10820,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:11">
+    <row r="204" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>201</v>
       </c>
@@ -11446,7 +10855,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:11">
+    <row r="205" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>202</v>
       </c>
@@ -11481,7 +10890,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:11">
+    <row r="206" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>203</v>
       </c>
@@ -11516,7 +10925,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:11">
+    <row r="207" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>204</v>
       </c>
@@ -11551,7 +10960,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:11">
+    <row r="208" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>205</v>
       </c>
@@ -11586,7 +10995,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:11">
+    <row r="209" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>206</v>
       </c>
@@ -11621,7 +11030,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:11">
+    <row r="210" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>207</v>
       </c>
@@ -11656,7 +11065,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:11">
+    <row r="211" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>208</v>
       </c>
@@ -11691,7 +11100,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:11">
+    <row r="212" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>209</v>
       </c>
@@ -11726,7 +11135,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:11">
+    <row r="213" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>210</v>
       </c>
@@ -11761,7 +11170,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:11">
+    <row r="214" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>211</v>
       </c>
@@ -11796,7 +11205,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:11">
+    <row r="215" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>212</v>
       </c>
@@ -11831,7 +11240,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:11">
+    <row r="216" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>213</v>
       </c>
@@ -11866,7 +11275,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:11">
+    <row r="217" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>214</v>
       </c>
@@ -11901,7 +11310,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:11">
+    <row r="218" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>215</v>
       </c>
@@ -11936,7 +11345,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:11">
+    <row r="219" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>216</v>
       </c>
@@ -11971,7 +11380,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:11">
+    <row r="220" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>217</v>
       </c>
@@ -12006,7 +11415,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:11">
+    <row r="221" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>218</v>
       </c>
@@ -12041,7 +11450,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:11">
+    <row r="222" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>219</v>
       </c>
@@ -12076,7 +11485,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:11">
+    <row r="223" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>220</v>
       </c>
@@ -12111,7 +11520,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:11">
+    <row r="224" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>221</v>
       </c>
@@ -12146,7 +11555,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:11">
+    <row r="225" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>222</v>
       </c>
@@ -12181,7 +11590,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:11">
+    <row r="226" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>223</v>
       </c>
@@ -12216,7 +11625,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:11">
+    <row r="227" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>224</v>
       </c>
@@ -12251,7 +11660,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:11">
+    <row r="228" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>225</v>
       </c>
@@ -12286,7 +11695,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:11">
+    <row r="229" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>226</v>
       </c>
@@ -12321,7 +11730,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:11">
+    <row r="230" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>227</v>
       </c>
@@ -12356,7 +11765,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:11">
+    <row r="231" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>228</v>
       </c>
@@ -12391,7 +11800,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:11">
+    <row r="232" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>229</v>
       </c>
@@ -12426,7 +11835,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:11">
+    <row r="233" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>230</v>
       </c>
@@ -12461,7 +11870,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:11">
+    <row r="234" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>231</v>
       </c>
@@ -12496,7 +11905,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:11">
+    <row r="235" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>232</v>
       </c>
@@ -12531,7 +11940,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:11">
+    <row r="236" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>233</v>
       </c>
@@ -12566,7 +11975,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:11">
+    <row r="237" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>234</v>
       </c>
@@ -12601,7 +12010,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:11">
+    <row r="238" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>235</v>
       </c>
@@ -12636,7 +12045,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:11">
+    <row r="239" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>236</v>
       </c>
@@ -12671,7 +12080,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:11">
+    <row r="240" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>237</v>
       </c>
@@ -12706,7 +12115,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:11">
+    <row r="241" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>238</v>
       </c>
@@ -12741,7 +12150,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:11">
+    <row r="242" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>239</v>
       </c>
@@ -12776,7 +12185,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:11">
+    <row r="243" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>240</v>
       </c>
@@ -12811,7 +12220,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:11">
+    <row r="244" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>241</v>
       </c>
@@ -12846,7 +12255,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:11">
+    <row r="245" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>242</v>
       </c>
@@ -12881,7 +12290,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:11">
+    <row r="246" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>243</v>
       </c>
@@ -12916,7 +12325,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:11">
+    <row r="247" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>244</v>
       </c>
@@ -12951,7 +12360,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:11">
+    <row r="248" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>245</v>
       </c>
@@ -12986,7 +12395,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:11">
+    <row r="249" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>246</v>
       </c>
@@ -13021,7 +12430,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:11">
+    <row r="250" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>247</v>
       </c>
@@ -13056,7 +12465,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:11">
+    <row r="251" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>248</v>
       </c>
@@ -13091,7 +12500,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:11">
+    <row r="252" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>249</v>
       </c>
@@ -13126,7 +12535,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:11">
+    <row r="253" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>250</v>
       </c>
@@ -13161,7 +12570,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:11">
+    <row r="254" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>251</v>
       </c>
@@ -13196,7 +12605,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:11">
+    <row r="255" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>252</v>
       </c>
@@ -13231,7 +12640,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="256" ht="16.5" spans="1:11">
+    <row r="256" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>253</v>
       </c>
@@ -13266,7 +12675,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="257" ht="16.5" spans="1:11">
+    <row r="257" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>254</v>
       </c>
@@ -13301,7 +12710,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="258" ht="16.5" spans="1:11">
+    <row r="258" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>255</v>
       </c>
@@ -13336,7 +12745,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="259" ht="16.5" spans="1:11">
+    <row r="259" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>256</v>
       </c>
@@ -13371,7 +12780,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="260" ht="16.5" spans="1:11">
+    <row r="260" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>257</v>
       </c>
@@ -13406,7 +12815,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:11">
+    <row r="261" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>258</v>
       </c>
@@ -13441,7 +12850,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:11">
+    <row r="262" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>259</v>
       </c>
@@ -13476,7 +12885,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="263" ht="16.5" spans="1:11">
+    <row r="263" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>260</v>
       </c>
@@ -13511,7 +12920,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="264" ht="16.5" spans="1:11">
+    <row r="264" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>261</v>
       </c>
@@ -13546,7 +12955,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="265" ht="16.5" spans="1:11">
+    <row r="265" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <v>262</v>
       </c>
@@ -13581,7 +12990,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="266" ht="16.5" spans="1:11">
+    <row r="266" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <v>263</v>
       </c>
@@ -13616,7 +13025,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="267" ht="16.5" spans="1:11">
+    <row r="267" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <v>264</v>
       </c>
@@ -13651,7 +13060,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="268" ht="16.5" spans="1:11">
+    <row r="268" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>265</v>
       </c>
@@ -13686,7 +13095,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="269" ht="16.5" spans="1:11">
+    <row r="269" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>266</v>
       </c>
@@ -13721,7 +13130,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="270" ht="16.5" spans="1:11">
+    <row r="270" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>267</v>
       </c>
@@ -13756,7 +13165,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="271" ht="16.5" spans="1:11">
+    <row r="271" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>268</v>
       </c>
@@ -13791,7 +13200,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="272" ht="16.5" spans="1:11">
+    <row r="272" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>269</v>
       </c>
@@ -13826,7 +13235,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="273" ht="16.5" spans="1:11">
+    <row r="273" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>270</v>
       </c>
@@ -13861,7 +13270,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="274" ht="16.5" spans="1:11">
+    <row r="274" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>271</v>
       </c>
@@ -13896,7 +13305,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="275" ht="16.5" spans="1:11">
+    <row r="275" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>272</v>
       </c>
@@ -13931,7 +13340,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="276" ht="16.5" spans="1:11">
+    <row r="276" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <v>273</v>
       </c>
@@ -13966,7 +13375,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="277" ht="16.5" spans="1:11">
+    <row r="277" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>274</v>
       </c>
@@ -14001,7 +13410,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:11">
+    <row r="278" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>275</v>
       </c>
@@ -14036,7 +13445,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:11">
+    <row r="279" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>276</v>
       </c>
@@ -14071,7 +13480,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:11">
+    <row r="280" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <v>277</v>
       </c>
@@ -14106,7 +13515,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:11">
+    <row r="281" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <v>278</v>
       </c>
@@ -14141,7 +13550,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:11">
+    <row r="282" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <v>279</v>
       </c>
@@ -14176,7 +13585,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:11">
+    <row r="283" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <v>280</v>
       </c>
@@ -14186,7 +13595,7 @@
       <c r="C283" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="D283" s="13" t="s">
+      <c r="D283" s="12" t="s">
         <v>905</v>
       </c>
       <c r="E283" s="5" t="s">
@@ -14211,7 +13620,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="284" ht="16.5" spans="1:11">
+    <row r="284" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <v>281</v>
       </c>
@@ -14221,7 +13630,7 @@
       <c r="C284" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="D284" s="13" t="s">
+      <c r="D284" s="12" t="s">
         <v>907</v>
       </c>
       <c r="E284" s="5" t="s">
@@ -14246,7 +13655,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="285" ht="16.5" spans="1:11">
+    <row r="285" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>282</v>
       </c>
@@ -14256,7 +13665,7 @@
       <c r="C285" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="D285" s="13" t="s">
+      <c r="D285" s="12" t="s">
         <v>909</v>
       </c>
       <c r="E285" s="5" t="s">
@@ -14281,7 +13690,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="286" ht="16.5" spans="1:11">
+    <row r="286" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <v>283</v>
       </c>
@@ -14291,7 +13700,7 @@
       <c r="C286" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="D286" s="13" t="s">
+      <c r="D286" s="12" t="s">
         <v>911</v>
       </c>
       <c r="E286" s="5" t="s">
@@ -14316,7 +13725,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="287" ht="16.5" spans="1:11">
+    <row r="287" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <v>284</v>
       </c>
@@ -14326,7 +13735,7 @@
       <c r="C287" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="D287" s="13" t="s">
+      <c r="D287" s="12" t="s">
         <v>913</v>
       </c>
       <c r="E287" s="5" t="s">
@@ -14351,7 +13760,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="288" ht="16.5" spans="1:11">
+    <row r="288" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <v>285</v>
       </c>
@@ -14361,7 +13770,7 @@
       <c r="C288" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="D288" s="13" t="s">
+      <c r="D288" s="12" t="s">
         <v>915</v>
       </c>
       <c r="E288" s="5" t="s">
@@ -14386,7 +13795,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:11">
+    <row r="289" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <v>286</v>
       </c>
@@ -14396,7 +13805,7 @@
       <c r="C289" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="D289" s="13" t="s">
+      <c r="D289" s="12" t="s">
         <v>917</v>
       </c>
       <c r="E289" s="5" t="s">
@@ -14421,7 +13830,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="290" ht="16.5" spans="1:11">
+    <row r="290" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <v>287</v>
       </c>
@@ -14431,7 +13840,7 @@
       <c r="C290" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="D290" s="13" t="s">
+      <c r="D290" s="12" t="s">
         <v>919</v>
       </c>
       <c r="E290" s="5" t="s">
@@ -14456,7 +13865,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="291" ht="16.5" spans="1:11">
+    <row r="291" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>288</v>
       </c>
@@ -14466,7 +13875,7 @@
       <c r="C291" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="D291" s="13" t="s">
+      <c r="D291" s="12" t="s">
         <v>921</v>
       </c>
       <c r="E291" s="5" t="s">
@@ -14491,7 +13900,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:11">
+    <row r="292" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <v>289</v>
       </c>
@@ -14501,7 +13910,7 @@
       <c r="C292" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D292" s="13" t="s">
+      <c r="D292" s="12" t="s">
         <v>923</v>
       </c>
       <c r="E292" s="5" t="s">
@@ -14526,7 +13935,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:11">
+    <row r="293" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
         <v>290</v>
       </c>
@@ -14536,7 +13945,7 @@
       <c r="C293" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="D293" s="13" t="s">
+      <c r="D293" s="12" t="s">
         <v>925</v>
       </c>
       <c r="E293" s="5" t="s">
@@ -14561,7 +13970,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:11">
+    <row r="294" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
         <v>291</v>
       </c>
@@ -14571,7 +13980,7 @@
       <c r="C294" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="D294" s="13" t="s">
+      <c r="D294" s="12" t="s">
         <v>927</v>
       </c>
       <c r="E294" s="5" t="s">
@@ -14596,7 +14005,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="295" ht="15" customHeight="1" spans="1:11">
+    <row r="295" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
         <v>292</v>
       </c>
@@ -14606,7 +14015,7 @@
       <c r="C295" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="D295" s="13" t="s">
+      <c r="D295" s="12" t="s">
         <v>929</v>
       </c>
       <c r="E295" s="5" t="s">
@@ -14631,7 +14040,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="296" ht="15" customHeight="1" spans="1:11">
+    <row r="296" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <v>293</v>
       </c>
@@ -14641,7 +14050,7 @@
       <c r="C296" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="D296" s="13" t="s">
+      <c r="D296" s="12" t="s">
         <v>931</v>
       </c>
       <c r="E296" s="5" t="s">
@@ -14666,7 +14075,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="297" ht="15" customHeight="1" spans="1:11">
+    <row r="297" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <v>294</v>
       </c>
@@ -14676,7 +14085,7 @@
       <c r="C297" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D297" s="13" t="s">
+      <c r="D297" s="12" t="s">
         <v>933</v>
       </c>
       <c r="E297" s="5" t="s">
@@ -14701,7 +14110,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="298" ht="15" customHeight="1" spans="1:11">
+    <row r="298" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
         <v>295</v>
       </c>
@@ -14711,7 +14120,7 @@
       <c r="C298" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="D298" s="13" t="s">
+      <c r="D298" s="12" t="s">
         <v>935</v>
       </c>
       <c r="E298" s="5" t="s">
@@ -14736,7 +14145,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="299" ht="15" customHeight="1" spans="1:11">
+    <row r="299" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
         <v>296</v>
       </c>
@@ -14746,7 +14155,7 @@
       <c r="C299" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="D299" s="13" t="s">
+      <c r="D299" s="12" t="s">
         <v>937</v>
       </c>
       <c r="E299" s="5" t="s">
@@ -14771,7 +14180,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="300" ht="15" customHeight="1" spans="1:11">
+    <row r="300" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <v>297</v>
       </c>
@@ -14781,7 +14190,7 @@
       <c r="C300" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="D300" s="13" t="s">
+      <c r="D300" s="12" t="s">
         <v>939</v>
       </c>
       <c r="E300" s="5" t="s">
@@ -14807,35 +14216,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="F251:F300">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -14855,7 +14263,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -14875,7 +14283,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:6">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -14895,7 +14303,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -14911,7 +14319,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -14927,7 +14335,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -14943,7 +14351,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -14959,7 +14367,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -14975,7 +14383,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -14991,7 +14399,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -15003,11 +14411,11 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:6">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -15019,11 +14427,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:6">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -15035,11 +14443,11 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -15051,11 +14459,11 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:6">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -15067,11 +14475,11 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:6">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -15083,11 +14491,11 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:6">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -15099,11 +14507,11 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>126</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:6">
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -15115,11 +14523,11 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>127</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:6">
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -15131,11 +14539,11 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>128</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:6">
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -15147,11 +14555,11 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>129</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:6">
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -15163,11 +14571,11 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>130</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:6">
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -15179,11 +14587,11 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>131</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:6">
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -15199,7 +14607,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:6">
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -15215,7 +14623,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:6">
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -15231,7 +14639,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:6">
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -15247,7 +14655,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:6">
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -15263,7 +14671,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:6">
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -15279,7 +14687,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:6">
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -15295,7 +14703,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:6">
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -15311,7 +14719,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:6">
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -15327,7 +14735,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:6">
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -15343,7 +14751,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:6">
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -15359,7 +14767,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:6">
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -15375,7 +14783,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:6">
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -15391,7 +14799,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:6">
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -15407,7 +14815,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:6">
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -15423,7 +14831,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:6">
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -15439,7 +14847,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:6">
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -15455,7 +14863,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:6">
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -15471,7 +14879,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:6">
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -15487,7 +14895,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:6">
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -15503,7 +14911,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:6">
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -15515,11 +14923,11 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:6">
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -15531,11 +14939,11 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="14" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:6">
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -15547,11 +14955,11 @@
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="14" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:6">
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -15563,11 +14971,11 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="14" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:6">
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -15579,11 +14987,11 @@
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:6">
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -15595,11 +15003,11 @@
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:6">
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -15611,11 +15019,11 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="8">
+      <c r="F48" s="7">
         <v>126</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:6">
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -15627,11 +15035,11 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="8">
+      <c r="F49" s="7">
         <v>127</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:6">
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -15643,11 +15051,11 @@
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="8">
+      <c r="F50" s="7">
         <v>128</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:6">
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -15659,11 +15067,11 @@
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="8">
+      <c r="F51" s="7">
         <v>129</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:6">
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -15675,11 +15083,11 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="8">
+      <c r="F52" s="7">
         <v>130</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:6">
+    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -15691,33 +15099,32 @@
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="8">
+      <c r="F53" s="7">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15737,7 +15144,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -15757,7 +15164,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:6">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -15777,7 +15184,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -15797,7 +15204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -15817,7 +15224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -15838,7 +15245,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC94B039-E8C2-469A-9BC5-D421F5CE6D05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16755" windowHeight="12105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -18,24 +12,23 @@
     <sheet name="宝箱" sheetId="42" r:id="rId3"/>
     <sheet name="宝箱固定掉落" sheetId="43" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -44,7 +37,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -61,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971">
   <si>
     <t>sheet名</t>
   </si>
@@ -2979,8 +2971,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2993,28 +2991,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3022,7 +3016,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3030,23 +3023,164 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3055,32 +3189,11 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3107,13 +3220,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3124,7 +3423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3158,97 +3457,390 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="55">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+  <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="Grid" xfId="33"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
+    <cellStyle name="纵向标题" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="大标题" xfId="48"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="Normal" xfId="55"/>
+    <cellStyle name="常规 2" xfId="56"/>
+    <cellStyle name="超链接 2" xfId="57"/>
+    <cellStyle name="文本" xfId="58"/>
+    <cellStyle name="无效" xfId="59"/>
+    <cellStyle name="中文标题" xfId="60"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3263,9 +3855,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3523,19 +4112,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -3546,7 +4135,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3569,7 +4158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="47.25" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3590,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="44.25" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3611,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="27.75" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3631,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="27.75" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -3652,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="27" customHeight="1" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -3673,29 +4262,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" ht="21.75" customHeight="1" spans="1:1">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" ht="21.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="K94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="K103" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K100" sqref="K100"/>
+      <selection pane="bottomRight" activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
@@ -3708,7 +4299,7 @@
     <col min="11" max="11" width="78.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3743,7 +4334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3778,7 +4369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" ht="15" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -3813,7 +4404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:11">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3848,7 +4439,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3883,7 +4474,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:11">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3918,7 +4509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:11">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -3953,7 +4544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:11">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3988,7 +4579,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:11">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -4023,7 +4614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:11">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -4058,7 +4649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:11">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -4094,7 +4685,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:11">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -4129,7 +4720,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:11">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -4164,7 +4755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:11">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -4199,7 +4790,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:11">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -4234,7 +4825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:11">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -4269,7 +4860,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:11">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -4304,7 +4895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:11">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -4339,7 +4930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:11">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -4375,7 +4966,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:11">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -4411,7 +5002,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:11">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -4447,7 +5038,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:11">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -4483,7 +5074,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:11">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -4519,7 +5110,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:11">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -4555,7 +5146,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:11">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -4586,11 +5177,11 @@
       <c r="J25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:11">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -4621,11 +5212,11 @@
       <c r="J26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:11">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -4656,11 +5247,11 @@
       <c r="J27" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:11">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -4691,11 +5282,11 @@
       <c r="J28" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:11">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -4708,7 +5299,7 @@
       <c r="D29" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -4726,11 +5317,11 @@
       <c r="J29" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:11">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -4761,11 +5352,11 @@
       <c r="J30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:11">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -4775,7 +5366,7 @@
       <c r="C31" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>149</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -4796,11 +5387,11 @@
       <c r="J31" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:11">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -4831,11 +5422,11 @@
       <c r="J32" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:11">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -4866,11 +5457,11 @@
       <c r="J33" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="16.5" spans="1:11">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -4901,11 +5492,11 @@
       <c r="J34" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" ht="16.5" spans="1:11">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -4936,11 +5527,11 @@
       <c r="J35" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" ht="16.5" spans="1:11">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -4971,11 +5562,11 @@
       <c r="J36" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="16.5" spans="1:11">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -5006,11 +5597,11 @@
       <c r="J37" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" ht="16.5" spans="1:11">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -5041,11 +5632,11 @@
       <c r="J38" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" ht="16.5" spans="1:11">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -5055,7 +5646,7 @@
       <c r="C39" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="10" t="s">
         <v>183</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -5076,11 +5667,11 @@
       <c r="J39" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" ht="16.5" spans="1:11">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -5111,11 +5702,11 @@
       <c r="J40" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" ht="16.5" spans="1:11">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -5146,11 +5737,11 @@
       <c r="J41" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" ht="16.5" spans="1:11">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -5181,11 +5772,11 @@
       <c r="J42" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" ht="16.5" spans="1:11">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -5216,11 +5807,11 @@
       <c r="J43" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" ht="16.5" spans="1:11">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -5251,11 +5842,11 @@
       <c r="J44" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="16.5" spans="1:11">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -5286,11 +5877,11 @@
       <c r="J45" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" ht="16.5" spans="1:11">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -5321,11 +5912,11 @@
       <c r="J46" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" ht="16.5" spans="1:11">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -5335,7 +5926,7 @@
       <c r="C47" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="10" t="s">
         <v>215</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -5356,11 +5947,11 @@
       <c r="J47" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" ht="16.5" spans="1:11">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -5391,11 +5982,11 @@
       <c r="J48" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" ht="16.5" spans="1:11">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -5426,11 +6017,11 @@
       <c r="J49" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" ht="16.5" spans="1:11">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -5461,11 +6052,11 @@
       <c r="J50" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" ht="16.5" spans="1:11">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -5496,11 +6087,11 @@
       <c r="J51" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" ht="16.5" spans="1:11">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -5531,11 +6122,11 @@
       <c r="J52" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" ht="16.5" spans="1:11">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -5566,11 +6157,11 @@
       <c r="J53" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" ht="16.5" spans="1:11">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -5601,11 +6192,11 @@
       <c r="J54" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" ht="16.5" spans="1:11">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -5615,7 +6206,7 @@
       <c r="C55" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="10" t="s">
         <v>253</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -5636,11 +6227,11 @@
       <c r="J55" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="12" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" ht="16.5" spans="1:11">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -5671,11 +6262,11 @@
       <c r="J56" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" ht="16.5" spans="1:11">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -5706,11 +6297,11 @@
       <c r="J57" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" ht="16.5" spans="1:11">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -5741,11 +6332,11 @@
       <c r="J58" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" ht="16.5" spans="1:11">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -5776,11 +6367,11 @@
       <c r="J59" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" ht="16.5" spans="1:11">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -5811,11 +6402,11 @@
       <c r="J60" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="11" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" ht="16.5" spans="1:11">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -5846,11 +6437,11 @@
       <c r="J61" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" ht="16.5" spans="1:11">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -5881,11 +6472,11 @@
       <c r="J62" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="11" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" ht="16.5" spans="1:11">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -5895,7 +6486,7 @@
       <c r="C63" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="10" t="s">
         <v>287</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -5916,11 +6507,11 @@
       <c r="J63" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="12" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" ht="16.5" spans="1:11">
       <c r="A64" s="4">
         <v>61</v>
       </c>
@@ -5951,11 +6542,11 @@
       <c r="J64" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="11" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" ht="16.5" spans="1:11">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -5986,11 +6577,11 @@
       <c r="J65" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="11" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" ht="16.5" spans="1:11">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -6021,11 +6612,11 @@
       <c r="J66" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" ht="16.5" spans="1:11">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -6056,11 +6647,11 @@
       <c r="J67" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" ht="16.5" spans="1:11">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -6091,11 +6682,11 @@
       <c r="J68" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="11" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" ht="16.5" spans="1:11">
       <c r="A69" s="4">
         <v>66</v>
       </c>
@@ -6126,11 +6717,11 @@
       <c r="J69" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="11" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" ht="16.5" spans="1:11">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -6161,11 +6752,11 @@
       <c r="J70" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K70" s="10" t="s">
+      <c r="K70" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" ht="16.5" spans="1:11">
       <c r="A71" s="4">
         <v>68</v>
       </c>
@@ -6175,7 +6766,7 @@
       <c r="C71" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="10" t="s">
         <v>319</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -6196,11 +6787,11 @@
       <c r="J71" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="K71" s="12" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" ht="16.5" spans="1:11">
       <c r="A72" s="4">
         <v>69</v>
       </c>
@@ -6231,11 +6822,11 @@
       <c r="J72" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K72" s="10" t="s">
+      <c r="K72" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" ht="16.5" spans="1:11">
       <c r="A73" s="4">
         <v>70</v>
       </c>
@@ -6266,11 +6857,11 @@
       <c r="J73" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="K73" s="11" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" ht="16.5" spans="1:11">
       <c r="A74" s="4">
         <v>71</v>
       </c>
@@ -6301,11 +6892,11 @@
       <c r="J74" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="K74" s="11" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" ht="16.5" spans="1:11">
       <c r="A75" s="4">
         <v>72</v>
       </c>
@@ -6336,11 +6927,11 @@
       <c r="J75" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="K75" s="11" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" ht="16.5" spans="1:11">
       <c r="A76" s="4">
         <v>73</v>
       </c>
@@ -6371,11 +6962,11 @@
       <c r="J76" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K76" s="10" t="s">
+      <c r="K76" s="11" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" ht="16.5" spans="1:11">
       <c r="A77" s="4">
         <v>74</v>
       </c>
@@ -6406,11 +6997,11 @@
       <c r="J77" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="K77" s="11" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" ht="16.5" spans="1:11">
       <c r="A78" s="4">
         <v>75</v>
       </c>
@@ -6441,11 +7032,11 @@
       <c r="J78" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K78" s="10" t="s">
+      <c r="K78" s="11" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" ht="16.5" spans="1:11">
       <c r="A79" s="4">
         <v>76</v>
       </c>
@@ -6455,7 +7046,7 @@
       <c r="C79" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="10" t="s">
         <v>357</v>
       </c>
       <c r="E79" s="4" t="s">
@@ -6476,11 +7067,11 @@
       <c r="J79" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K79" s="11" t="s">
+      <c r="K79" s="12" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" ht="16.5" spans="1:11">
       <c r="A80" s="4">
         <v>77</v>
       </c>
@@ -6511,11 +7102,11 @@
       <c r="J80" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K80" s="10" t="s">
+      <c r="K80" s="11" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" ht="16.5" spans="1:11">
       <c r="A81" s="4">
         <v>78</v>
       </c>
@@ -6546,11 +7137,11 @@
       <c r="J81" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K81" s="10" t="s">
+      <c r="K81" s="11" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" ht="16.5" spans="1:11">
       <c r="A82" s="4">
         <v>79</v>
       </c>
@@ -6581,11 +7172,11 @@
       <c r="J82" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K82" s="10" t="s">
+      <c r="K82" s="11" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" ht="16.5" spans="1:11">
       <c r="A83" s="4">
         <v>80</v>
       </c>
@@ -6616,11 +7207,11 @@
       <c r="J83" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K83" s="10" t="s">
+      <c r="K83" s="11" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" ht="16.5" spans="1:11">
       <c r="A84" s="4">
         <v>81</v>
       </c>
@@ -6651,11 +7242,11 @@
       <c r="J84" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K84" s="10" t="s">
+      <c r="K84" s="11" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" ht="16.5" spans="1:11">
       <c r="A85" s="4">
         <v>82</v>
       </c>
@@ -6686,11 +7277,11 @@
       <c r="J85" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K85" s="10" t="s">
+      <c r="K85" s="11" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" ht="16.5" spans="1:11">
       <c r="A86" s="4">
         <v>83</v>
       </c>
@@ -6721,11 +7312,11 @@
       <c r="J86" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="11" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" ht="16.5" spans="1:11">
       <c r="A87" s="4">
         <v>84</v>
       </c>
@@ -6735,7 +7326,7 @@
       <c r="C87" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="10" t="s">
         <v>391</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -6756,11 +7347,11 @@
       <c r="J87" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K87" s="11" t="s">
+      <c r="K87" s="12" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" ht="16.5" spans="1:11">
       <c r="A88" s="4">
         <v>85</v>
       </c>
@@ -6791,11 +7382,11 @@
       <c r="J88" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K88" s="10" t="s">
+      <c r="K88" s="11" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" ht="16.5" spans="1:11">
       <c r="A89" s="4">
         <v>86</v>
       </c>
@@ -6826,11 +7417,11 @@
       <c r="J89" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="K89" s="11" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" ht="16.5" spans="1:11">
       <c r="A90" s="4">
         <v>87</v>
       </c>
@@ -6861,11 +7452,11 @@
       <c r="J90" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="K90" s="11" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" ht="16.5" spans="1:11">
       <c r="A91" s="4">
         <v>88</v>
       </c>
@@ -6896,11 +7487,11 @@
       <c r="J91" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K91" s="10" t="s">
+      <c r="K91" s="11" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" ht="16.5" spans="1:11">
       <c r="A92" s="4">
         <v>89</v>
       </c>
@@ -6931,11 +7522,11 @@
       <c r="J92" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K92" s="10" t="s">
+      <c r="K92" s="11" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" ht="16.5" spans="1:11">
       <c r="A93" s="4">
         <v>90</v>
       </c>
@@ -6966,11 +7557,11 @@
       <c r="J93" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K93" s="10" t="s">
+      <c r="K93" s="11" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" ht="16.5" spans="1:11">
       <c r="A94" s="4">
         <v>91</v>
       </c>
@@ -7001,11 +7592,11 @@
       <c r="J94" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K94" s="10" t="s">
+      <c r="K94" s="11" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" ht="16.5" spans="1:11">
       <c r="A95" s="4">
         <v>92</v>
       </c>
@@ -7015,7 +7606,7 @@
       <c r="C95" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="10" t="s">
         <v>423</v>
       </c>
       <c r="E95" s="4" t="s">
@@ -7036,11 +7627,11 @@
       <c r="J95" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K95" s="11" t="s">
+      <c r="K95" s="12" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" ht="16.5" spans="1:11">
       <c r="A96" s="4">
         <v>93</v>
       </c>
@@ -7071,11 +7662,11 @@
       <c r="J96" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K96" s="10" t="s">
+      <c r="K96" s="11" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" ht="16.5" spans="1:11">
       <c r="A97" s="4">
         <v>94</v>
       </c>
@@ -7106,11 +7697,11 @@
       <c r="J97" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K97" s="10" t="s">
+      <c r="K97" s="11" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" ht="16.5" spans="1:11">
       <c r="A98" s="4">
         <v>95</v>
       </c>
@@ -7141,11 +7732,11 @@
       <c r="J98" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K98" s="10" t="s">
+      <c r="K98" s="11" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" ht="16.5" spans="1:11">
       <c r="A99" s="4">
         <v>96</v>
       </c>
@@ -7176,11 +7767,11 @@
       <c r="J99" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K99" s="10" t="s">
+      <c r="K99" s="11" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" ht="16.5" spans="1:11">
       <c r="A100" s="4">
         <v>97</v>
       </c>
@@ -7211,11 +7802,11 @@
       <c r="J100" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K100" s="10" t="s">
+      <c r="K100" s="11" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" ht="16.5" spans="1:11">
       <c r="A101" s="4">
         <v>98</v>
       </c>
@@ -7246,11 +7837,11 @@
       <c r="J101" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K101" s="10" t="s">
+      <c r="K101" s="11" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" ht="16.5" spans="1:11">
       <c r="A102" s="4">
         <v>99</v>
       </c>
@@ -7281,11 +7872,11 @@
       <c r="J102" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K102" s="10" t="s">
+      <c r="K102" s="11" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" ht="16.5" spans="1:11">
       <c r="A103" s="4">
         <v>100</v>
       </c>
@@ -7295,7 +7886,7 @@
       <c r="C103" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="10" t="s">
         <v>455</v>
       </c>
       <c r="E103" s="4" t="s">
@@ -7316,11 +7907,11 @@
       <c r="J103" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K103" s="11" t="s">
+      <c r="K103" s="12" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" ht="16.5" spans="1:11">
       <c r="A104" s="4">
         <v>101</v>
       </c>
@@ -7351,11 +7942,11 @@
       <c r="J104" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K104" s="10" t="s">
+      <c r="K104" s="11" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" ht="16.5" spans="1:11">
       <c r="A105" s="4">
         <v>102</v>
       </c>
@@ -7386,11 +7977,11 @@
       <c r="J105" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K105" s="10" t="s">
+      <c r="K105" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" ht="16.5" spans="1:11">
       <c r="A106" s="4">
         <v>103</v>
       </c>
@@ -7421,11 +8012,11 @@
       <c r="J106" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K106" s="10" t="s">
+      <c r="K106" s="11" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" ht="16.5" spans="1:11">
       <c r="A107" s="4">
         <v>104</v>
       </c>
@@ -7456,11 +8047,11 @@
       <c r="J107" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K107" s="10" t="s">
+      <c r="K107" s="11" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" ht="16.5" spans="1:11">
       <c r="A108" s="4">
         <v>105</v>
       </c>
@@ -7491,11 +8082,11 @@
       <c r="J108" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K108" s="10" t="s">
+      <c r="K108" s="11" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" ht="16.5" spans="1:11">
       <c r="A109" s="4">
         <v>106</v>
       </c>
@@ -7526,11 +8117,11 @@
       <c r="J109" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K109" s="10" t="s">
+      <c r="K109" s="11" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" ht="16.5" spans="1:11">
       <c r="A110" s="4">
         <v>107</v>
       </c>
@@ -7561,11 +8152,11 @@
       <c r="J110" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K110" s="10" t="s">
+      <c r="K110" s="11" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" ht="16.5" spans="1:11">
       <c r="A111" s="4">
         <v>108</v>
       </c>
@@ -7575,7 +8166,7 @@
       <c r="C111" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="10" t="s">
         <v>493</v>
       </c>
       <c r="E111" s="4" t="s">
@@ -7596,11 +8187,11 @@
       <c r="J111" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K111" s="11" t="s">
+      <c r="K111" s="12" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" ht="16.5" spans="1:11">
       <c r="A112" s="4">
         <v>109</v>
       </c>
@@ -7631,11 +8222,11 @@
       <c r="J112" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K112" s="10" t="s">
+      <c r="K112" s="11" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" ht="16.5" spans="1:11">
       <c r="A113" s="4">
         <v>110</v>
       </c>
@@ -7666,11 +8257,11 @@
       <c r="J113" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K113" s="10" t="s">
+      <c r="K113" s="11" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" ht="16.5" spans="1:11">
       <c r="A114" s="4">
         <v>111</v>
       </c>
@@ -7701,11 +8292,11 @@
       <c r="J114" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K114" s="10" t="s">
+      <c r="K114" s="11" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" ht="16.5" spans="1:11">
       <c r="A115" s="4">
         <v>112</v>
       </c>
@@ -7736,11 +8327,11 @@
       <c r="J115" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K115" s="10" t="s">
+      <c r="K115" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" ht="16.5" spans="1:11">
       <c r="A116" s="4">
         <v>113</v>
       </c>
@@ -7771,11 +8362,11 @@
       <c r="J116" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K116" s="10" t="s">
+      <c r="K116" s="11" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" ht="16.5" spans="1:11">
       <c r="A117" s="4">
         <v>114</v>
       </c>
@@ -7806,11 +8397,11 @@
       <c r="J117" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K117" s="10" t="s">
+      <c r="K117" s="11" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" ht="16.5" spans="1:11">
       <c r="A118" s="4">
         <v>115</v>
       </c>
@@ -7841,11 +8432,11 @@
       <c r="J118" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K118" s="10" t="s">
+      <c r="K118" s="11" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" ht="16.5" spans="1:11">
       <c r="A119" s="4">
         <v>116</v>
       </c>
@@ -7855,7 +8446,7 @@
       <c r="C119" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="10" t="s">
         <v>527</v>
       </c>
       <c r="E119" s="4" t="s">
@@ -7876,11 +8467,11 @@
       <c r="J119" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K119" s="11" t="s">
+      <c r="K119" s="12" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" ht="16.5" spans="1:11">
       <c r="A120" s="4">
         <v>117</v>
       </c>
@@ -7911,11 +8502,11 @@
       <c r="J120" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K120" s="10" t="s">
+      <c r="K120" s="11" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" ht="16.5" spans="1:11">
       <c r="A121" s="4">
         <v>118</v>
       </c>
@@ -7950,7 +8541,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" ht="16.5" spans="1:11">
       <c r="A122" s="4">
         <v>119</v>
       </c>
@@ -7985,7 +8576,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" ht="16.5" spans="1:11">
       <c r="A123" s="4">
         <v>120</v>
       </c>
@@ -8020,7 +8611,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" ht="16.5" spans="1:11">
       <c r="A124" s="4">
         <v>121</v>
       </c>
@@ -8055,7 +8646,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" ht="16.5" spans="1:11">
       <c r="A125" s="4">
         <v>122</v>
       </c>
@@ -8090,7 +8681,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" ht="16.5" spans="1:11">
       <c r="A126" s="4">
         <v>123</v>
       </c>
@@ -8100,10 +8691,10 @@
       <c r="C126" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="9" t="s">
         <v>549</v>
       </c>
       <c r="F126" s="4" t="s">
@@ -8125,7 +8716,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" ht="16.5" spans="1:11">
       <c r="A127" s="4">
         <v>124</v>
       </c>
@@ -8135,10 +8726,10 @@
       <c r="C127" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="9" t="s">
         <v>552</v>
       </c>
       <c r="F127" s="4" t="s">
@@ -8160,7 +8751,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" ht="16.5" spans="1:11">
       <c r="A128" s="4">
         <v>125</v>
       </c>
@@ -8170,10 +8761,10 @@
       <c r="C128" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="9" t="s">
         <v>555</v>
       </c>
       <c r="F128" s="4" t="s">
@@ -8195,7 +8786,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" ht="16.5" spans="1:11">
       <c r="A129" s="4">
         <v>126</v>
       </c>
@@ -8205,10 +8796,10 @@
       <c r="C129" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="9" t="s">
         <v>558</v>
       </c>
       <c r="F129" s="4" t="s">
@@ -8230,7 +8821,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" ht="16.5" spans="1:11">
       <c r="A130" s="4">
         <v>127</v>
       </c>
@@ -8265,7 +8856,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" ht="16.5" spans="1:11">
       <c r="A131" s="4">
         <v>128</v>
       </c>
@@ -8300,7 +8891,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132" ht="16.5" spans="1:11">
       <c r="A132" s="4">
         <v>129</v>
       </c>
@@ -8335,7 +8926,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="133" ht="16.5" spans="1:11">
       <c r="A133" s="4">
         <v>130</v>
       </c>
@@ -8370,7 +8961,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="134" ht="16.5" spans="1:11">
       <c r="A134" s="4">
         <v>131</v>
       </c>
@@ -8405,7 +8996,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135" ht="16.5" spans="1:11">
       <c r="A135" s="4">
         <v>132</v>
       </c>
@@ -8440,7 +9031,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="136" ht="16.5" spans="1:11">
       <c r="A136" s="4">
         <v>133</v>
       </c>
@@ -8475,7 +9066,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137" ht="16.5" spans="1:11">
       <c r="A137" s="4">
         <v>134</v>
       </c>
@@ -8510,7 +9101,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138" ht="16.5" spans="1:11">
       <c r="A138" s="4">
         <v>135</v>
       </c>
@@ -8545,7 +9136,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139" ht="16.5" spans="1:11">
       <c r="A139" s="4">
         <v>136</v>
       </c>
@@ -8580,7 +9171,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140" ht="16.5" spans="1:11">
       <c r="A140" s="4">
         <v>137</v>
       </c>
@@ -8615,7 +9206,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="141" ht="16.5" spans="1:11">
       <c r="A141" s="4">
         <v>138</v>
       </c>
@@ -8650,7 +9241,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142" ht="16.5" spans="1:11">
       <c r="A142" s="4">
         <v>139</v>
       </c>
@@ -8685,7 +9276,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" ht="16.5" spans="1:11">
       <c r="A143" s="4">
         <v>140</v>
       </c>
@@ -8720,7 +9311,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144" ht="16.5" spans="1:11">
       <c r="A144" s="4">
         <v>141</v>
       </c>
@@ -8755,7 +9346,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" ht="16.5" spans="1:11">
       <c r="A145" s="4">
         <v>142</v>
       </c>
@@ -8790,7 +9381,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" ht="16.5" spans="1:11">
       <c r="A146" s="4">
         <v>143</v>
       </c>
@@ -8825,7 +9416,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" ht="16.5" spans="1:11">
       <c r="A147" s="4">
         <v>144</v>
       </c>
@@ -8860,7 +9451,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" ht="16.5" spans="1:11">
       <c r="A148" s="4">
         <v>145</v>
       </c>
@@ -8895,7 +9486,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" ht="16.5" spans="1:11">
       <c r="A149" s="4">
         <v>146</v>
       </c>
@@ -8930,7 +9521,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" ht="16.5" spans="1:11">
       <c r="A150" s="4">
         <v>147</v>
       </c>
@@ -8965,7 +9556,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" ht="16.5" spans="1:11">
       <c r="A151" s="4">
         <v>148</v>
       </c>
@@ -9000,7 +9591,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" ht="16.5" spans="1:11">
       <c r="A152" s="4">
         <v>149</v>
       </c>
@@ -9035,7 +9626,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" ht="16.5" spans="1:11">
       <c r="A153" s="4">
         <v>150</v>
       </c>
@@ -9070,7 +9661,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" ht="16.5" spans="1:11">
       <c r="A154" s="4">
         <v>151</v>
       </c>
@@ -9105,7 +9696,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155" ht="16.5" spans="1:11">
       <c r="A155" s="4">
         <v>152</v>
       </c>
@@ -9140,7 +9731,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" ht="16.5" spans="1:11">
       <c r="A156" s="4">
         <v>153</v>
       </c>
@@ -9175,7 +9766,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" ht="16.5" spans="1:11">
       <c r="A157" s="4">
         <v>154</v>
       </c>
@@ -9210,7 +9801,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="158" ht="16.5" spans="1:11">
       <c r="A158" s="4">
         <v>155</v>
       </c>
@@ -9245,7 +9836,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" ht="16.5" spans="1:11">
       <c r="A159" s="4">
         <v>156</v>
       </c>
@@ -9280,7 +9871,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="160" ht="16.5" spans="1:11">
       <c r="A160" s="4">
         <v>157</v>
       </c>
@@ -9315,7 +9906,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161" ht="16.5" spans="1:11">
       <c r="A161" s="4">
         <v>158</v>
       </c>
@@ -9350,7 +9941,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" ht="16.5" spans="1:11">
       <c r="A162" s="4">
         <v>159</v>
       </c>
@@ -9385,7 +9976,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" ht="16.5" spans="1:11">
       <c r="A163" s="4">
         <v>160</v>
       </c>
@@ -9420,7 +10011,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164" ht="16.5" spans="1:11">
       <c r="A164" s="4">
         <v>161</v>
       </c>
@@ -9455,7 +10046,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="165" ht="16.5" spans="1:11">
       <c r="A165" s="4">
         <v>162</v>
       </c>
@@ -9490,7 +10081,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166" ht="16.5" spans="1:11">
       <c r="A166" s="4">
         <v>163</v>
       </c>
@@ -9525,7 +10116,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167" ht="16.5" spans="1:11">
       <c r="A167" s="4">
         <v>164</v>
       </c>
@@ -9560,7 +10151,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" ht="16.5" spans="1:11">
       <c r="A168" s="4">
         <v>165</v>
       </c>
@@ -9595,7 +10186,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169" ht="16.5" spans="1:11">
       <c r="A169" s="4">
         <v>166</v>
       </c>
@@ -9630,7 +10221,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" ht="16.5" spans="1:11">
       <c r="A170" s="4">
         <v>167</v>
       </c>
@@ -9665,7 +10256,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171" ht="16.5" spans="1:11">
       <c r="A171" s="4">
         <v>168</v>
       </c>
@@ -9700,7 +10291,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172" ht="16.5" spans="1:11">
       <c r="A172" s="4">
         <v>169</v>
       </c>
@@ -9735,7 +10326,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="173" ht="16.5" spans="1:11">
       <c r="A173" s="4">
         <v>170</v>
       </c>
@@ -9770,7 +10361,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="174" ht="16.5" spans="1:11">
       <c r="A174" s="4">
         <v>171</v>
       </c>
@@ -9805,7 +10396,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="175" ht="16.5" spans="1:11">
       <c r="A175" s="4">
         <v>172</v>
       </c>
@@ -9840,7 +10431,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" ht="16.5" spans="1:11">
       <c r="A176" s="4">
         <v>173</v>
       </c>
@@ -9875,7 +10466,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="177" ht="16.5" spans="1:11">
       <c r="A177" s="4">
         <v>174</v>
       </c>
@@ -9910,7 +10501,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" ht="16.5" spans="1:11">
       <c r="A178" s="4">
         <v>175</v>
       </c>
@@ -9945,7 +10536,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" ht="16.5" spans="1:11">
       <c r="A179" s="4">
         <v>176</v>
       </c>
@@ -9980,7 +10571,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" ht="16.5" spans="1:11">
       <c r="A180" s="4">
         <v>177</v>
       </c>
@@ -10015,7 +10606,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="181" ht="16.5" spans="1:11">
       <c r="A181" s="4">
         <v>178</v>
       </c>
@@ -10050,7 +10641,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="182" ht="16.5" spans="1:11">
       <c r="A182" s="4">
         <v>179</v>
       </c>
@@ -10085,7 +10676,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="183" ht="16.5" spans="1:11">
       <c r="A183" s="4">
         <v>180</v>
       </c>
@@ -10120,7 +10711,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="184" ht="16.5" spans="1:11">
       <c r="A184" s="4">
         <v>181</v>
       </c>
@@ -10155,7 +10746,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="185" ht="16.5" spans="1:11">
       <c r="A185" s="4">
         <v>182</v>
       </c>
@@ -10190,7 +10781,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="186" ht="16.5" spans="1:11">
       <c r="A186" s="4">
         <v>183</v>
       </c>
@@ -10225,7 +10816,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="187" ht="16.5" spans="1:11">
       <c r="A187" s="4">
         <v>184</v>
       </c>
@@ -10260,7 +10851,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="188" ht="16.5" spans="1:11">
       <c r="A188" s="4">
         <v>185</v>
       </c>
@@ -10295,7 +10886,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="189" ht="16.5" spans="1:11">
       <c r="A189" s="4">
         <v>186</v>
       </c>
@@ -10330,7 +10921,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="190" ht="16.5" spans="1:11">
       <c r="A190" s="4">
         <v>187</v>
       </c>
@@ -10365,7 +10956,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191" ht="16.5" spans="1:11">
       <c r="A191" s="4">
         <v>188</v>
       </c>
@@ -10400,7 +10991,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192" ht="16.5" spans="1:11">
       <c r="A192" s="4">
         <v>189</v>
       </c>
@@ -10435,7 +11026,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193" ht="16.5" spans="1:11">
       <c r="A193" s="4">
         <v>190</v>
       </c>
@@ -10470,7 +11061,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194" ht="16.5" spans="1:11">
       <c r="A194" s="4">
         <v>191</v>
       </c>
@@ -10505,7 +11096,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195" ht="16.5" spans="1:11">
       <c r="A195" s="4">
         <v>192</v>
       </c>
@@ -10540,7 +11131,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="196" ht="16.5" spans="1:11">
       <c r="A196" s="4">
         <v>193</v>
       </c>
@@ -10575,7 +11166,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="197" ht="16.5" spans="1:11">
       <c r="A197" s="4">
         <v>194</v>
       </c>
@@ -10610,7 +11201,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="198" ht="16.5" spans="1:11">
       <c r="A198" s="4">
         <v>195</v>
       </c>
@@ -10645,7 +11236,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="199" ht="16.5" spans="1:11">
       <c r="A199" s="4">
         <v>196</v>
       </c>
@@ -10680,7 +11271,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="200" ht="16.5" spans="1:11">
       <c r="A200" s="4">
         <v>197</v>
       </c>
@@ -10715,7 +11306,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="201" ht="16.5" spans="1:11">
       <c r="A201" s="4">
         <v>198</v>
       </c>
@@ -10750,7 +11341,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202" ht="16.5" spans="1:11">
       <c r="A202" s="4">
         <v>199</v>
       </c>
@@ -10785,7 +11376,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="203" ht="16.5" spans="1:11">
       <c r="A203" s="4">
         <v>200</v>
       </c>
@@ -10820,7 +11411,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="204" ht="16.5" spans="1:11">
       <c r="A204" s="4">
         <v>201</v>
       </c>
@@ -10855,7 +11446,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="205" ht="16.5" spans="1:11">
       <c r="A205" s="4">
         <v>202</v>
       </c>
@@ -10890,7 +11481,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="206" ht="16.5" spans="1:11">
       <c r="A206" s="4">
         <v>203</v>
       </c>
@@ -10925,7 +11516,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="207" ht="16.5" spans="1:11">
       <c r="A207" s="4">
         <v>204</v>
       </c>
@@ -10960,7 +11551,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="208" ht="16.5" spans="1:11">
       <c r="A208" s="4">
         <v>205</v>
       </c>
@@ -10995,7 +11586,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="209" ht="16.5" spans="1:11">
       <c r="A209" s="4">
         <v>206</v>
       </c>
@@ -11030,7 +11621,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="210" ht="16.5" spans="1:11">
       <c r="A210" s="4">
         <v>207</v>
       </c>
@@ -11065,7 +11656,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="211" ht="16.5" spans="1:11">
       <c r="A211" s="4">
         <v>208</v>
       </c>
@@ -11100,7 +11691,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="212" ht="16.5" spans="1:11">
       <c r="A212" s="4">
         <v>209</v>
       </c>
@@ -11135,7 +11726,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="213" ht="16.5" spans="1:11">
       <c r="A213" s="4">
         <v>210</v>
       </c>
@@ -11170,7 +11761,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="214" ht="16.5" spans="1:11">
       <c r="A214" s="4">
         <v>211</v>
       </c>
@@ -11205,7 +11796,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="215" ht="16.5" spans="1:11">
       <c r="A215" s="4">
         <v>212</v>
       </c>
@@ -11240,7 +11831,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="216" ht="16.5" spans="1:11">
       <c r="A216" s="4">
         <v>213</v>
       </c>
@@ -11275,7 +11866,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="217" ht="16.5" spans="1:11">
       <c r="A217" s="4">
         <v>214</v>
       </c>
@@ -11310,7 +11901,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="218" ht="16.5" spans="1:11">
       <c r="A218" s="4">
         <v>215</v>
       </c>
@@ -11345,7 +11936,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="219" ht="16.5" spans="1:11">
       <c r="A219" s="4">
         <v>216</v>
       </c>
@@ -11380,7 +11971,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="220" ht="16.5" spans="1:11">
       <c r="A220" s="4">
         <v>217</v>
       </c>
@@ -11415,7 +12006,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="221" ht="16.5" spans="1:11">
       <c r="A221" s="4">
         <v>218</v>
       </c>
@@ -11450,7 +12041,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="222" ht="16.5" spans="1:11">
       <c r="A222" s="4">
         <v>219</v>
       </c>
@@ -11485,7 +12076,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="223" ht="16.5" spans="1:11">
       <c r="A223" s="4">
         <v>220</v>
       </c>
@@ -11520,7 +12111,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="224" ht="16.5" spans="1:11">
       <c r="A224" s="4">
         <v>221</v>
       </c>
@@ -11555,7 +12146,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="225" ht="16.5" spans="1:11">
       <c r="A225" s="4">
         <v>222</v>
       </c>
@@ -11590,7 +12181,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="226" ht="16.5" spans="1:11">
       <c r="A226" s="4">
         <v>223</v>
       </c>
@@ -11625,7 +12216,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="227" ht="16.5" spans="1:11">
       <c r="A227" s="4">
         <v>224</v>
       </c>
@@ -11660,7 +12251,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="228" ht="16.5" spans="1:11">
       <c r="A228" s="4">
         <v>225</v>
       </c>
@@ -11695,7 +12286,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="229" ht="16.5" spans="1:11">
       <c r="A229" s="4">
         <v>226</v>
       </c>
@@ -11730,7 +12321,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="230" ht="16.5" spans="1:11">
       <c r="A230" s="4">
         <v>227</v>
       </c>
@@ -11765,7 +12356,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="231" ht="16.5" spans="1:11">
       <c r="A231" s="4">
         <v>228</v>
       </c>
@@ -11800,7 +12391,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="232" ht="16.5" spans="1:11">
       <c r="A232" s="4">
         <v>229</v>
       </c>
@@ -11835,7 +12426,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="233" ht="16.5" spans="1:11">
       <c r="A233" s="4">
         <v>230</v>
       </c>
@@ -11870,7 +12461,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="234" ht="16.5" spans="1:11">
       <c r="A234" s="4">
         <v>231</v>
       </c>
@@ -11905,7 +12496,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="235" ht="16.5" spans="1:11">
       <c r="A235" s="4">
         <v>232</v>
       </c>
@@ -11940,7 +12531,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="236" ht="16.5" spans="1:11">
       <c r="A236" s="4">
         <v>233</v>
       </c>
@@ -11975,7 +12566,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="237" ht="16.5" spans="1:11">
       <c r="A237" s="4">
         <v>234</v>
       </c>
@@ -12010,7 +12601,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="238" ht="16.5" spans="1:11">
       <c r="A238" s="4">
         <v>235</v>
       </c>
@@ -12045,7 +12636,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="239" ht="16.5" spans="1:11">
       <c r="A239" s="4">
         <v>236</v>
       </c>
@@ -12080,7 +12671,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="240" ht="16.5" spans="1:11">
       <c r="A240" s="4">
         <v>237</v>
       </c>
@@ -12115,7 +12706,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="241" ht="16.5" spans="1:11">
       <c r="A241" s="4">
         <v>238</v>
       </c>
@@ -12150,7 +12741,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="242" ht="16.5" spans="1:11">
       <c r="A242" s="4">
         <v>239</v>
       </c>
@@ -12185,7 +12776,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="243" ht="16.5" spans="1:11">
       <c r="A243" s="4">
         <v>240</v>
       </c>
@@ -12220,7 +12811,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="244" ht="16.5" spans="1:11">
       <c r="A244" s="4">
         <v>241</v>
       </c>
@@ -12255,7 +12846,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="245" ht="16.5" spans="1:11">
       <c r="A245" s="4">
         <v>242</v>
       </c>
@@ -12290,7 +12881,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="246" ht="16.5" spans="1:11">
       <c r="A246" s="4">
         <v>243</v>
       </c>
@@ -12325,7 +12916,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="247" ht="16.5" spans="1:11">
       <c r="A247" s="4">
         <v>244</v>
       </c>
@@ -12360,7 +12951,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="248" ht="16.5" spans="1:11">
       <c r="A248" s="4">
         <v>245</v>
       </c>
@@ -12395,7 +12986,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="249" ht="16.5" spans="1:11">
       <c r="A249" s="4">
         <v>246</v>
       </c>
@@ -12430,7 +13021,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="250" ht="16.5" spans="1:11">
       <c r="A250" s="4">
         <v>247</v>
       </c>
@@ -12465,7 +13056,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="251" ht="16.5" spans="1:11">
       <c r="A251" s="4">
         <v>248</v>
       </c>
@@ -12500,7 +13091,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="252" ht="16.5" spans="1:11">
       <c r="A252" s="4">
         <v>249</v>
       </c>
@@ -12535,7 +13126,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="253" ht="16.5" spans="1:11">
       <c r="A253" s="4">
         <v>250</v>
       </c>
@@ -12570,7 +13161,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="254" ht="16.5" spans="1:11">
       <c r="A254" s="4">
         <v>251</v>
       </c>
@@ -12605,7 +13196,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="255" ht="16.5" spans="1:11">
       <c r="A255" s="4">
         <v>252</v>
       </c>
@@ -12640,7 +13231,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="256" ht="16.5" spans="1:11">
       <c r="A256" s="4">
         <v>253</v>
       </c>
@@ -12675,7 +13266,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="257" ht="16.5" spans="1:11">
       <c r="A257" s="4">
         <v>254</v>
       </c>
@@ -12710,7 +13301,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="258" ht="16.5" spans="1:11">
       <c r="A258" s="4">
         <v>255</v>
       </c>
@@ -12745,7 +13336,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="259" ht="16.5" spans="1:11">
       <c r="A259" s="4">
         <v>256</v>
       </c>
@@ -12780,7 +13371,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="260" ht="16.5" spans="1:11">
       <c r="A260" s="4">
         <v>257</v>
       </c>
@@ -12815,7 +13406,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="261" ht="16.5" spans="1:11">
       <c r="A261" s="4">
         <v>258</v>
       </c>
@@ -12850,7 +13441,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="262" ht="16.5" spans="1:11">
       <c r="A262" s="4">
         <v>259</v>
       </c>
@@ -12885,7 +13476,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="263" ht="16.5" spans="1:11">
       <c r="A263" s="4">
         <v>260</v>
       </c>
@@ -12920,7 +13511,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="264" ht="16.5" spans="1:11">
       <c r="A264" s="4">
         <v>261</v>
       </c>
@@ -12955,7 +13546,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="265" ht="16.5" spans="1:11">
       <c r="A265" s="4">
         <v>262</v>
       </c>
@@ -12990,7 +13581,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="266" ht="16.5" spans="1:11">
       <c r="A266" s="4">
         <v>263</v>
       </c>
@@ -13025,7 +13616,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="267" ht="16.5" spans="1:11">
       <c r="A267" s="4">
         <v>264</v>
       </c>
@@ -13060,7 +13651,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="268" ht="16.5" spans="1:11">
       <c r="A268" s="4">
         <v>265</v>
       </c>
@@ -13095,7 +13686,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="269" ht="16.5" spans="1:11">
       <c r="A269" s="4">
         <v>266</v>
       </c>
@@ -13130,7 +13721,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="270" ht="16.5" spans="1:11">
       <c r="A270" s="4">
         <v>267</v>
       </c>
@@ -13165,7 +13756,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="271" ht="16.5" spans="1:11">
       <c r="A271" s="4">
         <v>268</v>
       </c>
@@ -13200,7 +13791,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="272" ht="16.5" spans="1:11">
       <c r="A272" s="4">
         <v>269</v>
       </c>
@@ -13235,7 +13826,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="273" ht="16.5" spans="1:11">
       <c r="A273" s="4">
         <v>270</v>
       </c>
@@ -13270,7 +13861,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="274" ht="16.5" spans="1:11">
       <c r="A274" s="4">
         <v>271</v>
       </c>
@@ -13305,7 +13896,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="275" ht="16.5" spans="1:11">
       <c r="A275" s="4">
         <v>272</v>
       </c>
@@ -13340,7 +13931,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="276" ht="16.5" spans="1:11">
       <c r="A276" s="4">
         <v>273</v>
       </c>
@@ -13375,7 +13966,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="277" ht="16.5" spans="1:11">
       <c r="A277" s="4">
         <v>274</v>
       </c>
@@ -13410,7 +14001,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="278" ht="16.5" spans="1:11">
       <c r="A278" s="4">
         <v>275</v>
       </c>
@@ -13445,7 +14036,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="279" ht="16.5" spans="1:11">
       <c r="A279" s="4">
         <v>276</v>
       </c>
@@ -13480,7 +14071,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="280" ht="16.5" spans="1:11">
       <c r="A280" s="4">
         <v>277</v>
       </c>
@@ -13515,7 +14106,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="281" ht="16.5" spans="1:11">
       <c r="A281" s="4">
         <v>278</v>
       </c>
@@ -13550,7 +14141,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="282" ht="16.5" spans="1:11">
       <c r="A282" s="4">
         <v>279</v>
       </c>
@@ -13585,7 +14176,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="283" ht="16.5" spans="1:11">
       <c r="A283" s="4">
         <v>280</v>
       </c>
@@ -13595,7 +14186,7 @@
       <c r="C283" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="D283" s="12" t="s">
+      <c r="D283" s="13" t="s">
         <v>905</v>
       </c>
       <c r="E283" s="5" t="s">
@@ -13620,7 +14211,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="284" ht="16.5" spans="1:11">
       <c r="A284" s="4">
         <v>281</v>
       </c>
@@ -13630,7 +14221,7 @@
       <c r="C284" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="D284" s="12" t="s">
+      <c r="D284" s="13" t="s">
         <v>907</v>
       </c>
       <c r="E284" s="5" t="s">
@@ -13655,7 +14246,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="285" ht="16.5" spans="1:11">
       <c r="A285" s="4">
         <v>282</v>
       </c>
@@ -13665,7 +14256,7 @@
       <c r="C285" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="D285" s="12" t="s">
+      <c r="D285" s="13" t="s">
         <v>909</v>
       </c>
       <c r="E285" s="5" t="s">
@@ -13690,7 +14281,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="286" ht="16.5" spans="1:11">
       <c r="A286" s="4">
         <v>283</v>
       </c>
@@ -13700,7 +14291,7 @@
       <c r="C286" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="D286" s="12" t="s">
+      <c r="D286" s="13" t="s">
         <v>911</v>
       </c>
       <c r="E286" s="5" t="s">
@@ -13725,7 +14316,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="287" ht="16.5" spans="1:11">
       <c r="A287" s="4">
         <v>284</v>
       </c>
@@ -13735,7 +14326,7 @@
       <c r="C287" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="D287" s="12" t="s">
+      <c r="D287" s="13" t="s">
         <v>913</v>
       </c>
       <c r="E287" s="5" t="s">
@@ -13760,7 +14351,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="288" ht="16.5" spans="1:11">
       <c r="A288" s="4">
         <v>285</v>
       </c>
@@ -13770,7 +14361,7 @@
       <c r="C288" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="D288" s="12" t="s">
+      <c r="D288" s="13" t="s">
         <v>915</v>
       </c>
       <c r="E288" s="5" t="s">
@@ -13795,7 +14386,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="289" ht="16.5" spans="1:11">
       <c r="A289" s="4">
         <v>286</v>
       </c>
@@ -13805,7 +14396,7 @@
       <c r="C289" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="D289" s="12" t="s">
+      <c r="D289" s="13" t="s">
         <v>917</v>
       </c>
       <c r="E289" s="5" t="s">
@@ -13830,7 +14421,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="290" ht="16.5" spans="1:11">
       <c r="A290" s="4">
         <v>287</v>
       </c>
@@ -13840,7 +14431,7 @@
       <c r="C290" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="D290" s="12" t="s">
+      <c r="D290" s="13" t="s">
         <v>919</v>
       </c>
       <c r="E290" s="5" t="s">
@@ -13865,7 +14456,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="291" ht="16.5" spans="1:11">
       <c r="A291" s="4">
         <v>288</v>
       </c>
@@ -13875,7 +14466,7 @@
       <c r="C291" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="D291" s="12" t="s">
+      <c r="D291" s="13" t="s">
         <v>921</v>
       </c>
       <c r="E291" s="5" t="s">
@@ -13900,7 +14491,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="292" ht="16.5" spans="1:11">
       <c r="A292" s="4">
         <v>289</v>
       </c>
@@ -13910,7 +14501,7 @@
       <c r="C292" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="D292" s="12" t="s">
+      <c r="D292" s="13" t="s">
         <v>923</v>
       </c>
       <c r="E292" s="5" t="s">
@@ -13935,7 +14526,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="293" ht="16.5" spans="1:11">
       <c r="A293" s="4">
         <v>290</v>
       </c>
@@ -13945,7 +14536,7 @@
       <c r="C293" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="D293" s="12" t="s">
+      <c r="D293" s="13" t="s">
         <v>925</v>
       </c>
       <c r="E293" s="5" t="s">
@@ -13970,7 +14561,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="294" ht="16.5" spans="1:11">
       <c r="A294" s="4">
         <v>291</v>
       </c>
@@ -13980,7 +14571,7 @@
       <c r="C294" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="D294" s="12" t="s">
+      <c r="D294" s="13" t="s">
         <v>927</v>
       </c>
       <c r="E294" s="5" t="s">
@@ -14005,7 +14596,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" ht="15" customHeight="1" spans="1:11">
       <c r="A295" s="4">
         <v>292</v>
       </c>
@@ -14015,7 +14606,7 @@
       <c r="C295" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="D295" s="12" t="s">
+      <c r="D295" s="13" t="s">
         <v>929</v>
       </c>
       <c r="E295" s="5" t="s">
@@ -14040,7 +14631,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" ht="15" customHeight="1" spans="1:11">
       <c r="A296" s="4">
         <v>293</v>
       </c>
@@ -14050,7 +14641,7 @@
       <c r="C296" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="D296" s="12" t="s">
+      <c r="D296" s="13" t="s">
         <v>931</v>
       </c>
       <c r="E296" s="5" t="s">
@@ -14075,7 +14666,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" ht="15" customHeight="1" spans="1:11">
       <c r="A297" s="4">
         <v>294</v>
       </c>
@@ -14085,7 +14676,7 @@
       <c r="C297" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D297" s="12" t="s">
+      <c r="D297" s="13" t="s">
         <v>933</v>
       </c>
       <c r="E297" s="5" t="s">
@@ -14110,7 +14701,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" ht="15" customHeight="1" spans="1:11">
       <c r="A298" s="4">
         <v>295</v>
       </c>
@@ -14120,7 +14711,7 @@
       <c r="C298" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="D298" s="12" t="s">
+      <c r="D298" s="13" t="s">
         <v>935</v>
       </c>
       <c r="E298" s="5" t="s">
@@ -14145,7 +14736,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" ht="15" customHeight="1" spans="1:11">
       <c r="A299" s="4">
         <v>296</v>
       </c>
@@ -14155,7 +14746,7 @@
       <c r="C299" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="D299" s="12" t="s">
+      <c r="D299" s="13" t="s">
         <v>937</v>
       </c>
       <c r="E299" s="5" t="s">
@@ -14180,7 +14771,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" ht="15" customHeight="1" spans="1:11">
       <c r="A300" s="4">
         <v>297</v>
       </c>
@@ -14190,7 +14781,7 @@
       <c r="C300" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="D300" s="12" t="s">
+      <c r="D300" s="13" t="s">
         <v>939</v>
       </c>
       <c r="E300" s="5" t="s">
@@ -14216,34 +14807,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="F251:F300">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -14263,7 +14855,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -14283,7 +14875,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" ht="15" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -14303,7 +14895,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -14319,7 +14911,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -14335,7 +14927,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -14351,7 +14943,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -14367,7 +14959,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -14383,7 +14975,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:6">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -14399,7 +14991,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:6">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -14411,11 +15003,11 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:6">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -14427,11 +15019,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:6">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -14443,11 +15035,11 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:6">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -14459,11 +15051,11 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:6">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -14475,11 +15067,11 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="15" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:6">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -14491,11 +15083,11 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="15" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:6">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -14507,11 +15099,11 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:6">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -14523,11 +15115,11 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:6">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -14539,11 +15131,11 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:6">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -14555,11 +15147,11 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:6">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -14571,11 +15163,11 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:6">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -14587,11 +15179,11 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:6">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -14607,7 +15199,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:6">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -14623,7 +15215,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:6">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -14639,7 +15231,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:6">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -14655,7 +15247,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:6">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -14671,7 +15263,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:6">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -14687,7 +15279,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:6">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -14703,7 +15295,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:6">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -14719,7 +15311,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:6">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -14735,7 +15327,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:6">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -14751,7 +15343,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:6">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -14767,7 +15359,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:6">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -14783,7 +15375,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="16.5" spans="1:6">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -14799,7 +15391,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" ht="16.5" spans="1:6">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -14815,7 +15407,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" ht="16.5" spans="1:6">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -14831,7 +15423,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="16.5" spans="1:6">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -14847,7 +15439,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" ht="16.5" spans="1:6">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -14863,7 +15455,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" ht="16.5" spans="1:6">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -14879,7 +15471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" ht="16.5" spans="1:6">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -14895,7 +15487,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" ht="16.5" spans="1:6">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -14911,7 +15503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" ht="16.5" spans="1:6">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -14923,11 +15515,11 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="15" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" ht="16.5" spans="1:6">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -14939,11 +15531,11 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="15" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" ht="16.5" spans="1:6">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -14955,11 +15547,11 @@
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="15" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="16.5" spans="1:6">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -14971,11 +15563,11 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="15" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" ht="16.5" spans="1:6">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -14987,11 +15579,11 @@
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="15" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" ht="16.5" spans="1:6">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -15003,11 +15595,11 @@
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="15" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" ht="16.5" spans="1:6">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -15019,11 +15611,11 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="7">
+      <c r="F48" s="8">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" ht="16.5" spans="1:6">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -15035,11 +15627,11 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" ht="16.5" spans="1:6">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -15051,11 +15643,11 @@
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="7">
+      <c r="F50" s="8">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" ht="16.5" spans="1:6">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -15067,11 +15659,11 @@
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="7">
+      <c r="F51" s="8">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" ht="16.5" spans="1:6">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -15083,11 +15675,11 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="7">
+      <c r="F52" s="8">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" ht="16.5" spans="1:6">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -15099,32 +15691,33 @@
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="7">
+      <c r="F53" s="8">
         <v>131</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15144,7 +15737,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -15164,7 +15757,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" ht="15" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -15184,7 +15777,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -15204,7 +15797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -15224,7 +15817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -15245,7 +15838,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ship\doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492A949C-F594-4A59-9349-8A0C245B1BD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3438A1-DAB7-4E3B-A713-48FE13879BA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="12105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1072">
   <si>
     <t>sheet名</t>
   </si>
@@ -3237,6 +3237,113 @@
   </si>
   <si>
     <t>chip_q5_13</t>
+  </si>
+  <si>
+    <t>金币小飞箱</t>
+  </si>
+  <si>
+    <t>金币小飞箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹小飞箱</t>
+  </si>
+  <si>
+    <t>突破丹小飞箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命石小飞箱</t>
+  </si>
+  <si>
+    <t>天命石小飞箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙晶小飞箱</t>
+  </si>
+  <si>
+    <t>龙晶小飞箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备小飞箱</t>
+  </si>
+  <si>
+    <t>装备小飞箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片小飞箱</t>
+  </si>
+  <si>
+    <t>晶片小飞箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币补给箱</t>
+  </si>
+  <si>
+    <t>金币补给箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片补给箱</t>
+  </si>
+  <si>
+    <t>智慧机体补给箱</t>
+  </si>
+  <si>
+    <t>智慧机体补给箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>核子精华补给箱</t>
+  </si>
+  <si>
+    <t>核子精华补给箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶核补给箱</t>
+  </si>
+  <si>
+    <t>晶核补给箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装置补给箱</t>
+  </si>
+  <si>
+    <t>装置补给箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片补给箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得20分钟的金币奖励</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5~30个智慧机体</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5~30个核子精华</t>
+  </si>
+  <si>
+    <t>获得5~30个晶核</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1~2个1阶装置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1~2个1阶晶片</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3950,13 +4057,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P302"/>
+  <dimension ref="A1:P308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F239" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="H283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F257" sqref="F257"/>
+      <selection pane="bottomRight" activeCell="C303" sqref="C303:C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16690,6 +16797,258 @@
         <v>850</v>
       </c>
     </row>
+    <row r="303" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="4">
+        <v>300</v>
+      </c>
+      <c r="B303" s="4">
+        <v>20801</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="G303" s="4">
+        <v>0</v>
+      </c>
+      <c r="H303" s="4">
+        <v>3</v>
+      </c>
+      <c r="I303" s="4">
+        <v>5</v>
+      </c>
+      <c r="J303" s="4">
+        <v>0</v>
+      </c>
+      <c r="K303" s="4"/>
+      <c r="L303" s="4"/>
+      <c r="M303" s="4"/>
+      <c r="N303" s="4"/>
+      <c r="O303" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P303" s="4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="4">
+        <v>301</v>
+      </c>
+      <c r="B304" s="4">
+        <v>20802</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G304" s="4">
+        <v>0</v>
+      </c>
+      <c r="H304" s="4">
+        <v>3</v>
+      </c>
+      <c r="I304" s="4">
+        <v>5</v>
+      </c>
+      <c r="J304" s="4">
+        <v>0</v>
+      </c>
+      <c r="K304" s="4"/>
+      <c r="L304" s="4"/>
+      <c r="M304" s="4"/>
+      <c r="N304" s="4"/>
+      <c r="O304" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P304" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="4">
+        <v>302</v>
+      </c>
+      <c r="B305" s="4">
+        <v>20803</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G305" s="4">
+        <v>0</v>
+      </c>
+      <c r="H305" s="4">
+        <v>3</v>
+      </c>
+      <c r="I305" s="4">
+        <v>5</v>
+      </c>
+      <c r="J305" s="4">
+        <v>0</v>
+      </c>
+      <c r="K305" s="4"/>
+      <c r="L305" s="4"/>
+      <c r="M305" s="4"/>
+      <c r="N305" s="4"/>
+      <c r="O305" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P305" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="4">
+        <v>303</v>
+      </c>
+      <c r="B306" s="4">
+        <v>20804</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G306" s="4">
+        <v>0</v>
+      </c>
+      <c r="H306" s="4">
+        <v>3</v>
+      </c>
+      <c r="I306" s="4">
+        <v>5</v>
+      </c>
+      <c r="J306" s="4">
+        <v>0</v>
+      </c>
+      <c r="K306" s="4"/>
+      <c r="L306" s="4"/>
+      <c r="M306" s="4"/>
+      <c r="N306" s="4"/>
+      <c r="O306" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P306" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="4">
+        <v>304</v>
+      </c>
+      <c r="B307" s="4">
+        <v>20805</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G307" s="4">
+        <v>0</v>
+      </c>
+      <c r="H307" s="4">
+        <v>3</v>
+      </c>
+      <c r="I307" s="4">
+        <v>5</v>
+      </c>
+      <c r="J307" s="4">
+        <v>0</v>
+      </c>
+      <c r="K307" s="4"/>
+      <c r="L307" s="4"/>
+      <c r="M307" s="4"/>
+      <c r="N307" s="4"/>
+      <c r="O307" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P307" s="4" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="4">
+        <v>305</v>
+      </c>
+      <c r="B308" s="4">
+        <v>20806</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F308" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="G308" s="4">
+        <v>0</v>
+      </c>
+      <c r="H308" s="4">
+        <v>3</v>
+      </c>
+      <c r="I308" s="4">
+        <v>5</v>
+      </c>
+      <c r="J308" s="4">
+        <v>0</v>
+      </c>
+      <c r="K308" s="4"/>
+      <c r="L308" s="4"/>
+      <c r="M308" s="4"/>
+      <c r="N308" s="4"/>
+      <c r="O308" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P308" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="F253:F302">
@@ -16705,10 +17064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17576,6 +17935,102 @@
       <c r="E53" s="4"/>
       <c r="F53" s="7">
         <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4">
+        <v>20801</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4">
+        <v>20802</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4">
+        <v>20803</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4">
+        <v>20804</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4">
+        <v>20805</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4">
+        <v>20806</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DFB796-285E-4C2C-901A-8E86D1837603}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27146587-706B-4EF3-83A8-7FA17F949B5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
+    <author>LIPENG</author>
   </authors>
   <commentList>
     <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -35,6 +36,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,6 +45,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -61,6 +64,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -69,6 +73,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -78,12 +83,47 @@
         </r>
       </text>
     </comment>
+    <comment ref="R3" authorId="1" shapeId="0" xr:uid="{D7E0A48D-6B17-4598-9CE2-85254E32A4ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LIPENG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+挂机：不填
+plane: 1000,//战舰 0属性，1升级，2突破，3核能
+equip: 2000,//装备 0强化，1科技，2精炼
+chip: 3000, //晶片
+bag: 4000, //背包
+mr: 5000, //军阶
+shop: 6000,//商店 0军火，1装备抽奖，2晶片抽奖
+achievement: 7000,//成就
+chapter: 8000,//关卡奖励
+sweep: 9000,//扫荡</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1105">
   <si>
     <t>sheet名</t>
   </si>
@@ -207,6 +247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,6 +258,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3278,6 +3320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>~</t>
@@ -3297,6 +3340,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0级装备精炼</t>
@@ -3322,6 +3366,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>~</t>
@@ -3341,6 +3386,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0级装备精炼</t>
@@ -3366,6 +3412,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0级装备精炼</t>
@@ -3396,12 +3443,176 @@
     <t>用于关卡扫荡</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>jump[1].id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[1].desc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[1].title</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[2].title</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[2].desc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[2].id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[1].subId</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[2].subId</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[3].title</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[3].desc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[3].id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[3].subId</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转ID1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转描述1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转标题1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转子ID1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转标题2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转描述2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转ID2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转子ID2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转标题3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转描述3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转ID3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转子ID3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>击毁敌方飞机即可掉落金币。离线奖励也可获得。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡可获得4小时的挂机收益金币和宝箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[4].title</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[4].desc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[4].id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump[4].subId</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转标题4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转描述4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转ID4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转子ID4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开宝箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富宝箱，金币幸运宝箱，打开都可获得大量金币</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3414,24 +3625,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3439,12 +3654,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3453,6 +3670,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3460,6 +3678,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3468,6 +3687,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3475,11 +3695,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3494,6 +3716,21 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4104,13 +4341,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P308"/>
+  <dimension ref="A1:AF308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4123,11 +4360,19 @@
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="6.375" customWidth="1"/>
     <col min="10" max="14" width="9.75" customWidth="1"/>
-    <col min="15" max="15" width="14.375" customWidth="1"/>
-    <col min="16" max="16" width="103.375" customWidth="1"/>
+    <col min="15" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="49.125" customWidth="1"/>
+    <col min="18" max="20" width="14.375" customWidth="1"/>
+    <col min="21" max="21" width="48.875" customWidth="1"/>
+    <col min="22" max="24" width="14.375" customWidth="1"/>
+    <col min="25" max="25" width="49.375" customWidth="1"/>
+    <col min="26" max="26" width="14.375" customWidth="1"/>
+    <col min="27" max="27" width="15.5" customWidth="1"/>
+    <col min="28" max="31" width="14.375" customWidth="1"/>
+    <col min="32" max="32" width="103.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4173,11 +4418,59 @@
       <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -4223,11 +4516,59 @@
       <c r="O2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AF2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -4274,10 +4615,58 @@
         <v>55</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AF3" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4316,10 +4705,44 @@
         <v>0</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="V4" s="4">
+        <v>9000</v>
+      </c>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>4000</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -4357,11 +4780,27 @@
       <c r="O5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -4399,11 +4838,27 @@
       <c r="O6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -4441,11 +4896,27 @@
       <c r="O7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -4483,11 +4954,27 @@
       <c r="O8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -4525,11 +5012,27 @@
       <c r="O9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="15" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -4567,11 +5070,27 @@
       <c r="O10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="15" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -4610,11 +5129,27 @@
       <c r="O11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -4652,11 +5187,27 @@
       <c r="O12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="15" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -4694,11 +5245,27 @@
       <c r="O13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="15" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -4736,11 +5303,27 @@
       <c r="O14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="15" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -4778,11 +5361,27 @@
       <c r="O15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="15" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -4820,11 +5419,27 @@
       <c r="O16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="15" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -4862,11 +5477,27 @@
       <c r="O17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -4904,11 +5535,27 @@
       <c r="O18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="15" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -4948,11 +5595,27 @@
       <c r="O19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="15" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -4990,11 +5653,27 @@
       <c r="O20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -5033,11 +5712,27 @@
       <c r="O21" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -5076,11 +5771,27 @@
       <c r="O22" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -5119,11 +5830,27 @@
       <c r="O23" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -5162,11 +5889,27 @@
       <c r="O24" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -5205,11 +5948,27 @@
       <c r="O25" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -5248,11 +6007,27 @@
       <c r="O26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -5290,11 +6065,27 @@
       <c r="O27" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -5332,11 +6123,27 @@
       <c r="O28" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P28" s="8" t="s">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -5374,11 +6181,27 @@
       <c r="O29" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -5416,11 +6239,27 @@
       <c r="O30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P30" s="8" t="s">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -5458,11 +6297,27 @@
       <c r="O31" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -5500,11 +6355,27 @@
       <c r="O32" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -5542,11 +6413,27 @@
       <c r="O33" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -5584,11 +6471,27 @@
       <c r="O34" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -5626,11 +6529,27 @@
       <c r="O35" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P35" s="8" t="s">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -5668,11 +6587,27 @@
       <c r="O36" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P36" s="8" t="s">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -5710,11 +6645,27 @@
       <c r="O37" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P37" s="8" t="s">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -5752,11 +6703,27 @@
       <c r="O38" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -5794,11 +6761,27 @@
       <c r="O39" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -5836,11 +6819,27 @@
       <c r="O40" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -5878,11 +6877,27 @@
       <c r="O41" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -5920,11 +6935,27 @@
       <c r="O42" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P42" s="8" t="s">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -5962,11 +6993,27 @@
       <c r="O43" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P43" s="8" t="s">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -6004,11 +7051,27 @@
       <c r="O44" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P44" s="8" t="s">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -6046,11 +7109,27 @@
       <c r="O45" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P45" s="8" t="s">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -6088,11 +7167,27 @@
       <c r="O46" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P46" s="8" t="s">
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -6130,11 +7225,27 @@
       <c r="O47" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P47" s="8" t="s">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -6172,11 +7283,27 @@
       <c r="O48" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P48" s="8" t="s">
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -6214,11 +7341,27 @@
       <c r="O49" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -6256,11 +7399,27 @@
       <c r="O50" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P50" s="8" t="s">
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -6298,11 +7457,27 @@
       <c r="O51" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P51" s="8" t="s">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -6340,11 +7515,27 @@
       <c r="O52" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P52" s="8" t="s">
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -6382,11 +7573,27 @@
       <c r="O53" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P53" s="8" t="s">
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -6424,11 +7631,27 @@
       <c r="O54" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P54" s="8" t="s">
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -6466,11 +7689,27 @@
       <c r="O55" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P55" s="8" t="s">
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -6508,11 +7747,27 @@
       <c r="O56" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P56" s="8" t="s">
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -6550,11 +7805,27 @@
       <c r="O57" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -6592,11 +7863,27 @@
       <c r="O58" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P58" s="8" t="s">
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -6634,11 +7921,27 @@
       <c r="O59" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P59" s="8" t="s">
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -6676,11 +7979,27 @@
       <c r="O60" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P60" s="8" t="s">
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -6718,11 +8037,27 @@
       <c r="O61" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P61" s="8" t="s">
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -6760,11 +8095,27 @@
       <c r="O62" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P62" s="8" t="s">
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -6802,11 +8153,27 @@
       <c r="O63" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P63" s="8" t="s">
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>61</v>
       </c>
@@ -6844,11 +8211,27 @@
       <c r="O64" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P64" s="8" t="s">
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -6886,11 +8269,27 @@
       <c r="O65" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="11" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -6928,11 +8327,27 @@
       <c r="O66" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P66" s="8" t="s">
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="8" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -6970,11 +8385,27 @@
       <c r="O67" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P67" s="8" t="s">
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -7012,11 +8443,27 @@
       <c r="O68" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P68" s="8" t="s">
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="8" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>66</v>
       </c>
@@ -7054,11 +8501,27 @@
       <c r="O69" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P69" s="8" t="s">
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="8" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -7096,11 +8559,27 @@
       <c r="O70" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P70" s="8" t="s">
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="8" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>68</v>
       </c>
@@ -7138,11 +8617,27 @@
       <c r="O71" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P71" s="8" t="s">
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4"/>
+      <c r="AE71" s="4"/>
+      <c r="AF71" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>69</v>
       </c>
@@ -7180,11 +8675,27 @@
       <c r="O72" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P72" s="8" t="s">
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="8" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>70</v>
       </c>
@@ -7222,11 +8733,27 @@
       <c r="O73" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P73" s="11" t="s">
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="11" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>71</v>
       </c>
@@ -7264,11 +8791,27 @@
       <c r="O74" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P74" s="8" t="s">
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>72</v>
       </c>
@@ -7306,11 +8849,27 @@
       <c r="O75" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P75" s="8" t="s">
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
+      <c r="AF75" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>73</v>
       </c>
@@ -7348,11 +8907,27 @@
       <c r="O76" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P76" s="8" t="s">
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>74</v>
       </c>
@@ -7390,11 +8965,27 @@
       <c r="O77" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P77" s="8" t="s">
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>75</v>
       </c>
@@ -7432,11 +9023,27 @@
       <c r="O78" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P78" s="8" t="s">
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>76</v>
       </c>
@@ -7474,11 +9081,27 @@
       <c r="O79" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P79" s="8" t="s">
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4"/>
+      <c r="AE79" s="4"/>
+      <c r="AF79" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>77</v>
       </c>
@@ -7516,11 +9139,27 @@
       <c r="O80" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P80" s="8" t="s">
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="4"/>
+      <c r="AE80" s="4"/>
+      <c r="AF80" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>78</v>
       </c>
@@ -7558,11 +9197,27 @@
       <c r="O81" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P81" s="11" t="s">
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="4"/>
+      <c r="AE81" s="4"/>
+      <c r="AF81" s="11" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>79</v>
       </c>
@@ -7600,11 +9255,27 @@
       <c r="O82" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P82" s="8" t="s">
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4"/>
+      <c r="AF82" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>80</v>
       </c>
@@ -7642,11 +9313,27 @@
       <c r="O83" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P83" s="8" t="s">
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AE83" s="4"/>
+      <c r="AF83" s="8" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>81</v>
       </c>
@@ -7684,11 +9371,27 @@
       <c r="O84" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P84" s="8" t="s">
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+      <c r="AD84" s="4"/>
+      <c r="AE84" s="4"/>
+      <c r="AF84" s="8" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>82</v>
       </c>
@@ -7726,11 +9429,27 @@
       <c r="O85" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P85" s="8" t="s">
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+      <c r="AD85" s="4"/>
+      <c r="AE85" s="4"/>
+      <c r="AF85" s="8" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>83</v>
       </c>
@@ -7768,11 +9487,27 @@
       <c r="O86" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P86" s="8" t="s">
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+      <c r="AA86" s="4"/>
+      <c r="AB86" s="4"/>
+      <c r="AC86" s="4"/>
+      <c r="AD86" s="4"/>
+      <c r="AE86" s="4"/>
+      <c r="AF86" s="8" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>84</v>
       </c>
@@ -7810,11 +9545,27 @@
       <c r="O87" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P87" s="8" t="s">
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="4"/>
+      <c r="AD87" s="4"/>
+      <c r="AE87" s="4"/>
+      <c r="AF87" s="8" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>85</v>
       </c>
@@ -7852,11 +9603,27 @@
       <c r="O88" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P88" s="8" t="s">
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
+      <c r="AA88" s="4"/>
+      <c r="AB88" s="4"/>
+      <c r="AC88" s="4"/>
+      <c r="AD88" s="4"/>
+      <c r="AE88" s="4"/>
+      <c r="AF88" s="8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>86</v>
       </c>
@@ -7894,11 +9661,27 @@
       <c r="O89" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P89" s="11" t="s">
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="4"/>
+      <c r="AD89" s="4"/>
+      <c r="AE89" s="4"/>
+      <c r="AF89" s="11" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>87</v>
       </c>
@@ -7936,11 +9719,27 @@
       <c r="O90" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P90" s="8" t="s">
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="4"/>
+      <c r="AB90" s="4"/>
+      <c r="AC90" s="4"/>
+      <c r="AD90" s="4"/>
+      <c r="AE90" s="4"/>
+      <c r="AF90" s="8" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>88</v>
       </c>
@@ -7978,11 +9777,27 @@
       <c r="O91" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P91" s="8" t="s">
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="4"/>
+      <c r="AE91" s="4"/>
+      <c r="AF91" s="8" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>89</v>
       </c>
@@ -8020,11 +9835,27 @@
       <c r="O92" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P92" s="8" t="s">
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+      <c r="AD92" s="4"/>
+      <c r="AE92" s="4"/>
+      <c r="AF92" s="8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>90</v>
       </c>
@@ -8062,11 +9893,27 @@
       <c r="O93" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P93" s="8" t="s">
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+      <c r="AD93" s="4"/>
+      <c r="AE93" s="4"/>
+      <c r="AF93" s="8" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>91</v>
       </c>
@@ -8104,11 +9951,27 @@
       <c r="O94" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P94" s="8" t="s">
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+      <c r="AD94" s="4"/>
+      <c r="AE94" s="4"/>
+      <c r="AF94" s="8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>92</v>
       </c>
@@ -8146,11 +10009,27 @@
       <c r="O95" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P95" s="8" t="s">
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+      <c r="AD95" s="4"/>
+      <c r="AE95" s="4"/>
+      <c r="AF95" s="8" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>93</v>
       </c>
@@ -8188,11 +10067,27 @@
       <c r="O96" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P96" s="8" t="s">
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+      <c r="AD96" s="4"/>
+      <c r="AE96" s="4"/>
+      <c r="AF96" s="8" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>94</v>
       </c>
@@ -8230,11 +10125,27 @@
       <c r="O97" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P97" s="11" t="s">
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+      <c r="AD97" s="4"/>
+      <c r="AE97" s="4"/>
+      <c r="AF97" s="11" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>95</v>
       </c>
@@ -8272,11 +10183,27 @@
       <c r="O98" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P98" s="8" t="s">
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="4"/>
+      <c r="AB98" s="4"/>
+      <c r="AC98" s="4"/>
+      <c r="AD98" s="4"/>
+      <c r="AE98" s="4"/>
+      <c r="AF98" s="8" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>96</v>
       </c>
@@ -8314,11 +10241,27 @@
       <c r="O99" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P99" s="8" t="s">
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
+      <c r="AB99" s="4"/>
+      <c r="AC99" s="4"/>
+      <c r="AD99" s="4"/>
+      <c r="AE99" s="4"/>
+      <c r="AF99" s="8" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>97</v>
       </c>
@@ -8356,11 +10299,27 @@
       <c r="O100" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P100" s="8" t="s">
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
+      <c r="AA100" s="4"/>
+      <c r="AB100" s="4"/>
+      <c r="AC100" s="4"/>
+      <c r="AD100" s="4"/>
+      <c r="AE100" s="4"/>
+      <c r="AF100" s="8" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>98</v>
       </c>
@@ -8398,11 +10357,27 @@
       <c r="O101" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P101" s="8" t="s">
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" s="4"/>
+      <c r="AB101" s="4"/>
+      <c r="AC101" s="4"/>
+      <c r="AD101" s="4"/>
+      <c r="AE101" s="4"/>
+      <c r="AF101" s="8" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>99</v>
       </c>
@@ -8440,11 +10415,27 @@
       <c r="O102" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P102" s="8" t="s">
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
+      <c r="AA102" s="4"/>
+      <c r="AB102" s="4"/>
+      <c r="AC102" s="4"/>
+      <c r="AD102" s="4"/>
+      <c r="AE102" s="4"/>
+      <c r="AF102" s="8" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>100</v>
       </c>
@@ -8482,11 +10473,27 @@
       <c r="O103" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P103" s="8" t="s">
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="4"/>
+      <c r="AB103" s="4"/>
+      <c r="AC103" s="4"/>
+      <c r="AD103" s="4"/>
+      <c r="AE103" s="4"/>
+      <c r="AF103" s="8" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>101</v>
       </c>
@@ -8524,11 +10531,27 @@
       <c r="O104" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P104" s="8" t="s">
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
+      <c r="AA104" s="4"/>
+      <c r="AB104" s="4"/>
+      <c r="AC104" s="4"/>
+      <c r="AD104" s="4"/>
+      <c r="AE104" s="4"/>
+      <c r="AF104" s="8" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>102</v>
       </c>
@@ -8566,11 +10589,27 @@
       <c r="O105" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P105" s="11" t="s">
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="4"/>
+      <c r="AB105" s="4"/>
+      <c r="AC105" s="4"/>
+      <c r="AD105" s="4"/>
+      <c r="AE105" s="4"/>
+      <c r="AF105" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>103</v>
       </c>
@@ -8608,11 +10647,27 @@
       <c r="O106" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P106" s="8" t="s">
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
+      <c r="AA106" s="4"/>
+      <c r="AB106" s="4"/>
+      <c r="AC106" s="4"/>
+      <c r="AD106" s="4"/>
+      <c r="AE106" s="4"/>
+      <c r="AF106" s="8" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>104</v>
       </c>
@@ -8650,11 +10705,27 @@
       <c r="O107" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P107" s="8" t="s">
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4"/>
+      <c r="AA107" s="4"/>
+      <c r="AB107" s="4"/>
+      <c r="AC107" s="4"/>
+      <c r="AD107" s="4"/>
+      <c r="AE107" s="4"/>
+      <c r="AF107" s="8" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>105</v>
       </c>
@@ -8692,11 +10763,27 @@
       <c r="O108" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P108" s="8" t="s">
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
+      <c r="AA108" s="4"/>
+      <c r="AB108" s="4"/>
+      <c r="AC108" s="4"/>
+      <c r="AD108" s="4"/>
+      <c r="AE108" s="4"/>
+      <c r="AF108" s="8" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>106</v>
       </c>
@@ -8734,11 +10821,27 @@
       <c r="O109" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P109" s="8" t="s">
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
+      <c r="AA109" s="4"/>
+      <c r="AB109" s="4"/>
+      <c r="AC109" s="4"/>
+      <c r="AD109" s="4"/>
+      <c r="AE109" s="4"/>
+      <c r="AF109" s="8" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>107</v>
       </c>
@@ -8776,11 +10879,27 @@
       <c r="O110" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P110" s="8" t="s">
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="4"/>
+      <c r="AB110" s="4"/>
+      <c r="AC110" s="4"/>
+      <c r="AD110" s="4"/>
+      <c r="AE110" s="4"/>
+      <c r="AF110" s="8" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>108</v>
       </c>
@@ -8818,11 +10937,27 @@
       <c r="O111" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P111" s="8" t="s">
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="4"/>
+      <c r="AB111" s="4"/>
+      <c r="AC111" s="4"/>
+      <c r="AD111" s="4"/>
+      <c r="AE111" s="4"/>
+      <c r="AF111" s="8" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>109</v>
       </c>
@@ -8860,11 +10995,27 @@
       <c r="O112" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P112" s="8" t="s">
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
+      <c r="AB112" s="4"/>
+      <c r="AC112" s="4"/>
+      <c r="AD112" s="4"/>
+      <c r="AE112" s="4"/>
+      <c r="AF112" s="8" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>110</v>
       </c>
@@ -8902,11 +11053,27 @@
       <c r="O113" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P113" s="11" t="s">
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
+      <c r="AA113" s="4"/>
+      <c r="AB113" s="4"/>
+      <c r="AC113" s="4"/>
+      <c r="AD113" s="4"/>
+      <c r="AE113" s="4"/>
+      <c r="AF113" s="11" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>111</v>
       </c>
@@ -8944,11 +11111,27 @@
       <c r="O114" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P114" s="8" t="s">
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="4"/>
+      <c r="AB114" s="4"/>
+      <c r="AC114" s="4"/>
+      <c r="AD114" s="4"/>
+      <c r="AE114" s="4"/>
+      <c r="AF114" s="8" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>112</v>
       </c>
@@ -8986,11 +11169,27 @@
       <c r="O115" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P115" s="8" t="s">
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+      <c r="AA115" s="4"/>
+      <c r="AB115" s="4"/>
+      <c r="AC115" s="4"/>
+      <c r="AD115" s="4"/>
+      <c r="AE115" s="4"/>
+      <c r="AF115" s="8" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>113</v>
       </c>
@@ -9028,11 +11227,27 @@
       <c r="O116" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P116" s="8" t="s">
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
+      <c r="AA116" s="4"/>
+      <c r="AB116" s="4"/>
+      <c r="AC116" s="4"/>
+      <c r="AD116" s="4"/>
+      <c r="AE116" s="4"/>
+      <c r="AF116" s="8" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>114</v>
       </c>
@@ -9070,11 +11285,27 @@
       <c r="O117" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P117" s="8" t="s">
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
+      <c r="AA117" s="4"/>
+      <c r="AB117" s="4"/>
+      <c r="AC117" s="4"/>
+      <c r="AD117" s="4"/>
+      <c r="AE117" s="4"/>
+      <c r="AF117" s="8" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>115</v>
       </c>
@@ -9112,11 +11343,27 @@
       <c r="O118" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P118" s="8" t="s">
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
+      <c r="AA118" s="4"/>
+      <c r="AB118" s="4"/>
+      <c r="AC118" s="4"/>
+      <c r="AD118" s="4"/>
+      <c r="AE118" s="4"/>
+      <c r="AF118" s="8" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>116</v>
       </c>
@@ -9154,11 +11401,27 @@
       <c r="O119" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P119" s="8" t="s">
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4"/>
+      <c r="AA119" s="4"/>
+      <c r="AB119" s="4"/>
+      <c r="AC119" s="4"/>
+      <c r="AD119" s="4"/>
+      <c r="AE119" s="4"/>
+      <c r="AF119" s="8" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>117</v>
       </c>
@@ -9196,11 +11459,27 @@
       <c r="O120" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P120" s="8" t="s">
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4"/>
+      <c r="AA120" s="4"/>
+      <c r="AB120" s="4"/>
+      <c r="AC120" s="4"/>
+      <c r="AD120" s="4"/>
+      <c r="AE120" s="4"/>
+      <c r="AF120" s="8" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>118</v>
       </c>
@@ -9238,11 +11517,27 @@
       <c r="O121" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P121" s="11" t="s">
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
+      <c r="Z121" s="4"/>
+      <c r="AA121" s="4"/>
+      <c r="AB121" s="4"/>
+      <c r="AC121" s="4"/>
+      <c r="AD121" s="4"/>
+      <c r="AE121" s="4"/>
+      <c r="AF121" s="11" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>119</v>
       </c>
@@ -9280,11 +11575,27 @@
       <c r="O122" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P122" s="8" t="s">
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4"/>
+      <c r="AA122" s="4"/>
+      <c r="AB122" s="4"/>
+      <c r="AC122" s="4"/>
+      <c r="AD122" s="4"/>
+      <c r="AE122" s="4"/>
+      <c r="AF122" s="8" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>120</v>
       </c>
@@ -9322,11 +11633,27 @@
       <c r="O123" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P123" s="4" t="s">
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="4"/>
+      <c r="AA123" s="4"/>
+      <c r="AB123" s="4"/>
+      <c r="AC123" s="4"/>
+      <c r="AD123" s="4"/>
+      <c r="AE123" s="4"/>
+      <c r="AF123" s="4" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>121</v>
       </c>
@@ -9364,11 +11691,27 @@
       <c r="O124" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P124" s="4" t="s">
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="4"/>
+      <c r="AB124" s="4"/>
+      <c r="AC124" s="4"/>
+      <c r="AD124" s="4"/>
+      <c r="AE124" s="4"/>
+      <c r="AF124" s="4" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>122</v>
       </c>
@@ -9406,11 +11749,27 @@
       <c r="O125" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P125" s="4" t="s">
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+      <c r="AB125" s="4"/>
+      <c r="AC125" s="4"/>
+      <c r="AD125" s="4"/>
+      <c r="AE125" s="4"/>
+      <c r="AF125" s="4" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>123</v>
       </c>
@@ -9448,11 +11807,27 @@
       <c r="O126" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P126" s="4" t="s">
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="4"/>
+      <c r="AA126" s="4"/>
+      <c r="AB126" s="4"/>
+      <c r="AC126" s="4"/>
+      <c r="AD126" s="4"/>
+      <c r="AE126" s="4"/>
+      <c r="AF126" s="4" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>124</v>
       </c>
@@ -9490,11 +11865,27 @@
       <c r="O127" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P127" s="4" t="s">
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+      <c r="AA127" s="4"/>
+      <c r="AB127" s="4"/>
+      <c r="AC127" s="4"/>
+      <c r="AD127" s="4"/>
+      <c r="AE127" s="4"/>
+      <c r="AF127" s="4" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>125</v>
       </c>
@@ -9532,11 +11923,27 @@
       <c r="O128" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P128" s="4" t="s">
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="4"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="4"/>
+      <c r="AA128" s="4"/>
+      <c r="AB128" s="4"/>
+      <c r="AC128" s="4"/>
+      <c r="AD128" s="4"/>
+      <c r="AE128" s="4"/>
+      <c r="AF128" s="4" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>126</v>
       </c>
@@ -9574,11 +11981,27 @@
       <c r="O129" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P129" s="4" t="s">
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
+      <c r="AA129" s="4"/>
+      <c r="AB129" s="4"/>
+      <c r="AC129" s="4"/>
+      <c r="AD129" s="4"/>
+      <c r="AE129" s="4"/>
+      <c r="AF129" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>127</v>
       </c>
@@ -9616,11 +12039,27 @@
       <c r="O130" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P130" s="4" t="s">
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
+      <c r="AA130" s="4"/>
+      <c r="AB130" s="4"/>
+      <c r="AC130" s="4"/>
+      <c r="AD130" s="4"/>
+      <c r="AE130" s="4"/>
+      <c r="AF130" s="4" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>128</v>
       </c>
@@ -9658,11 +12097,27 @@
       <c r="O131" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P131" s="4" t="s">
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="4"/>
+      <c r="AA131" s="4"/>
+      <c r="AB131" s="4"/>
+      <c r="AC131" s="4"/>
+      <c r="AD131" s="4"/>
+      <c r="AE131" s="4"/>
+      <c r="AF131" s="4" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>129</v>
       </c>
@@ -9700,11 +12155,27 @@
       <c r="O132" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P132" s="4" t="s">
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="4"/>
+      <c r="AA132" s="4"/>
+      <c r="AB132" s="4"/>
+      <c r="AC132" s="4"/>
+      <c r="AD132" s="4"/>
+      <c r="AE132" s="4"/>
+      <c r="AF132" s="4" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>130</v>
       </c>
@@ -9742,11 +12213,27 @@
       <c r="O133" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P133" s="4" t="s">
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
+      <c r="AA133" s="4"/>
+      <c r="AB133" s="4"/>
+      <c r="AC133" s="4"/>
+      <c r="AD133" s="4"/>
+      <c r="AE133" s="4"/>
+      <c r="AF133" s="4" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>131</v>
       </c>
@@ -9784,11 +12271,27 @@
       <c r="O134" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P134" s="4" t="s">
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4"/>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+      <c r="Z134" s="4"/>
+      <c r="AA134" s="4"/>
+      <c r="AB134" s="4"/>
+      <c r="AC134" s="4"/>
+      <c r="AD134" s="4"/>
+      <c r="AE134" s="4"/>
+      <c r="AF134" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>132</v>
       </c>
@@ -9826,11 +12329,27 @@
       <c r="O135" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P135" s="4" t="s">
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
+      <c r="AA135" s="4"/>
+      <c r="AB135" s="4"/>
+      <c r="AC135" s="4"/>
+      <c r="AD135" s="4"/>
+      <c r="AE135" s="4"/>
+      <c r="AF135" s="4" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>133</v>
       </c>
@@ -9868,11 +12387,27 @@
       <c r="O136" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P136" s="4" t="s">
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="4"/>
+      <c r="AA136" s="4"/>
+      <c r="AB136" s="4"/>
+      <c r="AC136" s="4"/>
+      <c r="AD136" s="4"/>
+      <c r="AE136" s="4"/>
+      <c r="AF136" s="4" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>134</v>
       </c>
@@ -9910,11 +12445,27 @@
       <c r="O137" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P137" s="4" t="s">
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="4"/>
+      <c r="AA137" s="4"/>
+      <c r="AB137" s="4"/>
+      <c r="AC137" s="4"/>
+      <c r="AD137" s="4"/>
+      <c r="AE137" s="4"/>
+      <c r="AF137" s="4" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>135</v>
       </c>
@@ -9952,11 +12503,27 @@
       <c r="O138" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P138" s="4" t="s">
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="4"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="4"/>
+      <c r="X138" s="4"/>
+      <c r="Y138" s="4"/>
+      <c r="Z138" s="4"/>
+      <c r="AA138" s="4"/>
+      <c r="AB138" s="4"/>
+      <c r="AC138" s="4"/>
+      <c r="AD138" s="4"/>
+      <c r="AE138" s="4"/>
+      <c r="AF138" s="4" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>136</v>
       </c>
@@ -9994,11 +12561,27 @@
       <c r="O139" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P139" s="4" t="s">
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
+      <c r="Z139" s="4"/>
+      <c r="AA139" s="4"/>
+      <c r="AB139" s="4"/>
+      <c r="AC139" s="4"/>
+      <c r="AD139" s="4"/>
+      <c r="AE139" s="4"/>
+      <c r="AF139" s="4" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>137</v>
       </c>
@@ -10036,11 +12619,27 @@
       <c r="O140" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P140" s="4" t="s">
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4"/>
+      <c r="X140" s="4"/>
+      <c r="Y140" s="4"/>
+      <c r="Z140" s="4"/>
+      <c r="AA140" s="4"/>
+      <c r="AB140" s="4"/>
+      <c r="AC140" s="4"/>
+      <c r="AD140" s="4"/>
+      <c r="AE140" s="4"/>
+      <c r="AF140" s="4" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>138</v>
       </c>
@@ -10078,11 +12677,27 @@
       <c r="O141" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P141" s="4" t="s">
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="4"/>
+      <c r="Y141" s="4"/>
+      <c r="Z141" s="4"/>
+      <c r="AA141" s="4"/>
+      <c r="AB141" s="4"/>
+      <c r="AC141" s="4"/>
+      <c r="AD141" s="4"/>
+      <c r="AE141" s="4"/>
+      <c r="AF141" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>139</v>
       </c>
@@ -10120,11 +12735,27 @@
       <c r="O142" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P142" s="4" t="s">
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="4"/>
+      <c r="S142" s="4"/>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="4"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
+      <c r="Z142" s="4"/>
+      <c r="AA142" s="4"/>
+      <c r="AB142" s="4"/>
+      <c r="AC142" s="4"/>
+      <c r="AD142" s="4"/>
+      <c r="AE142" s="4"/>
+      <c r="AF142" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>140</v>
       </c>
@@ -10162,11 +12793,27 @@
       <c r="O143" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P143" s="4" t="s">
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4"/>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
+      <c r="Z143" s="4"/>
+      <c r="AA143" s="4"/>
+      <c r="AB143" s="4"/>
+      <c r="AC143" s="4"/>
+      <c r="AD143" s="4"/>
+      <c r="AE143" s="4"/>
+      <c r="AF143" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>141</v>
       </c>
@@ -10204,11 +12851,27 @@
       <c r="O144" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P144" s="4" t="s">
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
+      <c r="Z144" s="4"/>
+      <c r="AA144" s="4"/>
+      <c r="AB144" s="4"/>
+      <c r="AC144" s="4"/>
+      <c r="AD144" s="4"/>
+      <c r="AE144" s="4"/>
+      <c r="AF144" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>142</v>
       </c>
@@ -10246,11 +12909,27 @@
       <c r="O145" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P145" s="4" t="s">
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
+      <c r="Z145" s="4"/>
+      <c r="AA145" s="4"/>
+      <c r="AB145" s="4"/>
+      <c r="AC145" s="4"/>
+      <c r="AD145" s="4"/>
+      <c r="AE145" s="4"/>
+      <c r="AF145" s="4" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>143</v>
       </c>
@@ -10288,11 +12967,27 @@
       <c r="O146" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P146" s="4" t="s">
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
+      <c r="Z146" s="4"/>
+      <c r="AA146" s="4"/>
+      <c r="AB146" s="4"/>
+      <c r="AC146" s="4"/>
+      <c r="AD146" s="4"/>
+      <c r="AE146" s="4"/>
+      <c r="AF146" s="4" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>144</v>
       </c>
@@ -10330,11 +13025,27 @@
       <c r="O147" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P147" s="4" t="s">
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+      <c r="Z147" s="4"/>
+      <c r="AA147" s="4"/>
+      <c r="AB147" s="4"/>
+      <c r="AC147" s="4"/>
+      <c r="AD147" s="4"/>
+      <c r="AE147" s="4"/>
+      <c r="AF147" s="4" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>145</v>
       </c>
@@ -10372,11 +13083,27 @@
       <c r="O148" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P148" s="4" t="s">
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
+      <c r="Z148" s="4"/>
+      <c r="AA148" s="4"/>
+      <c r="AB148" s="4"/>
+      <c r="AC148" s="4"/>
+      <c r="AD148" s="4"/>
+      <c r="AE148" s="4"/>
+      <c r="AF148" s="4" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>146</v>
       </c>
@@ -10414,11 +13141,27 @@
       <c r="O149" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P149" s="4" t="s">
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+      <c r="Y149" s="4"/>
+      <c r="Z149" s="4"/>
+      <c r="AA149" s="4"/>
+      <c r="AB149" s="4"/>
+      <c r="AC149" s="4"/>
+      <c r="AD149" s="4"/>
+      <c r="AE149" s="4"/>
+      <c r="AF149" s="4" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>147</v>
       </c>
@@ -10456,11 +13199,27 @@
       <c r="O150" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P150" s="4" t="s">
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
+      <c r="Z150" s="4"/>
+      <c r="AA150" s="4"/>
+      <c r="AB150" s="4"/>
+      <c r="AC150" s="4"/>
+      <c r="AD150" s="4"/>
+      <c r="AE150" s="4"/>
+      <c r="AF150" s="4" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>148</v>
       </c>
@@ -10498,11 +13257,27 @@
       <c r="O151" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P151" s="4" t="s">
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
+      <c r="Z151" s="4"/>
+      <c r="AA151" s="4"/>
+      <c r="AB151" s="4"/>
+      <c r="AC151" s="4"/>
+      <c r="AD151" s="4"/>
+      <c r="AE151" s="4"/>
+      <c r="AF151" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>149</v>
       </c>
@@ -10540,11 +13315,27 @@
       <c r="O152" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P152" s="4" t="s">
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+      <c r="U152" s="4"/>
+      <c r="V152" s="4"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+      <c r="Y152" s="4"/>
+      <c r="Z152" s="4"/>
+      <c r="AA152" s="4"/>
+      <c r="AB152" s="4"/>
+      <c r="AC152" s="4"/>
+      <c r="AD152" s="4"/>
+      <c r="AE152" s="4"/>
+      <c r="AF152" s="4" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>150</v>
       </c>
@@ -10582,11 +13373,27 @@
       <c r="O153" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P153" s="4" t="s">
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4"/>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4"/>
+      <c r="V153" s="4"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="4"/>
+      <c r="Z153" s="4"/>
+      <c r="AA153" s="4"/>
+      <c r="AB153" s="4"/>
+      <c r="AC153" s="4"/>
+      <c r="AD153" s="4"/>
+      <c r="AE153" s="4"/>
+      <c r="AF153" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>151</v>
       </c>
@@ -10624,11 +13431,27 @@
       <c r="O154" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P154" s="4" t="s">
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="4"/>
+      <c r="S154" s="4"/>
+      <c r="T154" s="4"/>
+      <c r="U154" s="4"/>
+      <c r="V154" s="4"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="4"/>
+      <c r="Y154" s="4"/>
+      <c r="Z154" s="4"/>
+      <c r="AA154" s="4"/>
+      <c r="AB154" s="4"/>
+      <c r="AC154" s="4"/>
+      <c r="AD154" s="4"/>
+      <c r="AE154" s="4"/>
+      <c r="AF154" s="4" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>152</v>
       </c>
@@ -10666,11 +13489,27 @@
       <c r="O155" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P155" s="4" t="s">
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="4"/>
+      <c r="S155" s="4"/>
+      <c r="T155" s="4"/>
+      <c r="U155" s="4"/>
+      <c r="V155" s="4"/>
+      <c r="W155" s="4"/>
+      <c r="X155" s="4"/>
+      <c r="Y155" s="4"/>
+      <c r="Z155" s="4"/>
+      <c r="AA155" s="4"/>
+      <c r="AB155" s="4"/>
+      <c r="AC155" s="4"/>
+      <c r="AD155" s="4"/>
+      <c r="AE155" s="4"/>
+      <c r="AF155" s="4" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>153</v>
       </c>
@@ -10708,11 +13547,27 @@
       <c r="O156" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P156" s="4" t="s">
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
+      <c r="R156" s="4"/>
+      <c r="S156" s="4"/>
+      <c r="T156" s="4"/>
+      <c r="U156" s="4"/>
+      <c r="V156" s="4"/>
+      <c r="W156" s="4"/>
+      <c r="X156" s="4"/>
+      <c r="Y156" s="4"/>
+      <c r="Z156" s="4"/>
+      <c r="AA156" s="4"/>
+      <c r="AB156" s="4"/>
+      <c r="AC156" s="4"/>
+      <c r="AD156" s="4"/>
+      <c r="AE156" s="4"/>
+      <c r="AF156" s="4" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>154</v>
       </c>
@@ -10750,11 +13605,27 @@
       <c r="O157" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P157" s="4" t="s">
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="4"/>
+      <c r="S157" s="4"/>
+      <c r="T157" s="4"/>
+      <c r="U157" s="4"/>
+      <c r="V157" s="4"/>
+      <c r="W157" s="4"/>
+      <c r="X157" s="4"/>
+      <c r="Y157" s="4"/>
+      <c r="Z157" s="4"/>
+      <c r="AA157" s="4"/>
+      <c r="AB157" s="4"/>
+      <c r="AC157" s="4"/>
+      <c r="AD157" s="4"/>
+      <c r="AE157" s="4"/>
+      <c r="AF157" s="4" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>155</v>
       </c>
@@ -10792,11 +13663,27 @@
       <c r="O158" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P158" s="4" t="s">
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+      <c r="R158" s="4"/>
+      <c r="S158" s="4"/>
+      <c r="T158" s="4"/>
+      <c r="U158" s="4"/>
+      <c r="V158" s="4"/>
+      <c r="W158" s="4"/>
+      <c r="X158" s="4"/>
+      <c r="Y158" s="4"/>
+      <c r="Z158" s="4"/>
+      <c r="AA158" s="4"/>
+      <c r="AB158" s="4"/>
+      <c r="AC158" s="4"/>
+      <c r="AD158" s="4"/>
+      <c r="AE158" s="4"/>
+      <c r="AF158" s="4" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>156</v>
       </c>
@@ -10834,11 +13721,27 @@
       <c r="O159" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P159" s="4" t="s">
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
+      <c r="R159" s="4"/>
+      <c r="S159" s="4"/>
+      <c r="T159" s="4"/>
+      <c r="U159" s="4"/>
+      <c r="V159" s="4"/>
+      <c r="W159" s="4"/>
+      <c r="X159" s="4"/>
+      <c r="Y159" s="4"/>
+      <c r="Z159" s="4"/>
+      <c r="AA159" s="4"/>
+      <c r="AB159" s="4"/>
+      <c r="AC159" s="4"/>
+      <c r="AD159" s="4"/>
+      <c r="AE159" s="4"/>
+      <c r="AF159" s="4" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>157</v>
       </c>
@@ -10876,11 +13779,27 @@
       <c r="O160" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P160" s="4" t="s">
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
+      <c r="R160" s="4"/>
+      <c r="S160" s="4"/>
+      <c r="T160" s="4"/>
+      <c r="U160" s="4"/>
+      <c r="V160" s="4"/>
+      <c r="W160" s="4"/>
+      <c r="X160" s="4"/>
+      <c r="Y160" s="4"/>
+      <c r="Z160" s="4"/>
+      <c r="AA160" s="4"/>
+      <c r="AB160" s="4"/>
+      <c r="AC160" s="4"/>
+      <c r="AD160" s="4"/>
+      <c r="AE160" s="4"/>
+      <c r="AF160" s="4" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>158</v>
       </c>
@@ -10918,11 +13837,27 @@
       <c r="O161" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P161" s="4" t="s">
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
+      <c r="R161" s="4"/>
+      <c r="S161" s="4"/>
+      <c r="T161" s="4"/>
+      <c r="U161" s="4"/>
+      <c r="V161" s="4"/>
+      <c r="W161" s="4"/>
+      <c r="X161" s="4"/>
+      <c r="Y161" s="4"/>
+      <c r="Z161" s="4"/>
+      <c r="AA161" s="4"/>
+      <c r="AB161" s="4"/>
+      <c r="AC161" s="4"/>
+      <c r="AD161" s="4"/>
+      <c r="AE161" s="4"/>
+      <c r="AF161" s="4" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>159</v>
       </c>
@@ -10960,11 +13895,27 @@
       <c r="O162" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P162" s="4" t="s">
+      <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
+      <c r="R162" s="4"/>
+      <c r="S162" s="4"/>
+      <c r="T162" s="4"/>
+      <c r="U162" s="4"/>
+      <c r="V162" s="4"/>
+      <c r="W162" s="4"/>
+      <c r="X162" s="4"/>
+      <c r="Y162" s="4"/>
+      <c r="Z162" s="4"/>
+      <c r="AA162" s="4"/>
+      <c r="AB162" s="4"/>
+      <c r="AC162" s="4"/>
+      <c r="AD162" s="4"/>
+      <c r="AE162" s="4"/>
+      <c r="AF162" s="4" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>160</v>
       </c>
@@ -11002,11 +13953,27 @@
       <c r="O163" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P163" s="4" t="s">
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
+      <c r="R163" s="4"/>
+      <c r="S163" s="4"/>
+      <c r="T163" s="4"/>
+      <c r="U163" s="4"/>
+      <c r="V163" s="4"/>
+      <c r="W163" s="4"/>
+      <c r="X163" s="4"/>
+      <c r="Y163" s="4"/>
+      <c r="Z163" s="4"/>
+      <c r="AA163" s="4"/>
+      <c r="AB163" s="4"/>
+      <c r="AC163" s="4"/>
+      <c r="AD163" s="4"/>
+      <c r="AE163" s="4"/>
+      <c r="AF163" s="4" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>161</v>
       </c>
@@ -11044,11 +14011,27 @@
       <c r="O164" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P164" s="4" t="s">
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
+      <c r="R164" s="4"/>
+      <c r="S164" s="4"/>
+      <c r="T164" s="4"/>
+      <c r="U164" s="4"/>
+      <c r="V164" s="4"/>
+      <c r="W164" s="4"/>
+      <c r="X164" s="4"/>
+      <c r="Y164" s="4"/>
+      <c r="Z164" s="4"/>
+      <c r="AA164" s="4"/>
+      <c r="AB164" s="4"/>
+      <c r="AC164" s="4"/>
+      <c r="AD164" s="4"/>
+      <c r="AE164" s="4"/>
+      <c r="AF164" s="4" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>162</v>
       </c>
@@ -11086,11 +14069,27 @@
       <c r="O165" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P165" s="4" t="s">
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
+      <c r="T165" s="4"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="4"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
+      <c r="Z165" s="4"/>
+      <c r="AA165" s="4"/>
+      <c r="AB165" s="4"/>
+      <c r="AC165" s="4"/>
+      <c r="AD165" s="4"/>
+      <c r="AE165" s="4"/>
+      <c r="AF165" s="4" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>163</v>
       </c>
@@ -11128,11 +14127,27 @@
       <c r="O166" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P166" s="4" t="s">
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="4"/>
+      <c r="S166" s="4"/>
+      <c r="T166" s="4"/>
+      <c r="U166" s="4"/>
+      <c r="V166" s="4"/>
+      <c r="W166" s="4"/>
+      <c r="X166" s="4"/>
+      <c r="Y166" s="4"/>
+      <c r="Z166" s="4"/>
+      <c r="AA166" s="4"/>
+      <c r="AB166" s="4"/>
+      <c r="AC166" s="4"/>
+      <c r="AD166" s="4"/>
+      <c r="AE166" s="4"/>
+      <c r="AF166" s="4" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>164</v>
       </c>
@@ -11170,11 +14185,27 @@
       <c r="O167" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P167" s="4" t="s">
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
+      <c r="R167" s="4"/>
+      <c r="S167" s="4"/>
+      <c r="T167" s="4"/>
+      <c r="U167" s="4"/>
+      <c r="V167" s="4"/>
+      <c r="W167" s="4"/>
+      <c r="X167" s="4"/>
+      <c r="Y167" s="4"/>
+      <c r="Z167" s="4"/>
+      <c r="AA167" s="4"/>
+      <c r="AB167" s="4"/>
+      <c r="AC167" s="4"/>
+      <c r="AD167" s="4"/>
+      <c r="AE167" s="4"/>
+      <c r="AF167" s="4" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>165</v>
       </c>
@@ -11212,11 +14243,27 @@
       <c r="O168" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P168" s="4" t="s">
+      <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
+      <c r="R168" s="4"/>
+      <c r="S168" s="4"/>
+      <c r="T168" s="4"/>
+      <c r="U168" s="4"/>
+      <c r="V168" s="4"/>
+      <c r="W168" s="4"/>
+      <c r="X168" s="4"/>
+      <c r="Y168" s="4"/>
+      <c r="Z168" s="4"/>
+      <c r="AA168" s="4"/>
+      <c r="AB168" s="4"/>
+      <c r="AC168" s="4"/>
+      <c r="AD168" s="4"/>
+      <c r="AE168" s="4"/>
+      <c r="AF168" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>166</v>
       </c>
@@ -11254,11 +14301,27 @@
       <c r="O169" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P169" s="4" t="s">
+      <c r="P169" s="4"/>
+      <c r="Q169" s="4"/>
+      <c r="R169" s="4"/>
+      <c r="S169" s="4"/>
+      <c r="T169" s="4"/>
+      <c r="U169" s="4"/>
+      <c r="V169" s="4"/>
+      <c r="W169" s="4"/>
+      <c r="X169" s="4"/>
+      <c r="Y169" s="4"/>
+      <c r="Z169" s="4"/>
+      <c r="AA169" s="4"/>
+      <c r="AB169" s="4"/>
+      <c r="AC169" s="4"/>
+      <c r="AD169" s="4"/>
+      <c r="AE169" s="4"/>
+      <c r="AF169" s="4" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>167</v>
       </c>
@@ -11296,11 +14359,27 @@
       <c r="O170" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P170" s="4" t="s">
+      <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
+      <c r="R170" s="4"/>
+      <c r="S170" s="4"/>
+      <c r="T170" s="4"/>
+      <c r="U170" s="4"/>
+      <c r="V170" s="4"/>
+      <c r="W170" s="4"/>
+      <c r="X170" s="4"/>
+      <c r="Y170" s="4"/>
+      <c r="Z170" s="4"/>
+      <c r="AA170" s="4"/>
+      <c r="AB170" s="4"/>
+      <c r="AC170" s="4"/>
+      <c r="AD170" s="4"/>
+      <c r="AE170" s="4"/>
+      <c r="AF170" s="4" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>168</v>
       </c>
@@ -11338,11 +14417,27 @@
       <c r="O171" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P171" s="4" t="s">
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="4"/>
+      <c r="Y171" s="4"/>
+      <c r="Z171" s="4"/>
+      <c r="AA171" s="4"/>
+      <c r="AB171" s="4"/>
+      <c r="AC171" s="4"/>
+      <c r="AD171" s="4"/>
+      <c r="AE171" s="4"/>
+      <c r="AF171" s="4" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>169</v>
       </c>
@@ -11380,11 +14475,27 @@
       <c r="O172" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P172" s="4" t="s">
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="4"/>
+      <c r="S172" s="4"/>
+      <c r="T172" s="4"/>
+      <c r="U172" s="4"/>
+      <c r="V172" s="4"/>
+      <c r="W172" s="4"/>
+      <c r="X172" s="4"/>
+      <c r="Y172" s="4"/>
+      <c r="Z172" s="4"/>
+      <c r="AA172" s="4"/>
+      <c r="AB172" s="4"/>
+      <c r="AC172" s="4"/>
+      <c r="AD172" s="4"/>
+      <c r="AE172" s="4"/>
+      <c r="AF172" s="4" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>170</v>
       </c>
@@ -11422,11 +14533,27 @@
       <c r="O173" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P173" s="4" t="s">
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
+      <c r="Z173" s="4"/>
+      <c r="AA173" s="4"/>
+      <c r="AB173" s="4"/>
+      <c r="AC173" s="4"/>
+      <c r="AD173" s="4"/>
+      <c r="AE173" s="4"/>
+      <c r="AF173" s="4" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>171</v>
       </c>
@@ -11464,11 +14591,27 @@
       <c r="O174" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P174" s="4" t="s">
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="4"/>
+      <c r="S174" s="4"/>
+      <c r="T174" s="4"/>
+      <c r="U174" s="4"/>
+      <c r="V174" s="4"/>
+      <c r="W174" s="4"/>
+      <c r="X174" s="4"/>
+      <c r="Y174" s="4"/>
+      <c r="Z174" s="4"/>
+      <c r="AA174" s="4"/>
+      <c r="AB174" s="4"/>
+      <c r="AC174" s="4"/>
+      <c r="AD174" s="4"/>
+      <c r="AE174" s="4"/>
+      <c r="AF174" s="4" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>172</v>
       </c>
@@ -11506,11 +14649,27 @@
       <c r="O175" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P175" s="4" t="s">
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
+      <c r="R175" s="4"/>
+      <c r="S175" s="4"/>
+      <c r="T175" s="4"/>
+      <c r="U175" s="4"/>
+      <c r="V175" s="4"/>
+      <c r="W175" s="4"/>
+      <c r="X175" s="4"/>
+      <c r="Y175" s="4"/>
+      <c r="Z175" s="4"/>
+      <c r="AA175" s="4"/>
+      <c r="AB175" s="4"/>
+      <c r="AC175" s="4"/>
+      <c r="AD175" s="4"/>
+      <c r="AE175" s="4"/>
+      <c r="AF175" s="4" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>173</v>
       </c>
@@ -11548,11 +14707,27 @@
       <c r="O176" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P176" s="4" t="s">
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
+      <c r="R176" s="4"/>
+      <c r="S176" s="4"/>
+      <c r="T176" s="4"/>
+      <c r="U176" s="4"/>
+      <c r="V176" s="4"/>
+      <c r="W176" s="4"/>
+      <c r="X176" s="4"/>
+      <c r="Y176" s="4"/>
+      <c r="Z176" s="4"/>
+      <c r="AA176" s="4"/>
+      <c r="AB176" s="4"/>
+      <c r="AC176" s="4"/>
+      <c r="AD176" s="4"/>
+      <c r="AE176" s="4"/>
+      <c r="AF176" s="4" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>174</v>
       </c>
@@ -11590,11 +14765,27 @@
       <c r="O177" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P177" s="4" t="s">
+      <c r="P177" s="4"/>
+      <c r="Q177" s="4"/>
+      <c r="R177" s="4"/>
+      <c r="S177" s="4"/>
+      <c r="T177" s="4"/>
+      <c r="U177" s="4"/>
+      <c r="V177" s="4"/>
+      <c r="W177" s="4"/>
+      <c r="X177" s="4"/>
+      <c r="Y177" s="4"/>
+      <c r="Z177" s="4"/>
+      <c r="AA177" s="4"/>
+      <c r="AB177" s="4"/>
+      <c r="AC177" s="4"/>
+      <c r="AD177" s="4"/>
+      <c r="AE177" s="4"/>
+      <c r="AF177" s="4" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>175</v>
       </c>
@@ -11632,11 +14823,27 @@
       <c r="O178" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P178" s="4" t="s">
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
+      <c r="R178" s="4"/>
+      <c r="S178" s="4"/>
+      <c r="T178" s="4"/>
+      <c r="U178" s="4"/>
+      <c r="V178" s="4"/>
+      <c r="W178" s="4"/>
+      <c r="X178" s="4"/>
+      <c r="Y178" s="4"/>
+      <c r="Z178" s="4"/>
+      <c r="AA178" s="4"/>
+      <c r="AB178" s="4"/>
+      <c r="AC178" s="4"/>
+      <c r="AD178" s="4"/>
+      <c r="AE178" s="4"/>
+      <c r="AF178" s="4" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>176</v>
       </c>
@@ -11674,11 +14881,27 @@
       <c r="O179" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P179" s="4" t="s">
+      <c r="P179" s="4"/>
+      <c r="Q179" s="4"/>
+      <c r="R179" s="4"/>
+      <c r="S179" s="4"/>
+      <c r="T179" s="4"/>
+      <c r="U179" s="4"/>
+      <c r="V179" s="4"/>
+      <c r="W179" s="4"/>
+      <c r="X179" s="4"/>
+      <c r="Y179" s="4"/>
+      <c r="Z179" s="4"/>
+      <c r="AA179" s="4"/>
+      <c r="AB179" s="4"/>
+      <c r="AC179" s="4"/>
+      <c r="AD179" s="4"/>
+      <c r="AE179" s="4"/>
+      <c r="AF179" s="4" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>177</v>
       </c>
@@ -11716,11 +14939,27 @@
       <c r="O180" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P180" s="4" t="s">
+      <c r="P180" s="4"/>
+      <c r="Q180" s="4"/>
+      <c r="R180" s="4"/>
+      <c r="S180" s="4"/>
+      <c r="T180" s="4"/>
+      <c r="U180" s="4"/>
+      <c r="V180" s="4"/>
+      <c r="W180" s="4"/>
+      <c r="X180" s="4"/>
+      <c r="Y180" s="4"/>
+      <c r="Z180" s="4"/>
+      <c r="AA180" s="4"/>
+      <c r="AB180" s="4"/>
+      <c r="AC180" s="4"/>
+      <c r="AD180" s="4"/>
+      <c r="AE180" s="4"/>
+      <c r="AF180" s="4" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>178</v>
       </c>
@@ -11758,11 +14997,27 @@
       <c r="O181" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P181" s="4" t="s">
+      <c r="P181" s="4"/>
+      <c r="Q181" s="4"/>
+      <c r="R181" s="4"/>
+      <c r="S181" s="4"/>
+      <c r="T181" s="4"/>
+      <c r="U181" s="4"/>
+      <c r="V181" s="4"/>
+      <c r="W181" s="4"/>
+      <c r="X181" s="4"/>
+      <c r="Y181" s="4"/>
+      <c r="Z181" s="4"/>
+      <c r="AA181" s="4"/>
+      <c r="AB181" s="4"/>
+      <c r="AC181" s="4"/>
+      <c r="AD181" s="4"/>
+      <c r="AE181" s="4"/>
+      <c r="AF181" s="4" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>179</v>
       </c>
@@ -11800,11 +15055,27 @@
       <c r="O182" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P182" s="4" t="s">
+      <c r="P182" s="4"/>
+      <c r="Q182" s="4"/>
+      <c r="R182" s="4"/>
+      <c r="S182" s="4"/>
+      <c r="T182" s="4"/>
+      <c r="U182" s="4"/>
+      <c r="V182" s="4"/>
+      <c r="W182" s="4"/>
+      <c r="X182" s="4"/>
+      <c r="Y182" s="4"/>
+      <c r="Z182" s="4"/>
+      <c r="AA182" s="4"/>
+      <c r="AB182" s="4"/>
+      <c r="AC182" s="4"/>
+      <c r="AD182" s="4"/>
+      <c r="AE182" s="4"/>
+      <c r="AF182" s="4" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>180</v>
       </c>
@@ -11842,11 +15113,27 @@
       <c r="O183" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P183" s="4" t="s">
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
+      <c r="R183" s="4"/>
+      <c r="S183" s="4"/>
+      <c r="T183" s="4"/>
+      <c r="U183" s="4"/>
+      <c r="V183" s="4"/>
+      <c r="W183" s="4"/>
+      <c r="X183" s="4"/>
+      <c r="Y183" s="4"/>
+      <c r="Z183" s="4"/>
+      <c r="AA183" s="4"/>
+      <c r="AB183" s="4"/>
+      <c r="AC183" s="4"/>
+      <c r="AD183" s="4"/>
+      <c r="AE183" s="4"/>
+      <c r="AF183" s="4" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>181</v>
       </c>
@@ -11884,11 +15171,27 @@
       <c r="O184" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P184" s="4" t="s">
+      <c r="P184" s="4"/>
+      <c r="Q184" s="4"/>
+      <c r="R184" s="4"/>
+      <c r="S184" s="4"/>
+      <c r="T184" s="4"/>
+      <c r="U184" s="4"/>
+      <c r="V184" s="4"/>
+      <c r="W184" s="4"/>
+      <c r="X184" s="4"/>
+      <c r="Y184" s="4"/>
+      <c r="Z184" s="4"/>
+      <c r="AA184" s="4"/>
+      <c r="AB184" s="4"/>
+      <c r="AC184" s="4"/>
+      <c r="AD184" s="4"/>
+      <c r="AE184" s="4"/>
+      <c r="AF184" s="4" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>182</v>
       </c>
@@ -11926,11 +15229,27 @@
       <c r="O185" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P185" s="4" t="s">
+      <c r="P185" s="4"/>
+      <c r="Q185" s="4"/>
+      <c r="R185" s="4"/>
+      <c r="S185" s="4"/>
+      <c r="T185" s="4"/>
+      <c r="U185" s="4"/>
+      <c r="V185" s="4"/>
+      <c r="W185" s="4"/>
+      <c r="X185" s="4"/>
+      <c r="Y185" s="4"/>
+      <c r="Z185" s="4"/>
+      <c r="AA185" s="4"/>
+      <c r="AB185" s="4"/>
+      <c r="AC185" s="4"/>
+      <c r="AD185" s="4"/>
+      <c r="AE185" s="4"/>
+      <c r="AF185" s="4" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>183</v>
       </c>
@@ -11968,11 +15287,27 @@
       <c r="O186" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P186" s="4" t="s">
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+      <c r="R186" s="4"/>
+      <c r="S186" s="4"/>
+      <c r="T186" s="4"/>
+      <c r="U186" s="4"/>
+      <c r="V186" s="4"/>
+      <c r="W186" s="4"/>
+      <c r="X186" s="4"/>
+      <c r="Y186" s="4"/>
+      <c r="Z186" s="4"/>
+      <c r="AA186" s="4"/>
+      <c r="AB186" s="4"/>
+      <c r="AC186" s="4"/>
+      <c r="AD186" s="4"/>
+      <c r="AE186" s="4"/>
+      <c r="AF186" s="4" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>184</v>
       </c>
@@ -12010,11 +15345,27 @@
       <c r="O187" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P187" s="4" t="s">
+      <c r="P187" s="4"/>
+      <c r="Q187" s="4"/>
+      <c r="R187" s="4"/>
+      <c r="S187" s="4"/>
+      <c r="T187" s="4"/>
+      <c r="U187" s="4"/>
+      <c r="V187" s="4"/>
+      <c r="W187" s="4"/>
+      <c r="X187" s="4"/>
+      <c r="Y187" s="4"/>
+      <c r="Z187" s="4"/>
+      <c r="AA187" s="4"/>
+      <c r="AB187" s="4"/>
+      <c r="AC187" s="4"/>
+      <c r="AD187" s="4"/>
+      <c r="AE187" s="4"/>
+      <c r="AF187" s="4" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>185</v>
       </c>
@@ -12052,11 +15403,27 @@
       <c r="O188" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P188" s="4" t="s">
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
+      <c r="R188" s="4"/>
+      <c r="S188" s="4"/>
+      <c r="T188" s="4"/>
+      <c r="U188" s="4"/>
+      <c r="V188" s="4"/>
+      <c r="W188" s="4"/>
+      <c r="X188" s="4"/>
+      <c r="Y188" s="4"/>
+      <c r="Z188" s="4"/>
+      <c r="AA188" s="4"/>
+      <c r="AB188" s="4"/>
+      <c r="AC188" s="4"/>
+      <c r="AD188" s="4"/>
+      <c r="AE188" s="4"/>
+      <c r="AF188" s="4" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>186</v>
       </c>
@@ -12094,11 +15461,27 @@
       <c r="O189" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P189" s="4" t="s">
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
+      <c r="R189" s="4"/>
+      <c r="S189" s="4"/>
+      <c r="T189" s="4"/>
+      <c r="U189" s="4"/>
+      <c r="V189" s="4"/>
+      <c r="W189" s="4"/>
+      <c r="X189" s="4"/>
+      <c r="Y189" s="4"/>
+      <c r="Z189" s="4"/>
+      <c r="AA189" s="4"/>
+      <c r="AB189" s="4"/>
+      <c r="AC189" s="4"/>
+      <c r="AD189" s="4"/>
+      <c r="AE189" s="4"/>
+      <c r="AF189" s="4" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>187</v>
       </c>
@@ -12136,11 +15519,27 @@
       <c r="O190" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P190" s="4" t="s">
+      <c r="P190" s="4"/>
+      <c r="Q190" s="4"/>
+      <c r="R190" s="4"/>
+      <c r="S190" s="4"/>
+      <c r="T190" s="4"/>
+      <c r="U190" s="4"/>
+      <c r="V190" s="4"/>
+      <c r="W190" s="4"/>
+      <c r="X190" s="4"/>
+      <c r="Y190" s="4"/>
+      <c r="Z190" s="4"/>
+      <c r="AA190" s="4"/>
+      <c r="AB190" s="4"/>
+      <c r="AC190" s="4"/>
+      <c r="AD190" s="4"/>
+      <c r="AE190" s="4"/>
+      <c r="AF190" s="4" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>188</v>
       </c>
@@ -12178,11 +15577,27 @@
       <c r="O191" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P191" s="4" t="s">
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
+      <c r="R191" s="4"/>
+      <c r="S191" s="4"/>
+      <c r="T191" s="4"/>
+      <c r="U191" s="4"/>
+      <c r="V191" s="4"/>
+      <c r="W191" s="4"/>
+      <c r="X191" s="4"/>
+      <c r="Y191" s="4"/>
+      <c r="Z191" s="4"/>
+      <c r="AA191" s="4"/>
+      <c r="AB191" s="4"/>
+      <c r="AC191" s="4"/>
+      <c r="AD191" s="4"/>
+      <c r="AE191" s="4"/>
+      <c r="AF191" s="4" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>189</v>
       </c>
@@ -12220,11 +15635,27 @@
       <c r="O192" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P192" s="4" t="s">
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
+      <c r="R192" s="4"/>
+      <c r="S192" s="4"/>
+      <c r="T192" s="4"/>
+      <c r="U192" s="4"/>
+      <c r="V192" s="4"/>
+      <c r="W192" s="4"/>
+      <c r="X192" s="4"/>
+      <c r="Y192" s="4"/>
+      <c r="Z192" s="4"/>
+      <c r="AA192" s="4"/>
+      <c r="AB192" s="4"/>
+      <c r="AC192" s="4"/>
+      <c r="AD192" s="4"/>
+      <c r="AE192" s="4"/>
+      <c r="AF192" s="4" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>190</v>
       </c>
@@ -12262,11 +15693,27 @@
       <c r="O193" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P193" s="4" t="s">
+      <c r="P193" s="4"/>
+      <c r="Q193" s="4"/>
+      <c r="R193" s="4"/>
+      <c r="S193" s="4"/>
+      <c r="T193" s="4"/>
+      <c r="U193" s="4"/>
+      <c r="V193" s="4"/>
+      <c r="W193" s="4"/>
+      <c r="X193" s="4"/>
+      <c r="Y193" s="4"/>
+      <c r="Z193" s="4"/>
+      <c r="AA193" s="4"/>
+      <c r="AB193" s="4"/>
+      <c r="AC193" s="4"/>
+      <c r="AD193" s="4"/>
+      <c r="AE193" s="4"/>
+      <c r="AF193" s="4" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>191</v>
       </c>
@@ -12304,11 +15751,27 @@
       <c r="O194" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P194" s="4" t="s">
+      <c r="P194" s="4"/>
+      <c r="Q194" s="4"/>
+      <c r="R194" s="4"/>
+      <c r="S194" s="4"/>
+      <c r="T194" s="4"/>
+      <c r="U194" s="4"/>
+      <c r="V194" s="4"/>
+      <c r="W194" s="4"/>
+      <c r="X194" s="4"/>
+      <c r="Y194" s="4"/>
+      <c r="Z194" s="4"/>
+      <c r="AA194" s="4"/>
+      <c r="AB194" s="4"/>
+      <c r="AC194" s="4"/>
+      <c r="AD194" s="4"/>
+      <c r="AE194" s="4"/>
+      <c r="AF194" s="4" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>192</v>
       </c>
@@ -12346,11 +15809,27 @@
       <c r="O195" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P195" s="4" t="s">
+      <c r="P195" s="4"/>
+      <c r="Q195" s="4"/>
+      <c r="R195" s="4"/>
+      <c r="S195" s="4"/>
+      <c r="T195" s="4"/>
+      <c r="U195" s="4"/>
+      <c r="V195" s="4"/>
+      <c r="W195" s="4"/>
+      <c r="X195" s="4"/>
+      <c r="Y195" s="4"/>
+      <c r="Z195" s="4"/>
+      <c r="AA195" s="4"/>
+      <c r="AB195" s="4"/>
+      <c r="AC195" s="4"/>
+      <c r="AD195" s="4"/>
+      <c r="AE195" s="4"/>
+      <c r="AF195" s="4" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>193</v>
       </c>
@@ -12388,11 +15867,27 @@
       <c r="O196" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P196" s="4" t="s">
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="4"/>
+      <c r="S196" s="4"/>
+      <c r="T196" s="4"/>
+      <c r="U196" s="4"/>
+      <c r="V196" s="4"/>
+      <c r="W196" s="4"/>
+      <c r="X196" s="4"/>
+      <c r="Y196" s="4"/>
+      <c r="Z196" s="4"/>
+      <c r="AA196" s="4"/>
+      <c r="AB196" s="4"/>
+      <c r="AC196" s="4"/>
+      <c r="AD196" s="4"/>
+      <c r="AE196" s="4"/>
+      <c r="AF196" s="4" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>194</v>
       </c>
@@ -12430,11 +15925,27 @@
       <c r="O197" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P197" s="4" t="s">
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="4"/>
+      <c r="S197" s="4"/>
+      <c r="T197" s="4"/>
+      <c r="U197" s="4"/>
+      <c r="V197" s="4"/>
+      <c r="W197" s="4"/>
+      <c r="X197" s="4"/>
+      <c r="Y197" s="4"/>
+      <c r="Z197" s="4"/>
+      <c r="AA197" s="4"/>
+      <c r="AB197" s="4"/>
+      <c r="AC197" s="4"/>
+      <c r="AD197" s="4"/>
+      <c r="AE197" s="4"/>
+      <c r="AF197" s="4" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>195</v>
       </c>
@@ -12472,11 +15983,27 @@
       <c r="O198" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P198" s="4" t="s">
+      <c r="P198" s="4"/>
+      <c r="Q198" s="4"/>
+      <c r="R198" s="4"/>
+      <c r="S198" s="4"/>
+      <c r="T198" s="4"/>
+      <c r="U198" s="4"/>
+      <c r="V198" s="4"/>
+      <c r="W198" s="4"/>
+      <c r="X198" s="4"/>
+      <c r="Y198" s="4"/>
+      <c r="Z198" s="4"/>
+      <c r="AA198" s="4"/>
+      <c r="AB198" s="4"/>
+      <c r="AC198" s="4"/>
+      <c r="AD198" s="4"/>
+      <c r="AE198" s="4"/>
+      <c r="AF198" s="4" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>196</v>
       </c>
@@ -12514,11 +16041,27 @@
       <c r="O199" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P199" s="4" t="s">
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
+      <c r="R199" s="4"/>
+      <c r="S199" s="4"/>
+      <c r="T199" s="4"/>
+      <c r="U199" s="4"/>
+      <c r="V199" s="4"/>
+      <c r="W199" s="4"/>
+      <c r="X199" s="4"/>
+      <c r="Y199" s="4"/>
+      <c r="Z199" s="4"/>
+      <c r="AA199" s="4"/>
+      <c r="AB199" s="4"/>
+      <c r="AC199" s="4"/>
+      <c r="AD199" s="4"/>
+      <c r="AE199" s="4"/>
+      <c r="AF199" s="4" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>197</v>
       </c>
@@ -12556,11 +16099,27 @@
       <c r="O200" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P200" s="4" t="s">
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="4"/>
+      <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
+      <c r="U200" s="4"/>
+      <c r="V200" s="4"/>
+      <c r="W200" s="4"/>
+      <c r="X200" s="4"/>
+      <c r="Y200" s="4"/>
+      <c r="Z200" s="4"/>
+      <c r="AA200" s="4"/>
+      <c r="AB200" s="4"/>
+      <c r="AC200" s="4"/>
+      <c r="AD200" s="4"/>
+      <c r="AE200" s="4"/>
+      <c r="AF200" s="4" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>198</v>
       </c>
@@ -12598,11 +16157,27 @@
       <c r="O201" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P201" s="4" t="s">
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="4"/>
+      <c r="S201" s="4"/>
+      <c r="T201" s="4"/>
+      <c r="U201" s="4"/>
+      <c r="V201" s="4"/>
+      <c r="W201" s="4"/>
+      <c r="X201" s="4"/>
+      <c r="Y201" s="4"/>
+      <c r="Z201" s="4"/>
+      <c r="AA201" s="4"/>
+      <c r="AB201" s="4"/>
+      <c r="AC201" s="4"/>
+      <c r="AD201" s="4"/>
+      <c r="AE201" s="4"/>
+      <c r="AF201" s="4" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>199</v>
       </c>
@@ -12640,11 +16215,27 @@
       <c r="O202" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P202" s="4" t="s">
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+      <c r="S202" s="4"/>
+      <c r="T202" s="4"/>
+      <c r="U202" s="4"/>
+      <c r="V202" s="4"/>
+      <c r="W202" s="4"/>
+      <c r="X202" s="4"/>
+      <c r="Y202" s="4"/>
+      <c r="Z202" s="4"/>
+      <c r="AA202" s="4"/>
+      <c r="AB202" s="4"/>
+      <c r="AC202" s="4"/>
+      <c r="AD202" s="4"/>
+      <c r="AE202" s="4"/>
+      <c r="AF202" s="4" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>200</v>
       </c>
@@ -12682,11 +16273,27 @@
       <c r="O203" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P203" s="4" t="s">
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
+      <c r="S203" s="4"/>
+      <c r="T203" s="4"/>
+      <c r="U203" s="4"/>
+      <c r="V203" s="4"/>
+      <c r="W203" s="4"/>
+      <c r="X203" s="4"/>
+      <c r="Y203" s="4"/>
+      <c r="Z203" s="4"/>
+      <c r="AA203" s="4"/>
+      <c r="AB203" s="4"/>
+      <c r="AC203" s="4"/>
+      <c r="AD203" s="4"/>
+      <c r="AE203" s="4"/>
+      <c r="AF203" s="4" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>201</v>
       </c>
@@ -12724,11 +16331,27 @@
       <c r="O204" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P204" s="4" t="s">
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+      <c r="U204" s="4"/>
+      <c r="V204" s="4"/>
+      <c r="W204" s="4"/>
+      <c r="X204" s="4"/>
+      <c r="Y204" s="4"/>
+      <c r="Z204" s="4"/>
+      <c r="AA204" s="4"/>
+      <c r="AB204" s="4"/>
+      <c r="AC204" s="4"/>
+      <c r="AD204" s="4"/>
+      <c r="AE204" s="4"/>
+      <c r="AF204" s="4" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>202</v>
       </c>
@@ -12766,11 +16389,27 @@
       <c r="O205" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P205" s="4" t="s">
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+      <c r="U205" s="4"/>
+      <c r="V205" s="4"/>
+      <c r="W205" s="4"/>
+      <c r="X205" s="4"/>
+      <c r="Y205" s="4"/>
+      <c r="Z205" s="4"/>
+      <c r="AA205" s="4"/>
+      <c r="AB205" s="4"/>
+      <c r="AC205" s="4"/>
+      <c r="AD205" s="4"/>
+      <c r="AE205" s="4"/>
+      <c r="AF205" s="4" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>203</v>
       </c>
@@ -12808,11 +16447,27 @@
       <c r="O206" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P206" s="4" t="s">
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+      <c r="U206" s="4"/>
+      <c r="V206" s="4"/>
+      <c r="W206" s="4"/>
+      <c r="X206" s="4"/>
+      <c r="Y206" s="4"/>
+      <c r="Z206" s="4"/>
+      <c r="AA206" s="4"/>
+      <c r="AB206" s="4"/>
+      <c r="AC206" s="4"/>
+      <c r="AD206" s="4"/>
+      <c r="AE206" s="4"/>
+      <c r="AF206" s="4" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>204</v>
       </c>
@@ -12850,11 +16505,27 @@
       <c r="O207" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P207" s="4" t="s">
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="4"/>
+      <c r="S207" s="4"/>
+      <c r="T207" s="4"/>
+      <c r="U207" s="4"/>
+      <c r="V207" s="4"/>
+      <c r="W207" s="4"/>
+      <c r="X207" s="4"/>
+      <c r="Y207" s="4"/>
+      <c r="Z207" s="4"/>
+      <c r="AA207" s="4"/>
+      <c r="AB207" s="4"/>
+      <c r="AC207" s="4"/>
+      <c r="AD207" s="4"/>
+      <c r="AE207" s="4"/>
+      <c r="AF207" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>205</v>
       </c>
@@ -12892,11 +16563,27 @@
       <c r="O208" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P208" s="4" t="s">
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="4"/>
+      <c r="S208" s="4"/>
+      <c r="T208" s="4"/>
+      <c r="U208" s="4"/>
+      <c r="V208" s="4"/>
+      <c r="W208" s="4"/>
+      <c r="X208" s="4"/>
+      <c r="Y208" s="4"/>
+      <c r="Z208" s="4"/>
+      <c r="AA208" s="4"/>
+      <c r="AB208" s="4"/>
+      <c r="AC208" s="4"/>
+      <c r="AD208" s="4"/>
+      <c r="AE208" s="4"/>
+      <c r="AF208" s="4" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>206</v>
       </c>
@@ -12934,11 +16621,27 @@
       <c r="O209" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P209" s="4" t="s">
+      <c r="P209" s="4"/>
+      <c r="Q209" s="4"/>
+      <c r="R209" s="4"/>
+      <c r="S209" s="4"/>
+      <c r="T209" s="4"/>
+      <c r="U209" s="4"/>
+      <c r="V209" s="4"/>
+      <c r="W209" s="4"/>
+      <c r="X209" s="4"/>
+      <c r="Y209" s="4"/>
+      <c r="Z209" s="4"/>
+      <c r="AA209" s="4"/>
+      <c r="AB209" s="4"/>
+      <c r="AC209" s="4"/>
+      <c r="AD209" s="4"/>
+      <c r="AE209" s="4"/>
+      <c r="AF209" s="4" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>207</v>
       </c>
@@ -12976,11 +16679,27 @@
       <c r="O210" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P210" s="4" t="s">
+      <c r="P210" s="4"/>
+      <c r="Q210" s="4"/>
+      <c r="R210" s="4"/>
+      <c r="S210" s="4"/>
+      <c r="T210" s="4"/>
+      <c r="U210" s="4"/>
+      <c r="V210" s="4"/>
+      <c r="W210" s="4"/>
+      <c r="X210" s="4"/>
+      <c r="Y210" s="4"/>
+      <c r="Z210" s="4"/>
+      <c r="AA210" s="4"/>
+      <c r="AB210" s="4"/>
+      <c r="AC210" s="4"/>
+      <c r="AD210" s="4"/>
+      <c r="AE210" s="4"/>
+      <c r="AF210" s="4" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>208</v>
       </c>
@@ -13018,11 +16737,27 @@
       <c r="O211" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P211" s="4" t="s">
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
+      <c r="R211" s="4"/>
+      <c r="S211" s="4"/>
+      <c r="T211" s="4"/>
+      <c r="U211" s="4"/>
+      <c r="V211" s="4"/>
+      <c r="W211" s="4"/>
+      <c r="X211" s="4"/>
+      <c r="Y211" s="4"/>
+      <c r="Z211" s="4"/>
+      <c r="AA211" s="4"/>
+      <c r="AB211" s="4"/>
+      <c r="AC211" s="4"/>
+      <c r="AD211" s="4"/>
+      <c r="AE211" s="4"/>
+      <c r="AF211" s="4" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>209</v>
       </c>
@@ -13060,11 +16795,27 @@
       <c r="O212" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P212" s="4" t="s">
+      <c r="P212" s="4"/>
+      <c r="Q212" s="4"/>
+      <c r="R212" s="4"/>
+      <c r="S212" s="4"/>
+      <c r="T212" s="4"/>
+      <c r="U212" s="4"/>
+      <c r="V212" s="4"/>
+      <c r="W212" s="4"/>
+      <c r="X212" s="4"/>
+      <c r="Y212" s="4"/>
+      <c r="Z212" s="4"/>
+      <c r="AA212" s="4"/>
+      <c r="AB212" s="4"/>
+      <c r="AC212" s="4"/>
+      <c r="AD212" s="4"/>
+      <c r="AE212" s="4"/>
+      <c r="AF212" s="4" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>210</v>
       </c>
@@ -13102,11 +16853,27 @@
       <c r="O213" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P213" s="4" t="s">
+      <c r="P213" s="4"/>
+      <c r="Q213" s="4"/>
+      <c r="R213" s="4"/>
+      <c r="S213" s="4"/>
+      <c r="T213" s="4"/>
+      <c r="U213" s="4"/>
+      <c r="V213" s="4"/>
+      <c r="W213" s="4"/>
+      <c r="X213" s="4"/>
+      <c r="Y213" s="4"/>
+      <c r="Z213" s="4"/>
+      <c r="AA213" s="4"/>
+      <c r="AB213" s="4"/>
+      <c r="AC213" s="4"/>
+      <c r="AD213" s="4"/>
+      <c r="AE213" s="4"/>
+      <c r="AF213" s="4" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>211</v>
       </c>
@@ -13144,11 +16911,27 @@
       <c r="O214" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P214" s="4" t="s">
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="4"/>
+      <c r="S214" s="4"/>
+      <c r="T214" s="4"/>
+      <c r="U214" s="4"/>
+      <c r="V214" s="4"/>
+      <c r="W214" s="4"/>
+      <c r="X214" s="4"/>
+      <c r="Y214" s="4"/>
+      <c r="Z214" s="4"/>
+      <c r="AA214" s="4"/>
+      <c r="AB214" s="4"/>
+      <c r="AC214" s="4"/>
+      <c r="AD214" s="4"/>
+      <c r="AE214" s="4"/>
+      <c r="AF214" s="4" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>212</v>
       </c>
@@ -13186,11 +16969,27 @@
       <c r="O215" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P215" s="4" t="s">
+      <c r="P215" s="4"/>
+      <c r="Q215" s="4"/>
+      <c r="R215" s="4"/>
+      <c r="S215" s="4"/>
+      <c r="T215" s="4"/>
+      <c r="U215" s="4"/>
+      <c r="V215" s="4"/>
+      <c r="W215" s="4"/>
+      <c r="X215" s="4"/>
+      <c r="Y215" s="4"/>
+      <c r="Z215" s="4"/>
+      <c r="AA215" s="4"/>
+      <c r="AB215" s="4"/>
+      <c r="AC215" s="4"/>
+      <c r="AD215" s="4"/>
+      <c r="AE215" s="4"/>
+      <c r="AF215" s="4" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>213</v>
       </c>
@@ -13228,11 +17027,27 @@
       <c r="O216" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P216" s="4" t="s">
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="4"/>
+      <c r="S216" s="4"/>
+      <c r="T216" s="4"/>
+      <c r="U216" s="4"/>
+      <c r="V216" s="4"/>
+      <c r="W216" s="4"/>
+      <c r="X216" s="4"/>
+      <c r="Y216" s="4"/>
+      <c r="Z216" s="4"/>
+      <c r="AA216" s="4"/>
+      <c r="AB216" s="4"/>
+      <c r="AC216" s="4"/>
+      <c r="AD216" s="4"/>
+      <c r="AE216" s="4"/>
+      <c r="AF216" s="4" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>214</v>
       </c>
@@ -13270,11 +17085,27 @@
       <c r="O217" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P217" s="4" t="s">
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="4"/>
+      <c r="S217" s="4"/>
+      <c r="T217" s="4"/>
+      <c r="U217" s="4"/>
+      <c r="V217" s="4"/>
+      <c r="W217" s="4"/>
+      <c r="X217" s="4"/>
+      <c r="Y217" s="4"/>
+      <c r="Z217" s="4"/>
+      <c r="AA217" s="4"/>
+      <c r="AB217" s="4"/>
+      <c r="AC217" s="4"/>
+      <c r="AD217" s="4"/>
+      <c r="AE217" s="4"/>
+      <c r="AF217" s="4" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>215</v>
       </c>
@@ -13312,11 +17143,27 @@
       <c r="O218" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P218" s="4" t="s">
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
+      <c r="T218" s="4"/>
+      <c r="U218" s="4"/>
+      <c r="V218" s="4"/>
+      <c r="W218" s="4"/>
+      <c r="X218" s="4"/>
+      <c r="Y218" s="4"/>
+      <c r="Z218" s="4"/>
+      <c r="AA218" s="4"/>
+      <c r="AB218" s="4"/>
+      <c r="AC218" s="4"/>
+      <c r="AD218" s="4"/>
+      <c r="AE218" s="4"/>
+      <c r="AF218" s="4" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>216</v>
       </c>
@@ -13354,11 +17201,27 @@
       <c r="O219" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P219" s="4" t="s">
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="4"/>
+      <c r="S219" s="4"/>
+      <c r="T219" s="4"/>
+      <c r="U219" s="4"/>
+      <c r="V219" s="4"/>
+      <c r="W219" s="4"/>
+      <c r="X219" s="4"/>
+      <c r="Y219" s="4"/>
+      <c r="Z219" s="4"/>
+      <c r="AA219" s="4"/>
+      <c r="AB219" s="4"/>
+      <c r="AC219" s="4"/>
+      <c r="AD219" s="4"/>
+      <c r="AE219" s="4"/>
+      <c r="AF219" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>217</v>
       </c>
@@ -13396,11 +17259,27 @@
       <c r="O220" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P220" s="4" t="s">
+      <c r="P220" s="4"/>
+      <c r="Q220" s="4"/>
+      <c r="R220" s="4"/>
+      <c r="S220" s="4"/>
+      <c r="T220" s="4"/>
+      <c r="U220" s="4"/>
+      <c r="V220" s="4"/>
+      <c r="W220" s="4"/>
+      <c r="X220" s="4"/>
+      <c r="Y220" s="4"/>
+      <c r="Z220" s="4"/>
+      <c r="AA220" s="4"/>
+      <c r="AB220" s="4"/>
+      <c r="AC220" s="4"/>
+      <c r="AD220" s="4"/>
+      <c r="AE220" s="4"/>
+      <c r="AF220" s="4" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>218</v>
       </c>
@@ -13438,11 +17317,27 @@
       <c r="O221" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P221" s="4" t="s">
+      <c r="P221" s="4"/>
+      <c r="Q221" s="4"/>
+      <c r="R221" s="4"/>
+      <c r="S221" s="4"/>
+      <c r="T221" s="4"/>
+      <c r="U221" s="4"/>
+      <c r="V221" s="4"/>
+      <c r="W221" s="4"/>
+      <c r="X221" s="4"/>
+      <c r="Y221" s="4"/>
+      <c r="Z221" s="4"/>
+      <c r="AA221" s="4"/>
+      <c r="AB221" s="4"/>
+      <c r="AC221" s="4"/>
+      <c r="AD221" s="4"/>
+      <c r="AE221" s="4"/>
+      <c r="AF221" s="4" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>219</v>
       </c>
@@ -13480,11 +17375,27 @@
       <c r="O222" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P222" s="4" t="s">
+      <c r="P222" s="4"/>
+      <c r="Q222" s="4"/>
+      <c r="R222" s="4"/>
+      <c r="S222" s="4"/>
+      <c r="T222" s="4"/>
+      <c r="U222" s="4"/>
+      <c r="V222" s="4"/>
+      <c r="W222" s="4"/>
+      <c r="X222" s="4"/>
+      <c r="Y222" s="4"/>
+      <c r="Z222" s="4"/>
+      <c r="AA222" s="4"/>
+      <c r="AB222" s="4"/>
+      <c r="AC222" s="4"/>
+      <c r="AD222" s="4"/>
+      <c r="AE222" s="4"/>
+      <c r="AF222" s="4" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>220</v>
       </c>
@@ -13522,11 +17433,27 @@
       <c r="O223" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P223" s="4" t="s">
+      <c r="P223" s="4"/>
+      <c r="Q223" s="4"/>
+      <c r="R223" s="4"/>
+      <c r="S223" s="4"/>
+      <c r="T223" s="4"/>
+      <c r="U223" s="4"/>
+      <c r="V223" s="4"/>
+      <c r="W223" s="4"/>
+      <c r="X223" s="4"/>
+      <c r="Y223" s="4"/>
+      <c r="Z223" s="4"/>
+      <c r="AA223" s="4"/>
+      <c r="AB223" s="4"/>
+      <c r="AC223" s="4"/>
+      <c r="AD223" s="4"/>
+      <c r="AE223" s="4"/>
+      <c r="AF223" s="4" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>221</v>
       </c>
@@ -13564,11 +17491,27 @@
       <c r="O224" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P224" s="4" t="s">
+      <c r="P224" s="4"/>
+      <c r="Q224" s="4"/>
+      <c r="R224" s="4"/>
+      <c r="S224" s="4"/>
+      <c r="T224" s="4"/>
+      <c r="U224" s="4"/>
+      <c r="V224" s="4"/>
+      <c r="W224" s="4"/>
+      <c r="X224" s="4"/>
+      <c r="Y224" s="4"/>
+      <c r="Z224" s="4"/>
+      <c r="AA224" s="4"/>
+      <c r="AB224" s="4"/>
+      <c r="AC224" s="4"/>
+      <c r="AD224" s="4"/>
+      <c r="AE224" s="4"/>
+      <c r="AF224" s="4" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>222</v>
       </c>
@@ -13606,11 +17549,27 @@
       <c r="O225" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P225" s="4" t="s">
+      <c r="P225" s="4"/>
+      <c r="Q225" s="4"/>
+      <c r="R225" s="4"/>
+      <c r="S225" s="4"/>
+      <c r="T225" s="4"/>
+      <c r="U225" s="4"/>
+      <c r="V225" s="4"/>
+      <c r="W225" s="4"/>
+      <c r="X225" s="4"/>
+      <c r="Y225" s="4"/>
+      <c r="Z225" s="4"/>
+      <c r="AA225" s="4"/>
+      <c r="AB225" s="4"/>
+      <c r="AC225" s="4"/>
+      <c r="AD225" s="4"/>
+      <c r="AE225" s="4"/>
+      <c r="AF225" s="4" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>223</v>
       </c>
@@ -13648,11 +17607,27 @@
       <c r="O226" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P226" s="4" t="s">
+      <c r="P226" s="4"/>
+      <c r="Q226" s="4"/>
+      <c r="R226" s="4"/>
+      <c r="S226" s="4"/>
+      <c r="T226" s="4"/>
+      <c r="U226" s="4"/>
+      <c r="V226" s="4"/>
+      <c r="W226" s="4"/>
+      <c r="X226" s="4"/>
+      <c r="Y226" s="4"/>
+      <c r="Z226" s="4"/>
+      <c r="AA226" s="4"/>
+      <c r="AB226" s="4"/>
+      <c r="AC226" s="4"/>
+      <c r="AD226" s="4"/>
+      <c r="AE226" s="4"/>
+      <c r="AF226" s="4" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>224</v>
       </c>
@@ -13690,11 +17665,27 @@
       <c r="O227" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P227" s="4" t="s">
+      <c r="P227" s="4"/>
+      <c r="Q227" s="4"/>
+      <c r="R227" s="4"/>
+      <c r="S227" s="4"/>
+      <c r="T227" s="4"/>
+      <c r="U227" s="4"/>
+      <c r="V227" s="4"/>
+      <c r="W227" s="4"/>
+      <c r="X227" s="4"/>
+      <c r="Y227" s="4"/>
+      <c r="Z227" s="4"/>
+      <c r="AA227" s="4"/>
+      <c r="AB227" s="4"/>
+      <c r="AC227" s="4"/>
+      <c r="AD227" s="4"/>
+      <c r="AE227" s="4"/>
+      <c r="AF227" s="4" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>225</v>
       </c>
@@ -13732,11 +17723,27 @@
       <c r="O228" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P228" s="4" t="s">
+      <c r="P228" s="4"/>
+      <c r="Q228" s="4"/>
+      <c r="R228" s="4"/>
+      <c r="S228" s="4"/>
+      <c r="T228" s="4"/>
+      <c r="U228" s="4"/>
+      <c r="V228" s="4"/>
+      <c r="W228" s="4"/>
+      <c r="X228" s="4"/>
+      <c r="Y228" s="4"/>
+      <c r="Z228" s="4"/>
+      <c r="AA228" s="4"/>
+      <c r="AB228" s="4"/>
+      <c r="AC228" s="4"/>
+      <c r="AD228" s="4"/>
+      <c r="AE228" s="4"/>
+      <c r="AF228" s="4" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>226</v>
       </c>
@@ -13774,11 +17781,27 @@
       <c r="O229" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P229" s="4" t="s">
+      <c r="P229" s="4"/>
+      <c r="Q229" s="4"/>
+      <c r="R229" s="4"/>
+      <c r="S229" s="4"/>
+      <c r="T229" s="4"/>
+      <c r="U229" s="4"/>
+      <c r="V229" s="4"/>
+      <c r="W229" s="4"/>
+      <c r="X229" s="4"/>
+      <c r="Y229" s="4"/>
+      <c r="Z229" s="4"/>
+      <c r="AA229" s="4"/>
+      <c r="AB229" s="4"/>
+      <c r="AC229" s="4"/>
+      <c r="AD229" s="4"/>
+      <c r="AE229" s="4"/>
+      <c r="AF229" s="4" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>227</v>
       </c>
@@ -13816,11 +17839,27 @@
       <c r="O230" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P230" s="4" t="s">
+      <c r="P230" s="4"/>
+      <c r="Q230" s="4"/>
+      <c r="R230" s="4"/>
+      <c r="S230" s="4"/>
+      <c r="T230" s="4"/>
+      <c r="U230" s="4"/>
+      <c r="V230" s="4"/>
+      <c r="W230" s="4"/>
+      <c r="X230" s="4"/>
+      <c r="Y230" s="4"/>
+      <c r="Z230" s="4"/>
+      <c r="AA230" s="4"/>
+      <c r="AB230" s="4"/>
+      <c r="AC230" s="4"/>
+      <c r="AD230" s="4"/>
+      <c r="AE230" s="4"/>
+      <c r="AF230" s="4" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>228</v>
       </c>
@@ -13858,11 +17897,27 @@
       <c r="O231" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P231" s="4" t="s">
+      <c r="P231" s="4"/>
+      <c r="Q231" s="4"/>
+      <c r="R231" s="4"/>
+      <c r="S231" s="4"/>
+      <c r="T231" s="4"/>
+      <c r="U231" s="4"/>
+      <c r="V231" s="4"/>
+      <c r="W231" s="4"/>
+      <c r="X231" s="4"/>
+      <c r="Y231" s="4"/>
+      <c r="Z231" s="4"/>
+      <c r="AA231" s="4"/>
+      <c r="AB231" s="4"/>
+      <c r="AC231" s="4"/>
+      <c r="AD231" s="4"/>
+      <c r="AE231" s="4"/>
+      <c r="AF231" s="4" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>229</v>
       </c>
@@ -13900,11 +17955,27 @@
       <c r="O232" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P232" s="4" t="s">
+      <c r="P232" s="4"/>
+      <c r="Q232" s="4"/>
+      <c r="R232" s="4"/>
+      <c r="S232" s="4"/>
+      <c r="T232" s="4"/>
+      <c r="U232" s="4"/>
+      <c r="V232" s="4"/>
+      <c r="W232" s="4"/>
+      <c r="X232" s="4"/>
+      <c r="Y232" s="4"/>
+      <c r="Z232" s="4"/>
+      <c r="AA232" s="4"/>
+      <c r="AB232" s="4"/>
+      <c r="AC232" s="4"/>
+      <c r="AD232" s="4"/>
+      <c r="AE232" s="4"/>
+      <c r="AF232" s="4" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>230</v>
       </c>
@@ -13942,11 +18013,27 @@
       <c r="O233" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P233" s="4" t="s">
+      <c r="P233" s="4"/>
+      <c r="Q233" s="4"/>
+      <c r="R233" s="4"/>
+      <c r="S233" s="4"/>
+      <c r="T233" s="4"/>
+      <c r="U233" s="4"/>
+      <c r="V233" s="4"/>
+      <c r="W233" s="4"/>
+      <c r="X233" s="4"/>
+      <c r="Y233" s="4"/>
+      <c r="Z233" s="4"/>
+      <c r="AA233" s="4"/>
+      <c r="AB233" s="4"/>
+      <c r="AC233" s="4"/>
+      <c r="AD233" s="4"/>
+      <c r="AE233" s="4"/>
+      <c r="AF233" s="4" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>231</v>
       </c>
@@ -13984,11 +18071,27 @@
       <c r="O234" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P234" s="4" t="s">
+      <c r="P234" s="4"/>
+      <c r="Q234" s="4"/>
+      <c r="R234" s="4"/>
+      <c r="S234" s="4"/>
+      <c r="T234" s="4"/>
+      <c r="U234" s="4"/>
+      <c r="V234" s="4"/>
+      <c r="W234" s="4"/>
+      <c r="X234" s="4"/>
+      <c r="Y234" s="4"/>
+      <c r="Z234" s="4"/>
+      <c r="AA234" s="4"/>
+      <c r="AB234" s="4"/>
+      <c r="AC234" s="4"/>
+      <c r="AD234" s="4"/>
+      <c r="AE234" s="4"/>
+      <c r="AF234" s="4" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>232</v>
       </c>
@@ -14026,11 +18129,27 @@
       <c r="O235" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P235" s="4" t="s">
+      <c r="P235" s="4"/>
+      <c r="Q235" s="4"/>
+      <c r="R235" s="4"/>
+      <c r="S235" s="4"/>
+      <c r="T235" s="4"/>
+      <c r="U235" s="4"/>
+      <c r="V235" s="4"/>
+      <c r="W235" s="4"/>
+      <c r="X235" s="4"/>
+      <c r="Y235" s="4"/>
+      <c r="Z235" s="4"/>
+      <c r="AA235" s="4"/>
+      <c r="AB235" s="4"/>
+      <c r="AC235" s="4"/>
+      <c r="AD235" s="4"/>
+      <c r="AE235" s="4"/>
+      <c r="AF235" s="4" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>233</v>
       </c>
@@ -14068,11 +18187,27 @@
       <c r="O236" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P236" s="4" t="s">
+      <c r="P236" s="4"/>
+      <c r="Q236" s="4"/>
+      <c r="R236" s="4"/>
+      <c r="S236" s="4"/>
+      <c r="T236" s="4"/>
+      <c r="U236" s="4"/>
+      <c r="V236" s="4"/>
+      <c r="W236" s="4"/>
+      <c r="X236" s="4"/>
+      <c r="Y236" s="4"/>
+      <c r="Z236" s="4"/>
+      <c r="AA236" s="4"/>
+      <c r="AB236" s="4"/>
+      <c r="AC236" s="4"/>
+      <c r="AD236" s="4"/>
+      <c r="AE236" s="4"/>
+      <c r="AF236" s="4" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>234</v>
       </c>
@@ -14110,11 +18245,27 @@
       <c r="O237" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P237" s="4" t="s">
+      <c r="P237" s="4"/>
+      <c r="Q237" s="4"/>
+      <c r="R237" s="4"/>
+      <c r="S237" s="4"/>
+      <c r="T237" s="4"/>
+      <c r="U237" s="4"/>
+      <c r="V237" s="4"/>
+      <c r="W237" s="4"/>
+      <c r="X237" s="4"/>
+      <c r="Y237" s="4"/>
+      <c r="Z237" s="4"/>
+      <c r="AA237" s="4"/>
+      <c r="AB237" s="4"/>
+      <c r="AC237" s="4"/>
+      <c r="AD237" s="4"/>
+      <c r="AE237" s="4"/>
+      <c r="AF237" s="4" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>235</v>
       </c>
@@ -14152,11 +18303,27 @@
       <c r="O238" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P238" s="4" t="s">
+      <c r="P238" s="4"/>
+      <c r="Q238" s="4"/>
+      <c r="R238" s="4"/>
+      <c r="S238" s="4"/>
+      <c r="T238" s="4"/>
+      <c r="U238" s="4"/>
+      <c r="V238" s="4"/>
+      <c r="W238" s="4"/>
+      <c r="X238" s="4"/>
+      <c r="Y238" s="4"/>
+      <c r="Z238" s="4"/>
+      <c r="AA238" s="4"/>
+      <c r="AB238" s="4"/>
+      <c r="AC238" s="4"/>
+      <c r="AD238" s="4"/>
+      <c r="AE238" s="4"/>
+      <c r="AF238" s="4" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>236</v>
       </c>
@@ -14194,11 +18361,27 @@
       <c r="O239" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P239" s="4" t="s">
+      <c r="P239" s="4"/>
+      <c r="Q239" s="4"/>
+      <c r="R239" s="4"/>
+      <c r="S239" s="4"/>
+      <c r="T239" s="4"/>
+      <c r="U239" s="4"/>
+      <c r="V239" s="4"/>
+      <c r="W239" s="4"/>
+      <c r="X239" s="4"/>
+      <c r="Y239" s="4"/>
+      <c r="Z239" s="4"/>
+      <c r="AA239" s="4"/>
+      <c r="AB239" s="4"/>
+      <c r="AC239" s="4"/>
+      <c r="AD239" s="4"/>
+      <c r="AE239" s="4"/>
+      <c r="AF239" s="4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>237</v>
       </c>
@@ -14236,11 +18419,27 @@
       <c r="O240" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P240" s="4" t="s">
+      <c r="P240" s="4"/>
+      <c r="Q240" s="4"/>
+      <c r="R240" s="4"/>
+      <c r="S240" s="4"/>
+      <c r="T240" s="4"/>
+      <c r="U240" s="4"/>
+      <c r="V240" s="4"/>
+      <c r="W240" s="4"/>
+      <c r="X240" s="4"/>
+      <c r="Y240" s="4"/>
+      <c r="Z240" s="4"/>
+      <c r="AA240" s="4"/>
+      <c r="AB240" s="4"/>
+      <c r="AC240" s="4"/>
+      <c r="AD240" s="4"/>
+      <c r="AE240" s="4"/>
+      <c r="AF240" s="4" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>238</v>
       </c>
@@ -14278,11 +18477,27 @@
       <c r="O241" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P241" s="4" t="s">
+      <c r="P241" s="4"/>
+      <c r="Q241" s="4"/>
+      <c r="R241" s="4"/>
+      <c r="S241" s="4"/>
+      <c r="T241" s="4"/>
+      <c r="U241" s="4"/>
+      <c r="V241" s="4"/>
+      <c r="W241" s="4"/>
+      <c r="X241" s="4"/>
+      <c r="Y241" s="4"/>
+      <c r="Z241" s="4"/>
+      <c r="AA241" s="4"/>
+      <c r="AB241" s="4"/>
+      <c r="AC241" s="4"/>
+      <c r="AD241" s="4"/>
+      <c r="AE241" s="4"/>
+      <c r="AF241" s="4" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>239</v>
       </c>
@@ -14320,11 +18535,27 @@
       <c r="O242" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P242" s="4" t="s">
+      <c r="P242" s="4"/>
+      <c r="Q242" s="4"/>
+      <c r="R242" s="4"/>
+      <c r="S242" s="4"/>
+      <c r="T242" s="4"/>
+      <c r="U242" s="4"/>
+      <c r="V242" s="4"/>
+      <c r="W242" s="4"/>
+      <c r="X242" s="4"/>
+      <c r="Y242" s="4"/>
+      <c r="Z242" s="4"/>
+      <c r="AA242" s="4"/>
+      <c r="AB242" s="4"/>
+      <c r="AC242" s="4"/>
+      <c r="AD242" s="4"/>
+      <c r="AE242" s="4"/>
+      <c r="AF242" s="4" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>240</v>
       </c>
@@ -14362,11 +18593,27 @@
       <c r="O243" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P243" s="4" t="s">
+      <c r="P243" s="4"/>
+      <c r="Q243" s="4"/>
+      <c r="R243" s="4"/>
+      <c r="S243" s="4"/>
+      <c r="T243" s="4"/>
+      <c r="U243" s="4"/>
+      <c r="V243" s="4"/>
+      <c r="W243" s="4"/>
+      <c r="X243" s="4"/>
+      <c r="Y243" s="4"/>
+      <c r="Z243" s="4"/>
+      <c r="AA243" s="4"/>
+      <c r="AB243" s="4"/>
+      <c r="AC243" s="4"/>
+      <c r="AD243" s="4"/>
+      <c r="AE243" s="4"/>
+      <c r="AF243" s="4" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>241</v>
       </c>
@@ -14404,11 +18651,27 @@
       <c r="O244" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P244" s="4" t="s">
+      <c r="P244" s="4"/>
+      <c r="Q244" s="4"/>
+      <c r="R244" s="4"/>
+      <c r="S244" s="4"/>
+      <c r="T244" s="4"/>
+      <c r="U244" s="4"/>
+      <c r="V244" s="4"/>
+      <c r="W244" s="4"/>
+      <c r="X244" s="4"/>
+      <c r="Y244" s="4"/>
+      <c r="Z244" s="4"/>
+      <c r="AA244" s="4"/>
+      <c r="AB244" s="4"/>
+      <c r="AC244" s="4"/>
+      <c r="AD244" s="4"/>
+      <c r="AE244" s="4"/>
+      <c r="AF244" s="4" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>242</v>
       </c>
@@ -14446,11 +18709,27 @@
       <c r="O245" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P245" s="4" t="s">
+      <c r="P245" s="4"/>
+      <c r="Q245" s="4"/>
+      <c r="R245" s="4"/>
+      <c r="S245" s="4"/>
+      <c r="T245" s="4"/>
+      <c r="U245" s="4"/>
+      <c r="V245" s="4"/>
+      <c r="W245" s="4"/>
+      <c r="X245" s="4"/>
+      <c r="Y245" s="4"/>
+      <c r="Z245" s="4"/>
+      <c r="AA245" s="4"/>
+      <c r="AB245" s="4"/>
+      <c r="AC245" s="4"/>
+      <c r="AD245" s="4"/>
+      <c r="AE245" s="4"/>
+      <c r="AF245" s="4" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>243</v>
       </c>
@@ -14488,11 +18767,27 @@
       <c r="O246" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P246" s="4" t="s">
+      <c r="P246" s="4"/>
+      <c r="Q246" s="4"/>
+      <c r="R246" s="4"/>
+      <c r="S246" s="4"/>
+      <c r="T246" s="4"/>
+      <c r="U246" s="4"/>
+      <c r="V246" s="4"/>
+      <c r="W246" s="4"/>
+      <c r="X246" s="4"/>
+      <c r="Y246" s="4"/>
+      <c r="Z246" s="4"/>
+      <c r="AA246" s="4"/>
+      <c r="AB246" s="4"/>
+      <c r="AC246" s="4"/>
+      <c r="AD246" s="4"/>
+      <c r="AE246" s="4"/>
+      <c r="AF246" s="4" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>244</v>
       </c>
@@ -14530,11 +18825,27 @@
       <c r="O247" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P247" s="4" t="s">
+      <c r="P247" s="4"/>
+      <c r="Q247" s="4"/>
+      <c r="R247" s="4"/>
+      <c r="S247" s="4"/>
+      <c r="T247" s="4"/>
+      <c r="U247" s="4"/>
+      <c r="V247" s="4"/>
+      <c r="W247" s="4"/>
+      <c r="X247" s="4"/>
+      <c r="Y247" s="4"/>
+      <c r="Z247" s="4"/>
+      <c r="AA247" s="4"/>
+      <c r="AB247" s="4"/>
+      <c r="AC247" s="4"/>
+      <c r="AD247" s="4"/>
+      <c r="AE247" s="4"/>
+      <c r="AF247" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>245</v>
       </c>
@@ -14572,11 +18883,27 @@
       <c r="O248" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P248" s="4" t="s">
+      <c r="P248" s="4"/>
+      <c r="Q248" s="4"/>
+      <c r="R248" s="4"/>
+      <c r="S248" s="4"/>
+      <c r="T248" s="4"/>
+      <c r="U248" s="4"/>
+      <c r="V248" s="4"/>
+      <c r="W248" s="4"/>
+      <c r="X248" s="4"/>
+      <c r="Y248" s="4"/>
+      <c r="Z248" s="4"/>
+      <c r="AA248" s="4"/>
+      <c r="AB248" s="4"/>
+      <c r="AC248" s="4"/>
+      <c r="AD248" s="4"/>
+      <c r="AE248" s="4"/>
+      <c r="AF248" s="4" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>246</v>
       </c>
@@ -14614,11 +18941,27 @@
       <c r="O249" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P249" s="4" t="s">
+      <c r="P249" s="4"/>
+      <c r="Q249" s="4"/>
+      <c r="R249" s="4"/>
+      <c r="S249" s="4"/>
+      <c r="T249" s="4"/>
+      <c r="U249" s="4"/>
+      <c r="V249" s="4"/>
+      <c r="W249" s="4"/>
+      <c r="X249" s="4"/>
+      <c r="Y249" s="4"/>
+      <c r="Z249" s="4"/>
+      <c r="AA249" s="4"/>
+      <c r="AB249" s="4"/>
+      <c r="AC249" s="4"/>
+      <c r="AD249" s="4"/>
+      <c r="AE249" s="4"/>
+      <c r="AF249" s="4" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>247</v>
       </c>
@@ -14656,11 +18999,27 @@
       <c r="O250" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P250" s="4" t="s">
+      <c r="P250" s="4"/>
+      <c r="Q250" s="4"/>
+      <c r="R250" s="4"/>
+      <c r="S250" s="4"/>
+      <c r="T250" s="4"/>
+      <c r="U250" s="4"/>
+      <c r="V250" s="4"/>
+      <c r="W250" s="4"/>
+      <c r="X250" s="4"/>
+      <c r="Y250" s="4"/>
+      <c r="Z250" s="4"/>
+      <c r="AA250" s="4"/>
+      <c r="AB250" s="4"/>
+      <c r="AC250" s="4"/>
+      <c r="AD250" s="4"/>
+      <c r="AE250" s="4"/>
+      <c r="AF250" s="4" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>248</v>
       </c>
@@ -14698,11 +19057,27 @@
       <c r="O251" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P251" s="4" t="s">
+      <c r="P251" s="4"/>
+      <c r="Q251" s="4"/>
+      <c r="R251" s="4"/>
+      <c r="S251" s="4"/>
+      <c r="T251" s="4"/>
+      <c r="U251" s="4"/>
+      <c r="V251" s="4"/>
+      <c r="W251" s="4"/>
+      <c r="X251" s="4"/>
+      <c r="Y251" s="4"/>
+      <c r="Z251" s="4"/>
+      <c r="AA251" s="4"/>
+      <c r="AB251" s="4"/>
+      <c r="AC251" s="4"/>
+      <c r="AD251" s="4"/>
+      <c r="AE251" s="4"/>
+      <c r="AF251" s="4" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>249</v>
       </c>
@@ -14740,11 +19115,27 @@
       <c r="O252" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P252" s="4" t="s">
+      <c r="P252" s="4"/>
+      <c r="Q252" s="4"/>
+      <c r="R252" s="4"/>
+      <c r="S252" s="4"/>
+      <c r="T252" s="4"/>
+      <c r="U252" s="4"/>
+      <c r="V252" s="4"/>
+      <c r="W252" s="4"/>
+      <c r="X252" s="4"/>
+      <c r="Y252" s="4"/>
+      <c r="Z252" s="4"/>
+      <c r="AA252" s="4"/>
+      <c r="AB252" s="4"/>
+      <c r="AC252" s="4"/>
+      <c r="AD252" s="4"/>
+      <c r="AE252" s="4"/>
+      <c r="AF252" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>250</v>
       </c>
@@ -14782,11 +19173,27 @@
       <c r="O253" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P253" s="5" t="s">
+      <c r="P253" s="4"/>
+      <c r="Q253" s="4"/>
+      <c r="R253" s="4"/>
+      <c r="S253" s="4"/>
+      <c r="T253" s="4"/>
+      <c r="U253" s="4"/>
+      <c r="V253" s="4"/>
+      <c r="W253" s="4"/>
+      <c r="X253" s="4"/>
+      <c r="Y253" s="4"/>
+      <c r="Z253" s="4"/>
+      <c r="AA253" s="4"/>
+      <c r="AB253" s="4"/>
+      <c r="AC253" s="4"/>
+      <c r="AD253" s="4"/>
+      <c r="AE253" s="4"/>
+      <c r="AF253" s="5" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>251</v>
       </c>
@@ -14824,11 +19231,27 @@
       <c r="O254" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P254" s="5" t="s">
+      <c r="P254" s="4"/>
+      <c r="Q254" s="4"/>
+      <c r="R254" s="4"/>
+      <c r="S254" s="4"/>
+      <c r="T254" s="4"/>
+      <c r="U254" s="4"/>
+      <c r="V254" s="4"/>
+      <c r="W254" s="4"/>
+      <c r="X254" s="4"/>
+      <c r="Y254" s="4"/>
+      <c r="Z254" s="4"/>
+      <c r="AA254" s="4"/>
+      <c r="AB254" s="4"/>
+      <c r="AC254" s="4"/>
+      <c r="AD254" s="4"/>
+      <c r="AE254" s="4"/>
+      <c r="AF254" s="5" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>252</v>
       </c>
@@ -14866,11 +19289,27 @@
       <c r="O255" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P255" s="5" t="s">
+      <c r="P255" s="4"/>
+      <c r="Q255" s="4"/>
+      <c r="R255" s="4"/>
+      <c r="S255" s="4"/>
+      <c r="T255" s="4"/>
+      <c r="U255" s="4"/>
+      <c r="V255" s="4"/>
+      <c r="W255" s="4"/>
+      <c r="X255" s="4"/>
+      <c r="Y255" s="4"/>
+      <c r="Z255" s="4"/>
+      <c r="AA255" s="4"/>
+      <c r="AB255" s="4"/>
+      <c r="AC255" s="4"/>
+      <c r="AD255" s="4"/>
+      <c r="AE255" s="4"/>
+      <c r="AF255" s="5" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>253</v>
       </c>
@@ -14908,11 +19347,27 @@
       <c r="O256" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P256" s="5" t="s">
+      <c r="P256" s="4"/>
+      <c r="Q256" s="4"/>
+      <c r="R256" s="4"/>
+      <c r="S256" s="4"/>
+      <c r="T256" s="4"/>
+      <c r="U256" s="4"/>
+      <c r="V256" s="4"/>
+      <c r="W256" s="4"/>
+      <c r="X256" s="4"/>
+      <c r="Y256" s="4"/>
+      <c r="Z256" s="4"/>
+      <c r="AA256" s="4"/>
+      <c r="AB256" s="4"/>
+      <c r="AC256" s="4"/>
+      <c r="AD256" s="4"/>
+      <c r="AE256" s="4"/>
+      <c r="AF256" s="5" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>254</v>
       </c>
@@ -14950,11 +19405,27 @@
       <c r="O257" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P257" s="5" t="s">
+      <c r="P257" s="4"/>
+      <c r="Q257" s="4"/>
+      <c r="R257" s="4"/>
+      <c r="S257" s="4"/>
+      <c r="T257" s="4"/>
+      <c r="U257" s="4"/>
+      <c r="V257" s="4"/>
+      <c r="W257" s="4"/>
+      <c r="X257" s="4"/>
+      <c r="Y257" s="4"/>
+      <c r="Z257" s="4"/>
+      <c r="AA257" s="4"/>
+      <c r="AB257" s="4"/>
+      <c r="AC257" s="4"/>
+      <c r="AD257" s="4"/>
+      <c r="AE257" s="4"/>
+      <c r="AF257" s="5" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>255</v>
       </c>
@@ -14992,11 +19463,27 @@
       <c r="O258" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P258" s="5" t="s">
+      <c r="P258" s="4"/>
+      <c r="Q258" s="4"/>
+      <c r="R258" s="4"/>
+      <c r="S258" s="4"/>
+      <c r="T258" s="4"/>
+      <c r="U258" s="4"/>
+      <c r="V258" s="4"/>
+      <c r="W258" s="4"/>
+      <c r="X258" s="4"/>
+      <c r="Y258" s="4"/>
+      <c r="Z258" s="4"/>
+      <c r="AA258" s="4"/>
+      <c r="AB258" s="4"/>
+      <c r="AC258" s="4"/>
+      <c r="AD258" s="4"/>
+      <c r="AE258" s="4"/>
+      <c r="AF258" s="5" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>256</v>
       </c>
@@ -15034,11 +19521,27 @@
       <c r="O259" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P259" s="5" t="s">
+      <c r="P259" s="4"/>
+      <c r="Q259" s="4"/>
+      <c r="R259" s="4"/>
+      <c r="S259" s="4"/>
+      <c r="T259" s="4"/>
+      <c r="U259" s="4"/>
+      <c r="V259" s="4"/>
+      <c r="W259" s="4"/>
+      <c r="X259" s="4"/>
+      <c r="Y259" s="4"/>
+      <c r="Z259" s="4"/>
+      <c r="AA259" s="4"/>
+      <c r="AB259" s="4"/>
+      <c r="AC259" s="4"/>
+      <c r="AD259" s="4"/>
+      <c r="AE259" s="4"/>
+      <c r="AF259" s="5" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>257</v>
       </c>
@@ -15076,11 +19579,27 @@
       <c r="O260" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P260" s="5" t="s">
+      <c r="P260" s="4"/>
+      <c r="Q260" s="4"/>
+      <c r="R260" s="4"/>
+      <c r="S260" s="4"/>
+      <c r="T260" s="4"/>
+      <c r="U260" s="4"/>
+      <c r="V260" s="4"/>
+      <c r="W260" s="4"/>
+      <c r="X260" s="4"/>
+      <c r="Y260" s="4"/>
+      <c r="Z260" s="4"/>
+      <c r="AA260" s="4"/>
+      <c r="AB260" s="4"/>
+      <c r="AC260" s="4"/>
+      <c r="AD260" s="4"/>
+      <c r="AE260" s="4"/>
+      <c r="AF260" s="5" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>258</v>
       </c>
@@ -15118,11 +19637,27 @@
       <c r="O261" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P261" s="5" t="s">
+      <c r="P261" s="4"/>
+      <c r="Q261" s="4"/>
+      <c r="R261" s="4"/>
+      <c r="S261" s="4"/>
+      <c r="T261" s="4"/>
+      <c r="U261" s="4"/>
+      <c r="V261" s="4"/>
+      <c r="W261" s="4"/>
+      <c r="X261" s="4"/>
+      <c r="Y261" s="4"/>
+      <c r="Z261" s="4"/>
+      <c r="AA261" s="4"/>
+      <c r="AB261" s="4"/>
+      <c r="AC261" s="4"/>
+      <c r="AD261" s="4"/>
+      <c r="AE261" s="4"/>
+      <c r="AF261" s="5" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>259</v>
       </c>
@@ -15160,11 +19695,27 @@
       <c r="O262" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P262" s="5" t="s">
+      <c r="P262" s="4"/>
+      <c r="Q262" s="4"/>
+      <c r="R262" s="4"/>
+      <c r="S262" s="4"/>
+      <c r="T262" s="4"/>
+      <c r="U262" s="4"/>
+      <c r="V262" s="4"/>
+      <c r="W262" s="4"/>
+      <c r="X262" s="4"/>
+      <c r="Y262" s="4"/>
+      <c r="Z262" s="4"/>
+      <c r="AA262" s="4"/>
+      <c r="AB262" s="4"/>
+      <c r="AC262" s="4"/>
+      <c r="AD262" s="4"/>
+      <c r="AE262" s="4"/>
+      <c r="AF262" s="5" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>260</v>
       </c>
@@ -15202,11 +19753,27 @@
       <c r="O263" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P263" s="5" t="s">
+      <c r="P263" s="4"/>
+      <c r="Q263" s="4"/>
+      <c r="R263" s="4"/>
+      <c r="S263" s="4"/>
+      <c r="T263" s="4"/>
+      <c r="U263" s="4"/>
+      <c r="V263" s="4"/>
+      <c r="W263" s="4"/>
+      <c r="X263" s="4"/>
+      <c r="Y263" s="4"/>
+      <c r="Z263" s="4"/>
+      <c r="AA263" s="4"/>
+      <c r="AB263" s="4"/>
+      <c r="AC263" s="4"/>
+      <c r="AD263" s="4"/>
+      <c r="AE263" s="4"/>
+      <c r="AF263" s="5" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>261</v>
       </c>
@@ -15244,11 +19811,27 @@
       <c r="O264" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P264" s="5" t="s">
+      <c r="P264" s="4"/>
+      <c r="Q264" s="4"/>
+      <c r="R264" s="4"/>
+      <c r="S264" s="4"/>
+      <c r="T264" s="4"/>
+      <c r="U264" s="4"/>
+      <c r="V264" s="4"/>
+      <c r="W264" s="4"/>
+      <c r="X264" s="4"/>
+      <c r="Y264" s="4"/>
+      <c r="Z264" s="4"/>
+      <c r="AA264" s="4"/>
+      <c r="AB264" s="4"/>
+      <c r="AC264" s="4"/>
+      <c r="AD264" s="4"/>
+      <c r="AE264" s="4"/>
+      <c r="AF264" s="5" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <v>262</v>
       </c>
@@ -15286,11 +19869,27 @@
       <c r="O265" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P265" s="5" t="s">
+      <c r="P265" s="4"/>
+      <c r="Q265" s="4"/>
+      <c r="R265" s="4"/>
+      <c r="S265" s="4"/>
+      <c r="T265" s="4"/>
+      <c r="U265" s="4"/>
+      <c r="V265" s="4"/>
+      <c r="W265" s="4"/>
+      <c r="X265" s="4"/>
+      <c r="Y265" s="4"/>
+      <c r="Z265" s="4"/>
+      <c r="AA265" s="4"/>
+      <c r="AB265" s="4"/>
+      <c r="AC265" s="4"/>
+      <c r="AD265" s="4"/>
+      <c r="AE265" s="4"/>
+      <c r="AF265" s="5" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <v>263</v>
       </c>
@@ -15328,11 +19927,27 @@
       <c r="O266" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P266" s="5" t="s">
+      <c r="P266" s="4"/>
+      <c r="Q266" s="4"/>
+      <c r="R266" s="4"/>
+      <c r="S266" s="4"/>
+      <c r="T266" s="4"/>
+      <c r="U266" s="4"/>
+      <c r="V266" s="4"/>
+      <c r="W266" s="4"/>
+      <c r="X266" s="4"/>
+      <c r="Y266" s="4"/>
+      <c r="Z266" s="4"/>
+      <c r="AA266" s="4"/>
+      <c r="AB266" s="4"/>
+      <c r="AC266" s="4"/>
+      <c r="AD266" s="4"/>
+      <c r="AE266" s="4"/>
+      <c r="AF266" s="5" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <v>264</v>
       </c>
@@ -15370,11 +19985,27 @@
       <c r="O267" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P267" s="5" t="s">
+      <c r="P267" s="4"/>
+      <c r="Q267" s="4"/>
+      <c r="R267" s="4"/>
+      <c r="S267" s="4"/>
+      <c r="T267" s="4"/>
+      <c r="U267" s="4"/>
+      <c r="V267" s="4"/>
+      <c r="W267" s="4"/>
+      <c r="X267" s="4"/>
+      <c r="Y267" s="4"/>
+      <c r="Z267" s="4"/>
+      <c r="AA267" s="4"/>
+      <c r="AB267" s="4"/>
+      <c r="AC267" s="4"/>
+      <c r="AD267" s="4"/>
+      <c r="AE267" s="4"/>
+      <c r="AF267" s="5" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>265</v>
       </c>
@@ -15412,11 +20043,27 @@
       <c r="O268" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P268" s="5" t="s">
+      <c r="P268" s="4"/>
+      <c r="Q268" s="4"/>
+      <c r="R268" s="4"/>
+      <c r="S268" s="4"/>
+      <c r="T268" s="4"/>
+      <c r="U268" s="4"/>
+      <c r="V268" s="4"/>
+      <c r="W268" s="4"/>
+      <c r="X268" s="4"/>
+      <c r="Y268" s="4"/>
+      <c r="Z268" s="4"/>
+      <c r="AA268" s="4"/>
+      <c r="AB268" s="4"/>
+      <c r="AC268" s="4"/>
+      <c r="AD268" s="4"/>
+      <c r="AE268" s="4"/>
+      <c r="AF268" s="5" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>266</v>
       </c>
@@ -15454,11 +20101,27 @@
       <c r="O269" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P269" s="5" t="s">
+      <c r="P269" s="4"/>
+      <c r="Q269" s="4"/>
+      <c r="R269" s="4"/>
+      <c r="S269" s="4"/>
+      <c r="T269" s="4"/>
+      <c r="U269" s="4"/>
+      <c r="V269" s="4"/>
+      <c r="W269" s="4"/>
+      <c r="X269" s="4"/>
+      <c r="Y269" s="4"/>
+      <c r="Z269" s="4"/>
+      <c r="AA269" s="4"/>
+      <c r="AB269" s="4"/>
+      <c r="AC269" s="4"/>
+      <c r="AD269" s="4"/>
+      <c r="AE269" s="4"/>
+      <c r="AF269" s="5" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>267</v>
       </c>
@@ -15496,11 +20159,27 @@
       <c r="O270" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P270" s="5" t="s">
+      <c r="P270" s="4"/>
+      <c r="Q270" s="4"/>
+      <c r="R270" s="4"/>
+      <c r="S270" s="4"/>
+      <c r="T270" s="4"/>
+      <c r="U270" s="4"/>
+      <c r="V270" s="4"/>
+      <c r="W270" s="4"/>
+      <c r="X270" s="4"/>
+      <c r="Y270" s="4"/>
+      <c r="Z270" s="4"/>
+      <c r="AA270" s="4"/>
+      <c r="AB270" s="4"/>
+      <c r="AC270" s="4"/>
+      <c r="AD270" s="4"/>
+      <c r="AE270" s="4"/>
+      <c r="AF270" s="5" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>268</v>
       </c>
@@ -15538,11 +20217,27 @@
       <c r="O271" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P271" s="5" t="s">
+      <c r="P271" s="4"/>
+      <c r="Q271" s="4"/>
+      <c r="R271" s="4"/>
+      <c r="S271" s="4"/>
+      <c r="T271" s="4"/>
+      <c r="U271" s="4"/>
+      <c r="V271" s="4"/>
+      <c r="W271" s="4"/>
+      <c r="X271" s="4"/>
+      <c r="Y271" s="4"/>
+      <c r="Z271" s="4"/>
+      <c r="AA271" s="4"/>
+      <c r="AB271" s="4"/>
+      <c r="AC271" s="4"/>
+      <c r="AD271" s="4"/>
+      <c r="AE271" s="4"/>
+      <c r="AF271" s="5" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>269</v>
       </c>
@@ -15580,11 +20275,27 @@
       <c r="O272" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P272" s="5" t="s">
+      <c r="P272" s="4"/>
+      <c r="Q272" s="4"/>
+      <c r="R272" s="4"/>
+      <c r="S272" s="4"/>
+      <c r="T272" s="4"/>
+      <c r="U272" s="4"/>
+      <c r="V272" s="4"/>
+      <c r="W272" s="4"/>
+      <c r="X272" s="4"/>
+      <c r="Y272" s="4"/>
+      <c r="Z272" s="4"/>
+      <c r="AA272" s="4"/>
+      <c r="AB272" s="4"/>
+      <c r="AC272" s="4"/>
+      <c r="AD272" s="4"/>
+      <c r="AE272" s="4"/>
+      <c r="AF272" s="5" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A273" s="4">
         <v>270</v>
       </c>
@@ -15622,11 +20333,27 @@
       <c r="O273" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P273" s="5" t="s">
+      <c r="P273" s="4"/>
+      <c r="Q273" s="4"/>
+      <c r="R273" s="4"/>
+      <c r="S273" s="4"/>
+      <c r="T273" s="4"/>
+      <c r="U273" s="4"/>
+      <c r="V273" s="4"/>
+      <c r="W273" s="4"/>
+      <c r="X273" s="4"/>
+      <c r="Y273" s="4"/>
+      <c r="Z273" s="4"/>
+      <c r="AA273" s="4"/>
+      <c r="AB273" s="4"/>
+      <c r="AC273" s="4"/>
+      <c r="AD273" s="4"/>
+      <c r="AE273" s="4"/>
+      <c r="AF273" s="5" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A274" s="4">
         <v>271</v>
       </c>
@@ -15664,11 +20391,27 @@
       <c r="O274" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P274" s="5" t="s">
+      <c r="P274" s="4"/>
+      <c r="Q274" s="4"/>
+      <c r="R274" s="4"/>
+      <c r="S274" s="4"/>
+      <c r="T274" s="4"/>
+      <c r="U274" s="4"/>
+      <c r="V274" s="4"/>
+      <c r="W274" s="4"/>
+      <c r="X274" s="4"/>
+      <c r="Y274" s="4"/>
+      <c r="Z274" s="4"/>
+      <c r="AA274" s="4"/>
+      <c r="AB274" s="4"/>
+      <c r="AC274" s="4"/>
+      <c r="AD274" s="4"/>
+      <c r="AE274" s="4"/>
+      <c r="AF274" s="5" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A275" s="4">
         <v>272</v>
       </c>
@@ -15706,11 +20449,27 @@
       <c r="O275" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P275" s="5" t="s">
+      <c r="P275" s="4"/>
+      <c r="Q275" s="4"/>
+      <c r="R275" s="4"/>
+      <c r="S275" s="4"/>
+      <c r="T275" s="4"/>
+      <c r="U275" s="4"/>
+      <c r="V275" s="4"/>
+      <c r="W275" s="4"/>
+      <c r="X275" s="4"/>
+      <c r="Y275" s="4"/>
+      <c r="Z275" s="4"/>
+      <c r="AA275" s="4"/>
+      <c r="AB275" s="4"/>
+      <c r="AC275" s="4"/>
+      <c r="AD275" s="4"/>
+      <c r="AE275" s="4"/>
+      <c r="AF275" s="5" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A276" s="4">
         <v>273</v>
       </c>
@@ -15748,11 +20507,27 @@
       <c r="O276" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P276" s="5" t="s">
+      <c r="P276" s="4"/>
+      <c r="Q276" s="4"/>
+      <c r="R276" s="4"/>
+      <c r="S276" s="4"/>
+      <c r="T276" s="4"/>
+      <c r="U276" s="4"/>
+      <c r="V276" s="4"/>
+      <c r="W276" s="4"/>
+      <c r="X276" s="4"/>
+      <c r="Y276" s="4"/>
+      <c r="Z276" s="4"/>
+      <c r="AA276" s="4"/>
+      <c r="AB276" s="4"/>
+      <c r="AC276" s="4"/>
+      <c r="AD276" s="4"/>
+      <c r="AE276" s="4"/>
+      <c r="AF276" s="5" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A277" s="4">
         <v>274</v>
       </c>
@@ -15790,11 +20565,27 @@
       <c r="O277" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P277" s="4" t="s">
+      <c r="P277" s="4"/>
+      <c r="Q277" s="4"/>
+      <c r="R277" s="4"/>
+      <c r="S277" s="4"/>
+      <c r="T277" s="4"/>
+      <c r="U277" s="4"/>
+      <c r="V277" s="4"/>
+      <c r="W277" s="4"/>
+      <c r="X277" s="4"/>
+      <c r="Y277" s="4"/>
+      <c r="Z277" s="4"/>
+      <c r="AA277" s="4"/>
+      <c r="AB277" s="4"/>
+      <c r="AC277" s="4"/>
+      <c r="AD277" s="4"/>
+      <c r="AE277" s="4"/>
+      <c r="AF277" s="4" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A278" s="4">
         <v>275</v>
       </c>
@@ -15832,11 +20623,27 @@
       <c r="O278" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P278" s="4" t="s">
+      <c r="P278" s="4"/>
+      <c r="Q278" s="4"/>
+      <c r="R278" s="4"/>
+      <c r="S278" s="4"/>
+      <c r="T278" s="4"/>
+      <c r="U278" s="4"/>
+      <c r="V278" s="4"/>
+      <c r="W278" s="4"/>
+      <c r="X278" s="4"/>
+      <c r="Y278" s="4"/>
+      <c r="Z278" s="4"/>
+      <c r="AA278" s="4"/>
+      <c r="AB278" s="4"/>
+      <c r="AC278" s="4"/>
+      <c r="AD278" s="4"/>
+      <c r="AE278" s="4"/>
+      <c r="AF278" s="4" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A279" s="4">
         <v>276</v>
       </c>
@@ -15874,11 +20681,27 @@
       <c r="O279" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P279" s="4" t="s">
+      <c r="P279" s="4"/>
+      <c r="Q279" s="4"/>
+      <c r="R279" s="4"/>
+      <c r="S279" s="4"/>
+      <c r="T279" s="4"/>
+      <c r="U279" s="4"/>
+      <c r="V279" s="4"/>
+      <c r="W279" s="4"/>
+      <c r="X279" s="4"/>
+      <c r="Y279" s="4"/>
+      <c r="Z279" s="4"/>
+      <c r="AA279" s="4"/>
+      <c r="AB279" s="4"/>
+      <c r="AC279" s="4"/>
+      <c r="AD279" s="4"/>
+      <c r="AE279" s="4"/>
+      <c r="AF279" s="4" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A280" s="4">
         <v>277</v>
       </c>
@@ -15916,11 +20739,27 @@
       <c r="O280" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P280" s="4" t="s">
+      <c r="P280" s="4"/>
+      <c r="Q280" s="4"/>
+      <c r="R280" s="4"/>
+      <c r="S280" s="4"/>
+      <c r="T280" s="4"/>
+      <c r="U280" s="4"/>
+      <c r="V280" s="4"/>
+      <c r="W280" s="4"/>
+      <c r="X280" s="4"/>
+      <c r="Y280" s="4"/>
+      <c r="Z280" s="4"/>
+      <c r="AA280" s="4"/>
+      <c r="AB280" s="4"/>
+      <c r="AC280" s="4"/>
+      <c r="AD280" s="4"/>
+      <c r="AE280" s="4"/>
+      <c r="AF280" s="4" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A281" s="4">
         <v>278</v>
       </c>
@@ -15958,11 +20797,27 @@
       <c r="O281" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P281" s="4" t="s">
+      <c r="P281" s="4"/>
+      <c r="Q281" s="4"/>
+      <c r="R281" s="4"/>
+      <c r="S281" s="4"/>
+      <c r="T281" s="4"/>
+      <c r="U281" s="4"/>
+      <c r="V281" s="4"/>
+      <c r="W281" s="4"/>
+      <c r="X281" s="4"/>
+      <c r="Y281" s="4"/>
+      <c r="Z281" s="4"/>
+      <c r="AA281" s="4"/>
+      <c r="AB281" s="4"/>
+      <c r="AC281" s="4"/>
+      <c r="AD281" s="4"/>
+      <c r="AE281" s="4"/>
+      <c r="AF281" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A282" s="4">
         <v>279</v>
       </c>
@@ -16000,11 +20855,27 @@
       <c r="O282" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P282" s="4" t="s">
+      <c r="P282" s="4"/>
+      <c r="Q282" s="4"/>
+      <c r="R282" s="4"/>
+      <c r="S282" s="4"/>
+      <c r="T282" s="4"/>
+      <c r="U282" s="4"/>
+      <c r="V282" s="4"/>
+      <c r="W282" s="4"/>
+      <c r="X282" s="4"/>
+      <c r="Y282" s="4"/>
+      <c r="Z282" s="4"/>
+      <c r="AA282" s="4"/>
+      <c r="AB282" s="4"/>
+      <c r="AC282" s="4"/>
+      <c r="AD282" s="4"/>
+      <c r="AE282" s="4"/>
+      <c r="AF282" s="4" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A283" s="4">
         <v>280</v>
       </c>
@@ -16042,11 +20913,27 @@
       <c r="O283" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P283" s="4" t="s">
+      <c r="P283" s="4"/>
+      <c r="Q283" s="4"/>
+      <c r="R283" s="4"/>
+      <c r="S283" s="4"/>
+      <c r="T283" s="4"/>
+      <c r="U283" s="4"/>
+      <c r="V283" s="4"/>
+      <c r="W283" s="4"/>
+      <c r="X283" s="4"/>
+      <c r="Y283" s="4"/>
+      <c r="Z283" s="4"/>
+      <c r="AA283" s="4"/>
+      <c r="AB283" s="4"/>
+      <c r="AC283" s="4"/>
+      <c r="AD283" s="4"/>
+      <c r="AE283" s="4"/>
+      <c r="AF283" s="4" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A284" s="4">
         <v>281</v>
       </c>
@@ -16084,11 +20971,27 @@
       <c r="O284" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P284" s="4" t="s">
+      <c r="P284" s="4"/>
+      <c r="Q284" s="4"/>
+      <c r="R284" s="4"/>
+      <c r="S284" s="4"/>
+      <c r="T284" s="4"/>
+      <c r="U284" s="4"/>
+      <c r="V284" s="4"/>
+      <c r="W284" s="4"/>
+      <c r="X284" s="4"/>
+      <c r="Y284" s="4"/>
+      <c r="Z284" s="4"/>
+      <c r="AA284" s="4"/>
+      <c r="AB284" s="4"/>
+      <c r="AC284" s="4"/>
+      <c r="AD284" s="4"/>
+      <c r="AE284" s="4"/>
+      <c r="AF284" s="4" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A285" s="4">
         <v>282</v>
       </c>
@@ -16126,11 +21029,27 @@
       <c r="O285" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P285" s="5" t="s">
+      <c r="P285" s="4"/>
+      <c r="Q285" s="4"/>
+      <c r="R285" s="4"/>
+      <c r="S285" s="4"/>
+      <c r="T285" s="4"/>
+      <c r="U285" s="4"/>
+      <c r="V285" s="4"/>
+      <c r="W285" s="4"/>
+      <c r="X285" s="4"/>
+      <c r="Y285" s="4"/>
+      <c r="Z285" s="4"/>
+      <c r="AA285" s="4"/>
+      <c r="AB285" s="4"/>
+      <c r="AC285" s="4"/>
+      <c r="AD285" s="4"/>
+      <c r="AE285" s="4"/>
+      <c r="AF285" s="5" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A286" s="4">
         <v>283</v>
       </c>
@@ -16168,11 +21087,27 @@
       <c r="O286" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P286" s="5" t="s">
+      <c r="P286" s="4"/>
+      <c r="Q286" s="4"/>
+      <c r="R286" s="4"/>
+      <c r="S286" s="4"/>
+      <c r="T286" s="4"/>
+      <c r="U286" s="4"/>
+      <c r="V286" s="4"/>
+      <c r="W286" s="4"/>
+      <c r="X286" s="4"/>
+      <c r="Y286" s="4"/>
+      <c r="Z286" s="4"/>
+      <c r="AA286" s="4"/>
+      <c r="AB286" s="4"/>
+      <c r="AC286" s="4"/>
+      <c r="AD286" s="4"/>
+      <c r="AE286" s="4"/>
+      <c r="AF286" s="5" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A287" s="4">
         <v>284</v>
       </c>
@@ -16210,11 +21145,27 @@
       <c r="O287" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P287" s="5" t="s">
+      <c r="P287" s="4"/>
+      <c r="Q287" s="4"/>
+      <c r="R287" s="4"/>
+      <c r="S287" s="4"/>
+      <c r="T287" s="4"/>
+      <c r="U287" s="4"/>
+      <c r="V287" s="4"/>
+      <c r="W287" s="4"/>
+      <c r="X287" s="4"/>
+      <c r="Y287" s="4"/>
+      <c r="Z287" s="4"/>
+      <c r="AA287" s="4"/>
+      <c r="AB287" s="4"/>
+      <c r="AC287" s="4"/>
+      <c r="AD287" s="4"/>
+      <c r="AE287" s="4"/>
+      <c r="AF287" s="5" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A288" s="4">
         <v>285</v>
       </c>
@@ -16252,11 +21203,27 @@
       <c r="O288" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P288" s="5" t="s">
+      <c r="P288" s="4"/>
+      <c r="Q288" s="4"/>
+      <c r="R288" s="4"/>
+      <c r="S288" s="4"/>
+      <c r="T288" s="4"/>
+      <c r="U288" s="4"/>
+      <c r="V288" s="4"/>
+      <c r="W288" s="4"/>
+      <c r="X288" s="4"/>
+      <c r="Y288" s="4"/>
+      <c r="Z288" s="4"/>
+      <c r="AA288" s="4"/>
+      <c r="AB288" s="4"/>
+      <c r="AC288" s="4"/>
+      <c r="AD288" s="4"/>
+      <c r="AE288" s="4"/>
+      <c r="AF288" s="5" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A289" s="4">
         <v>286</v>
       </c>
@@ -16294,11 +21261,27 @@
       <c r="O289" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P289" s="5" t="s">
+      <c r="P289" s="4"/>
+      <c r="Q289" s="4"/>
+      <c r="R289" s="4"/>
+      <c r="S289" s="4"/>
+      <c r="T289" s="4"/>
+      <c r="U289" s="4"/>
+      <c r="V289" s="4"/>
+      <c r="W289" s="4"/>
+      <c r="X289" s="4"/>
+      <c r="Y289" s="4"/>
+      <c r="Z289" s="4"/>
+      <c r="AA289" s="4"/>
+      <c r="AB289" s="4"/>
+      <c r="AC289" s="4"/>
+      <c r="AD289" s="4"/>
+      <c r="AE289" s="4"/>
+      <c r="AF289" s="5" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A290" s="4">
         <v>287</v>
       </c>
@@ -16336,11 +21319,27 @@
       <c r="O290" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P290" s="5" t="s">
+      <c r="P290" s="4"/>
+      <c r="Q290" s="4"/>
+      <c r="R290" s="4"/>
+      <c r="S290" s="4"/>
+      <c r="T290" s="4"/>
+      <c r="U290" s="4"/>
+      <c r="V290" s="4"/>
+      <c r="W290" s="4"/>
+      <c r="X290" s="4"/>
+      <c r="Y290" s="4"/>
+      <c r="Z290" s="4"/>
+      <c r="AA290" s="4"/>
+      <c r="AB290" s="4"/>
+      <c r="AC290" s="4"/>
+      <c r="AD290" s="4"/>
+      <c r="AE290" s="4"/>
+      <c r="AF290" s="5" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="4">
         <v>288</v>
       </c>
@@ -16378,11 +21377,27 @@
       <c r="O291" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P291" s="5" t="s">
+      <c r="P291" s="4"/>
+      <c r="Q291" s="4"/>
+      <c r="R291" s="4"/>
+      <c r="S291" s="4"/>
+      <c r="T291" s="4"/>
+      <c r="U291" s="4"/>
+      <c r="V291" s="4"/>
+      <c r="W291" s="4"/>
+      <c r="X291" s="4"/>
+      <c r="Y291" s="4"/>
+      <c r="Z291" s="4"/>
+      <c r="AA291" s="4"/>
+      <c r="AB291" s="4"/>
+      <c r="AC291" s="4"/>
+      <c r="AD291" s="4"/>
+      <c r="AE291" s="4"/>
+      <c r="AF291" s="5" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A292" s="4">
         <v>289</v>
       </c>
@@ -16420,11 +21435,27 @@
       <c r="O292" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P292" s="5" t="s">
+      <c r="P292" s="4"/>
+      <c r="Q292" s="4"/>
+      <c r="R292" s="4"/>
+      <c r="S292" s="4"/>
+      <c r="T292" s="4"/>
+      <c r="U292" s="4"/>
+      <c r="V292" s="4"/>
+      <c r="W292" s="4"/>
+      <c r="X292" s="4"/>
+      <c r="Y292" s="4"/>
+      <c r="Z292" s="4"/>
+      <c r="AA292" s="4"/>
+      <c r="AB292" s="4"/>
+      <c r="AC292" s="4"/>
+      <c r="AD292" s="4"/>
+      <c r="AE292" s="4"/>
+      <c r="AF292" s="5" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A293" s="4">
         <v>290</v>
       </c>
@@ -16462,11 +21493,27 @@
       <c r="O293" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P293" s="5" t="s">
+      <c r="P293" s="4"/>
+      <c r="Q293" s="4"/>
+      <c r="R293" s="4"/>
+      <c r="S293" s="4"/>
+      <c r="T293" s="4"/>
+      <c r="U293" s="4"/>
+      <c r="V293" s="4"/>
+      <c r="W293" s="4"/>
+      <c r="X293" s="4"/>
+      <c r="Y293" s="4"/>
+      <c r="Z293" s="4"/>
+      <c r="AA293" s="4"/>
+      <c r="AB293" s="4"/>
+      <c r="AC293" s="4"/>
+      <c r="AD293" s="4"/>
+      <c r="AE293" s="4"/>
+      <c r="AF293" s="5" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A294" s="4">
         <v>291</v>
       </c>
@@ -16504,11 +21551,27 @@
       <c r="O294" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P294" s="5" t="s">
+      <c r="P294" s="4"/>
+      <c r="Q294" s="4"/>
+      <c r="R294" s="4"/>
+      <c r="S294" s="4"/>
+      <c r="T294" s="4"/>
+      <c r="U294" s="4"/>
+      <c r="V294" s="4"/>
+      <c r="W294" s="4"/>
+      <c r="X294" s="4"/>
+      <c r="Y294" s="4"/>
+      <c r="Z294" s="4"/>
+      <c r="AA294" s="4"/>
+      <c r="AB294" s="4"/>
+      <c r="AC294" s="4"/>
+      <c r="AD294" s="4"/>
+      <c r="AE294" s="4"/>
+      <c r="AF294" s="5" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A295" s="4">
         <v>292</v>
       </c>
@@ -16546,11 +21609,27 @@
       <c r="O295" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P295" s="5" t="s">
+      <c r="P295" s="4"/>
+      <c r="Q295" s="4"/>
+      <c r="R295" s="4"/>
+      <c r="S295" s="4"/>
+      <c r="T295" s="4"/>
+      <c r="U295" s="4"/>
+      <c r="V295" s="4"/>
+      <c r="W295" s="4"/>
+      <c r="X295" s="4"/>
+      <c r="Y295" s="4"/>
+      <c r="Z295" s="4"/>
+      <c r="AA295" s="4"/>
+      <c r="AB295" s="4"/>
+      <c r="AC295" s="4"/>
+      <c r="AD295" s="4"/>
+      <c r="AE295" s="4"/>
+      <c r="AF295" s="5" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A296" s="4">
         <v>293</v>
       </c>
@@ -16588,11 +21667,27 @@
       <c r="O296" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P296" s="5" t="s">
+      <c r="P296" s="4"/>
+      <c r="Q296" s="4"/>
+      <c r="R296" s="4"/>
+      <c r="S296" s="4"/>
+      <c r="T296" s="4"/>
+      <c r="U296" s="4"/>
+      <c r="V296" s="4"/>
+      <c r="W296" s="4"/>
+      <c r="X296" s="4"/>
+      <c r="Y296" s="4"/>
+      <c r="Z296" s="4"/>
+      <c r="AA296" s="4"/>
+      <c r="AB296" s="4"/>
+      <c r="AC296" s="4"/>
+      <c r="AD296" s="4"/>
+      <c r="AE296" s="4"/>
+      <c r="AF296" s="5" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4">
         <v>294</v>
       </c>
@@ -16630,11 +21725,27 @@
       <c r="O297" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P297" s="5" t="s">
+      <c r="P297" s="4"/>
+      <c r="Q297" s="4"/>
+      <c r="R297" s="4"/>
+      <c r="S297" s="4"/>
+      <c r="T297" s="4"/>
+      <c r="U297" s="4"/>
+      <c r="V297" s="4"/>
+      <c r="W297" s="4"/>
+      <c r="X297" s="4"/>
+      <c r="Y297" s="4"/>
+      <c r="Z297" s="4"/>
+      <c r="AA297" s="4"/>
+      <c r="AB297" s="4"/>
+      <c r="AC297" s="4"/>
+      <c r="AD297" s="4"/>
+      <c r="AE297" s="4"/>
+      <c r="AF297" s="5" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4">
         <v>295</v>
       </c>
@@ -16672,11 +21783,27 @@
       <c r="O298" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P298" s="5" t="s">
+      <c r="P298" s="4"/>
+      <c r="Q298" s="4"/>
+      <c r="R298" s="4"/>
+      <c r="S298" s="4"/>
+      <c r="T298" s="4"/>
+      <c r="U298" s="4"/>
+      <c r="V298" s="4"/>
+      <c r="W298" s="4"/>
+      <c r="X298" s="4"/>
+      <c r="Y298" s="4"/>
+      <c r="Z298" s="4"/>
+      <c r="AA298" s="4"/>
+      <c r="AB298" s="4"/>
+      <c r="AC298" s="4"/>
+      <c r="AD298" s="4"/>
+      <c r="AE298" s="4"/>
+      <c r="AF298" s="5" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4">
         <v>296</v>
       </c>
@@ -16714,11 +21841,27 @@
       <c r="O299" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P299" s="5" t="s">
+      <c r="P299" s="4"/>
+      <c r="Q299" s="4"/>
+      <c r="R299" s="4"/>
+      <c r="S299" s="4"/>
+      <c r="T299" s="4"/>
+      <c r="U299" s="4"/>
+      <c r="V299" s="4"/>
+      <c r="W299" s="4"/>
+      <c r="X299" s="4"/>
+      <c r="Y299" s="4"/>
+      <c r="Z299" s="4"/>
+      <c r="AA299" s="4"/>
+      <c r="AB299" s="4"/>
+      <c r="AC299" s="4"/>
+      <c r="AD299" s="4"/>
+      <c r="AE299" s="4"/>
+      <c r="AF299" s="5" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4">
         <v>297</v>
       </c>
@@ -16756,11 +21899,27 @@
       <c r="O300" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P300" s="5" t="s">
+      <c r="P300" s="4"/>
+      <c r="Q300" s="4"/>
+      <c r="R300" s="4"/>
+      <c r="S300" s="4"/>
+      <c r="T300" s="4"/>
+      <c r="U300" s="4"/>
+      <c r="V300" s="4"/>
+      <c r="W300" s="4"/>
+      <c r="X300" s="4"/>
+      <c r="Y300" s="4"/>
+      <c r="Z300" s="4"/>
+      <c r="AA300" s="4"/>
+      <c r="AB300" s="4"/>
+      <c r="AC300" s="4"/>
+      <c r="AD300" s="4"/>
+      <c r="AE300" s="4"/>
+      <c r="AF300" s="5" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4">
         <v>298</v>
       </c>
@@ -16798,11 +21957,27 @@
       <c r="O301" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P301" s="5" t="s">
+      <c r="P301" s="4"/>
+      <c r="Q301" s="4"/>
+      <c r="R301" s="4"/>
+      <c r="S301" s="4"/>
+      <c r="T301" s="4"/>
+      <c r="U301" s="4"/>
+      <c r="V301" s="4"/>
+      <c r="W301" s="4"/>
+      <c r="X301" s="4"/>
+      <c r="Y301" s="4"/>
+      <c r="Z301" s="4"/>
+      <c r="AA301" s="4"/>
+      <c r="AB301" s="4"/>
+      <c r="AC301" s="4"/>
+      <c r="AD301" s="4"/>
+      <c r="AE301" s="4"/>
+      <c r="AF301" s="5" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4">
         <v>299</v>
       </c>
@@ -16840,11 +22015,27 @@
       <c r="O302" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P302" s="5" t="s">
+      <c r="P302" s="4"/>
+      <c r="Q302" s="4"/>
+      <c r="R302" s="4"/>
+      <c r="S302" s="4"/>
+      <c r="T302" s="4"/>
+      <c r="U302" s="4"/>
+      <c r="V302" s="4"/>
+      <c r="W302" s="4"/>
+      <c r="X302" s="4"/>
+      <c r="Y302" s="4"/>
+      <c r="Z302" s="4"/>
+      <c r="AA302" s="4"/>
+      <c r="AB302" s="4"/>
+      <c r="AC302" s="4"/>
+      <c r="AD302" s="4"/>
+      <c r="AE302" s="4"/>
+      <c r="AF302" s="5" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A303" s="4">
         <v>300</v>
       </c>
@@ -16882,11 +22073,27 @@
       <c r="O303" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P303" s="4" t="s">
+      <c r="P303" s="4"/>
+      <c r="Q303" s="4"/>
+      <c r="R303" s="4"/>
+      <c r="S303" s="4"/>
+      <c r="T303" s="4"/>
+      <c r="U303" s="4"/>
+      <c r="V303" s="4"/>
+      <c r="W303" s="4"/>
+      <c r="X303" s="4"/>
+      <c r="Y303" s="4"/>
+      <c r="Z303" s="4"/>
+      <c r="AA303" s="4"/>
+      <c r="AB303" s="4"/>
+      <c r="AC303" s="4"/>
+      <c r="AD303" s="4"/>
+      <c r="AE303" s="4"/>
+      <c r="AF303" s="4" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="4">
         <v>301</v>
       </c>
@@ -16924,11 +22131,27 @@
       <c r="O304" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P304" s="4" t="s">
+      <c r="P304" s="4"/>
+      <c r="Q304" s="4"/>
+      <c r="R304" s="4"/>
+      <c r="S304" s="4"/>
+      <c r="T304" s="4"/>
+      <c r="U304" s="4"/>
+      <c r="V304" s="4"/>
+      <c r="W304" s="4"/>
+      <c r="X304" s="4"/>
+      <c r="Y304" s="4"/>
+      <c r="Z304" s="4"/>
+      <c r="AA304" s="4"/>
+      <c r="AB304" s="4"/>
+      <c r="AC304" s="4"/>
+      <c r="AD304" s="4"/>
+      <c r="AE304" s="4"/>
+      <c r="AF304" s="4" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A305" s="4">
         <v>302</v>
       </c>
@@ -16966,11 +22189,27 @@
       <c r="O305" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P305" s="4" t="s">
+      <c r="P305" s="4"/>
+      <c r="Q305" s="4"/>
+      <c r="R305" s="4"/>
+      <c r="S305" s="4"/>
+      <c r="T305" s="4"/>
+      <c r="U305" s="4"/>
+      <c r="V305" s="4"/>
+      <c r="W305" s="4"/>
+      <c r="X305" s="4"/>
+      <c r="Y305" s="4"/>
+      <c r="Z305" s="4"/>
+      <c r="AA305" s="4"/>
+      <c r="AB305" s="4"/>
+      <c r="AC305" s="4"/>
+      <c r="AD305" s="4"/>
+      <c r="AE305" s="4"/>
+      <c r="AF305" s="4" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A306" s="4">
         <v>303</v>
       </c>
@@ -17008,11 +22247,27 @@
       <c r="O306" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P306" s="4" t="s">
+      <c r="P306" s="4"/>
+      <c r="Q306" s="4"/>
+      <c r="R306" s="4"/>
+      <c r="S306" s="4"/>
+      <c r="T306" s="4"/>
+      <c r="U306" s="4"/>
+      <c r="V306" s="4"/>
+      <c r="W306" s="4"/>
+      <c r="X306" s="4"/>
+      <c r="Y306" s="4"/>
+      <c r="Z306" s="4"/>
+      <c r="AA306" s="4"/>
+      <c r="AB306" s="4"/>
+      <c r="AC306" s="4"/>
+      <c r="AD306" s="4"/>
+      <c r="AE306" s="4"/>
+      <c r="AF306" s="4" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <v>304</v>
       </c>
@@ -17050,11 +22305,27 @@
       <c r="O307" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P307" s="4" t="s">
+      <c r="P307" s="4"/>
+      <c r="Q307" s="4"/>
+      <c r="R307" s="4"/>
+      <c r="S307" s="4"/>
+      <c r="T307" s="4"/>
+      <c r="U307" s="4"/>
+      <c r="V307" s="4"/>
+      <c r="W307" s="4"/>
+      <c r="X307" s="4"/>
+      <c r="Y307" s="4"/>
+      <c r="Z307" s="4"/>
+      <c r="AA307" s="4"/>
+      <c r="AB307" s="4"/>
+      <c r="AC307" s="4"/>
+      <c r="AD307" s="4"/>
+      <c r="AE307" s="4"/>
+      <c r="AF307" s="4" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A308" s="4">
         <v>305</v>
       </c>
@@ -17092,7 +22363,23 @@
       <c r="O308" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P308" s="4" t="s">
+      <c r="P308" s="4"/>
+      <c r="Q308" s="4"/>
+      <c r="R308" s="4"/>
+      <c r="S308" s="4"/>
+      <c r="T308" s="4"/>
+      <c r="U308" s="4"/>
+      <c r="V308" s="4"/>
+      <c r="W308" s="4"/>
+      <c r="X308" s="4"/>
+      <c r="Y308" s="4"/>
+      <c r="Z308" s="4"/>
+      <c r="AA308" s="4"/>
+      <c r="AB308" s="4"/>
+      <c r="AC308" s="4"/>
+      <c r="AD308" s="4"/>
+      <c r="AE308" s="4"/>
+      <c r="AF308" s="4" t="s">
         <v>1022</v>
       </c>
     </row>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27146587-706B-4EF3-83A8-7FA17F949B5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450CCB3F-1B61-464C-9460-50135A7407B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1107">
   <si>
     <t>sheet名</t>
   </si>
@@ -3605,6 +3605,14 @@
   </si>
   <si>
     <t>财富宝箱，金币幸运宝箱，打开都可获得大量金币</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商店购买</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -4344,10 +4352,10 @@
   <dimension ref="A1:AF308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4368,7 +4376,10 @@
     <col min="25" max="25" width="49.375" customWidth="1"/>
     <col min="26" max="26" width="14.375" customWidth="1"/>
     <col min="27" max="27" width="15.5" customWidth="1"/>
-    <col min="28" max="31" width="14.375" customWidth="1"/>
+    <col min="28" max="28" width="17.5" customWidth="1"/>
+    <col min="29" max="29" width="38.25" customWidth="1"/>
+    <col min="30" max="30" width="15.875" customWidth="1"/>
+    <col min="31" max="31" width="16.125" customWidth="1"/>
     <col min="32" max="32" width="103.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4734,10 +4745,18 @@
       <c r="AA4" s="4">
         <v>0</v>
       </c>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
+      <c r="AB4" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>6000</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
       <c r="AF4" s="4" t="s">
         <v>59</v>
       </c>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F3678F-FAB6-4AAD-8845-BC39408ECD19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78636EA-AC8B-4ADA-B737-A69032DE1B60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="1263">
   <si>
     <t>sheet名</t>
   </si>
@@ -3698,6 +3698,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4296,6 +4297,14 @@
   </si>
   <si>
     <t>在免费补给中看视频，即可获得精炼纤维宝箱，和商店里的一样哦</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼石宝箱</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备宝箱</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -5038,10 +5047,10 @@
   <dimension ref="A1:AJ308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F271" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V285" sqref="V285"/>
+      <selection pane="bottomRight" activeCell="L285" sqref="L285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25780,7 +25789,7 @@
         <v>20403</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>949</v>
+        <v>1262</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>949</v>
@@ -26170,7 +26179,7 @@
         <v>20408</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>962</v>
+        <v>1261</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>963</v>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC623FF9-E387-4321-A453-142CEA0F1394}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DD36AF-2795-4ED3-9258-109491CC33A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5058,10 +5058,10 @@
   <dimension ref="A1:AJ309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DD36AF-2795-4ED3-9258-109491CC33A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47B56D3-49A5-4EDF-AA7A-17F3C71AA2C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5058,10 +5058,10 @@
   <dimension ref="A1:AJ309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47B56D3-49A5-4EDF-AA7A-17F3C71AA2C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D6E82F-C61B-4DD2-AA22-970DE94EB844}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="1267">
   <si>
     <t>sheet名</t>
   </si>
@@ -4316,6 +4316,10 @@
   </si>
   <si>
     <t>星际挑战中产出的星际币，可以在星际商店中购买装置科技相关的道具</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>僚机零件</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -5058,10 +5062,10 @@
   <dimension ref="A1:AJ309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6597,7 +6601,7 @@
         <v>103</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>104</v>
+        <v>1266</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>104</v>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D6E82F-C61B-4DD2-AA22-970DE94EB844}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B8350-A04E-496F-8E10-C00FCD883D4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -5062,10 +5062,10 @@
   <dimension ref="A1:AJ309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5955,7 +5955,7 @@
         <v>76</v>
       </c>
       <c r="G10" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
         <v>3</v>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B8350-A04E-496F-8E10-C00FCD883D4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D858497-4CB9-4E9B-AE47-6EB68C9C2B2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="1273">
   <si>
     <t>sheet名</t>
   </si>
@@ -4320,6 +4320,30 @@
   </si>
   <si>
     <t>僚机零件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备铜宝箱,装备铜宝箱（装备）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备银宝箱,装备银宝箱（装备）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备金宝箱,装备金宝箱（装备）,装备金宝箱龙魂补</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备钻宝箱,装备钻宝箱（装备）,装备钻宝箱龙魂补</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备玉宝箱,装备玉宝箱（装备）,装备玉宝箱龙魂补</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备魔宝箱,装备魔宝箱（装备）,装备魔宝箱龙魂补</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -5061,11 +5085,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9:G10"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27831,15 +27855,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="6" max="6" width="54.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -28011,7 +28035,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="14" t="s">
-        <v>1031</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28027,7 +28051,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="14" t="s">
-        <v>1032</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28043,7 +28067,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="14" t="s">
-        <v>1033</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28059,7 +28083,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="14" t="s">
-        <v>1034</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28075,7 +28099,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="14" t="s">
-        <v>1035</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28091,7 +28115,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="14" t="s">
-        <v>1036</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EF7CB1-24D2-4D38-A1CB-4BE73BEBDF34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1B2226-09CC-4ADA-AF42-A6158CE277D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="1287">
   <si>
     <t>sheet名</t>
   </si>
@@ -4350,6 +4350,10 @@
   </si>
   <si>
     <t>可以获得3~13个正六面体</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级盾复晶片</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -5092,10 +5096,10 @@
   <dimension ref="A1:AJ311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="J276" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="J138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P295" sqref="P295"/>
+      <selection pane="bottomRight" activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17226,7 +17230,7 @@
         <v>619</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>619</v>
+        <v>1286</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>620</v>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1B2226-09CC-4ADA-AF42-A6158CE277D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF957270-18A8-4B3A-B4C6-AA9398AD3AED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5096,10 +5096,10 @@
   <dimension ref="A1:AJ311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="J138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="J120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E154" sqref="E154"/>
+      <selection pane="bottomRight" activeCell="M127" sqref="M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF957270-18A8-4B3A-B4C6-AA9398AD3AED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2CE0F0-2BB6-4A9A-B676-92F187C077DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="1286">
   <si>
     <t>sheet名</t>
   </si>
@@ -3252,9 +3252,6 @@
   </si>
   <si>
     <t>125,143</t>
-  </si>
-  <si>
-    <t>金币宝箱</t>
   </si>
   <si>
     <t>天命丹宝箱</t>
@@ -5095,11 +5092,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="J120" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="J259" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M127" sqref="M127"/>
+      <selection pane="bottomRight" activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5183,64 +5180,64 @@
         <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>1069</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>1089</v>
-      </c>
       <c r="AG1" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -5293,64 +5290,64 @@
         <v>41</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>1119</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>1119</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>1120</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>1120</v>
       </c>
-      <c r="U2" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>1121</v>
-      </c>
       <c r="W2" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="Y2" s="10" t="s">
         <v>1120</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>1120</v>
       </c>
-      <c r="Y2" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>1121</v>
-      </c>
       <c r="AA2" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AC2" s="10" t="s">
         <v>1120</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>1120</v>
       </c>
-      <c r="AC2" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>1121</v>
-      </c>
       <c r="AE2" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AG2" s="10" t="s">
         <v>1120</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>1120</v>
       </c>
-      <c r="AG2" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>1121</v>
-      </c>
       <c r="AI2" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.2">
@@ -5403,64 +5400,64 @@
         <v>56</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="AB3" s="3" t="s">
-        <v>1081</v>
-      </c>
       <c r="AC3" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="AF3" s="3" t="s">
-        <v>1093</v>
-      </c>
       <c r="AG3" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>1092</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5505,28 +5502,28 @@
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>1082</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>1083</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>1084</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>1085</v>
       </c>
       <c r="W4" s="4">
         <v>9000</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="Z4" s="4" t="s">
         <v>1094</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>1095</v>
       </c>
       <c r="AA4" s="4">
         <v>4000</v>
@@ -5535,10 +5532,10 @@
         <v>0</v>
       </c>
       <c r="AC4" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AD4" s="4" t="s">
         <v>1096</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>1097</v>
       </c>
       <c r="AE4" s="4">
         <v>6000</v>
@@ -5547,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="AG4" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>1096</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>1097</v>
       </c>
       <c r="AI4" s="4">
         <v>6000</v>
@@ -5601,10 +5598,10 @@
         <v>62</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>1098</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>1099</v>
       </c>
       <c r="S5" s="4">
         <v>10000</v>
@@ -5613,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>1110</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>1111</v>
       </c>
       <c r="W5" s="4">
         <v>10000</v>
@@ -5625,10 +5622,10 @@
         <v>1</v>
       </c>
       <c r="Y5" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>1100</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>1101</v>
       </c>
       <c r="AA5" s="4">
         <v>10000</v>
@@ -5637,18 +5634,18 @@
         <v>2</v>
       </c>
       <c r="AC5" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AD5" s="4" t="s">
         <v>1102</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>1103</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AH5" s="4" t="s">
         <v>1102</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>1103</v>
       </c>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
@@ -5723,16 +5720,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>1259</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>1260</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -5754,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -5819,10 +5816,10 @@
         <v>69</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>1104</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>1105</v>
       </c>
       <c r="S8" s="4">
         <v>6000</v>
@@ -5831,20 +5828,20 @@
         <v>0</v>
       </c>
       <c r="U8" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>1106</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>1107</v>
       </c>
       <c r="W8" s="4">
         <v>9000</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>1108</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>1109</v>
       </c>
       <c r="AA8" s="4">
         <v>10000</v>
@@ -5853,20 +5850,20 @@
         <v>2</v>
       </c>
       <c r="AC8" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>1115</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>1116</v>
       </c>
       <c r="AE8" s="4">
         <v>8000</v>
       </c>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AH8" s="4" t="s">
         <v>1115</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>1116</v>
       </c>
       <c r="AI8" s="4">
         <v>8000</v>
@@ -5915,10 +5912,10 @@
         <v>73</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="S9" s="4">
         <v>6000</v>
@@ -5927,20 +5924,20 @@
         <v>0</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="W9" s="4">
         <v>9000</v>
       </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AA9" s="4">
         <v>10000</v>
@@ -5949,20 +5946,20 @@
         <v>2</v>
       </c>
       <c r="AC9" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AD9" s="4" t="s">
         <v>1117</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>1118</v>
       </c>
       <c r="AE9" s="4">
         <v>5000</v>
       </c>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AH9" s="4" t="s">
         <v>1117</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>1118</v>
       </c>
       <c r="AI9" s="4">
         <v>5000</v>
@@ -6008,13 +6005,13 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="S10" s="4">
         <v>6000</v>
@@ -6023,20 +6020,20 @@
         <v>0</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="W10" s="4">
         <v>9000</v>
       </c>
       <c r="X10" s="4"/>
       <c r="Y10" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AA10" s="4">
         <v>10000</v>
@@ -6061,7 +6058,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>78</v>
@@ -6092,13 +6089,13 @@
         <v>1</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Q11" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>1126</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>1127</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -6159,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -6221,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -6283,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -6345,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -6407,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -6469,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -6593,13 +6590,13 @@
         <v>1</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="Q19" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>1129</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>1130</v>
       </c>
       <c r="S19" s="4">
         <v>10000</v>
@@ -6635,7 +6632,7 @@
         <v>102</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>103</v>
@@ -6665,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -7170,18 +7167,18 @@
         <v>130</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W28" s="4">
         <v>9000</v>
@@ -7242,18 +7239,18 @@
         <v>135</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W29" s="4">
         <v>9000</v>
@@ -7314,18 +7311,18 @@
         <v>140</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W30" s="4">
         <v>9000</v>
@@ -7386,18 +7383,18 @@
         <v>145</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W31" s="4">
         <v>9000</v>
@@ -7458,18 +7455,18 @@
         <v>150</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W32" s="4">
         <v>9000</v>
@@ -7530,18 +7527,18 @@
         <v>155</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W33" s="4">
         <v>9000</v>
@@ -7602,18 +7599,18 @@
         <v>160</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W34" s="4">
         <v>9000</v>
@@ -7674,18 +7671,18 @@
         <v>165</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W35" s="4">
         <v>9000</v>
@@ -7746,10 +7743,10 @@
         <v>169</v>
       </c>
       <c r="Q36" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R36" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S36" s="4">
         <v>6000</v>
@@ -7758,20 +7755,20 @@
         <v>2</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W36" s="4">
         <v>9000</v>
       </c>
       <c r="X36" s="4"/>
       <c r="Y36" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA36" s="4">
         <v>6000</v>
@@ -7780,10 +7777,10 @@
         <v>0</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD36" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE36" s="4">
         <v>10000</v>
@@ -7792,10 +7789,10 @@
         <v>2</v>
       </c>
       <c r="AG36" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH36" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AI36" s="4">
         <v>2000</v>
@@ -7846,10 +7843,10 @@
         <v>173</v>
       </c>
       <c r="Q37" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R37" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S37" s="4">
         <v>6000</v>
@@ -7858,20 +7855,20 @@
         <v>2</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W37" s="4">
         <v>9000</v>
       </c>
       <c r="X37" s="4"/>
       <c r="Y37" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA37" s="4">
         <v>6000</v>
@@ -7880,10 +7877,10 @@
         <v>0</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD37" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE37" s="4">
         <v>10000</v>
@@ -7892,10 +7889,10 @@
         <v>2</v>
       </c>
       <c r="AG37" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH37" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AI37" s="4">
         <v>2000</v>
@@ -7946,10 +7943,10 @@
         <v>177</v>
       </c>
       <c r="Q38" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R38" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S38" s="4">
         <v>6000</v>
@@ -7958,20 +7955,20 @@
         <v>2</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W38" s="4">
         <v>9000</v>
       </c>
       <c r="X38" s="4"/>
       <c r="Y38" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA38" s="4">
         <v>6000</v>
@@ -7980,10 +7977,10 @@
         <v>0</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD38" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE38" s="4">
         <v>10000</v>
@@ -7992,10 +7989,10 @@
         <v>2</v>
       </c>
       <c r="AG38" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH38" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AI38" s="4">
         <v>2000</v>
@@ -8046,10 +8043,10 @@
         <v>181</v>
       </c>
       <c r="Q39" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R39" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S39" s="4">
         <v>6000</v>
@@ -8058,20 +8055,20 @@
         <v>2</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W39" s="4">
         <v>9000</v>
       </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA39" s="4">
         <v>6000</v>
@@ -8080,10 +8077,10 @@
         <v>0</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE39" s="4">
         <v>10000</v>
@@ -8092,10 +8089,10 @@
         <v>2</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AI39" s="4">
         <v>2000</v>
@@ -8146,10 +8143,10 @@
         <v>185</v>
       </c>
       <c r="Q40" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R40" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S40" s="4">
         <v>6000</v>
@@ -8158,20 +8155,20 @@
         <v>2</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W40" s="4">
         <v>9000</v>
       </c>
       <c r="X40" s="4"/>
       <c r="Y40" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA40" s="4">
         <v>6000</v>
@@ -8180,10 +8177,10 @@
         <v>0</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE40" s="4">
         <v>10000</v>
@@ -8192,10 +8189,10 @@
         <v>2</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AI40" s="4">
         <v>2000</v>
@@ -8246,10 +8243,10 @@
         <v>189</v>
       </c>
       <c r="Q41" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R41" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S41" s="4">
         <v>6000</v>
@@ -8258,20 +8255,20 @@
         <v>2</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W41" s="4">
         <v>9000</v>
       </c>
       <c r="X41" s="4"/>
       <c r="Y41" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA41" s="4">
         <v>6000</v>
@@ -8280,10 +8277,10 @@
         <v>0</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE41" s="4">
         <v>10000</v>
@@ -8292,10 +8289,10 @@
         <v>2</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AI41" s="4">
         <v>2000</v>
@@ -8346,10 +8343,10 @@
         <v>193</v>
       </c>
       <c r="Q42" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R42" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S42" s="4">
         <v>6000</v>
@@ -8358,20 +8355,20 @@
         <v>2</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W42" s="4">
         <v>9000</v>
       </c>
       <c r="X42" s="4"/>
       <c r="Y42" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA42" s="4">
         <v>6000</v>
@@ -8380,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="AC42" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD42" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE42" s="4">
         <v>10000</v>
@@ -8392,10 +8389,10 @@
         <v>2</v>
       </c>
       <c r="AG42" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH42" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AI42" s="4">
         <v>2000</v>
@@ -8446,10 +8443,10 @@
         <v>197</v>
       </c>
       <c r="Q43" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R43" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S43" s="4">
         <v>6000</v>
@@ -8458,20 +8455,20 @@
         <v>2</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W43" s="4">
         <v>9000</v>
       </c>
       <c r="X43" s="4"/>
       <c r="Y43" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA43" s="4">
         <v>6000</v>
@@ -8480,10 +8477,10 @@
         <v>0</v>
       </c>
       <c r="AC43" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD43" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE43" s="4">
         <v>10000</v>
@@ -8492,10 +8489,10 @@
         <v>2</v>
       </c>
       <c r="AG43" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH43" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AI43" s="4">
         <v>2000</v>
@@ -8546,10 +8543,10 @@
         <v>201</v>
       </c>
       <c r="Q44" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R44" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S44" s="4">
         <v>6000</v>
@@ -8558,20 +8555,20 @@
         <v>2</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W44" s="4">
         <v>9000</v>
       </c>
       <c r="X44" s="4"/>
       <c r="Y44" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA44" s="4">
         <v>6000</v>
@@ -8580,10 +8577,10 @@
         <v>0</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD44" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE44" s="4">
         <v>10000</v>
@@ -8592,10 +8589,10 @@
         <v>2</v>
       </c>
       <c r="AG44" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH44" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AI44" s="4">
         <v>2000</v>
@@ -8646,10 +8643,10 @@
         <v>205</v>
       </c>
       <c r="Q45" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R45" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S45" s="4">
         <v>6000</v>
@@ -8658,20 +8655,20 @@
         <v>2</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W45" s="4">
         <v>9000</v>
       </c>
       <c r="X45" s="4"/>
       <c r="Y45" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA45" s="4">
         <v>6000</v>
@@ -8680,10 +8677,10 @@
         <v>0</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD45" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE45" s="4">
         <v>10000</v>
@@ -8692,10 +8689,10 @@
         <v>2</v>
       </c>
       <c r="AG45" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH45" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AI45" s="4">
         <v>2000</v>
@@ -8746,10 +8743,10 @@
         <v>209</v>
       </c>
       <c r="Q46" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R46" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S46" s="4">
         <v>6000</v>
@@ -8758,20 +8755,20 @@
         <v>2</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W46" s="4">
         <v>9000</v>
       </c>
       <c r="X46" s="4"/>
       <c r="Y46" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z46" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA46" s="4">
         <v>6000</v>
@@ -8780,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD46" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE46" s="4">
         <v>10000</v>
@@ -8792,10 +8789,10 @@
         <v>2</v>
       </c>
       <c r="AG46" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH46" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AI46" s="4">
         <v>2000</v>
@@ -8846,10 +8843,10 @@
         <v>213</v>
       </c>
       <c r="Q47" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R47" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R47" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S47" s="4">
         <v>6000</v>
@@ -8858,20 +8855,20 @@
         <v>2</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V47" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W47" s="4">
         <v>9000</v>
       </c>
       <c r="X47" s="4"/>
       <c r="Y47" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA47" s="4">
         <v>6000</v>
@@ -8880,10 +8877,10 @@
         <v>0</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD47" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE47" s="4">
         <v>10000</v>
@@ -8892,10 +8889,10 @@
         <v>2</v>
       </c>
       <c r="AG47" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH47" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AI47" s="4">
         <v>2000</v>
@@ -8946,10 +8943,10 @@
         <v>217</v>
       </c>
       <c r="Q48" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R48" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R48" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S48" s="4">
         <v>6000</v>
@@ -8958,20 +8955,20 @@
         <v>2</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W48" s="4">
         <v>9000</v>
       </c>
       <c r="X48" s="4"/>
       <c r="Y48" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA48" s="4">
         <v>6000</v>
@@ -8980,10 +8977,10 @@
         <v>0</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD48" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE48" s="4">
         <v>10000</v>
@@ -8992,10 +8989,10 @@
         <v>2</v>
       </c>
       <c r="AG48" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH48" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AI48" s="4">
         <v>2000</v>
@@ -9046,10 +9043,10 @@
         <v>221</v>
       </c>
       <c r="Q49" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R49" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S49" s="4">
         <v>6000</v>
@@ -9058,20 +9055,20 @@
         <v>2</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V49" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W49" s="4">
         <v>9000</v>
       </c>
       <c r="X49" s="4"/>
       <c r="Y49" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA49" s="4">
         <v>6000</v>
@@ -9080,10 +9077,10 @@
         <v>0</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD49" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE49" s="4">
         <v>10000</v>
@@ -9092,10 +9089,10 @@
         <v>2</v>
       </c>
       <c r="AG49" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH49" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AI49" s="4">
         <v>2000</v>
@@ -9146,10 +9143,10 @@
         <v>225</v>
       </c>
       <c r="Q50" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R50" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R50" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S50" s="4">
         <v>6000</v>
@@ -9158,20 +9155,20 @@
         <v>2</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V50" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W50" s="4">
         <v>9000</v>
       </c>
       <c r="X50" s="4"/>
       <c r="Y50" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z50" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA50" s="4">
         <v>6000</v>
@@ -9180,10 +9177,10 @@
         <v>0</v>
       </c>
       <c r="AC50" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD50" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE50" s="4">
         <v>10000</v>
@@ -9192,10 +9189,10 @@
         <v>2</v>
       </c>
       <c r="AG50" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH50" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AI50" s="4">
         <v>2000</v>
@@ -9246,10 +9243,10 @@
         <v>229</v>
       </c>
       <c r="Q51" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R51" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R51" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S51" s="4">
         <v>6000</v>
@@ -9258,20 +9255,20 @@
         <v>2</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V51" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W51" s="4">
         <v>9000</v>
       </c>
       <c r="X51" s="4"/>
       <c r="Y51" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z51" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA51" s="4">
         <v>6000</v>
@@ -9280,10 +9277,10 @@
         <v>0</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD51" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE51" s="4">
         <v>10000</v>
@@ -9292,10 +9289,10 @@
         <v>2</v>
       </c>
       <c r="AG51" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH51" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AI51" s="4">
         <v>2000</v>
@@ -9346,10 +9343,10 @@
         <v>234</v>
       </c>
       <c r="Q52" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R52" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R52" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S52" s="4">
         <v>6000</v>
@@ -9358,20 +9355,20 @@
         <v>2</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W52" s="4">
         <v>9000</v>
       </c>
       <c r="X52" s="4"/>
       <c r="Y52" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA52" s="4">
         <v>6000</v>
@@ -9380,10 +9377,10 @@
         <v>0</v>
       </c>
       <c r="AC52" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD52" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE52" s="4">
         <v>10000</v>
@@ -9392,10 +9389,10 @@
         <v>2</v>
       </c>
       <c r="AG52" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH52" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AI52" s="4">
         <v>2000</v>
@@ -9446,10 +9443,10 @@
         <v>239</v>
       </c>
       <c r="Q53" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R53" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R53" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S53" s="4">
         <v>6000</v>
@@ -9458,20 +9455,20 @@
         <v>2</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W53" s="4">
         <v>9000</v>
       </c>
       <c r="X53" s="4"/>
       <c r="Y53" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA53" s="4">
         <v>6000</v>
@@ -9480,10 +9477,10 @@
         <v>0</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD53" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE53" s="4">
         <v>10000</v>
@@ -9492,10 +9489,10 @@
         <v>2</v>
       </c>
       <c r="AG53" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH53" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AI53" s="4">
         <v>2000</v>
@@ -9546,10 +9543,10 @@
         <v>244</v>
       </c>
       <c r="Q54" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R54" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R54" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S54" s="4">
         <v>6000</v>
@@ -9558,20 +9555,20 @@
         <v>2</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W54" s="4">
         <v>9000</v>
       </c>
       <c r="X54" s="4"/>
       <c r="Y54" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA54" s="4">
         <v>6000</v>
@@ -9580,10 +9577,10 @@
         <v>0</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD54" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE54" s="4">
         <v>10000</v>
@@ -9592,10 +9589,10 @@
         <v>2</v>
       </c>
       <c r="AG54" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH54" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AI54" s="4">
         <v>2000</v>
@@ -9646,10 +9643,10 @@
         <v>249</v>
       </c>
       <c r="Q55" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R55" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S55" s="4">
         <v>6000</v>
@@ -9658,20 +9655,20 @@
         <v>2</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W55" s="4">
         <v>9000</v>
       </c>
       <c r="X55" s="4"/>
       <c r="Y55" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA55" s="4">
         <v>6000</v>
@@ -9680,10 +9677,10 @@
         <v>0</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD55" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE55" s="4">
         <v>10000</v>
@@ -9692,10 +9689,10 @@
         <v>2</v>
       </c>
       <c r="AG55" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH55" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AI55" s="4">
         <v>2000</v>
@@ -9746,10 +9743,10 @@
         <v>254</v>
       </c>
       <c r="Q56" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R56" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R56" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S56" s="4">
         <v>6000</v>
@@ -9758,20 +9755,20 @@
         <v>2</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W56" s="4">
         <v>9000</v>
       </c>
       <c r="X56" s="4"/>
       <c r="Y56" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA56" s="4">
         <v>6000</v>
@@ -9780,10 +9777,10 @@
         <v>0</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD56" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE56" s="4">
         <v>10000</v>
@@ -9792,10 +9789,10 @@
         <v>2</v>
       </c>
       <c r="AG56" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH56" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AI56" s="4">
         <v>2000</v>
@@ -9846,10 +9843,10 @@
         <v>259</v>
       </c>
       <c r="Q57" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R57" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R57" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S57" s="4">
         <v>6000</v>
@@ -9858,20 +9855,20 @@
         <v>2</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W57" s="4">
         <v>9000</v>
       </c>
       <c r="X57" s="4"/>
       <c r="Y57" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z57" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA57" s="4">
         <v>6000</v>
@@ -9880,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="AC57" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD57" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE57" s="4">
         <v>10000</v>
@@ -9892,10 +9889,10 @@
         <v>2</v>
       </c>
       <c r="AG57" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH57" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AI57" s="4">
         <v>2000</v>
@@ -9946,10 +9943,10 @@
         <v>264</v>
       </c>
       <c r="Q58" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R58" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R58" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S58" s="4">
         <v>6000</v>
@@ -9958,20 +9955,20 @@
         <v>2</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V58" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W58" s="4">
         <v>9000</v>
       </c>
       <c r="X58" s="4"/>
       <c r="Y58" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA58" s="4">
         <v>6000</v>
@@ -9980,10 +9977,10 @@
         <v>0</v>
       </c>
       <c r="AC58" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD58" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE58" s="4">
         <v>10000</v>
@@ -9992,10 +9989,10 @@
         <v>2</v>
       </c>
       <c r="AG58" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH58" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AI58" s="4">
         <v>2000</v>
@@ -10046,10 +10043,10 @@
         <v>269</v>
       </c>
       <c r="Q59" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R59" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R59" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S59" s="4">
         <v>6000</v>
@@ -10058,20 +10055,20 @@
         <v>2</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V59" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W59" s="4">
         <v>9000</v>
       </c>
       <c r="X59" s="4"/>
       <c r="Y59" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AA59" s="4">
         <v>6000</v>
@@ -10080,10 +10077,10 @@
         <v>0</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD59" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AE59" s="4">
         <v>10000</v>
@@ -10092,10 +10089,10 @@
         <v>2</v>
       </c>
       <c r="AG59" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AH59" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AI59" s="4">
         <v>2000</v>
@@ -10146,10 +10143,10 @@
         <v>273</v>
       </c>
       <c r="Q60" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R60" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S60" s="4">
         <v>6000</v>
@@ -10158,20 +10155,20 @@
         <v>2</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V60" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W60" s="4">
         <v>9000</v>
       </c>
       <c r="X60" s="4"/>
       <c r="Y60" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Z60" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AA60" s="4">
         <v>2000</v>
@@ -10230,10 +10227,10 @@
         <v>277</v>
       </c>
       <c r="Q61" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R61" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R61" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S61" s="4">
         <v>6000</v>
@@ -10242,20 +10239,20 @@
         <v>2</v>
       </c>
       <c r="U61" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V61" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W61" s="4">
         <v>9000</v>
       </c>
       <c r="X61" s="4"/>
       <c r="Y61" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Z61" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AA61" s="4">
         <v>2000</v>
@@ -10314,10 +10311,10 @@
         <v>281</v>
       </c>
       <c r="Q62" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R62" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R62" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S62" s="4">
         <v>6000</v>
@@ -10326,20 +10323,20 @@
         <v>2</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V62" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W62" s="4">
         <v>9000</v>
       </c>
       <c r="X62" s="4"/>
       <c r="Y62" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Z62" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AA62" s="4">
         <v>2000</v>
@@ -10398,10 +10395,10 @@
         <v>285</v>
       </c>
       <c r="Q63" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R63" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R63" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S63" s="4">
         <v>6000</v>
@@ -10410,20 +10407,20 @@
         <v>2</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V63" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W63" s="4">
         <v>9000</v>
       </c>
       <c r="X63" s="4"/>
       <c r="Y63" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AA63" s="4">
         <v>2000</v>
@@ -10482,10 +10479,10 @@
         <v>289</v>
       </c>
       <c r="Q64" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R64" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R64" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S64" s="4">
         <v>6000</v>
@@ -10494,20 +10491,20 @@
         <v>2</v>
       </c>
       <c r="U64" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V64" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W64" s="4">
         <v>9000</v>
       </c>
       <c r="X64" s="4"/>
       <c r="Y64" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Z64" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AA64" s="4">
         <v>2000</v>
@@ -10566,10 +10563,10 @@
         <v>293</v>
       </c>
       <c r="Q65" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R65" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R65" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S65" s="4">
         <v>6000</v>
@@ -10578,20 +10575,20 @@
         <v>2</v>
       </c>
       <c r="U65" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V65" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W65" s="4">
         <v>9000</v>
       </c>
       <c r="X65" s="4"/>
       <c r="Y65" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Z65" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AA65" s="4">
         <v>2000</v>
@@ -10650,10 +10647,10 @@
         <v>297</v>
       </c>
       <c r="Q66" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R66" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R66" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S66" s="4">
         <v>6000</v>
@@ -10662,20 +10659,20 @@
         <v>2</v>
       </c>
       <c r="U66" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V66" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W66" s="4">
         <v>9000</v>
       </c>
       <c r="X66" s="4"/>
       <c r="Y66" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Z66" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AA66" s="4">
         <v>2000</v>
@@ -10734,10 +10731,10 @@
         <v>301</v>
       </c>
       <c r="Q67" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R67" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="R67" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="S67" s="4">
         <v>6000</v>
@@ -10746,20 +10743,20 @@
         <v>2</v>
       </c>
       <c r="U67" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V67" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W67" s="4">
         <v>9000</v>
       </c>
       <c r="X67" s="4"/>
       <c r="Y67" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Z67" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AA67" s="4">
         <v>2000</v>
@@ -10818,10 +10815,10 @@
         <v>305</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="S68" s="4">
         <v>2000</v>
@@ -10888,10 +10885,10 @@
         <v>309</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="S69" s="4">
         <v>2000</v>
@@ -10958,10 +10955,10 @@
         <v>313</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="S70" s="4">
         <v>2000</v>
@@ -11028,10 +11025,10 @@
         <v>317</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="S71" s="4">
         <v>2000</v>
@@ -11098,10 +11095,10 @@
         <v>321</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="S72" s="4">
         <v>2000</v>
@@ -11168,10 +11165,10 @@
         <v>325</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R73" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="S73" s="4">
         <v>2000</v>
@@ -11238,10 +11235,10 @@
         <v>329</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="S74" s="4">
         <v>2000</v>
@@ -11308,10 +11305,10 @@
         <v>333</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="S75" s="4">
         <v>2000</v>
@@ -11378,10 +11375,10 @@
         <v>338</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="S76" s="4">
         <v>2000</v>
@@ -11448,10 +11445,10 @@
         <v>343</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="S77" s="4">
         <v>2000</v>
@@ -11518,10 +11515,10 @@
         <v>348</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="S78" s="4">
         <v>2000</v>
@@ -11588,10 +11585,10 @@
         <v>353</v>
       </c>
       <c r="Q79" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S79" s="4">
         <v>2000</v>
@@ -11658,10 +11655,10 @@
         <v>358</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S80" s="4">
         <v>2000</v>
@@ -11728,10 +11725,10 @@
         <v>363</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S81" s="4">
         <v>2000</v>
@@ -11798,10 +11795,10 @@
         <v>368</v>
       </c>
       <c r="Q82" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R82" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="S82" s="4">
         <v>2000</v>
@@ -11868,10 +11865,10 @@
         <v>373</v>
       </c>
       <c r="Q83" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="S83" s="4">
         <v>2000</v>
@@ -11938,10 +11935,10 @@
         <v>377</v>
       </c>
       <c r="Q84" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R84" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="S84" s="4">
         <v>2000</v>
@@ -12008,10 +12005,10 @@
         <v>381</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R85" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="S85" s="4">
         <v>2000</v>
@@ -12078,10 +12075,10 @@
         <v>385</v>
       </c>
       <c r="Q86" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="S86" s="4">
         <v>2000</v>
@@ -12148,10 +12145,10 @@
         <v>389</v>
       </c>
       <c r="Q87" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="S87" s="4">
         <v>2000</v>
@@ -12218,10 +12215,10 @@
         <v>393</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="S88" s="4">
         <v>2000</v>
@@ -12288,10 +12285,10 @@
         <v>397</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="S89" s="4">
         <v>2000</v>
@@ -12358,10 +12355,10 @@
         <v>401</v>
       </c>
       <c r="Q90" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="S90" s="4">
         <v>2000</v>
@@ -12428,10 +12425,10 @@
         <v>405</v>
       </c>
       <c r="Q91" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="S91" s="4">
         <v>2000</v>
@@ -12498,10 +12495,10 @@
         <v>409</v>
       </c>
       <c r="Q92" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R92" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="S92" s="4">
         <v>2000</v>
@@ -12568,10 +12565,10 @@
         <v>413</v>
       </c>
       <c r="Q93" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R93" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="S93" s="4">
         <v>2000</v>
@@ -12638,10 +12635,10 @@
         <v>417</v>
       </c>
       <c r="Q94" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R94" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="S94" s="4">
         <v>2000</v>
@@ -12708,10 +12705,10 @@
         <v>421</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R95" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="S95" s="4">
         <v>2000</v>
@@ -12778,10 +12775,10 @@
         <v>425</v>
       </c>
       <c r="Q96" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R96" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="S96" s="4">
         <v>2000</v>
@@ -12848,10 +12845,10 @@
         <v>429</v>
       </c>
       <c r="Q97" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R97" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="S97" s="4">
         <v>2000</v>
@@ -12918,10 +12915,10 @@
         <v>433</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R98" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="S98" s="4">
         <v>2000</v>
@@ -12988,10 +12985,10 @@
         <v>437</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R99" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="S99" s="4">
         <v>2000</v>
@@ -13058,10 +13055,10 @@
         <v>441</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R100" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="S100" s="4">
         <v>2000</v>
@@ -13128,10 +13125,10 @@
         <v>445</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R101" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="S101" s="4">
         <v>2000</v>
@@ -13198,10 +13195,10 @@
         <v>449</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R102" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="S102" s="4">
         <v>2000</v>
@@ -13268,10 +13265,10 @@
         <v>453</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R103" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="S103" s="4">
         <v>2000</v>
@@ -13338,10 +13335,10 @@
         <v>457</v>
       </c>
       <c r="Q104" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R104" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="S104" s="4">
         <v>2000</v>
@@ -13408,10 +13405,10 @@
         <v>461</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R105" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="S105" s="4">
         <v>2000</v>
@@ -13478,10 +13475,10 @@
         <v>465</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R106" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="S106" s="4">
         <v>2000</v>
@@ -13548,10 +13545,10 @@
         <v>469</v>
       </c>
       <c r="Q107" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R107" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="S107" s="4">
         <v>2000</v>
@@ -13618,10 +13615,10 @@
         <v>474</v>
       </c>
       <c r="Q108" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R108" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="S108" s="4">
         <v>2000</v>
@@ -13688,10 +13685,10 @@
         <v>479</v>
       </c>
       <c r="Q109" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R109" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="S109" s="4">
         <v>2000</v>
@@ -13758,10 +13755,10 @@
         <v>484</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R110" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="S110" s="4">
         <v>2000</v>
@@ -13828,10 +13825,10 @@
         <v>489</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R111" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="S111" s="4">
         <v>2000</v>
@@ -13898,10 +13895,10 @@
         <v>494</v>
       </c>
       <c r="Q112" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R112" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="S112" s="4">
         <v>2000</v>
@@ -13968,10 +13965,10 @@
         <v>499</v>
       </c>
       <c r="Q113" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R113" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="S113" s="4">
         <v>2000</v>
@@ -14038,10 +14035,10 @@
         <v>504</v>
       </c>
       <c r="Q114" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R114" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="S114" s="4">
         <v>2000</v>
@@ -14108,10 +14105,10 @@
         <v>509</v>
       </c>
       <c r="Q115" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R115" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="S115" s="4">
         <v>2000</v>
@@ -14178,10 +14175,10 @@
         <v>513</v>
       </c>
       <c r="Q116" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R116" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="S116" s="4">
         <v>2000</v>
@@ -14248,10 +14245,10 @@
         <v>517</v>
       </c>
       <c r="Q117" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R117" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="S117" s="4">
         <v>2000</v>
@@ -14318,10 +14315,10 @@
         <v>521</v>
       </c>
       <c r="Q118" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R118" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="S118" s="4">
         <v>2000</v>
@@ -14388,10 +14385,10 @@
         <v>525</v>
       </c>
       <c r="Q119" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R119" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="S119" s="4">
         <v>2000</v>
@@ -14458,10 +14455,10 @@
         <v>529</v>
       </c>
       <c r="Q120" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R120" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="S120" s="4">
         <v>2000</v>
@@ -14528,10 +14525,10 @@
         <v>533</v>
       </c>
       <c r="Q121" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R121" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="S121" s="4">
         <v>2000</v>
@@ -14598,10 +14595,10 @@
         <v>537</v>
       </c>
       <c r="Q122" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R122" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S122" s="4">
         <v>2000</v>
@@ -14668,10 +14665,10 @@
         <v>541</v>
       </c>
       <c r="Q123" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R123" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="S123" s="4">
         <v>2000</v>
@@ -14738,10 +14735,10 @@
         <v>544</v>
       </c>
       <c r="Q124" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R124" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R124" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S124" s="4">
         <v>6000</v>
@@ -14750,20 +14747,20 @@
         <v>1</v>
       </c>
       <c r="U124" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V124" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W124" s="4">
         <v>9000</v>
       </c>
       <c r="X124" s="4"/>
       <c r="Y124" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z124" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA124" s="4">
         <v>6000</v>
@@ -14822,10 +14819,10 @@
         <v>547</v>
       </c>
       <c r="Q125" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R125" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R125" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S125" s="4">
         <v>6000</v>
@@ -14834,20 +14831,20 @@
         <v>1</v>
       </c>
       <c r="U125" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V125" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W125" s="4">
         <v>9000</v>
       </c>
       <c r="X125" s="4"/>
       <c r="Y125" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z125" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA125" s="4">
         <v>6000</v>
@@ -14906,10 +14903,10 @@
         <v>550</v>
       </c>
       <c r="Q126" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R126" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R126" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S126" s="4">
         <v>6000</v>
@@ -14918,20 +14915,20 @@
         <v>1</v>
       </c>
       <c r="U126" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V126" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W126" s="4">
         <v>9000</v>
       </c>
       <c r="X126" s="4"/>
       <c r="Y126" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z126" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA126" s="4">
         <v>6000</v>
@@ -14990,10 +14987,10 @@
         <v>553</v>
       </c>
       <c r="Q127" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R127" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R127" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S127" s="4">
         <v>6000</v>
@@ -15002,20 +14999,20 @@
         <v>1</v>
       </c>
       <c r="U127" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V127" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W127" s="4">
         <v>9000</v>
       </c>
       <c r="X127" s="4"/>
       <c r="Y127" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z127" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA127" s="4">
         <v>6000</v>
@@ -15074,10 +15071,10 @@
         <v>556</v>
       </c>
       <c r="Q128" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R128" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R128" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S128" s="4">
         <v>6000</v>
@@ -15086,20 +15083,20 @@
         <v>1</v>
       </c>
       <c r="U128" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V128" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W128" s="4">
         <v>9000</v>
       </c>
       <c r="X128" s="4"/>
       <c r="Y128" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z128" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA128" s="4">
         <v>6000</v>
@@ -15158,10 +15155,10 @@
         <v>559</v>
       </c>
       <c r="Q129" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R129" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R129" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S129" s="4">
         <v>6000</v>
@@ -15170,20 +15167,20 @@
         <v>1</v>
       </c>
       <c r="U129" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V129" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W129" s="4">
         <v>9000</v>
       </c>
       <c r="X129" s="4"/>
       <c r="Y129" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z129" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA129" s="4">
         <v>6000</v>
@@ -15242,10 +15239,10 @@
         <v>562</v>
       </c>
       <c r="Q130" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R130" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R130" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S130" s="4">
         <v>6000</v>
@@ -15254,20 +15251,20 @@
         <v>1</v>
       </c>
       <c r="U130" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V130" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W130" s="4">
         <v>9000</v>
       </c>
       <c r="X130" s="4"/>
       <c r="Y130" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z130" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA130" s="4">
         <v>6000</v>
@@ -15326,10 +15323,10 @@
         <v>565</v>
       </c>
       <c r="Q131" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R131" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R131" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S131" s="4">
         <v>6000</v>
@@ -15338,20 +15335,20 @@
         <v>1</v>
       </c>
       <c r="U131" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V131" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W131" s="4">
         <v>9000</v>
       </c>
       <c r="X131" s="4"/>
       <c r="Y131" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z131" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA131" s="4">
         <v>6000</v>
@@ -15410,10 +15407,10 @@
         <v>568</v>
       </c>
       <c r="Q132" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R132" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R132" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S132" s="4">
         <v>6000</v>
@@ -15422,20 +15419,20 @@
         <v>1</v>
       </c>
       <c r="U132" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V132" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W132" s="4">
         <v>9000</v>
       </c>
       <c r="X132" s="4"/>
       <c r="Y132" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z132" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA132" s="4">
         <v>6000</v>
@@ -15494,10 +15491,10 @@
         <v>571</v>
       </c>
       <c r="Q133" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R133" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R133" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S133" s="4">
         <v>6000</v>
@@ -15506,20 +15503,20 @@
         <v>1</v>
       </c>
       <c r="U133" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V133" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W133" s="4">
         <v>9000</v>
       </c>
       <c r="X133" s="4"/>
       <c r="Y133" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z133" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA133" s="4">
         <v>6000</v>
@@ -15578,10 +15575,10 @@
         <v>574</v>
       </c>
       <c r="Q134" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R134" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R134" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S134" s="4">
         <v>6000</v>
@@ -15590,20 +15587,20 @@
         <v>1</v>
       </c>
       <c r="U134" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V134" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W134" s="4">
         <v>9000</v>
       </c>
       <c r="X134" s="4"/>
       <c r="Y134" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z134" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA134" s="4">
         <v>6000</v>
@@ -15662,10 +15659,10 @@
         <v>577</v>
       </c>
       <c r="Q135" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R135" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R135" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S135" s="4">
         <v>6000</v>
@@ -15674,20 +15671,20 @@
         <v>1</v>
       </c>
       <c r="U135" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V135" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W135" s="4">
         <v>9000</v>
       </c>
       <c r="X135" s="4"/>
       <c r="Y135" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z135" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA135" s="4">
         <v>6000</v>
@@ -15746,10 +15743,10 @@
         <v>580</v>
       </c>
       <c r="Q136" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R136" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R136" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S136" s="4">
         <v>6000</v>
@@ -15758,20 +15755,20 @@
         <v>1</v>
       </c>
       <c r="U136" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V136" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W136" s="4">
         <v>9000</v>
       </c>
       <c r="X136" s="4"/>
       <c r="Y136" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z136" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA136" s="4">
         <v>6000</v>
@@ -15830,10 +15827,10 @@
         <v>582</v>
       </c>
       <c r="Q137" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R137" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R137" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S137" s="4">
         <v>6000</v>
@@ -15842,20 +15839,20 @@
         <v>1</v>
       </c>
       <c r="U137" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V137" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W137" s="4">
         <v>9000</v>
       </c>
       <c r="X137" s="4"/>
       <c r="Y137" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z137" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA137" s="4">
         <v>6000</v>
@@ -15914,10 +15911,10 @@
         <v>584</v>
       </c>
       <c r="Q138" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R138" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R138" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S138" s="4">
         <v>6000</v>
@@ -15926,20 +15923,20 @@
         <v>1</v>
       </c>
       <c r="U138" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V138" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W138" s="4">
         <v>9000</v>
       </c>
       <c r="X138" s="4"/>
       <c r="Y138" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z138" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA138" s="4">
         <v>6000</v>
@@ -15998,10 +15995,10 @@
         <v>586</v>
       </c>
       <c r="Q139" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R139" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R139" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S139" s="4">
         <v>6000</v>
@@ -16010,20 +16007,20 @@
         <v>1</v>
       </c>
       <c r="U139" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V139" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W139" s="4">
         <v>9000</v>
       </c>
       <c r="X139" s="4"/>
       <c r="Y139" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z139" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA139" s="4">
         <v>6000</v>
@@ -16082,10 +16079,10 @@
         <v>588</v>
       </c>
       <c r="Q140" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R140" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R140" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S140" s="4">
         <v>6000</v>
@@ -16094,20 +16091,20 @@
         <v>1</v>
       </c>
       <c r="U140" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V140" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W140" s="4">
         <v>9000</v>
       </c>
       <c r="X140" s="4"/>
       <c r="Y140" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z140" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA140" s="4">
         <v>6000</v>
@@ -16166,10 +16163,10 @@
         <v>590</v>
       </c>
       <c r="Q141" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R141" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R141" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S141" s="4">
         <v>6000</v>
@@ -16178,20 +16175,20 @@
         <v>1</v>
       </c>
       <c r="U141" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V141" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W141" s="4">
         <v>9000</v>
       </c>
       <c r="X141" s="4"/>
       <c r="Y141" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z141" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA141" s="4">
         <v>6000</v>
@@ -16250,10 +16247,10 @@
         <v>592</v>
       </c>
       <c r="Q142" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R142" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R142" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S142" s="4">
         <v>6000</v>
@@ -16262,20 +16259,20 @@
         <v>1</v>
       </c>
       <c r="U142" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V142" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W142" s="4">
         <v>9000</v>
       </c>
       <c r="X142" s="4"/>
       <c r="Y142" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z142" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA142" s="4">
         <v>6000</v>
@@ -16334,10 +16331,10 @@
         <v>594</v>
       </c>
       <c r="Q143" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R143" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R143" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S143" s="4">
         <v>6000</v>
@@ -16346,20 +16343,20 @@
         <v>1</v>
       </c>
       <c r="U143" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V143" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W143" s="4">
         <v>9000</v>
       </c>
       <c r="X143" s="4"/>
       <c r="Y143" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z143" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA143" s="4">
         <v>6000</v>
@@ -16418,10 +16415,10 @@
         <v>596</v>
       </c>
       <c r="Q144" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R144" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R144" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S144" s="4">
         <v>6000</v>
@@ -16430,20 +16427,20 @@
         <v>1</v>
       </c>
       <c r="U144" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V144" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W144" s="4">
         <v>9000</v>
       </c>
       <c r="X144" s="4"/>
       <c r="Y144" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z144" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA144" s="4">
         <v>6000</v>
@@ -16502,10 +16499,10 @@
         <v>598</v>
       </c>
       <c r="Q145" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R145" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R145" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S145" s="4">
         <v>6000</v>
@@ -16514,20 +16511,20 @@
         <v>1</v>
       </c>
       <c r="U145" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V145" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W145" s="4">
         <v>9000</v>
       </c>
       <c r="X145" s="4"/>
       <c r="Y145" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z145" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA145" s="4">
         <v>6000</v>
@@ -16586,10 +16583,10 @@
         <v>600</v>
       </c>
       <c r="Q146" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R146" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R146" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S146" s="4">
         <v>6000</v>
@@ -16598,20 +16595,20 @@
         <v>1</v>
       </c>
       <c r="U146" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V146" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W146" s="4">
         <v>9000</v>
       </c>
       <c r="X146" s="4"/>
       <c r="Y146" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z146" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA146" s="4">
         <v>6000</v>
@@ -16670,10 +16667,10 @@
         <v>602</v>
       </c>
       <c r="Q147" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R147" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R147" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S147" s="4">
         <v>6000</v>
@@ -16682,20 +16679,20 @@
         <v>1</v>
       </c>
       <c r="U147" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V147" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W147" s="4">
         <v>9000</v>
       </c>
       <c r="X147" s="4"/>
       <c r="Y147" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z147" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA147" s="4">
         <v>6000</v>
@@ -16754,10 +16751,10 @@
         <v>604</v>
       </c>
       <c r="Q148" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R148" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R148" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S148" s="4">
         <v>6000</v>
@@ -16766,20 +16763,20 @@
         <v>1</v>
       </c>
       <c r="U148" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V148" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W148" s="4">
         <v>9000</v>
       </c>
       <c r="X148" s="4"/>
       <c r="Y148" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z148" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA148" s="4">
         <v>6000</v>
@@ -16838,10 +16835,10 @@
         <v>606</v>
       </c>
       <c r="Q149" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R149" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R149" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S149" s="4">
         <v>6000</v>
@@ -16850,20 +16847,20 @@
         <v>1</v>
       </c>
       <c r="U149" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V149" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W149" s="4">
         <v>9000</v>
       </c>
       <c r="X149" s="4"/>
       <c r="Y149" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z149" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA149" s="4">
         <v>6000</v>
@@ -16922,10 +16919,10 @@
         <v>609</v>
       </c>
       <c r="Q150" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R150" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R150" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S150" s="4">
         <v>6000</v>
@@ -16934,20 +16931,20 @@
         <v>1</v>
       </c>
       <c r="U150" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V150" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W150" s="4">
         <v>9000</v>
       </c>
       <c r="X150" s="4"/>
       <c r="Y150" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z150" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA150" s="4">
         <v>6000</v>
@@ -17006,10 +17003,10 @@
         <v>612</v>
       </c>
       <c r="Q151" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R151" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R151" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S151" s="4">
         <v>6000</v>
@@ -17018,20 +17015,20 @@
         <v>1</v>
       </c>
       <c r="U151" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V151" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W151" s="4">
         <v>9000</v>
       </c>
       <c r="X151" s="4"/>
       <c r="Y151" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z151" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA151" s="4">
         <v>6000</v>
@@ -17090,10 +17087,10 @@
         <v>615</v>
       </c>
       <c r="Q152" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R152" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R152" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S152" s="4">
         <v>6000</v>
@@ -17102,20 +17099,20 @@
         <v>1</v>
       </c>
       <c r="U152" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V152" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W152" s="4">
         <v>9000</v>
       </c>
       <c r="X152" s="4"/>
       <c r="Y152" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z152" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA152" s="4">
         <v>6000</v>
@@ -17174,10 +17171,10 @@
         <v>618</v>
       </c>
       <c r="Q153" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R153" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R153" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S153" s="4">
         <v>6000</v>
@@ -17186,20 +17183,20 @@
         <v>1</v>
       </c>
       <c r="U153" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V153" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W153" s="4">
         <v>9000</v>
       </c>
       <c r="X153" s="4"/>
       <c r="Y153" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z153" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA153" s="4">
         <v>6000</v>
@@ -17230,7 +17227,7 @@
         <v>619</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>620</v>
@@ -17258,10 +17255,10 @@
         <v>621</v>
       </c>
       <c r="Q154" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R154" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R154" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S154" s="4">
         <v>6000</v>
@@ -17270,20 +17267,20 @@
         <v>1</v>
       </c>
       <c r="U154" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V154" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W154" s="4">
         <v>9000</v>
       </c>
       <c r="X154" s="4"/>
       <c r="Y154" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z154" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA154" s="4">
         <v>6000</v>
@@ -17342,10 +17339,10 @@
         <v>624</v>
       </c>
       <c r="Q155" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R155" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R155" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S155" s="4">
         <v>6000</v>
@@ -17354,20 +17351,20 @@
         <v>1</v>
       </c>
       <c r="U155" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V155" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W155" s="4">
         <v>9000</v>
       </c>
       <c r="X155" s="4"/>
       <c r="Y155" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z155" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA155" s="4">
         <v>6000</v>
@@ -17426,10 +17423,10 @@
         <v>627</v>
       </c>
       <c r="Q156" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R156" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R156" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S156" s="4">
         <v>6000</v>
@@ -17438,20 +17435,20 @@
         <v>1</v>
       </c>
       <c r="U156" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V156" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W156" s="4">
         <v>9000</v>
       </c>
       <c r="X156" s="4"/>
       <c r="Y156" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z156" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA156" s="4">
         <v>6000</v>
@@ -17510,10 +17507,10 @@
         <v>630</v>
       </c>
       <c r="Q157" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R157" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R157" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S157" s="4">
         <v>6000</v>
@@ -17522,20 +17519,20 @@
         <v>1</v>
       </c>
       <c r="U157" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V157" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W157" s="4">
         <v>9000</v>
       </c>
       <c r="X157" s="4"/>
       <c r="Y157" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z157" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA157" s="4">
         <v>6000</v>
@@ -17594,10 +17591,10 @@
         <v>633</v>
       </c>
       <c r="Q158" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R158" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R158" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S158" s="4">
         <v>6000</v>
@@ -17606,20 +17603,20 @@
         <v>1</v>
       </c>
       <c r="U158" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V158" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W158" s="4">
         <v>9000</v>
       </c>
       <c r="X158" s="4"/>
       <c r="Y158" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z158" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA158" s="4">
         <v>6000</v>
@@ -17678,10 +17675,10 @@
         <v>636</v>
       </c>
       <c r="Q159" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R159" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R159" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S159" s="4">
         <v>6000</v>
@@ -17690,20 +17687,20 @@
         <v>1</v>
       </c>
       <c r="U159" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V159" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W159" s="4">
         <v>9000</v>
       </c>
       <c r="X159" s="4"/>
       <c r="Y159" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z159" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA159" s="4">
         <v>6000</v>
@@ -17762,10 +17759,10 @@
         <v>639</v>
       </c>
       <c r="Q160" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R160" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R160" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S160" s="4">
         <v>6000</v>
@@ -17774,20 +17771,20 @@
         <v>1</v>
       </c>
       <c r="U160" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V160" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W160" s="4">
         <v>9000</v>
       </c>
       <c r="X160" s="4"/>
       <c r="Y160" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z160" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA160" s="4">
         <v>6000</v>
@@ -17846,10 +17843,10 @@
         <v>642</v>
       </c>
       <c r="Q161" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R161" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R161" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S161" s="4">
         <v>6000</v>
@@ -17858,20 +17855,20 @@
         <v>1</v>
       </c>
       <c r="U161" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V161" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W161" s="4">
         <v>9000</v>
       </c>
       <c r="X161" s="4"/>
       <c r="Y161" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z161" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA161" s="4">
         <v>6000</v>
@@ -17930,10 +17927,10 @@
         <v>645</v>
       </c>
       <c r="Q162" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R162" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R162" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S162" s="4">
         <v>6000</v>
@@ -17942,20 +17939,20 @@
         <v>1</v>
       </c>
       <c r="U162" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V162" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W162" s="4">
         <v>9000</v>
       </c>
       <c r="X162" s="4"/>
       <c r="Y162" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Z162" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AA162" s="4">
         <v>6000</v>
@@ -18014,10 +18011,10 @@
         <v>647</v>
       </c>
       <c r="Q163" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R163" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R163" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S163" s="4">
         <v>6000</v>
@@ -18026,10 +18023,10 @@
         <v>1</v>
       </c>
       <c r="U163" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V163" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W163" s="4">
         <v>3000</v>
@@ -18090,10 +18087,10 @@
         <v>649</v>
       </c>
       <c r="Q164" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R164" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R164" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S164" s="4">
         <v>6000</v>
@@ -18102,10 +18099,10 @@
         <v>1</v>
       </c>
       <c r="U164" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V164" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W164" s="4">
         <v>3000</v>
@@ -18166,10 +18163,10 @@
         <v>651</v>
       </c>
       <c r="Q165" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R165" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R165" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S165" s="4">
         <v>6000</v>
@@ -18178,10 +18175,10 @@
         <v>1</v>
       </c>
       <c r="U165" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V165" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W165" s="4">
         <v>3000</v>
@@ -18242,10 +18239,10 @@
         <v>653</v>
       </c>
       <c r="Q166" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R166" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R166" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S166" s="4">
         <v>6000</v>
@@ -18254,10 +18251,10 @@
         <v>1</v>
       </c>
       <c r="U166" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V166" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W166" s="4">
         <v>3000</v>
@@ -18318,10 +18315,10 @@
         <v>655</v>
       </c>
       <c r="Q167" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R167" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R167" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S167" s="4">
         <v>6000</v>
@@ -18330,10 +18327,10 @@
         <v>1</v>
       </c>
       <c r="U167" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V167" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W167" s="4">
         <v>3000</v>
@@ -18394,10 +18391,10 @@
         <v>657</v>
       </c>
       <c r="Q168" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R168" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R168" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S168" s="4">
         <v>6000</v>
@@ -18406,10 +18403,10 @@
         <v>1</v>
       </c>
       <c r="U168" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V168" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W168" s="4">
         <v>3000</v>
@@ -18470,10 +18467,10 @@
         <v>659</v>
       </c>
       <c r="Q169" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R169" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R169" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S169" s="4">
         <v>6000</v>
@@ -18482,10 +18479,10 @@
         <v>1</v>
       </c>
       <c r="U169" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V169" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W169" s="4">
         <v>3000</v>
@@ -18546,10 +18543,10 @@
         <v>661</v>
       </c>
       <c r="Q170" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R170" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R170" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S170" s="4">
         <v>6000</v>
@@ -18558,10 +18555,10 @@
         <v>1</v>
       </c>
       <c r="U170" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V170" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W170" s="4">
         <v>3000</v>
@@ -18622,10 +18619,10 @@
         <v>663</v>
       </c>
       <c r="Q171" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R171" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R171" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S171" s="4">
         <v>6000</v>
@@ -18634,10 +18631,10 @@
         <v>1</v>
       </c>
       <c r="U171" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V171" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W171" s="4">
         <v>3000</v>
@@ -18698,10 +18695,10 @@
         <v>665</v>
       </c>
       <c r="Q172" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R172" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R172" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S172" s="4">
         <v>6000</v>
@@ -18710,10 +18707,10 @@
         <v>1</v>
       </c>
       <c r="U172" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V172" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W172" s="4">
         <v>3000</v>
@@ -18774,10 +18771,10 @@
         <v>667</v>
       </c>
       <c r="Q173" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R173" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R173" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S173" s="4">
         <v>6000</v>
@@ -18786,10 +18783,10 @@
         <v>1</v>
       </c>
       <c r="U173" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V173" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W173" s="4">
         <v>3000</v>
@@ -18850,10 +18847,10 @@
         <v>669</v>
       </c>
       <c r="Q174" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R174" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R174" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S174" s="4">
         <v>6000</v>
@@ -18862,10 +18859,10 @@
         <v>1</v>
       </c>
       <c r="U174" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V174" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W174" s="4">
         <v>3000</v>
@@ -18926,10 +18923,10 @@
         <v>671</v>
       </c>
       <c r="Q175" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="R175" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="R175" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="S175" s="4">
         <v>6000</v>
@@ -18938,10 +18935,10 @@
         <v>1</v>
       </c>
       <c r="U175" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V175" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W175" s="4">
         <v>3000</v>
@@ -19002,10 +18999,10 @@
         <v>674</v>
       </c>
       <c r="Q176" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R176" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S176" s="4">
         <v>3000</v>
@@ -19070,10 +19067,10 @@
         <v>677</v>
       </c>
       <c r="Q177" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R177" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S177" s="4">
         <v>3000</v>
@@ -19138,10 +19135,10 @@
         <v>680</v>
       </c>
       <c r="Q178" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R178" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S178" s="4">
         <v>3000</v>
@@ -19206,10 +19203,10 @@
         <v>683</v>
       </c>
       <c r="Q179" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R179" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S179" s="4">
         <v>3000</v>
@@ -19274,10 +19271,10 @@
         <v>686</v>
       </c>
       <c r="Q180" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R180" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S180" s="4">
         <v>3000</v>
@@ -19342,10 +19339,10 @@
         <v>689</v>
       </c>
       <c r="Q181" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R181" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S181" s="4">
         <v>3000</v>
@@ -19410,10 +19407,10 @@
         <v>692</v>
       </c>
       <c r="Q182" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R182" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S182" s="4">
         <v>3000</v>
@@ -19478,10 +19475,10 @@
         <v>695</v>
       </c>
       <c r="Q183" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R183" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S183" s="4">
         <v>3000</v>
@@ -19546,10 +19543,10 @@
         <v>698</v>
       </c>
       <c r="Q184" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R184" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S184" s="4">
         <v>3000</v>
@@ -19614,10 +19611,10 @@
         <v>701</v>
       </c>
       <c r="Q185" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R185" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S185" s="4">
         <v>3000</v>
@@ -19682,10 +19679,10 @@
         <v>704</v>
       </c>
       <c r="Q186" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R186" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S186" s="4">
         <v>3000</v>
@@ -19750,10 +19747,10 @@
         <v>707</v>
       </c>
       <c r="Q187" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R187" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S187" s="4">
         <v>3000</v>
@@ -19818,10 +19815,10 @@
         <v>710</v>
       </c>
       <c r="Q188" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R188" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S188" s="4">
         <v>3000</v>
@@ -19886,10 +19883,10 @@
         <v>712</v>
       </c>
       <c r="Q189" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R189" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S189" s="4">
         <v>3000</v>
@@ -19954,10 +19951,10 @@
         <v>714</v>
       </c>
       <c r="Q190" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R190" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S190" s="4">
         <v>3000</v>
@@ -20022,10 +20019,10 @@
         <v>716</v>
       </c>
       <c r="Q191" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R191" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S191" s="4">
         <v>3000</v>
@@ -20090,10 +20087,10 @@
         <v>718</v>
       </c>
       <c r="Q192" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R192" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S192" s="4">
         <v>3000</v>
@@ -20158,10 +20155,10 @@
         <v>720</v>
       </c>
       <c r="Q193" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R193" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S193" s="4">
         <v>3000</v>
@@ -20226,10 +20223,10 @@
         <v>722</v>
       </c>
       <c r="Q194" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R194" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S194" s="4">
         <v>3000</v>
@@ -20294,10 +20291,10 @@
         <v>724</v>
       </c>
       <c r="Q195" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R195" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S195" s="4">
         <v>3000</v>
@@ -20362,10 +20359,10 @@
         <v>726</v>
       </c>
       <c r="Q196" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R196" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S196" s="4">
         <v>3000</v>
@@ -20430,10 +20427,10 @@
         <v>728</v>
       </c>
       <c r="Q197" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R197" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S197" s="4">
         <v>3000</v>
@@ -20498,10 +20495,10 @@
         <v>730</v>
       </c>
       <c r="Q198" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R198" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S198" s="4">
         <v>3000</v>
@@ -20566,10 +20563,10 @@
         <v>732</v>
       </c>
       <c r="Q199" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R199" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S199" s="4">
         <v>3000</v>
@@ -20634,10 +20631,10 @@
         <v>734</v>
       </c>
       <c r="Q200" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R200" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S200" s="4">
         <v>3000</v>
@@ -20702,10 +20699,10 @@
         <v>736</v>
       </c>
       <c r="Q201" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R201" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S201" s="4">
         <v>3000</v>
@@ -20770,10 +20767,10 @@
         <v>739</v>
       </c>
       <c r="Q202" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R202" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S202" s="4">
         <v>3000</v>
@@ -20838,10 +20835,10 @@
         <v>742</v>
       </c>
       <c r="Q203" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R203" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S203" s="4">
         <v>3000</v>
@@ -20906,10 +20903,10 @@
         <v>745</v>
       </c>
       <c r="Q204" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R204" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S204" s="4">
         <v>3000</v>
@@ -20974,10 +20971,10 @@
         <v>748</v>
       </c>
       <c r="Q205" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R205" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S205" s="4">
         <v>3000</v>
@@ -21042,10 +21039,10 @@
         <v>751</v>
       </c>
       <c r="Q206" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R206" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S206" s="4">
         <v>3000</v>
@@ -21110,10 +21107,10 @@
         <v>754</v>
       </c>
       <c r="Q207" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R207" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S207" s="4">
         <v>3000</v>
@@ -21178,10 +21175,10 @@
         <v>757</v>
       </c>
       <c r="Q208" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R208" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S208" s="4">
         <v>3000</v>
@@ -21246,10 +21243,10 @@
         <v>760</v>
       </c>
       <c r="Q209" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R209" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S209" s="4">
         <v>3000</v>
@@ -21314,10 +21311,10 @@
         <v>763</v>
       </c>
       <c r="Q210" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R210" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S210" s="4">
         <v>3000</v>
@@ -21382,10 +21379,10 @@
         <v>766</v>
       </c>
       <c r="Q211" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R211" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S211" s="4">
         <v>3000</v>
@@ -21450,10 +21447,10 @@
         <v>769</v>
       </c>
       <c r="Q212" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R212" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S212" s="4">
         <v>3000</v>
@@ -21518,10 +21515,10 @@
         <v>772</v>
       </c>
       <c r="Q213" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R213" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S213" s="4">
         <v>3000</v>
@@ -21586,10 +21583,10 @@
         <v>775</v>
       </c>
       <c r="Q214" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R214" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S214" s="4">
         <v>3000</v>
@@ -21654,10 +21651,10 @@
         <v>777</v>
       </c>
       <c r="Q215" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R215" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S215" s="4">
         <v>3000</v>
@@ -21722,10 +21719,10 @@
         <v>779</v>
       </c>
       <c r="Q216" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R216" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S216" s="4">
         <v>3000</v>
@@ -21790,10 +21787,10 @@
         <v>781</v>
       </c>
       <c r="Q217" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R217" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S217" s="4">
         <v>3000</v>
@@ -21858,10 +21855,10 @@
         <v>783</v>
       </c>
       <c r="Q218" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R218" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S218" s="4">
         <v>3000</v>
@@ -21926,10 +21923,10 @@
         <v>785</v>
       </c>
       <c r="Q219" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R219" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S219" s="4">
         <v>3000</v>
@@ -21994,10 +21991,10 @@
         <v>787</v>
       </c>
       <c r="Q220" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R220" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S220" s="4">
         <v>3000</v>
@@ -22062,10 +22059,10 @@
         <v>789</v>
       </c>
       <c r="Q221" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R221" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S221" s="4">
         <v>3000</v>
@@ -22130,10 +22127,10 @@
         <v>791</v>
       </c>
       <c r="Q222" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R222" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S222" s="4">
         <v>3000</v>
@@ -22198,10 +22195,10 @@
         <v>793</v>
       </c>
       <c r="Q223" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R223" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S223" s="4">
         <v>3000</v>
@@ -22266,10 +22263,10 @@
         <v>795</v>
       </c>
       <c r="Q224" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R224" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S224" s="4">
         <v>3000</v>
@@ -22334,10 +22331,10 @@
         <v>797</v>
       </c>
       <c r="Q225" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R225" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S225" s="4">
         <v>3000</v>
@@ -22402,10 +22399,10 @@
         <v>799</v>
       </c>
       <c r="Q226" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R226" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S226" s="4">
         <v>3000</v>
@@ -22470,10 +22467,10 @@
         <v>801</v>
       </c>
       <c r="Q227" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R227" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S227" s="4">
         <v>3000</v>
@@ -22538,10 +22535,10 @@
         <v>804</v>
       </c>
       <c r="Q228" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R228" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S228" s="4">
         <v>3000</v>
@@ -22606,10 +22603,10 @@
         <v>807</v>
       </c>
       <c r="Q229" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R229" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S229" s="4">
         <v>3000</v>
@@ -22674,10 +22671,10 @@
         <v>810</v>
       </c>
       <c r="Q230" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R230" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S230" s="4">
         <v>3000</v>
@@ -22742,10 +22739,10 @@
         <v>813</v>
       </c>
       <c r="Q231" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R231" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S231" s="4">
         <v>3000</v>
@@ -22810,10 +22807,10 @@
         <v>816</v>
       </c>
       <c r="Q232" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R232" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S232" s="4">
         <v>3000</v>
@@ -22878,10 +22875,10 @@
         <v>819</v>
       </c>
       <c r="Q233" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R233" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S233" s="4">
         <v>3000</v>
@@ -22946,10 +22943,10 @@
         <v>822</v>
       </c>
       <c r="Q234" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R234" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S234" s="4">
         <v>3000</v>
@@ -23014,10 +23011,10 @@
         <v>825</v>
       </c>
       <c r="Q235" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R235" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S235" s="4">
         <v>3000</v>
@@ -23082,10 +23079,10 @@
         <v>828</v>
       </c>
       <c r="Q236" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R236" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S236" s="4">
         <v>3000</v>
@@ -23150,10 +23147,10 @@
         <v>831</v>
       </c>
       <c r="Q237" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R237" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S237" s="4">
         <v>3000</v>
@@ -23218,10 +23215,10 @@
         <v>834</v>
       </c>
       <c r="Q238" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R238" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S238" s="4">
         <v>3000</v>
@@ -23286,10 +23283,10 @@
         <v>837</v>
       </c>
       <c r="Q239" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R239" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S239" s="4">
         <v>3000</v>
@@ -23354,10 +23351,10 @@
         <v>840</v>
       </c>
       <c r="Q240" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R240" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S240" s="4">
         <v>3000</v>
@@ -23422,10 +23419,10 @@
         <v>842</v>
       </c>
       <c r="Q241" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R241" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S241" s="4">
         <v>3000</v>
@@ -23490,10 +23487,10 @@
         <v>844</v>
       </c>
       <c r="Q242" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R242" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S242" s="4">
         <v>3000</v>
@@ -23558,10 +23555,10 @@
         <v>846</v>
       </c>
       <c r="Q243" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R243" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S243" s="4">
         <v>3000</v>
@@ -23626,10 +23623,10 @@
         <v>848</v>
       </c>
       <c r="Q244" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R244" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S244" s="4">
         <v>3000</v>
@@ -23694,10 +23691,10 @@
         <v>850</v>
       </c>
       <c r="Q245" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R245" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S245" s="4">
         <v>3000</v>
@@ -23762,10 +23759,10 @@
         <v>852</v>
       </c>
       <c r="Q246" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R246" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S246" s="4">
         <v>3000</v>
@@ -23830,10 +23827,10 @@
         <v>854</v>
       </c>
       <c r="Q247" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R247" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S247" s="4">
         <v>3000</v>
@@ -23898,10 +23895,10 @@
         <v>856</v>
       </c>
       <c r="Q248" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R248" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S248" s="4">
         <v>3000</v>
@@ -23966,10 +23963,10 @@
         <v>858</v>
       </c>
       <c r="Q249" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R249" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S249" s="4">
         <v>3000</v>
@@ -24034,10 +24031,10 @@
         <v>860</v>
       </c>
       <c r="Q250" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R250" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S250" s="4">
         <v>3000</v>
@@ -24102,10 +24099,10 @@
         <v>862</v>
       </c>
       <c r="Q251" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R251" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S251" s="4">
         <v>3000</v>
@@ -24170,10 +24167,10 @@
         <v>864</v>
       </c>
       <c r="Q252" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R252" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S252" s="4">
         <v>3000</v>
@@ -24238,10 +24235,10 @@
         <v>866</v>
       </c>
       <c r="Q253" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R253" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="S253" s="4">
         <v>3000</v>
@@ -25831,7 +25828,7 @@
         <v>946</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G279" s="4">
         <v>0</v>
@@ -25856,10 +25853,10 @@
         <v>947</v>
       </c>
       <c r="Q279" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R279" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="S279" s="4">
         <v>6000</v>
@@ -25868,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="U279" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V279" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="W279" s="4">
         <v>10000</v>
@@ -25900,7 +25897,7 @@
         <v>20403</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>948</v>
@@ -25934,10 +25931,10 @@
         <v>949</v>
       </c>
       <c r="Q280" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R280" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="S280" s="4">
         <v>6000</v>
@@ -25946,10 +25943,10 @@
         <v>0</v>
       </c>
       <c r="U280" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V280" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="W280" s="4">
         <v>10000</v>
@@ -26012,10 +26009,10 @@
         <v>951</v>
       </c>
       <c r="Q281" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R281" s="4" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="S281" s="4">
         <v>6000</v>
@@ -26024,10 +26021,10 @@
         <v>0</v>
       </c>
       <c r="U281" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V281" s="4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="W281" s="4">
         <v>10000</v>
@@ -26087,13 +26084,13 @@
         <v>1</v>
       </c>
       <c r="P282" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q282" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R282" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="S282" s="4">
         <v>6000</v>
@@ -26102,10 +26099,10 @@
         <v>0</v>
       </c>
       <c r="U282" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V282" s="4" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="W282" s="4">
         <v>10000</v>
@@ -26165,13 +26162,13 @@
         <v>1</v>
       </c>
       <c r="P283" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="Q283" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R283" s="4" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="S283" s="4">
         <v>6000</v>
@@ -26180,10 +26177,10 @@
         <v>0</v>
       </c>
       <c r="U283" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V283" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="W283" s="4">
         <v>10000</v>
@@ -26243,13 +26240,13 @@
         <v>1</v>
       </c>
       <c r="P284" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q284" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R284" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="S284" s="4">
         <v>6000</v>
@@ -26258,10 +26255,10 @@
         <v>0</v>
       </c>
       <c r="U284" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V284" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W284" s="4">
         <v>10000</v>
@@ -26290,7 +26287,7 @@
         <v>20408</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>962</v>
@@ -26324,10 +26321,10 @@
         <v>964</v>
       </c>
       <c r="Q285" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R285" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="S285" s="4">
         <v>6000</v>
@@ -26336,10 +26333,10 @@
         <v>0</v>
       </c>
       <c r="U285" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V285" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="W285" s="4">
         <v>10000</v>
@@ -26368,13 +26365,13 @@
         <v>20409</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F286" s="4" t="s">
         <v>960</v>
@@ -26399,13 +26396,13 @@
         <v>1</v>
       </c>
       <c r="P286" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Q286" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="R286" s="4" t="s">
         <v>1277</v>
-      </c>
-      <c r="R286" s="4" t="s">
-        <v>1278</v>
       </c>
       <c r="S286" s="4">
         <v>6000</v>
@@ -26438,13 +26435,13 @@
         <v>20410</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F287" s="4" t="s">
         <v>960</v>
@@ -26469,13 +26466,13 @@
         <v>1</v>
       </c>
       <c r="P287" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="Q287" s="4" t="s">
         <v>1276</v>
       </c>
-      <c r="Q287" s="4" t="s">
-        <v>1277</v>
-      </c>
       <c r="R287" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="S287" s="4">
         <v>6000</v>
@@ -28005,8 +28002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28185,7 +28182,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="14" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28201,7 +28198,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="14" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28217,7 +28214,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="14" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28233,7 +28230,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="14" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28249,7 +28246,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="14" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28265,7 +28262,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="14" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28489,7 +28486,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>1036</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28553,7 +28550,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28596,12 +28593,12 @@
         <v>20409</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -28612,12 +28609,12 @@
         <v>20410</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -29030,19 +29027,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1039</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -29056,13 +29053,13 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -29070,19 +29067,19 @@
         <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1047</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -29090,7 +29087,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -29110,7 +29107,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -29130,7 +29127,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832EA967-72B8-456D-B0FA-059C1827BE6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6252CD-F965-45AA-9BF6-1D800DFA0F3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5185,10 +5185,10 @@
   <dimension ref="A1:AJ324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L129" sqref="L129"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6747,7 +6747,9 @@
       <c r="K20" s="4">
         <v>10</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <v>0.15</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4" t="b">

--- a/Excel/item.道具.xlsx
+++ b/Excel/item.道具.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E2141-38AC-49ED-935B-E0494CF6CE28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC612D6-F750-4B44-A73B-3F88F6C2C6B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="1356">
   <si>
     <t>sheet名</t>
   </si>
@@ -4567,6 +4567,27 @@
   </si>
   <si>
     <t>13阶索敌增强装置。侦测信息，增加攻击力和护盾回复</t>
+  </si>
+  <si>
+    <t>皮肤1碎片</t>
+  </si>
+  <si>
+    <t>皮肤1碎片</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤2碎片</t>
+  </si>
+  <si>
+    <t>皮肤2碎片</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于合成皮肤1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于合成皮肤2</t>
   </si>
 </sst>
 </file>
@@ -5305,13 +5326,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ332"/>
+  <dimension ref="A1:AJ334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A332"/>
+      <selection pane="bottomRight" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16263,28 +16284,28 @@
         <v>142</v>
       </c>
       <c r="B145" s="4">
-        <v>10001</v>
+        <v>3001</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>535</v>
+        <v>1351</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>535</v>
+        <v>1350</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>535</v>
+        <v>1350</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>536</v>
+        <v>1317</v>
       </c>
       <c r="G145" s="4">
         <v>0</v>
       </c>
       <c r="H145" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I145" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J145" s="4">
         <v>0</v>
@@ -16296,43 +16317,21 @@
       <c r="O145" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P145" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q145" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="R145" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="S145" s="4">
-        <v>6000</v>
-      </c>
-      <c r="T145" s="4">
-        <v>1</v>
-      </c>
-      <c r="U145" s="4" t="s">
-        <v>1076</v>
-      </c>
-      <c r="V145" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="W145" s="4">
-        <v>9000</v>
-      </c>
+      <c r="P145" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
       <c r="X145" s="4"/>
-      <c r="Y145" s="4" t="s">
-        <v>1096</v>
-      </c>
-      <c r="Z145" s="4" t="s">
-        <v>1230</v>
-      </c>
-      <c r="AA145" s="4">
-        <v>6000</v>
-      </c>
-      <c r="AB145" s="4">
-        <v>0</v>
-      </c>
+      <c r="Y145" s="4"/>
+      <c r="Z145" s="4"/>
+      <c r="AA145" s="4"/>
+      <c r="AB145" s="4"/>
       <c r="AC145" s="4"/>
       <c r="AD145" s="4"/>
       <c r="AE145" s="4"/>
@@ -16347,28 +16346,28 @@
         <v>143</v>
       </c>
       <c r="B146" s="4">
-        <v>10002</v>
+        <v>3002</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>538</v>
+        <v>1353</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>538</v>
+        <v>1352</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>538</v>
+        <v>1352</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>539</v>
+        <v>1317</v>
       </c>
       <c r="G146" s="4">
         <v>0</v>
       </c>
       <c r="H146" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I146" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J146" s="4">
         <v>0</v>
@@ -16380,43 +16379,21 @@
       <c r="O146" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P146" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q146" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="R146" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="S146" s="4">
-        <v>6000</v>
-      </c>
-      <c r="T146" s="4">
-        <v>1</v>
-      </c>
-      <c r="U146" s="4" t="s">
-        <v>1076</v>
-      </c>
-      <c r="V146" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="W146" s="4">
-        <v>9000</v>
-      </c>
+      <c r="P146" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
       <c r="X146" s="4"/>
-      <c r="Y146" s="4" t="s">
-        <v>1096</v>
-      </c>
-      <c r="Z146" s="4" t="s">
-        <v>1230</v>
-      </c>
-      <c r="AA146" s="4">
-        <v>6000</v>
-      </c>
-      <c r="AB146" s="4">
-        <v>0</v>
-      </c>
+      <c r="Y146" s="4"/>
+      <c r="Z146" s="4"/>
+      <c r="AA146" s="4"/>
+      <c r="AB146" s="4"/>
       <c r="AC146" s="4"/>
       <c r="AD146" s="4"/>
       <c r="AE146" s="4"/>
@@ -16431,19 +16408,19 @@
         <v>144</v>
       </c>
       <c r="B147" s="4">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G147" s="4">
         <v>0</v>
@@ -16465,7 +16442,7 @@
         <v>1</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="Q147" s="4" t="s">
         <v>1223</v>
@@ -16515,19 +16492,19 @@
         <v>145</v>
       </c>
       <c r="B148" s="4">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="G148" s="4">
         <v>0</v>
@@ -16549,7 +16526,7 @@
         <v>1</v>
       </c>
       <c r="P148" s="4" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="Q148" s="4" t="s">
         <v>1223</v>
@@ -16599,19 +16576,19 @@
         <v>146</v>
       </c>
       <c r="B149" s="4">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G149" s="4">
         <v>0</v>
@@ -16633,7 +16610,7 @@
         <v>1</v>
       </c>
       <c r="P149" s="4" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="Q149" s="4" t="s">
         <v>1223</v>
@@ -16683,19 +16660,19 @@
         <v>147</v>
       </c>
       <c r="B150" s="4">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>550</v>
+        <v>544</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G150" s="4">
         <v>0</v>
@@ -16717,7 +16694,7 @@
         <v>1</v>
       </c>
       <c r="P150" s="4" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="Q150" s="4" t="s">
         <v>1223</v>
@@ -16767,19 +16744,19 @@
         <v>148</v>
       </c>
       <c r="B151" s="4">
-        <v>10007</v>
+        <v>10005</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>553</v>
+        <v>547</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>547</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G151" s="4">
         <v>0</v>
@@ -16801,7 +16778,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="4" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="Q151" s="4" t="s">
         <v>1223</v>
@@ -16851,19 +16828,19 @@
         <v>149</v>
       </c>
       <c r="B152" s="4">
-        <v>10008</v>
+        <v>10006</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G152" s="4">
         <v>0</v>
@@ -16885,7 +16862,7 @@
         <v>1</v>
       </c>
       <c r="P152" s="4" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q152" s="4" t="s">
         <v>1223</v>
@@ -16935,19 +16912,19 @@
         <v>150</v>
       </c>
       <c r="B153" s="4">
-        <v>10009</v>
+        <v>10007</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G153" s="4">
         <v>0</v>
@@ -16969,7 +16946,7 @@
         <v>1</v>
       </c>
       <c r="P153" s="4" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="Q153" s="4" t="s">
         <v>1223</v>
@@ -17019,19 +16996,19 @@
         <v>151</v>
       </c>
       <c r="B154" s="4">
-        <v>10010</v>
+        <v>10008</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>562</v>
+        <v>556</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>556</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G154" s="4">
         <v>0</v>
@@ -17053,7 +17030,7 @@
         <v>1</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>564</v>
+        <v>558</v